--- a/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
+++ b/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="100">
   <si>
     <t>Powers &amp; Roots</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>missed both A and B construction</t>
+  </si>
+  <si>
+    <t>m.f parallelism.. Restrictions of … X of</t>
+  </si>
+  <si>
+    <t>Nominative absolute..learn it</t>
   </si>
 </sst>
 </file>
@@ -3531,158 +3537,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3711,6 +3571,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3728,7 +3591,187 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3781,43 +3824,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4598,10 +4604,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="81"/>
@@ -4625,10 +4631,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
       <c r="F3" s="91" t="s">
         <v>62</v>
       </c>
@@ -4654,10 +4660,10 @@
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="316"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
+      <c r="B4" s="304"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
       <c r="F4" s="50" t="s">
         <v>64</v>
       </c>
@@ -4683,10 +4689,10 @@
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
       <c r="F5" s="50" t="s">
         <v>63</v>
       </c>
@@ -4712,25 +4718,25 @@
     </row>
     <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="316"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="320" t="s">
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="318" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="321"/>
-      <c r="H6" s="321"/>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="321"/>
-      <c r="L6" s="321"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="322"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
+      <c r="R6" s="320"/>
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
@@ -4741,10 +4747,10 @@
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
-      <c r="B7" s="316"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
       <c r="F7" s="221" t="s">
         <v>61</v>
       </c>
@@ -4770,10 +4776,10 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
       <c r="F8" s="58"/>
       <c r="G8" s="55"/>
       <c r="H8" s="144"/>
@@ -4798,28 +4804,28 @@
     <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="317" t="s">
+      <c r="D9" s="313" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="318"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="317" t="s">
+      <c r="E9" s="314"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="318"/>
-      <c r="I9" s="319"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="315"/>
       <c r="J9" s="59"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="323" t="s">
+      <c r="L9" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="324"/>
-      <c r="N9" s="303" t="s">
+      <c r="M9" s="322"/>
+      <c r="N9" s="328" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="304"/>
-      <c r="P9" s="304"/>
-      <c r="Q9" s="305"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="330"/>
       <c r="R9" s="72"/>
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
@@ -4831,10 +4837,10 @@
     </row>
     <row r="10" spans="1:25" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95"/>
-      <c r="B10" s="314" t="s">
+      <c r="B10" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="315"/>
+      <c r="C10" s="337"/>
       <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
@@ -4857,8 +4863,8 @@
         <v>11</v>
       </c>
       <c r="K10" s="85"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="309"/>
+      <c r="L10" s="332"/>
+      <c r="M10" s="333"/>
       <c r="N10" s="92" t="s">
         <v>60</v>
       </c>
@@ -4882,10 +4888,10 @@
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="277"/>
+      <c r="C11" s="299"/>
       <c r="D11" s="24">
         <f t="shared" ref="D11:D19" si="0">SUMIF($AU:$AU,$B11,$AT:$AT)</f>
         <v>0</v>
@@ -4915,13 +4921,13 @@
         <v/>
       </c>
       <c r="K11" s="60"/>
-      <c r="L11" s="339" t="s">
+      <c r="L11" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
+      <c r="M11" s="293"/>
+      <c r="N11" s="293"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="293"/>
       <c r="Q11" s="208"/>
       <c r="R11" s="63"/>
       <c r="S11" s="48"/>
@@ -4934,10 +4940,10 @@
     </row>
     <row r="12" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="345"/>
+      <c r="B12" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="301"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4967,10 +4973,10 @@
         <v/>
       </c>
       <c r="K12" s="60"/>
-      <c r="L12" s="310" t="s">
+      <c r="L12" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="311"/>
+      <c r="M12" s="312"/>
       <c r="N12" s="207"/>
       <c r="O12" s="207"/>
       <c r="P12" s="207"/>
@@ -4986,10 +4992,10 @@
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="298"/>
+      <c r="C13" s="303"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5019,10 +5025,10 @@
         <v/>
       </c>
       <c r="K13" s="60"/>
-      <c r="L13" s="310" t="s">
+      <c r="L13" s="311" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="311"/>
+      <c r="M13" s="312"/>
       <c r="N13" s="209"/>
       <c r="O13" s="209"/>
       <c r="P13" s="209"/>
@@ -5038,10 +5044,10 @@
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="279"/>
+      <c r="C14" s="317"/>
       <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5071,13 +5077,13 @@
         <v/>
       </c>
       <c r="K14" s="60"/>
-      <c r="L14" s="341" t="s">
+      <c r="L14" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="342"/>
-      <c r="N14" s="342"/>
-      <c r="O14" s="342"/>
-      <c r="P14" s="342"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="295"/>
+      <c r="P14" s="295"/>
       <c r="Q14" s="208"/>
       <c r="R14" s="63"/>
       <c r="S14" s="48"/>
@@ -5090,10 +5096,10 @@
     </row>
     <row r="15" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="305" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="281"/>
+      <c r="C15" s="306"/>
       <c r="D15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5123,10 +5129,10 @@
         <v/>
       </c>
       <c r="K15" s="60"/>
-      <c r="L15" s="310" t="s">
+      <c r="L15" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="311"/>
+      <c r="M15" s="312"/>
       <c r="N15" s="207"/>
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
@@ -5142,10 +5148,10 @@
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="297"/>
+      <c r="C16" s="308"/>
       <c r="D16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5175,10 +5181,10 @@
         <v/>
       </c>
       <c r="K16" s="60"/>
-      <c r="L16" s="325" t="s">
+      <c r="L16" s="323" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="326"/>
+      <c r="M16" s="324"/>
       <c r="N16" s="205"/>
       <c r="O16" s="205"/>
       <c r="P16" s="205"/>
@@ -5194,10 +5200,10 @@
     </row>
     <row r="17" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="283" t="s">
+      <c r="B17" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="284"/>
+      <c r="C17" s="310"/>
       <c r="D17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5227,11 +5233,11 @@
         <v/>
       </c>
       <c r="K17" s="85"/>
-      <c r="L17" s="336"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="338"/>
+      <c r="L17" s="289"/>
+      <c r="M17" s="290"/>
+      <c r="N17" s="290"/>
+      <c r="O17" s="290"/>
+      <c r="P17" s="291"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="63"/>
       <c r="S17" s="48"/>
@@ -5244,10 +5250,10 @@
     </row>
     <row r="18" spans="1:59" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="291"/>
+      <c r="C18" s="339"/>
       <c r="D18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5277,8 +5283,8 @@
         <v/>
       </c>
       <c r="K18" s="85"/>
-      <c r="L18" s="307"/>
-      <c r="M18" s="307"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="288"/>
       <c r="N18" s="214"/>
       <c r="O18" s="214"/>
       <c r="P18" s="215"/>
@@ -5294,10 +5300,10 @@
     </row>
     <row r="19" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="334" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="313"/>
+      <c r="C19" s="335"/>
       <c r="D19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5327,8 +5333,8 @@
         <v/>
       </c>
       <c r="K19" s="85"/>
-      <c r="L19" s="307"/>
-      <c r="M19" s="307"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
       <c r="N19" s="216"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
@@ -5350,15 +5356,15 @@
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="328"/>
-      <c r="J20" s="328"/>
-      <c r="K20" s="329"/>
-      <c r="L20" s="343"/>
-      <c r="M20" s="344"/>
-      <c r="N20" s="344"/>
-      <c r="O20" s="344"/>
-      <c r="P20" s="344"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="281"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="297"/>
+      <c r="N20" s="297"/>
+      <c r="O20" s="297"/>
+      <c r="P20" s="297"/>
       <c r="Q20" s="125"/>
       <c r="R20" s="63"/>
       <c r="S20" s="48"/>
@@ -5379,12 +5385,12 @@
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="88"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="331"/>
-      <c r="J21" s="331"/>
-      <c r="K21" s="332"/>
-      <c r="L21" s="307"/>
-      <c r="M21" s="307"/>
+      <c r="H21" s="282"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="288"/>
       <c r="N21" s="214"/>
       <c r="O21" s="214"/>
       <c r="P21" s="215"/>
@@ -5406,12 +5412,12 @@
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="333"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
-      <c r="K22" s="335"/>
-      <c r="L22" s="307"/>
-      <c r="M22" s="307"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="286"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="288"/>
       <c r="N22" s="214"/>
       <c r="O22" s="214"/>
       <c r="P22" s="215"/>
@@ -5427,19 +5433,19 @@
     </row>
     <row r="23" spans="1:59" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
-      <c r="B23" s="300" t="s">
+      <c r="B23" s="325" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="306"/>
-      <c r="G23" s="300" t="s">
+      <c r="C23" s="326"/>
+      <c r="D23" s="326"/>
+      <c r="E23" s="327"/>
+      <c r="F23" s="331"/>
+      <c r="G23" s="325" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="301"/>
-      <c r="I23" s="301"/>
-      <c r="J23" s="302"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="327"/>
       <c r="K23" s="72"/>
       <c r="L23" s="218"/>
       <c r="M23" s="219"/>
@@ -5476,7 +5482,7 @@
       <c r="E24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="306"/>
+      <c r="F24" s="331"/>
       <c r="G24" s="43" t="s">
         <v>14</v>
       </c>
@@ -5567,10 +5573,10 @@
         <f>IF(C25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU25" s="276" t="s">
+      <c r="AU25" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV25" s="277"/>
+      <c r="AV25" s="299"/>
       <c r="AW25">
         <v>1</v>
       </c>
@@ -5582,10 +5588,10 @@
         <f>IF(H25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="276" t="s">
+      <c r="AZ25" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA25" s="286"/>
+      <c r="BA25" s="343"/>
       <c r="BB25" s="243">
         <v>1</v>
       </c>
@@ -5639,10 +5645,10 @@
         <f t="shared" ref="AT26:AT89" si="8">IF(C26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="276" t="s">
+      <c r="AU26" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV26" s="277"/>
+      <c r="AV26" s="299"/>
       <c r="AW26">
         <f>AW25+1</f>
         <v>2</v>
@@ -5655,10 +5661,10 @@
         <f t="shared" ref="AY26:AY89" si="10">IF(H26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ26" s="282" t="s">
+      <c r="AZ26" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA26" s="285"/>
+      <c r="BA26" s="344"/>
       <c r="BB26" s="244">
         <f>BB25+1</f>
         <v>2</v>
@@ -5714,10 +5720,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="282" t="s">
+      <c r="AU27" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV27" s="281"/>
+      <c r="AV27" s="306"/>
       <c r="AW27">
         <f t="shared" ref="AW27:AW90" si="13">AW26+1</f>
         <v>3</v>
@@ -5730,10 +5736,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ27" s="280" t="s">
+      <c r="AZ27" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA27" s="285"/>
+      <c r="BA27" s="344"/>
       <c r="BB27" s="244">
         <f t="shared" ref="BB27:BC90" si="14">BB26+1</f>
         <v>3</v>
@@ -5792,10 +5798,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU28" s="282" t="s">
+      <c r="AU28" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV28" s="281"/>
+      <c r="AV28" s="306"/>
       <c r="AW28">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -5808,10 +5814,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ28" s="282" t="s">
+      <c r="AZ28" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA28" s="285"/>
+      <c r="BA28" s="344"/>
       <c r="BB28" s="244">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -5820,10 +5826,10 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="BF28" s="276" t="s">
+      <c r="BF28" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BG28" s="277"/>
+      <c r="BG28" s="299"/>
     </row>
     <row r="29" spans="1:59" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
@@ -5871,10 +5877,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU29" s="292" t="s">
+      <c r="AU29" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV29" s="281"/>
+      <c r="AV29" s="306"/>
       <c r="AW29">
         <f>AW28+1</f>
         <v>5</v>
@@ -5887,10 +5893,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ29" s="276" t="s">
+      <c r="AZ29" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA29" s="286"/>
+      <c r="BA29" s="343"/>
       <c r="BB29" s="244">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -5899,10 +5905,10 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="BF29" s="278" t="s">
+      <c r="BF29" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BG29" s="279"/>
+      <c r="BG29" s="317"/>
     </row>
     <row r="30" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -5966,10 +5972,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ30" s="292" t="s">
+      <c r="AZ30" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA30" s="285"/>
+      <c r="BA30" s="344"/>
       <c r="BB30" s="244">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -5978,10 +5984,10 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="BF30" s="280" t="s">
+      <c r="BF30" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BG30" s="281"/>
+      <c r="BG30" s="306"/>
     </row>
     <row r="31" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
@@ -6029,10 +6035,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU31" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="281"/>
+      <c r="AU31" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="306"/>
       <c r="AW31">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -6045,10 +6051,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ31" s="287" t="s">
+      <c r="AZ31" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BA31" s="296"/>
+      <c r="BA31" s="346"/>
       <c r="BB31" s="244">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -6057,10 +6063,10 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="BF31" s="282" t="s">
+      <c r="BF31" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BG31" s="281"/>
+      <c r="BG31" s="306"/>
     </row>
     <row r="32" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
@@ -6108,10 +6114,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU32" s="287" t="s">
+      <c r="AU32" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV32" s="288"/>
+      <c r="AV32" s="341"/>
       <c r="AW32">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -6124,10 +6130,10 @@
         <f>IF(H32&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="282" t="s">
+      <c r="AZ32" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA32" s="285"/>
+      <c r="BA32" s="344"/>
       <c r="BB32" s="244">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -6136,10 +6142,10 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="BF32" s="292" t="s">
+      <c r="BF32" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BG32" s="281"/>
+      <c r="BG32" s="306"/>
     </row>
     <row r="33" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
@@ -6187,10 +6193,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU33" s="276" t="s">
+      <c r="AU33" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="277"/>
+      <c r="AV33" s="299"/>
       <c r="AW33">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -6203,10 +6209,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ33" s="280" t="s">
+      <c r="AZ33" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA33" s="285"/>
+      <c r="BA33" s="344"/>
       <c r="BB33" s="244">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -6215,10 +6221,10 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="BF33" s="283" t="s">
+      <c r="BF33" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BG33" s="284"/>
+      <c r="BG33" s="310"/>
     </row>
     <row r="34" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
@@ -6266,10 +6272,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU34" s="283" t="s">
+      <c r="AU34" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV34" s="284"/>
+      <c r="AV34" s="310"/>
       <c r="AW34">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -6282,10 +6288,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ34" s="276" t="s">
+      <c r="AZ34" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA34" s="286"/>
+      <c r="BA34" s="343"/>
       <c r="BB34" s="244">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -6294,10 +6300,10 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="BF34" s="287" t="s">
+      <c r="BF34" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BG34" s="288"/>
+      <c r="BG34" s="341"/>
     </row>
     <row r="35" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
@@ -6345,10 +6351,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU35" s="276" t="s">
+      <c r="AU35" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV35" s="277"/>
+      <c r="AV35" s="299"/>
       <c r="AW35">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -6361,10 +6367,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ35" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="285"/>
+      <c r="AZ35" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="344"/>
       <c r="BB35" s="244">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -6373,10 +6379,10 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="BF35" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="281"/>
+      <c r="BF35" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="306"/>
     </row>
     <row r="36" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -6424,10 +6430,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU36" s="278" t="s">
+      <c r="AU36" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV36" s="279"/>
+      <c r="AV36" s="317"/>
       <c r="AW36">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -6440,10 +6446,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ36" s="282" t="s">
+      <c r="AZ36" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA36" s="285"/>
+      <c r="BA36" s="344"/>
       <c r="BB36" s="244">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -6452,10 +6458,10 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="BF36" s="290" t="s">
+      <c r="BF36" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="BG36" s="291"/>
+      <c r="BG36" s="339"/>
     </row>
     <row r="37" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
@@ -6503,10 +6509,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU37" s="278" t="s">
+      <c r="AU37" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV37" s="279"/>
+      <c r="AV37" s="317"/>
       <c r="AW37">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -6519,10 +6525,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ37" s="282" t="s">
+      <c r="AZ37" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA37" s="285"/>
+      <c r="BA37" s="344"/>
       <c r="BB37" s="244">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -6594,10 +6600,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="283" t="s">
+      <c r="AZ38" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA38" s="293"/>
+      <c r="BA38" s="347"/>
       <c r="BB38" s="244">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -6653,10 +6659,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU39" s="283" t="s">
+      <c r="AU39" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV39" s="284"/>
+      <c r="AV39" s="310"/>
       <c r="AW39">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -6669,10 +6675,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="282" t="s">
+      <c r="AZ39" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA39" s="285"/>
+      <c r="BA39" s="344"/>
       <c r="BB39" s="244">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -6728,10 +6734,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="292" t="s">
+      <c r="AU40" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV40" s="281"/>
+      <c r="AV40" s="306"/>
       <c r="AW40">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -6744,10 +6750,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="292" t="s">
+      <c r="AZ40" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA40" s="285"/>
+      <c r="BA40" s="344"/>
       <c r="BB40" s="244">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -6803,10 +6809,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU41" s="292" t="s">
+      <c r="AU41" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV41" s="281"/>
+      <c r="AV41" s="306"/>
       <c r="AW41">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -6819,10 +6825,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ41" s="282" t="s">
+      <c r="AZ41" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA41" s="285"/>
+      <c r="BA41" s="344"/>
       <c r="BB41" s="244">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -6878,10 +6884,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU42" s="278" t="s">
+      <c r="AU42" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV42" s="279"/>
+      <c r="AV42" s="317"/>
       <c r="AW42">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -6894,10 +6900,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ42" s="292" t="s">
+      <c r="AZ42" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA42" s="285"/>
+      <c r="BA42" s="344"/>
       <c r="BB42" s="244">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -6953,10 +6959,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU43" s="276" t="s">
+      <c r="AU43" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV43" s="277"/>
+      <c r="AV43" s="299"/>
       <c r="AW43">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -6969,10 +6975,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ43" s="282" t="s">
+      <c r="AZ43" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA43" s="285"/>
+      <c r="BA43" s="344"/>
       <c r="BB43" s="244">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -7028,10 +7034,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU44" s="283" t="s">
+      <c r="AU44" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV44" s="284"/>
+      <c r="AV44" s="310"/>
       <c r="AW44">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -7044,10 +7050,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ44" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="285"/>
+      <c r="AZ44" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="344"/>
       <c r="BB44" s="244">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -7103,10 +7109,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU45" s="292" t="s">
+      <c r="AU45" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV45" s="281"/>
+      <c r="AV45" s="306"/>
       <c r="AW45">
         <f t="shared" si="13"/>
         <v>21</v>
@@ -7119,10 +7125,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ45" s="276" t="s">
+      <c r="AZ45" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA45" s="286"/>
+      <c r="BA45" s="343"/>
       <c r="BB45" s="244">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -7178,10 +7184,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU46" s="276" t="s">
+      <c r="AU46" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV46" s="277"/>
+      <c r="AV46" s="299"/>
       <c r="AW46">
         <f t="shared" si="13"/>
         <v>22</v>
@@ -7194,10 +7200,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ46" s="282" t="s">
+      <c r="AZ46" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA46" s="285"/>
+      <c r="BA46" s="344"/>
       <c r="BB46" s="244">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -7253,10 +7259,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU47" s="278" t="s">
+      <c r="AU47" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV47" s="279"/>
+      <c r="AV47" s="317"/>
       <c r="AW47">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -7269,10 +7275,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ47" s="282" t="s">
+      <c r="AZ47" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA47" s="285"/>
+      <c r="BA47" s="344"/>
       <c r="BB47" s="244">
         <f t="shared" si="14"/>
         <v>23</v>
@@ -7328,10 +7334,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU48" s="276" t="s">
+      <c r="AU48" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV48" s="277"/>
+      <c r="AV48" s="299"/>
       <c r="AW48">
         <f t="shared" si="13"/>
         <v>24</v>
@@ -7344,10 +7350,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ48" s="276" t="s">
+      <c r="AZ48" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA48" s="286"/>
+      <c r="BA48" s="343"/>
       <c r="BB48" s="244">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -7403,10 +7409,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU49" s="292" t="s">
+      <c r="AU49" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV49" s="281"/>
+      <c r="AV49" s="306"/>
       <c r="AW49">
         <f t="shared" si="13"/>
         <v>25</v>
@@ -7419,10 +7425,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ49" s="282" t="s">
+      <c r="AZ49" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA49" s="285"/>
+      <c r="BA49" s="344"/>
       <c r="BB49" s="244">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -7478,10 +7484,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU50" s="276" t="s">
+      <c r="AU50" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV50" s="277"/>
+      <c r="AV50" s="299"/>
       <c r="AW50">
         <f t="shared" si="13"/>
         <v>26</v>
@@ -7494,10 +7500,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ50" s="278" t="s">
+      <c r="AZ50" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA50" s="294"/>
+      <c r="BA50" s="345"/>
       <c r="BB50" s="244">
         <f t="shared" si="14"/>
         <v>26</v>
@@ -7553,10 +7559,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU51" s="276" t="s">
+      <c r="AU51" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV51" s="277"/>
+      <c r="AV51" s="299"/>
       <c r="AW51">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -7569,10 +7575,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ51" s="292" t="s">
+      <c r="AZ51" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA51" s="285"/>
+      <c r="BA51" s="344"/>
       <c r="BB51" s="244">
         <f t="shared" si="14"/>
         <v>27</v>
@@ -7628,10 +7634,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU52" s="276" t="s">
+      <c r="AU52" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV52" s="277"/>
+      <c r="AV52" s="299"/>
       <c r="AW52">
         <f t="shared" si="13"/>
         <v>28</v>
@@ -7644,10 +7650,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ52" s="282" t="s">
+      <c r="AZ52" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA52" s="285"/>
+      <c r="BA52" s="344"/>
       <c r="BB52" s="244">
         <f t="shared" si="14"/>
         <v>28</v>
@@ -7703,10 +7709,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU53" s="276" t="s">
+      <c r="AU53" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV53" s="277"/>
+      <c r="AV53" s="299"/>
       <c r="AW53">
         <f t="shared" si="13"/>
         <v>29</v>
@@ -7719,10 +7725,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ53" s="276" t="s">
+      <c r="AZ53" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA53" s="286"/>
+      <c r="BA53" s="343"/>
       <c r="BB53" s="244">
         <f t="shared" si="14"/>
         <v>29</v>
@@ -7778,10 +7784,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU54" s="276" t="s">
+      <c r="AU54" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV54" s="277"/>
+      <c r="AV54" s="299"/>
       <c r="AW54">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -7794,10 +7800,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ54" s="282" t="s">
+      <c r="AZ54" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA54" s="285"/>
+      <c r="BA54" s="344"/>
       <c r="BB54" s="244">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -7853,10 +7859,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU55" s="278" t="s">
+      <c r="AU55" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV55" s="279"/>
+      <c r="AV55" s="317"/>
       <c r="AW55">
         <f t="shared" si="13"/>
         <v>31</v>
@@ -7869,10 +7875,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ55" s="280" t="s">
+      <c r="AZ55" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA55" s="285"/>
+      <c r="BA55" s="344"/>
       <c r="BB55" s="244">
         <f t="shared" si="14"/>
         <v>31</v>
@@ -7928,10 +7934,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU56" s="283" t="s">
+      <c r="AU56" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV56" s="284"/>
+      <c r="AV56" s="310"/>
       <c r="AW56">
         <f t="shared" si="13"/>
         <v>32</v>
@@ -7944,10 +7950,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ56" s="282" t="s">
+      <c r="AZ56" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA56" s="285"/>
+      <c r="BA56" s="344"/>
       <c r="BB56" s="244">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -8003,10 +8009,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU57" s="278" t="s">
+      <c r="AU57" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV57" s="279"/>
+      <c r="AV57" s="317"/>
       <c r="AW57">
         <f t="shared" si="13"/>
         <v>33</v>
@@ -8019,10 +8025,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ57" s="282" t="s">
+      <c r="AZ57" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA57" s="285"/>
+      <c r="BA57" s="344"/>
       <c r="BB57" s="244">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -8078,10 +8084,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU58" s="276" t="s">
+      <c r="AU58" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV58" s="277"/>
+      <c r="AV58" s="299"/>
       <c r="AW58">
         <f t="shared" si="13"/>
         <v>34</v>
@@ -8094,10 +8100,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ58" s="276" t="s">
+      <c r="AZ58" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA58" s="286"/>
+      <c r="BA58" s="343"/>
       <c r="BB58" s="244">
         <f t="shared" si="14"/>
         <v>34</v>
@@ -8153,10 +8159,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU59" s="280" t="s">
+      <c r="AU59" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV59" s="281"/>
+      <c r="AV59" s="306"/>
       <c r="AW59">
         <f t="shared" si="13"/>
         <v>35</v>
@@ -8169,10 +8175,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ59" s="276" t="s">
+      <c r="AZ59" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA59" s="286"/>
+      <c r="BA59" s="343"/>
       <c r="BB59" s="244">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -8228,10 +8234,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU60" s="276" t="s">
+      <c r="AU60" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV60" s="277"/>
+      <c r="AV60" s="299"/>
       <c r="AW60">
         <f t="shared" si="13"/>
         <v>36</v>
@@ -8244,10 +8250,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ60" s="280" t="s">
+      <c r="AZ60" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA60" s="285"/>
+      <c r="BA60" s="344"/>
       <c r="BB60" s="244">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -8303,10 +8309,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU61" s="282" t="s">
+      <c r="AU61" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV61" s="281"/>
+      <c r="AV61" s="306"/>
       <c r="AW61">
         <f t="shared" si="13"/>
         <v>37</v>
@@ -8319,10 +8325,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ61" s="292" t="s">
+      <c r="AZ61" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA61" s="285"/>
+      <c r="BA61" s="344"/>
       <c r="BB61" s="244">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -8378,10 +8384,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU62" s="280" t="s">
+      <c r="AU62" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV62" s="281"/>
+      <c r="AV62" s="306"/>
       <c r="AW62">
         <f t="shared" si="13"/>
         <v>38</v>
@@ -8394,10 +8400,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ62" s="292" t="s">
+      <c r="AZ62" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA62" s="285"/>
+      <c r="BA62" s="344"/>
       <c r="BB62" s="244">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -8453,10 +8459,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU63" s="282" t="s">
+      <c r="AU63" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV63" s="281"/>
+      <c r="AV63" s="306"/>
       <c r="AW63">
         <f t="shared" si="13"/>
         <v>39</v>
@@ -8469,10 +8475,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ63" s="292" t="s">
+      <c r="AZ63" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA63" s="285"/>
+      <c r="BA63" s="344"/>
       <c r="BB63" s="244">
         <f t="shared" si="14"/>
         <v>39</v>
@@ -8528,10 +8534,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU64" s="282" t="s">
+      <c r="AU64" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV64" s="281"/>
+      <c r="AV64" s="306"/>
       <c r="AW64">
         <f t="shared" si="13"/>
         <v>40</v>
@@ -8544,10 +8550,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ64" s="276" t="s">
+      <c r="AZ64" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA64" s="286"/>
+      <c r="BA64" s="343"/>
       <c r="BB64" s="244">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -8603,10 +8609,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU65" s="278" t="s">
+      <c r="AU65" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV65" s="279"/>
+      <c r="AV65" s="317"/>
       <c r="AW65">
         <f t="shared" si="13"/>
         <v>41</v>
@@ -8619,10 +8625,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ65" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="285"/>
+      <c r="AZ65" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="344"/>
       <c r="BB65" s="244">
         <f t="shared" si="14"/>
         <v>41</v>
@@ -8678,10 +8684,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU66" s="292" t="s">
+      <c r="AU66" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV66" s="298"/>
+      <c r="AV66" s="303"/>
       <c r="AW66">
         <f t="shared" si="13"/>
         <v>42</v>
@@ -8694,10 +8700,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ66" s="292" t="s">
+      <c r="AZ66" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA66" s="285"/>
+      <c r="BA66" s="344"/>
       <c r="BB66" s="244">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -8753,10 +8759,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU67" s="280" t="s">
+      <c r="AU67" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV67" s="281"/>
+      <c r="AV67" s="306"/>
       <c r="AW67">
         <f t="shared" si="13"/>
         <v>43</v>
@@ -8769,10 +8775,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ67" s="282" t="s">
+      <c r="AZ67" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA67" s="285"/>
+      <c r="BA67" s="344"/>
       <c r="BB67" s="244">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -8828,10 +8834,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU68" s="292" t="s">
+      <c r="AU68" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV68" s="281"/>
+      <c r="AV68" s="306"/>
       <c r="AW68">
         <f t="shared" si="13"/>
         <v>44</v>
@@ -8844,10 +8850,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ68" s="278" t="s">
+      <c r="AZ68" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA68" s="294"/>
+      <c r="BA68" s="345"/>
       <c r="BB68" s="244">
         <f t="shared" si="14"/>
         <v>44</v>
@@ -8903,10 +8909,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU69" s="278" t="s">
+      <c r="AU69" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV69" s="279"/>
+      <c r="AV69" s="317"/>
       <c r="AW69">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -8919,10 +8925,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ69" s="283" t="s">
+      <c r="AZ69" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA69" s="293"/>
+      <c r="BA69" s="347"/>
       <c r="BB69" s="244">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -8978,10 +8984,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU70" s="276" t="s">
+      <c r="AU70" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV70" s="277"/>
+      <c r="AV70" s="299"/>
       <c r="AW70">
         <f t="shared" si="13"/>
         <v>46</v>
@@ -8994,10 +9000,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ70" s="282" t="s">
+      <c r="AZ70" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA70" s="285"/>
+      <c r="BA70" s="344"/>
       <c r="BB70" s="244">
         <f t="shared" si="14"/>
         <v>46</v>
@@ -9053,10 +9059,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU71" s="292" t="s">
+      <c r="AU71" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV71" s="298"/>
+      <c r="AV71" s="303"/>
       <c r="AW71">
         <f t="shared" si="13"/>
         <v>47</v>
@@ -9069,10 +9075,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ71" s="283" t="s">
+      <c r="AZ71" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA71" s="293"/>
+      <c r="BA71" s="347"/>
       <c r="BB71" s="244">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -9128,10 +9134,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU72" s="280" t="s">
+      <c r="AU72" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV72" s="281"/>
+      <c r="AV72" s="306"/>
       <c r="AW72">
         <f t="shared" si="13"/>
         <v>48</v>
@@ -9144,10 +9150,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ72" s="282" t="s">
+      <c r="AZ72" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA72" s="285"/>
+      <c r="BA72" s="344"/>
       <c r="BB72" s="244">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -9203,10 +9209,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU73" s="276" t="s">
+      <c r="AU73" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV73" s="277"/>
+      <c r="AV73" s="299"/>
       <c r="AW73">
         <f t="shared" si="13"/>
         <v>49</v>
@@ -9219,10 +9225,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ73" s="278" t="s">
+      <c r="AZ73" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA73" s="294"/>
+      <c r="BA73" s="345"/>
       <c r="BB73" s="244">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -9278,10 +9284,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU74" s="282" t="s">
+      <c r="AU74" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV74" s="281"/>
+      <c r="AV74" s="306"/>
       <c r="AW74">
         <f t="shared" si="13"/>
         <v>50</v>
@@ -9294,10 +9300,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ74" s="287" t="s">
+      <c r="AZ74" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BA74" s="296"/>
+      <c r="BA74" s="346"/>
       <c r="BB74" s="244">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -9353,10 +9359,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU75" s="276" t="s">
+      <c r="AU75" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV75" s="277"/>
+      <c r="AV75" s="299"/>
       <c r="AW75">
         <f t="shared" si="13"/>
         <v>51</v>
@@ -9369,10 +9375,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ75" s="278" t="s">
+      <c r="AZ75" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA75" s="294"/>
+      <c r="BA75" s="345"/>
       <c r="BB75" s="244">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -9428,10 +9434,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU76" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="281"/>
+      <c r="AU76" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="306"/>
       <c r="AW76">
         <f t="shared" si="13"/>
         <v>52</v>
@@ -9444,10 +9450,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ76" s="282" t="s">
+      <c r="AZ76" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA76" s="285"/>
+      <c r="BA76" s="344"/>
       <c r="BB76" s="244">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -9503,10 +9509,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU77" s="292" t="s">
+      <c r="AU77" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV77" s="281"/>
+      <c r="AV77" s="306"/>
       <c r="AW77">
         <f t="shared" si="13"/>
         <v>53</v>
@@ -9519,10 +9525,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ77" s="292" t="s">
+      <c r="AZ77" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA77" s="285"/>
+      <c r="BA77" s="344"/>
       <c r="BB77" s="244">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -9578,10 +9584,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU78" s="292" t="s">
+      <c r="AU78" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV78" s="298"/>
+      <c r="AV78" s="303"/>
       <c r="AW78">
         <f t="shared" si="13"/>
         <v>54</v>
@@ -9594,10 +9600,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ78" s="292" t="s">
+      <c r="AZ78" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA78" s="285"/>
+      <c r="BA78" s="344"/>
       <c r="BB78" s="244">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -9653,10 +9659,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU79" s="282" t="s">
+      <c r="AU79" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV79" s="281"/>
+      <c r="AV79" s="306"/>
       <c r="AW79">
         <f t="shared" si="13"/>
         <v>55</v>
@@ -9669,10 +9675,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ79" s="282" t="s">
+      <c r="AZ79" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA79" s="285"/>
+      <c r="BA79" s="344"/>
       <c r="BB79" s="244">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -9728,10 +9734,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU80" s="282" t="s">
+      <c r="AU80" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV80" s="281"/>
+      <c r="AV80" s="306"/>
       <c r="AW80">
         <f t="shared" si="13"/>
         <v>56</v>
@@ -9744,10 +9750,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ80" s="278" t="s">
+      <c r="AZ80" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA80" s="294"/>
+      <c r="BA80" s="345"/>
       <c r="BB80" s="244">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -9803,10 +9809,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU81" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV81" s="281"/>
+      <c r="AU81" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="306"/>
       <c r="AW81">
         <f t="shared" si="13"/>
         <v>57</v>
@@ -9819,10 +9825,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ81" s="282" t="s">
+      <c r="AZ81" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA81" s="285"/>
+      <c r="BA81" s="344"/>
       <c r="BB81" s="244">
         <f t="shared" si="14"/>
         <v>57</v>
@@ -9878,10 +9884,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU82" s="282" t="s">
+      <c r="AU82" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV82" s="281"/>
+      <c r="AV82" s="306"/>
       <c r="AW82">
         <f t="shared" si="13"/>
         <v>58</v>
@@ -9894,10 +9900,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ82" s="276" t="s">
+      <c r="AZ82" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA82" s="286"/>
+      <c r="BA82" s="343"/>
       <c r="BB82" s="244">
         <f t="shared" si="14"/>
         <v>58</v>
@@ -9953,10 +9959,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU83" s="282" t="s">
+      <c r="AU83" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV83" s="281"/>
+      <c r="AV83" s="306"/>
       <c r="AW83">
         <f t="shared" si="13"/>
         <v>59</v>
@@ -9969,10 +9975,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ83" s="282" t="s">
+      <c r="AZ83" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA83" s="285"/>
+      <c r="BA83" s="344"/>
       <c r="BB83" s="244">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -10028,10 +10034,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU84" s="292" t="s">
+      <c r="AU84" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV84" s="281"/>
+      <c r="AV84" s="306"/>
       <c r="AW84">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -10044,10 +10050,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ84" s="280" t="s">
+      <c r="AZ84" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA84" s="285"/>
+      <c r="BA84" s="344"/>
       <c r="BB84" s="244">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -10103,10 +10109,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU85" s="292" t="s">
+      <c r="AU85" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV85" s="298"/>
+      <c r="AV85" s="303"/>
       <c r="AW85">
         <f t="shared" si="13"/>
         <v>61</v>
@@ -10119,10 +10125,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ85" s="292" t="s">
+      <c r="AZ85" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA85" s="285"/>
+      <c r="BA85" s="344"/>
       <c r="BB85" s="244">
         <f t="shared" si="14"/>
         <v>61</v>
@@ -10178,10 +10184,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU86" s="276" t="s">
+      <c r="AU86" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV86" s="277"/>
+      <c r="AV86" s="299"/>
       <c r="AW86">
         <f t="shared" si="13"/>
         <v>62</v>
@@ -10194,10 +10200,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ86" s="282" t="s">
+      <c r="AZ86" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA86" s="285"/>
+      <c r="BA86" s="344"/>
       <c r="BB86" s="244">
         <f t="shared" si="14"/>
         <v>62</v>
@@ -10253,10 +10259,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU87" s="292" t="s">
+      <c r="AU87" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV87" s="281"/>
+      <c r="AV87" s="306"/>
       <c r="AW87">
         <f t="shared" si="13"/>
         <v>63</v>
@@ -10269,10 +10275,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ87" s="282" t="s">
+      <c r="AZ87" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA87" s="285"/>
+      <c r="BA87" s="344"/>
       <c r="BB87" s="244">
         <f t="shared" si="14"/>
         <v>63</v>
@@ -10328,10 +10334,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU88" s="276" t="s">
+      <c r="AU88" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV88" s="277"/>
+      <c r="AV88" s="299"/>
       <c r="AW88">
         <f t="shared" si="13"/>
         <v>64</v>
@@ -10344,10 +10350,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ88" s="276" t="s">
+      <c r="AZ88" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA88" s="286"/>
+      <c r="BA88" s="343"/>
       <c r="BB88" s="244">
         <f t="shared" si="14"/>
         <v>64</v>
@@ -10403,10 +10409,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU89" s="282" t="s">
+      <c r="AU89" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV89" s="281"/>
+      <c r="AV89" s="306"/>
       <c r="AW89">
         <f t="shared" si="13"/>
         <v>65</v>
@@ -10419,10 +10425,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ89" s="292" t="s">
+      <c r="AZ89" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA89" s="285"/>
+      <c r="BA89" s="344"/>
       <c r="BB89" s="244">
         <f t="shared" si="14"/>
         <v>65</v>
@@ -10478,10 +10484,10 @@
         <f t="shared" ref="AT90:AT153" si="16">IF(C90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU90" s="292" t="s">
+      <c r="AU90" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV90" s="281"/>
+      <c r="AV90" s="306"/>
       <c r="AW90">
         <f t="shared" si="13"/>
         <v>66</v>
@@ -10494,10 +10500,10 @@
         <f t="shared" ref="AY90:AY153" si="18">IF(H90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ90" s="292" t="s">
+      <c r="AZ90" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA90" s="285"/>
+      <c r="BA90" s="344"/>
       <c r="BB90" s="244">
         <f t="shared" si="14"/>
         <v>66</v>
@@ -10553,10 +10559,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU91" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV91" s="281"/>
+      <c r="AU91" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="306"/>
       <c r="AW91">
         <f t="shared" ref="AW91:AW154" si="21">AW90+1</f>
         <v>67</v>
@@ -10569,10 +10575,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ91" s="282" t="s">
+      <c r="AZ91" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA91" s="285"/>
+      <c r="BA91" s="344"/>
       <c r="BB91" s="244">
         <f t="shared" ref="BB91:BC154" si="22">BB90+1</f>
         <v>67</v>
@@ -10628,10 +10634,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU92" s="292" t="s">
+      <c r="AU92" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV92" s="281"/>
+      <c r="AV92" s="306"/>
       <c r="AW92">
         <f t="shared" si="21"/>
         <v>68</v>
@@ -10644,10 +10650,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ92" s="282" t="s">
+      <c r="AZ92" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA92" s="285"/>
+      <c r="BA92" s="344"/>
       <c r="BB92" s="244">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -10703,10 +10709,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU93" s="282" t="s">
+      <c r="AU93" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV93" s="281"/>
+      <c r="AV93" s="306"/>
       <c r="AW93">
         <f t="shared" si="21"/>
         <v>69</v>
@@ -10719,10 +10725,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ93" s="276" t="s">
+      <c r="AZ93" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA93" s="286"/>
+      <c r="BA93" s="343"/>
       <c r="BB93" s="244">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -10778,10 +10784,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU94" s="278" t="s">
+      <c r="AU94" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV94" s="279"/>
+      <c r="AV94" s="317"/>
       <c r="AW94">
         <f t="shared" si="21"/>
         <v>70</v>
@@ -10794,10 +10800,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ94" s="276" t="s">
+      <c r="AZ94" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA94" s="286"/>
+      <c r="BA94" s="343"/>
       <c r="BB94" s="244">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -10853,10 +10859,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU95" s="282" t="s">
+      <c r="AU95" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV95" s="281"/>
+      <c r="AV95" s="306"/>
       <c r="AW95">
         <f t="shared" si="21"/>
         <v>71</v>
@@ -10869,10 +10875,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ95" s="282" t="s">
+      <c r="AZ95" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA95" s="285"/>
+      <c r="BA95" s="344"/>
       <c r="BB95" s="244">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -10928,10 +10934,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU96" s="276" t="s">
+      <c r="AU96" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV96" s="277"/>
+      <c r="AV96" s="299"/>
       <c r="AW96">
         <f t="shared" si="21"/>
         <v>72</v>
@@ -10944,10 +10950,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ96" s="280" t="s">
+      <c r="AZ96" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA96" s="285"/>
+      <c r="BA96" s="344"/>
       <c r="BB96" s="244">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -11003,10 +11009,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU97" s="278" t="s">
+      <c r="AU97" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV97" s="279"/>
+      <c r="AV97" s="317"/>
       <c r="AW97">
         <f t="shared" si="21"/>
         <v>73</v>
@@ -11019,10 +11025,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ97" s="290" t="s">
+      <c r="AZ97" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="BA97" s="295"/>
+      <c r="BA97" s="348"/>
       <c r="BB97" s="244">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -11078,10 +11084,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU98" s="282" t="s">
+      <c r="AU98" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV98" s="281"/>
+      <c r="AV98" s="306"/>
       <c r="AW98">
         <f t="shared" si="21"/>
         <v>74</v>
@@ -11094,10 +11100,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ98" s="292" t="s">
+      <c r="AZ98" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA98" s="285"/>
+      <c r="BA98" s="344"/>
       <c r="BB98" s="244">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -11153,10 +11159,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU99" s="292" t="s">
+      <c r="AU99" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV99" s="281"/>
+      <c r="AV99" s="306"/>
       <c r="AW99">
         <f t="shared" si="21"/>
         <v>75</v>
@@ -11169,10 +11175,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ99" s="282" t="s">
+      <c r="AZ99" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA99" s="285"/>
+      <c r="BA99" s="344"/>
       <c r="BB99" s="244">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -11228,10 +11234,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU100" s="282" t="s">
+      <c r="AU100" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV100" s="281"/>
+      <c r="AV100" s="306"/>
       <c r="AW100">
         <f t="shared" si="21"/>
         <v>76</v>
@@ -11244,10 +11250,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ100" s="276" t="s">
+      <c r="AZ100" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA100" s="286"/>
+      <c r="BA100" s="343"/>
       <c r="BB100" s="244">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -11303,10 +11309,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU101" s="282" t="s">
+      <c r="AU101" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV101" s="281"/>
+      <c r="AV101" s="306"/>
       <c r="AW101">
         <f t="shared" si="21"/>
         <v>77</v>
@@ -11319,10 +11325,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ101" s="282" t="s">
+      <c r="AZ101" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA101" s="285"/>
+      <c r="BA101" s="344"/>
       <c r="BB101" s="244">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -11378,10 +11384,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU102" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV102" s="281"/>
+      <c r="AU102" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="306"/>
       <c r="AW102">
         <f t="shared" si="21"/>
         <v>78</v>
@@ -11394,10 +11400,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ102" s="276" t="s">
+      <c r="AZ102" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA102" s="286"/>
+      <c r="BA102" s="343"/>
       <c r="BB102" s="244">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -11453,10 +11459,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU103" s="283" t="s">
+      <c r="AU103" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV103" s="284"/>
+      <c r="AV103" s="310"/>
       <c r="AW103">
         <f t="shared" si="21"/>
         <v>79</v>
@@ -11469,10 +11475,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ103" s="282" t="s">
+      <c r="AZ103" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA103" s="285"/>
+      <c r="BA103" s="344"/>
       <c r="BB103" s="244">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -11528,10 +11534,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU104" s="287" t="s">
+      <c r="AU104" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV104" s="288"/>
+      <c r="AV104" s="341"/>
       <c r="AW104">
         <f t="shared" si="21"/>
         <v>80</v>
@@ -11544,10 +11550,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ104" s="276" t="s">
+      <c r="AZ104" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA104" s="286"/>
+      <c r="BA104" s="343"/>
       <c r="BB104" s="244">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -11603,10 +11609,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU105" s="278" t="s">
+      <c r="AU105" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV105" s="279"/>
+      <c r="AV105" s="317"/>
       <c r="AW105">
         <f t="shared" si="21"/>
         <v>81</v>
@@ -11619,10 +11625,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ105" s="292" t="s">
+      <c r="AZ105" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA105" s="285"/>
+      <c r="BA105" s="344"/>
       <c r="BB105" s="244">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -11678,10 +11684,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU106" s="292" t="s">
+      <c r="AU106" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV106" s="281"/>
+      <c r="AV106" s="306"/>
       <c r="AW106">
         <f t="shared" si="21"/>
         <v>82</v>
@@ -11694,10 +11700,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ106" s="282" t="s">
+      <c r="AZ106" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA106" s="285"/>
+      <c r="BA106" s="344"/>
       <c r="BB106" s="244">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -11753,10 +11759,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU107" s="292" t="s">
+      <c r="AU107" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV107" s="281"/>
+      <c r="AV107" s="306"/>
       <c r="AW107">
         <f t="shared" si="21"/>
         <v>83</v>
@@ -11769,10 +11775,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ107" s="276" t="s">
+      <c r="AZ107" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA107" s="286"/>
+      <c r="BA107" s="343"/>
       <c r="BB107" s="244">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -11828,10 +11834,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU108" s="292" t="s">
+      <c r="AU108" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV108" s="281"/>
+      <c r="AV108" s="306"/>
       <c r="AW108">
         <f t="shared" si="21"/>
         <v>84</v>
@@ -11844,10 +11850,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ108" s="282" t="s">
+      <c r="AZ108" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA108" s="285"/>
+      <c r="BA108" s="344"/>
       <c r="BB108" s="244">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -11903,10 +11909,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU109" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV109" s="281"/>
+      <c r="AU109" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="306"/>
       <c r="AW109">
         <f t="shared" si="21"/>
         <v>85</v>
@@ -11919,10 +11925,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ109" s="282" t="s">
+      <c r="AZ109" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA109" s="285"/>
+      <c r="BA109" s="344"/>
       <c r="BB109" s="244">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -11978,10 +11984,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU110" s="278" t="s">
+      <c r="AU110" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV110" s="279"/>
+      <c r="AV110" s="317"/>
       <c r="AW110">
         <f t="shared" si="21"/>
         <v>86</v>
@@ -11994,10 +12000,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ110" s="278" t="s">
+      <c r="AZ110" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA110" s="294"/>
+      <c r="BA110" s="345"/>
       <c r="BB110" s="244">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -12053,10 +12059,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU111" s="276" t="s">
+      <c r="AU111" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV111" s="277"/>
+      <c r="AV111" s="299"/>
       <c r="AW111">
         <f t="shared" si="21"/>
         <v>87</v>
@@ -12069,10 +12075,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ111" s="276" t="s">
+      <c r="AZ111" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA111" s="286"/>
+      <c r="BA111" s="343"/>
       <c r="BB111" s="244">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -12128,10 +12134,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU112" s="283" t="s">
+      <c r="AU112" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV112" s="284"/>
+      <c r="AV112" s="310"/>
       <c r="AW112">
         <f t="shared" si="21"/>
         <v>88</v>
@@ -12144,10 +12150,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ112" s="283" t="s">
+      <c r="AZ112" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA112" s="293"/>
+      <c r="BA112" s="347"/>
       <c r="BB112" s="244">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -12203,10 +12209,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU113" s="282" t="s">
+      <c r="AU113" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV113" s="281"/>
+      <c r="AV113" s="306"/>
       <c r="AW113">
         <f t="shared" si="21"/>
         <v>89</v>
@@ -12219,10 +12225,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ113" s="282" t="s">
+      <c r="AZ113" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA113" s="285"/>
+      <c r="BA113" s="344"/>
       <c r="BB113" s="244">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -12278,10 +12284,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU114" s="282" t="s">
+      <c r="AU114" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV114" s="281"/>
+      <c r="AV114" s="306"/>
       <c r="AW114">
         <f t="shared" si="21"/>
         <v>90</v>
@@ -12294,10 +12300,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ114" s="278" t="s">
+      <c r="AZ114" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA114" s="294"/>
+      <c r="BA114" s="345"/>
       <c r="BB114" s="244">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -12353,10 +12359,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU115" s="282" t="s">
+      <c r="AU115" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV115" s="281"/>
+      <c r="AV115" s="306"/>
       <c r="AW115">
         <f t="shared" si="21"/>
         <v>91</v>
@@ -12369,10 +12375,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ115" s="292" t="s">
+      <c r="AZ115" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA115" s="285"/>
+      <c r="BA115" s="344"/>
       <c r="BB115" s="244">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -12428,10 +12434,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU116" s="292" t="s">
+      <c r="AU116" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV116" s="281"/>
+      <c r="AV116" s="306"/>
       <c r="AW116">
         <f t="shared" si="21"/>
         <v>92</v>
@@ -12444,10 +12450,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ116" s="283" t="s">
+      <c r="AZ116" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA116" s="293"/>
+      <c r="BA116" s="347"/>
       <c r="BB116" s="244">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -12503,10 +12509,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU117" s="280" t="s">
+      <c r="AU117" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV117" s="281"/>
+      <c r="AV117" s="306"/>
       <c r="AW117">
         <f t="shared" si="21"/>
         <v>93</v>
@@ -12519,10 +12525,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ117" s="282" t="s">
+      <c r="AZ117" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA117" s="285"/>
+      <c r="BA117" s="344"/>
       <c r="BB117" s="244">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -12578,10 +12584,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU118" s="278" t="s">
+      <c r="AU118" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV118" s="279"/>
+      <c r="AV118" s="317"/>
       <c r="AW118">
         <f t="shared" si="21"/>
         <v>94</v>
@@ -12594,10 +12600,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ118" s="292" t="s">
+      <c r="AZ118" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA118" s="285"/>
+      <c r="BA118" s="344"/>
       <c r="BB118" s="244">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -12653,10 +12659,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU119" s="276" t="s">
+      <c r="AU119" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV119" s="277"/>
+      <c r="AV119" s="299"/>
       <c r="AW119">
         <f t="shared" si="21"/>
         <v>95</v>
@@ -12669,10 +12675,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ119" s="282" t="s">
+      <c r="AZ119" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA119" s="285"/>
+      <c r="BA119" s="344"/>
       <c r="BB119" s="244">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -12728,10 +12734,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU120" s="280" t="s">
+      <c r="AU120" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV120" s="281"/>
+      <c r="AV120" s="306"/>
       <c r="AW120">
         <f t="shared" si="21"/>
         <v>96</v>
@@ -12744,10 +12750,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ120" s="282" t="s">
+      <c r="AZ120" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA120" s="285"/>
+      <c r="BA120" s="344"/>
       <c r="BB120" s="244">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -12803,10 +12809,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU121" s="292" t="s">
+      <c r="AU121" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV121" s="281"/>
+      <c r="AV121" s="306"/>
       <c r="AW121">
         <f t="shared" si="21"/>
         <v>97</v>
@@ -12819,10 +12825,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ121" s="282" t="s">
+      <c r="AZ121" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA121" s="285"/>
+      <c r="BA121" s="344"/>
       <c r="BB121" s="244">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -12878,10 +12884,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU122" s="282" t="s">
+      <c r="AU122" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV122" s="281"/>
+      <c r="AV122" s="306"/>
       <c r="AW122">
         <f t="shared" si="21"/>
         <v>98</v>
@@ -12894,10 +12900,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ122" s="278" t="s">
+      <c r="AZ122" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA122" s="294"/>
+      <c r="BA122" s="345"/>
       <c r="BB122" s="244">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -12953,10 +12959,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU123" s="282" t="s">
+      <c r="AU123" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV123" s="281"/>
+      <c r="AV123" s="306"/>
       <c r="AW123">
         <f t="shared" si="21"/>
         <v>99</v>
@@ -12969,10 +12975,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ123" s="280" t="s">
+      <c r="AZ123" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA123" s="285"/>
+      <c r="BA123" s="344"/>
       <c r="BB123" s="244">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -13028,10 +13034,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU124" s="276" t="s">
+      <c r="AU124" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV124" s="277"/>
+      <c r="AV124" s="299"/>
       <c r="AW124">
         <f t="shared" si="21"/>
         <v>100</v>
@@ -13044,10 +13050,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ124" s="276" t="s">
+      <c r="AZ124" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA124" s="286"/>
+      <c r="BA124" s="343"/>
       <c r="BB124" s="244">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -13103,10 +13109,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU125" s="282" t="s">
+      <c r="AU125" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV125" s="281"/>
+      <c r="AV125" s="306"/>
       <c r="AW125">
         <f t="shared" si="21"/>
         <v>101</v>
@@ -13119,10 +13125,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ125" s="292" t="s">
+      <c r="AZ125" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA125" s="285"/>
+      <c r="BA125" s="344"/>
       <c r="BB125" s="244">
         <f t="shared" si="22"/>
         <v>101</v>
@@ -13178,10 +13184,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU126" s="276" t="s">
+      <c r="AU126" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV126" s="277"/>
+      <c r="AV126" s="299"/>
       <c r="AW126">
         <f t="shared" si="21"/>
         <v>102</v>
@@ -13194,10 +13200,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ126" s="280" t="s">
+      <c r="AZ126" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA126" s="285"/>
+      <c r="BA126" s="344"/>
       <c r="BB126" s="244">
         <f t="shared" si="22"/>
         <v>102</v>
@@ -13253,10 +13259,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU127" s="282" t="s">
+      <c r="AU127" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV127" s="281"/>
+      <c r="AV127" s="306"/>
       <c r="AW127">
         <f t="shared" si="21"/>
         <v>103</v>
@@ -13269,10 +13275,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ127" s="283" t="s">
+      <c r="AZ127" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA127" s="293"/>
+      <c r="BA127" s="347"/>
       <c r="BB127" s="244">
         <f t="shared" si="22"/>
         <v>103</v>
@@ -13328,10 +13334,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU128" s="276" t="s">
+      <c r="AU128" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV128" s="277"/>
+      <c r="AV128" s="299"/>
       <c r="AW128">
         <f t="shared" si="21"/>
         <v>104</v>
@@ -13344,10 +13350,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ128" s="292" t="s">
+      <c r="AZ128" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA128" s="285"/>
+      <c r="BA128" s="344"/>
       <c r="BB128" s="244">
         <f t="shared" si="22"/>
         <v>104</v>
@@ -13403,10 +13409,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU129" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV129" s="281"/>
+      <c r="AU129" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV129" s="306"/>
       <c r="AW129">
         <f t="shared" si="21"/>
         <v>105</v>
@@ -13419,10 +13425,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ129" s="282" t="s">
+      <c r="AZ129" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA129" s="285"/>
+      <c r="BA129" s="344"/>
       <c r="BB129" s="244">
         <f t="shared" si="22"/>
         <v>105</v>
@@ -13478,10 +13484,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU130" s="280" t="s">
+      <c r="AU130" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV130" s="281"/>
+      <c r="AV130" s="306"/>
       <c r="AW130">
         <f t="shared" si="21"/>
         <v>106</v>
@@ -13494,10 +13500,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ130" s="282" t="s">
+      <c r="AZ130" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA130" s="285"/>
+      <c r="BA130" s="344"/>
       <c r="BB130" s="244">
         <f t="shared" si="22"/>
         <v>106</v>
@@ -13553,10 +13559,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU131" s="292" t="s">
+      <c r="AU131" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV131" s="281"/>
+      <c r="AV131" s="306"/>
       <c r="AW131">
         <f t="shared" si="21"/>
         <v>107</v>
@@ -13569,10 +13575,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ131" s="292" t="s">
+      <c r="AZ131" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA131" s="285"/>
+      <c r="BA131" s="344"/>
       <c r="BB131" s="244">
         <f t="shared" si="22"/>
         <v>107</v>
@@ -13628,10 +13634,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU132" s="280" t="s">
+      <c r="AU132" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV132" s="281"/>
+      <c r="AV132" s="306"/>
       <c r="AW132">
         <f t="shared" si="21"/>
         <v>108</v>
@@ -13644,10 +13650,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ132" s="282" t="s">
+      <c r="AZ132" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA132" s="285"/>
+      <c r="BA132" s="344"/>
       <c r="BB132" s="244">
         <f t="shared" si="22"/>
         <v>108</v>
@@ -13703,10 +13709,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU133" s="282" t="s">
+      <c r="AU133" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV133" s="281"/>
+      <c r="AV133" s="306"/>
       <c r="AW133">
         <f t="shared" si="21"/>
         <v>109</v>
@@ -13719,10 +13725,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ133" s="276" t="s">
+      <c r="AZ133" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA133" s="286"/>
+      <c r="BA133" s="343"/>
       <c r="BB133" s="244">
         <f t="shared" si="22"/>
         <v>109</v>
@@ -13778,10 +13784,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU134" s="282" t="s">
+      <c r="AU134" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV134" s="281"/>
+      <c r="AV134" s="306"/>
       <c r="AW134">
         <f t="shared" si="21"/>
         <v>110</v>
@@ -13794,10 +13800,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ134" s="283" t="s">
+      <c r="AZ134" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA134" s="293"/>
+      <c r="BA134" s="347"/>
       <c r="BB134" s="244">
         <f t="shared" si="22"/>
         <v>110</v>
@@ -13853,10 +13859,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU135" s="283" t="s">
+      <c r="AU135" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV135" s="284"/>
+      <c r="AV135" s="310"/>
       <c r="AW135">
         <f t="shared" si="21"/>
         <v>111</v>
@@ -13869,10 +13875,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ135" s="292" t="s">
+      <c r="AZ135" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA135" s="285"/>
+      <c r="BA135" s="344"/>
       <c r="BB135" s="244">
         <f t="shared" si="22"/>
         <v>111</v>
@@ -13928,10 +13934,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU136" s="283" t="s">
+      <c r="AU136" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV136" s="284"/>
+      <c r="AV136" s="310"/>
       <c r="AW136">
         <f t="shared" si="21"/>
         <v>112</v>
@@ -13944,10 +13950,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ136" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA136" s="285"/>
+      <c r="AZ136" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA136" s="344"/>
       <c r="BB136" s="244">
         <f t="shared" si="22"/>
         <v>112</v>
@@ -14003,10 +14009,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU137" s="278" t="s">
+      <c r="AU137" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV137" s="279"/>
+      <c r="AV137" s="317"/>
       <c r="AW137">
         <f t="shared" si="21"/>
         <v>113</v>
@@ -14019,10 +14025,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ137" s="276" t="s">
+      <c r="AZ137" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA137" s="286"/>
+      <c r="BA137" s="343"/>
       <c r="BB137" s="244">
         <f t="shared" si="22"/>
         <v>113</v>
@@ -14078,10 +14084,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU138" s="282" t="s">
+      <c r="AU138" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV138" s="281"/>
+      <c r="AV138" s="306"/>
       <c r="AW138">
         <f t="shared" si="21"/>
         <v>114</v>
@@ -14094,10 +14100,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ138" s="292" t="s">
+      <c r="AZ138" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA138" s="285"/>
+      <c r="BA138" s="344"/>
       <c r="BB138" s="244">
         <f t="shared" si="22"/>
         <v>114</v>
@@ -14153,10 +14159,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU139" s="282" t="s">
+      <c r="AU139" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV139" s="281"/>
+      <c r="AV139" s="306"/>
       <c r="AW139">
         <f t="shared" si="21"/>
         <v>115</v>
@@ -14169,10 +14175,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ139" s="278" t="s">
+      <c r="AZ139" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA139" s="294"/>
+      <c r="BA139" s="345"/>
       <c r="BB139" s="244">
         <f t="shared" si="22"/>
         <v>115</v>
@@ -14228,10 +14234,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU140" s="276" t="s">
+      <c r="AU140" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV140" s="277"/>
+      <c r="AV140" s="299"/>
       <c r="AW140">
         <f t="shared" si="21"/>
         <v>116</v>
@@ -14244,10 +14250,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ140" s="278" t="s">
+      <c r="AZ140" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA140" s="294"/>
+      <c r="BA140" s="345"/>
       <c r="BB140" s="244">
         <f t="shared" si="22"/>
         <v>116</v>
@@ -14303,10 +14309,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU141" s="290" t="s">
+      <c r="AU141" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV141" s="291"/>
+      <c r="AV141" s="339"/>
       <c r="AW141">
         <f t="shared" si="21"/>
         <v>117</v>
@@ -14319,10 +14325,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ141" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA141" s="285"/>
+      <c r="AZ141" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA141" s="344"/>
       <c r="BB141" s="244">
         <f t="shared" si="22"/>
         <v>117</v>
@@ -14378,10 +14384,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU142" s="280" t="s">
+      <c r="AU142" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV142" s="297"/>
+      <c r="AV142" s="308"/>
       <c r="AW142">
         <f t="shared" si="21"/>
         <v>118</v>
@@ -14394,10 +14400,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ142" s="278" t="s">
+      <c r="AZ142" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA142" s="294"/>
+      <c r="BA142" s="345"/>
       <c r="BB142" s="244">
         <f t="shared" si="22"/>
         <v>118</v>
@@ -14453,10 +14459,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU143" s="276" t="s">
+      <c r="AU143" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV143" s="277"/>
+      <c r="AV143" s="299"/>
       <c r="AW143">
         <f t="shared" si="21"/>
         <v>119</v>
@@ -14469,10 +14475,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ143" s="292" t="s">
+      <c r="AZ143" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA143" s="285"/>
+      <c r="BA143" s="344"/>
       <c r="BB143" s="244">
         <f t="shared" si="22"/>
         <v>119</v>
@@ -14528,10 +14534,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU144" s="276" t="s">
+      <c r="AU144" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV144" s="277"/>
+      <c r="AV144" s="299"/>
       <c r="AW144">
         <f t="shared" si="21"/>
         <v>120</v>
@@ -14544,10 +14550,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ144" s="282" t="s">
+      <c r="AZ144" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA144" s="285"/>
+      <c r="BA144" s="344"/>
       <c r="BB144" s="244">
         <f t="shared" si="22"/>
         <v>120</v>
@@ -14603,10 +14609,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU145" s="292" t="s">
+      <c r="AU145" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV145" s="281"/>
+      <c r="AV145" s="306"/>
       <c r="AW145">
         <f t="shared" si="21"/>
         <v>121</v>
@@ -14619,10 +14625,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ145" s="280" t="s">
+      <c r="AZ145" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA145" s="285"/>
+      <c r="BA145" s="344"/>
       <c r="BB145" s="244">
         <f t="shared" si="22"/>
         <v>121</v>
@@ -14678,10 +14684,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU146" s="278" t="s">
+      <c r="AU146" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV146" s="279"/>
+      <c r="AV146" s="317"/>
       <c r="AW146">
         <f t="shared" si="21"/>
         <v>122</v>
@@ -14694,10 +14700,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ146" s="282" t="s">
+      <c r="AZ146" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA146" s="285"/>
+      <c r="BA146" s="344"/>
       <c r="BB146" s="244">
         <f t="shared" si="22"/>
         <v>122</v>
@@ -14753,10 +14759,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU147" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV147" s="281"/>
+      <c r="AU147" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="306"/>
       <c r="AW147">
         <f t="shared" si="21"/>
         <v>123</v>
@@ -14769,10 +14775,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ147" s="283" t="s">
+      <c r="AZ147" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA147" s="293"/>
+      <c r="BA147" s="347"/>
       <c r="BB147" s="244">
         <f t="shared" si="22"/>
         <v>123</v>
@@ -14828,10 +14834,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU148" s="283" t="s">
+      <c r="AU148" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV148" s="284"/>
+      <c r="AV148" s="310"/>
       <c r="AW148">
         <f t="shared" si="21"/>
         <v>124</v>
@@ -14844,10 +14850,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ148" s="283" t="s">
+      <c r="AZ148" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA148" s="293"/>
+      <c r="BA148" s="347"/>
       <c r="BB148" s="244">
         <f t="shared" si="22"/>
         <v>124</v>
@@ -14903,10 +14909,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU149" s="278" t="s">
+      <c r="AU149" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV149" s="279"/>
+      <c r="AV149" s="317"/>
       <c r="AW149">
         <f t="shared" si="21"/>
         <v>125</v>
@@ -14919,10 +14925,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ149" s="280" t="s">
+      <c r="AZ149" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA149" s="285"/>
+      <c r="BA149" s="344"/>
       <c r="BB149" s="244">
         <f t="shared" si="22"/>
         <v>125</v>
@@ -14978,10 +14984,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU150" s="292" t="s">
+      <c r="AU150" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV150" s="281"/>
+      <c r="AV150" s="306"/>
       <c r="AW150">
         <f t="shared" si="21"/>
         <v>126</v>
@@ -14994,10 +15000,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ150" s="278" t="s">
+      <c r="AZ150" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA150" s="294"/>
+      <c r="BA150" s="345"/>
       <c r="BB150" s="244">
         <f t="shared" si="22"/>
         <v>126</v>
@@ -15053,10 +15059,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU151" s="282" t="s">
+      <c r="AU151" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV151" s="281"/>
+      <c r="AV151" s="306"/>
       <c r="AW151">
         <f t="shared" si="21"/>
         <v>127</v>
@@ -15069,10 +15075,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ151" s="276" t="s">
+      <c r="AZ151" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA151" s="286"/>
+      <c r="BA151" s="343"/>
       <c r="BB151" s="244">
         <f t="shared" si="22"/>
         <v>127</v>
@@ -15128,10 +15134,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU152" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV152" s="281"/>
+      <c r="AU152" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="306"/>
       <c r="AW152">
         <f t="shared" si="21"/>
         <v>128</v>
@@ -15144,10 +15150,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ152" s="282" t="s">
+      <c r="AZ152" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA152" s="285"/>
+      <c r="BA152" s="344"/>
       <c r="BB152" s="244">
         <f t="shared" si="22"/>
         <v>128</v>
@@ -15203,10 +15209,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU153" s="287" t="s">
+      <c r="AU153" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV153" s="288"/>
+      <c r="AV153" s="341"/>
       <c r="AW153">
         <f t="shared" si="21"/>
         <v>129</v>
@@ -15219,10 +15225,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ153" s="278" t="s">
+      <c r="AZ153" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA153" s="294"/>
+      <c r="BA153" s="345"/>
       <c r="BB153" s="244">
         <f t="shared" si="22"/>
         <v>129</v>
@@ -15278,10 +15284,10 @@
         <f t="shared" ref="AT154:AT217" si="24">IF(C154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU154" s="282" t="s">
+      <c r="AU154" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV154" s="281"/>
+      <c r="AV154" s="306"/>
       <c r="AW154">
         <f t="shared" si="21"/>
         <v>130</v>
@@ -15294,10 +15300,10 @@
         <f t="shared" ref="AY154:AY198" si="26">IF(H154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ154" s="292" t="s">
+      <c r="AZ154" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA154" s="285"/>
+      <c r="BA154" s="344"/>
       <c r="BB154" s="244">
         <f t="shared" si="22"/>
         <v>130</v>
@@ -15353,10 +15359,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU155" s="283" t="s">
+      <c r="AU155" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV155" s="284"/>
+      <c r="AV155" s="310"/>
       <c r="AW155">
         <f t="shared" ref="AW155:AW218" si="29">AW154+1</f>
         <v>131</v>
@@ -15369,10 +15375,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ155" s="278" t="s">
+      <c r="AZ155" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA155" s="294"/>
+      <c r="BA155" s="345"/>
       <c r="BB155" s="244">
         <f t="shared" ref="BB155:BC198" si="30">BB154+1</f>
         <v>131</v>
@@ -15428,10 +15434,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU156" s="280" t="s">
+      <c r="AU156" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV156" s="281"/>
+      <c r="AV156" s="306"/>
       <c r="AW156">
         <f t="shared" si="29"/>
         <v>132</v>
@@ -15444,10 +15450,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ156" s="283" t="s">
+      <c r="AZ156" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA156" s="293"/>
+      <c r="BA156" s="347"/>
       <c r="BB156" s="244">
         <f t="shared" si="30"/>
         <v>132</v>
@@ -15503,10 +15509,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU157" s="283" t="s">
+      <c r="AU157" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV157" s="284"/>
+      <c r="AV157" s="310"/>
       <c r="AW157">
         <f t="shared" si="29"/>
         <v>133</v>
@@ -15519,10 +15525,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ157" s="278" t="s">
+      <c r="AZ157" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA157" s="294"/>
+      <c r="BA157" s="345"/>
       <c r="BB157" s="244">
         <f t="shared" si="30"/>
         <v>133</v>
@@ -15578,10 +15584,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU158" s="282" t="s">
+      <c r="AU158" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV158" s="281"/>
+      <c r="AV158" s="306"/>
       <c r="AW158">
         <f t="shared" si="29"/>
         <v>134</v>
@@ -15594,10 +15600,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ158" s="282" t="s">
+      <c r="AZ158" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA158" s="285"/>
+      <c r="BA158" s="344"/>
       <c r="BB158" s="244">
         <f t="shared" si="30"/>
         <v>134</v>
@@ -15653,10 +15659,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU159" s="282" t="s">
+      <c r="AU159" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV159" s="281"/>
+      <c r="AV159" s="306"/>
       <c r="AW159">
         <f t="shared" si="29"/>
         <v>135</v>
@@ -15669,10 +15675,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ159" s="283" t="s">
+      <c r="AZ159" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA159" s="293"/>
+      <c r="BA159" s="347"/>
       <c r="BB159" s="244">
         <f t="shared" si="30"/>
         <v>135</v>
@@ -15728,10 +15734,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU160" s="287" t="s">
+      <c r="AU160" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV160" s="288"/>
+      <c r="AV160" s="341"/>
       <c r="AW160">
         <f t="shared" si="29"/>
         <v>136</v>
@@ -15744,10 +15750,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ160" s="292" t="s">
+      <c r="AZ160" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA160" s="285"/>
+      <c r="BA160" s="344"/>
       <c r="BB160" s="244">
         <f t="shared" si="30"/>
         <v>136</v>
@@ -15803,10 +15809,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU161" s="283" t="s">
+      <c r="AU161" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV161" s="284"/>
+      <c r="AV161" s="310"/>
       <c r="AW161">
         <f t="shared" si="29"/>
         <v>137</v>
@@ -15819,10 +15825,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ161" s="278" t="s">
+      <c r="AZ161" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA161" s="294"/>
+      <c r="BA161" s="345"/>
       <c r="BB161" s="244">
         <f t="shared" si="30"/>
         <v>137</v>
@@ -15878,10 +15884,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU162" s="276" t="s">
+      <c r="AU162" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV162" s="277"/>
+      <c r="AV162" s="299"/>
       <c r="AW162">
         <f t="shared" si="29"/>
         <v>138</v>
@@ -15894,10 +15900,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ162" s="283" t="s">
+      <c r="AZ162" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA162" s="293"/>
+      <c r="BA162" s="347"/>
       <c r="BB162" s="244">
         <f t="shared" si="30"/>
         <v>138</v>
@@ -15953,10 +15959,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU163" s="278" t="s">
+      <c r="AU163" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV163" s="279"/>
+      <c r="AV163" s="317"/>
       <c r="AW163">
         <f t="shared" si="29"/>
         <v>139</v>
@@ -15969,10 +15975,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ163" s="276" t="s">
+      <c r="AZ163" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA163" s="286"/>
+      <c r="BA163" s="343"/>
       <c r="BB163" s="244">
         <f t="shared" si="30"/>
         <v>139</v>
@@ -16028,10 +16034,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU164" s="280" t="s">
+      <c r="AU164" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV164" s="281"/>
+      <c r="AV164" s="306"/>
       <c r="AW164">
         <f t="shared" si="29"/>
         <v>140</v>
@@ -16044,10 +16050,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ164" s="287" t="s">
+      <c r="AZ164" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BA164" s="296"/>
+      <c r="BA164" s="346"/>
       <c r="BB164" s="244">
         <f t="shared" si="30"/>
         <v>140</v>
@@ -16103,10 +16109,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU165" s="280" t="s">
+      <c r="AU165" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV165" s="281"/>
+      <c r="AV165" s="306"/>
       <c r="AW165">
         <f t="shared" si="29"/>
         <v>141</v>
@@ -16119,10 +16125,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ165" s="276" t="s">
+      <c r="AZ165" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA165" s="286"/>
+      <c r="BA165" s="343"/>
       <c r="BB165" s="244">
         <f t="shared" si="30"/>
         <v>141</v>
@@ -16178,10 +16184,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU166" s="278" t="s">
+      <c r="AU166" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV166" s="279"/>
+      <c r="AV166" s="317"/>
       <c r="AW166">
         <f t="shared" si="29"/>
         <v>142</v>
@@ -16194,10 +16200,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ166" s="292" t="s">
+      <c r="AZ166" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA166" s="285"/>
+      <c r="BA166" s="344"/>
       <c r="BB166" s="244">
         <f t="shared" si="30"/>
         <v>142</v>
@@ -16253,10 +16259,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU167" s="280" t="s">
+      <c r="AU167" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV167" s="281"/>
+      <c r="AV167" s="306"/>
       <c r="AW167">
         <f t="shared" si="29"/>
         <v>143</v>
@@ -16269,10 +16275,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ167" s="278" t="s">
+      <c r="AZ167" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA167" s="294"/>
+      <c r="BA167" s="345"/>
       <c r="BB167" s="244">
         <f t="shared" si="30"/>
         <v>143</v>
@@ -16328,10 +16334,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU168" s="282" t="s">
+      <c r="AU168" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV168" s="281"/>
+      <c r="AV168" s="306"/>
       <c r="AW168">
         <f t="shared" si="29"/>
         <v>144</v>
@@ -16344,10 +16350,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ168" s="292" t="s">
+      <c r="AZ168" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA168" s="285"/>
+      <c r="BA168" s="344"/>
       <c r="BB168" s="244">
         <f t="shared" si="30"/>
         <v>144</v>
@@ -16403,10 +16409,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU169" s="292" t="s">
+      <c r="AU169" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV169" s="281"/>
+      <c r="AV169" s="306"/>
       <c r="AW169">
         <f t="shared" si="29"/>
         <v>145</v>
@@ -16419,10 +16425,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ169" s="278" t="s">
+      <c r="AZ169" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA169" s="294"/>
+      <c r="BA169" s="345"/>
       <c r="BB169" s="244">
         <f t="shared" si="30"/>
         <v>145</v>
@@ -16478,10 +16484,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU170" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV170" s="281"/>
+      <c r="AU170" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="306"/>
       <c r="AW170">
         <f t="shared" si="29"/>
         <v>146</v>
@@ -16494,10 +16500,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ170" s="276" t="s">
+      <c r="AZ170" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA170" s="286"/>
+      <c r="BA170" s="343"/>
       <c r="BB170" s="244">
         <f t="shared" si="30"/>
         <v>146</v>
@@ -16553,10 +16559,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU171" s="282" t="s">
+      <c r="AU171" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV171" s="281"/>
+      <c r="AV171" s="306"/>
       <c r="AW171">
         <f t="shared" si="29"/>
         <v>147</v>
@@ -16569,10 +16575,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ171" s="282" t="s">
+      <c r="AZ171" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA171" s="285"/>
+      <c r="BA171" s="344"/>
       <c r="BB171" s="244">
         <f t="shared" si="30"/>
         <v>147</v>
@@ -16628,10 +16634,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU172" s="290" t="s">
+      <c r="AU172" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV172" s="291"/>
+      <c r="AV172" s="339"/>
       <c r="AW172">
         <f t="shared" si="29"/>
         <v>148</v>
@@ -16644,10 +16650,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ172" s="282" t="s">
+      <c r="AZ172" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA172" s="285"/>
+      <c r="BA172" s="344"/>
       <c r="BB172" s="244">
         <f t="shared" si="30"/>
         <v>148</v>
@@ -16703,10 +16709,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU173" s="278" t="s">
+      <c r="AU173" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV173" s="279"/>
+      <c r="AV173" s="317"/>
       <c r="AW173">
         <f t="shared" si="29"/>
         <v>149</v>
@@ -16719,10 +16725,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ173" s="280" t="s">
+      <c r="AZ173" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA173" s="285"/>
+      <c r="BA173" s="344"/>
       <c r="BB173" s="244">
         <f t="shared" si="30"/>
         <v>149</v>
@@ -16778,10 +16784,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU174" s="282" t="s">
+      <c r="AU174" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV174" s="281"/>
+      <c r="AV174" s="306"/>
       <c r="AW174">
         <f t="shared" si="29"/>
         <v>150</v>
@@ -16794,10 +16800,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ174" s="282" t="s">
+      <c r="AZ174" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA174" s="285"/>
+      <c r="BA174" s="344"/>
       <c r="BB174" s="244">
         <f t="shared" si="30"/>
         <v>150</v>
@@ -16853,10 +16859,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU175" s="280" t="s">
+      <c r="AU175" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV175" s="281"/>
+      <c r="AV175" s="306"/>
       <c r="AW175">
         <f t="shared" si="29"/>
         <v>151</v>
@@ -16869,10 +16875,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ175" s="282" t="s">
+      <c r="AZ175" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA175" s="285"/>
+      <c r="BA175" s="344"/>
       <c r="BB175" s="244">
         <f t="shared" si="30"/>
         <v>151</v>
@@ -16928,10 +16934,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU176" s="290" t="s">
+      <c r="AU176" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV176" s="291"/>
+      <c r="AV176" s="339"/>
       <c r="AW176">
         <f t="shared" si="29"/>
         <v>152</v>
@@ -16944,10 +16950,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ176" s="283" t="s">
+      <c r="AZ176" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA176" s="293"/>
+      <c r="BA176" s="347"/>
       <c r="BB176" s="244">
         <f t="shared" si="30"/>
         <v>152</v>
@@ -17003,10 +17009,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU177" s="292" t="s">
+      <c r="AU177" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV177" s="281"/>
+      <c r="AV177" s="306"/>
       <c r="AW177">
         <f t="shared" si="29"/>
         <v>153</v>
@@ -17019,10 +17025,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ177" s="282" t="s">
+      <c r="AZ177" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA177" s="285"/>
+      <c r="BA177" s="344"/>
       <c r="BB177" s="244">
         <f t="shared" si="30"/>
         <v>153</v>
@@ -17078,10 +17084,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU178" s="292" t="s">
+      <c r="AU178" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV178" s="281"/>
+      <c r="AV178" s="306"/>
       <c r="AW178">
         <f t="shared" si="29"/>
         <v>154</v>
@@ -17094,10 +17100,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ178" s="282" t="s">
+      <c r="AZ178" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA178" s="285"/>
+      <c r="BA178" s="344"/>
       <c r="BB178" s="244">
         <f t="shared" si="30"/>
         <v>154</v>
@@ -17153,10 +17159,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU179" s="292" t="s">
+      <c r="AU179" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV179" s="281"/>
+      <c r="AV179" s="306"/>
       <c r="AW179">
         <f t="shared" si="29"/>
         <v>155</v>
@@ -17169,10 +17175,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ179" s="283" t="s">
+      <c r="AZ179" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA179" s="293"/>
+      <c r="BA179" s="347"/>
       <c r="BB179" s="244">
         <f t="shared" si="30"/>
         <v>155</v>
@@ -17228,10 +17234,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU180" s="282" t="s">
+      <c r="AU180" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV180" s="281"/>
+      <c r="AV180" s="306"/>
       <c r="AW180">
         <f t="shared" si="29"/>
         <v>156</v>
@@ -17244,10 +17250,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ180" s="276" t="s">
+      <c r="AZ180" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA180" s="286"/>
+      <c r="BA180" s="343"/>
       <c r="BB180" s="244">
         <f t="shared" si="30"/>
         <v>156</v>
@@ -17303,10 +17309,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU181" s="283" t="s">
+      <c r="AU181" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV181" s="284"/>
+      <c r="AV181" s="310"/>
       <c r="AW181">
         <f t="shared" si="29"/>
         <v>157</v>
@@ -17319,10 +17325,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ181" s="283" t="s">
+      <c r="AZ181" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA181" s="293"/>
+      <c r="BA181" s="347"/>
       <c r="BB181" s="244">
         <f t="shared" si="30"/>
         <v>157</v>
@@ -17378,10 +17384,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU182" s="290" t="s">
+      <c r="AU182" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV182" s="291"/>
+      <c r="AV182" s="339"/>
       <c r="AW182">
         <f t="shared" si="29"/>
         <v>158</v>
@@ -17394,10 +17400,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ182" s="276" t="s">
+      <c r="AZ182" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA182" s="286"/>
+      <c r="BA182" s="343"/>
       <c r="BB182" s="244">
         <f t="shared" si="30"/>
         <v>158</v>
@@ -17453,10 +17459,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU183" s="292" t="s">
+      <c r="AU183" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV183" s="281"/>
+      <c r="AV183" s="306"/>
       <c r="AW183">
         <f t="shared" si="29"/>
         <v>159</v>
@@ -17469,10 +17475,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ183" s="278" t="s">
+      <c r="AZ183" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA183" s="294"/>
+      <c r="BA183" s="345"/>
       <c r="BB183" s="244">
         <f t="shared" si="30"/>
         <v>159</v>
@@ -17528,10 +17534,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU184" s="276" t="s">
+      <c r="AU184" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV184" s="277"/>
+      <c r="AV184" s="299"/>
       <c r="AW184">
         <f t="shared" si="29"/>
         <v>160</v>
@@ -17544,10 +17550,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ184" s="282" t="s">
+      <c r="AZ184" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA184" s="285"/>
+      <c r="BA184" s="344"/>
       <c r="BB184" s="244">
         <f t="shared" si="30"/>
         <v>160</v>
@@ -17603,10 +17609,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU185" s="276" t="s">
+      <c r="AU185" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV185" s="277"/>
+      <c r="AV185" s="299"/>
       <c r="AW185">
         <f t="shared" si="29"/>
         <v>161</v>
@@ -17619,10 +17625,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ185" s="278" t="s">
+      <c r="AZ185" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA185" s="294"/>
+      <c r="BA185" s="345"/>
       <c r="BB185" s="244">
         <f t="shared" si="30"/>
         <v>161</v>
@@ -17678,10 +17684,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU186" s="282" t="s">
+      <c r="AU186" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV186" s="281"/>
+      <c r="AV186" s="306"/>
       <c r="AW186">
         <f t="shared" si="29"/>
         <v>162</v>
@@ -17694,10 +17700,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ186" s="283" t="s">
+      <c r="AZ186" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA186" s="293"/>
+      <c r="BA186" s="347"/>
       <c r="BB186" s="244">
         <f t="shared" si="30"/>
         <v>162</v>
@@ -17753,10 +17759,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU187" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV187" s="281"/>
+      <c r="AU187" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV187" s="306"/>
       <c r="AW187">
         <f t="shared" si="29"/>
         <v>163</v>
@@ -17769,10 +17775,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ187" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA187" s="285"/>
+      <c r="AZ187" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA187" s="344"/>
       <c r="BB187" s="244">
         <f t="shared" si="30"/>
         <v>163</v>
@@ -17828,10 +17834,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU188" s="282" t="s">
+      <c r="AU188" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV188" s="281"/>
+      <c r="AV188" s="306"/>
       <c r="AW188">
         <f t="shared" si="29"/>
         <v>164</v>
@@ -17844,10 +17850,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ188" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA188" s="285"/>
+      <c r="AZ188" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA188" s="344"/>
       <c r="BB188" s="244">
         <f t="shared" si="30"/>
         <v>164</v>
@@ -17903,10 +17909,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU189" s="282" t="s">
+      <c r="AU189" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV189" s="281"/>
+      <c r="AV189" s="306"/>
       <c r="AW189">
         <f t="shared" si="29"/>
         <v>165</v>
@@ -17919,10 +17925,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ189" s="282" t="s">
+      <c r="AZ189" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA189" s="281"/>
+      <c r="BA189" s="306"/>
       <c r="BB189" s="244">
         <f t="shared" si="30"/>
         <v>165</v>
@@ -17978,10 +17984,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU190" s="276" t="s">
+      <c r="AU190" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV190" s="277"/>
+      <c r="AV190" s="299"/>
       <c r="AW190">
         <f t="shared" si="29"/>
         <v>166</v>
@@ -17994,10 +18000,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ190" s="292" t="s">
+      <c r="AZ190" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA190" s="285"/>
+      <c r="BA190" s="344"/>
       <c r="BB190" s="244">
         <f t="shared" si="30"/>
         <v>166</v>
@@ -18053,10 +18059,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU191" s="276" t="s">
+      <c r="AU191" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV191" s="277"/>
+      <c r="AV191" s="299"/>
       <c r="AW191">
         <f t="shared" si="29"/>
         <v>167</v>
@@ -18069,10 +18075,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ191" s="278" t="s">
+      <c r="AZ191" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA191" s="294"/>
+      <c r="BA191" s="345"/>
       <c r="BB191" s="244">
         <f t="shared" si="30"/>
         <v>167</v>
@@ -18128,10 +18134,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU192" s="292" t="s">
+      <c r="AU192" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV192" s="281"/>
+      <c r="AV192" s="306"/>
       <c r="AW192">
         <f t="shared" si="29"/>
         <v>168</v>
@@ -18144,10 +18150,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ192" s="292" t="s">
+      <c r="AZ192" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA192" s="285"/>
+      <c r="BA192" s="344"/>
       <c r="BB192" s="244">
         <f t="shared" si="30"/>
         <v>168</v>
@@ -18203,10 +18209,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU193" s="282" t="s">
+      <c r="AU193" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV193" s="281"/>
+      <c r="AV193" s="306"/>
       <c r="AW193">
         <f t="shared" si="29"/>
         <v>169</v>
@@ -18219,10 +18225,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ193" s="276" t="s">
+      <c r="AZ193" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA193" s="286"/>
+      <c r="BA193" s="343"/>
       <c r="BB193" s="244">
         <f t="shared" si="30"/>
         <v>169</v>
@@ -18278,10 +18284,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU194" s="283" t="s">
+      <c r="AU194" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV194" s="284"/>
+      <c r="AV194" s="310"/>
       <c r="AW194">
         <f t="shared" si="29"/>
         <v>170</v>
@@ -18294,10 +18300,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ194" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA194" s="285"/>
+      <c r="AZ194" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA194" s="344"/>
       <c r="BB194" s="244">
         <f t="shared" si="30"/>
         <v>170</v>
@@ -18353,10 +18359,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU195" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV195" s="281"/>
+      <c r="AU195" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV195" s="306"/>
       <c r="AW195">
         <f t="shared" si="29"/>
         <v>171</v>
@@ -18369,10 +18375,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ195" s="276" t="s">
+      <c r="AZ195" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA195" s="286"/>
+      <c r="BA195" s="343"/>
       <c r="BB195" s="244">
         <f t="shared" si="30"/>
         <v>171</v>
@@ -18428,10 +18434,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU196" s="290" t="s">
+      <c r="AU196" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV196" s="291"/>
+      <c r="AV196" s="339"/>
       <c r="AW196">
         <f t="shared" si="29"/>
         <v>172</v>
@@ -18444,10 +18450,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ196" s="292" t="s">
+      <c r="AZ196" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA196" s="285"/>
+      <c r="BA196" s="344"/>
       <c r="BB196" s="244">
         <f t="shared" si="30"/>
         <v>172</v>
@@ -18503,10 +18509,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU197" s="292" t="s">
+      <c r="AU197" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV197" s="281"/>
+      <c r="AV197" s="306"/>
       <c r="AW197">
         <f t="shared" si="29"/>
         <v>173</v>
@@ -18519,10 +18525,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ197" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA197" s="285"/>
+      <c r="AZ197" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA197" s="344"/>
       <c r="BB197" s="244">
         <f t="shared" si="30"/>
         <v>173</v>
@@ -18578,10 +18584,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU198" s="292" t="s">
+      <c r="AU198" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV198" s="281"/>
+      <c r="AV198" s="306"/>
       <c r="AW198">
         <f t="shared" si="29"/>
         <v>174</v>
@@ -18594,10 +18600,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ198" s="280" t="s">
+      <c r="AZ198" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA198" s="285"/>
+      <c r="BA198" s="344"/>
       <c r="BB198" s="245">
         <f t="shared" si="30"/>
         <v>174</v>
@@ -18647,10 +18653,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU199" s="276" t="s">
+      <c r="AU199" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV199" s="277"/>
+      <c r="AV199" s="299"/>
       <c r="AW199">
         <f t="shared" si="29"/>
         <v>175</v>
@@ -18699,10 +18705,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU200" s="276" t="s">
+      <c r="AU200" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV200" s="277"/>
+      <c r="AV200" s="299"/>
       <c r="AW200">
         <f t="shared" si="29"/>
         <v>176</v>
@@ -18751,10 +18757,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU201" s="280" t="s">
+      <c r="AU201" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV201" s="281"/>
+      <c r="AV201" s="306"/>
       <c r="AW201">
         <f t="shared" si="29"/>
         <v>177</v>
@@ -18803,10 +18809,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU202" s="292" t="s">
+      <c r="AU202" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV202" s="281"/>
+      <c r="AV202" s="306"/>
       <c r="AW202">
         <f t="shared" si="29"/>
         <v>178</v>
@@ -18855,10 +18861,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU203" s="292" t="s">
+      <c r="AU203" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV203" s="281"/>
+      <c r="AV203" s="306"/>
       <c r="AW203">
         <f t="shared" si="29"/>
         <v>179</v>
@@ -18907,10 +18913,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU204" s="282" t="s">
+      <c r="AU204" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV204" s="281"/>
+      <c r="AV204" s="306"/>
       <c r="AW204">
         <f t="shared" si="29"/>
         <v>180</v>
@@ -18959,10 +18965,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU205" s="282" t="s">
+      <c r="AU205" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV205" s="281"/>
+      <c r="AV205" s="306"/>
       <c r="AW205">
         <f t="shared" si="29"/>
         <v>181</v>
@@ -19011,10 +19017,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU206" s="282" t="s">
+      <c r="AU206" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV206" s="281"/>
+      <c r="AV206" s="306"/>
       <c r="AW206">
         <f t="shared" si="29"/>
         <v>182</v>
@@ -19063,10 +19069,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU207" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV207" s="281"/>
+      <c r="AU207" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV207" s="306"/>
       <c r="AW207">
         <f t="shared" si="29"/>
         <v>183</v>
@@ -19115,10 +19121,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU208" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV208" s="281"/>
+      <c r="AU208" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV208" s="306"/>
       <c r="AW208">
         <f t="shared" si="29"/>
         <v>184</v>
@@ -19167,10 +19173,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU209" s="278" t="s">
+      <c r="AU209" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV209" s="279"/>
+      <c r="AV209" s="317"/>
       <c r="AW209">
         <f t="shared" si="29"/>
         <v>185</v>
@@ -19219,10 +19225,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU210" s="282" t="s">
+      <c r="AU210" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV210" s="281"/>
+      <c r="AV210" s="306"/>
       <c r="AW210">
         <f t="shared" si="29"/>
         <v>186</v>
@@ -19271,10 +19277,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU211" s="292" t="s">
+      <c r="AU211" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV211" s="298"/>
+      <c r="AV211" s="303"/>
       <c r="AW211">
         <f t="shared" si="29"/>
         <v>187</v>
@@ -19323,10 +19329,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU212" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV212" s="281"/>
+      <c r="AU212" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV212" s="306"/>
       <c r="AW212">
         <f t="shared" si="29"/>
         <v>188</v>
@@ -19375,10 +19381,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU213" s="282" t="s">
+      <c r="AU213" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV213" s="281"/>
+      <c r="AV213" s="306"/>
       <c r="AW213">
         <f t="shared" si="29"/>
         <v>189</v>
@@ -19427,10 +19433,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU214" s="280" t="s">
+      <c r="AU214" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV214" s="281"/>
+      <c r="AV214" s="306"/>
       <c r="AW214">
         <f t="shared" si="29"/>
         <v>190</v>
@@ -19479,10 +19485,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU215" s="282" t="s">
+      <c r="AU215" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV215" s="281"/>
+      <c r="AV215" s="306"/>
       <c r="AW215">
         <f t="shared" si="29"/>
         <v>191</v>
@@ -19531,10 +19537,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU216" s="282" t="s">
+      <c r="AU216" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV216" s="281"/>
+      <c r="AV216" s="306"/>
       <c r="AW216">
         <f t="shared" si="29"/>
         <v>192</v>
@@ -19583,10 +19589,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU217" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV217" s="281"/>
+      <c r="AU217" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV217" s="306"/>
       <c r="AW217">
         <f t="shared" si="29"/>
         <v>193</v>
@@ -19635,10 +19641,10 @@
         <f t="shared" ref="AT218:AT254" si="32">IF(C218&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU218" s="282" t="s">
+      <c r="AU218" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV218" s="281"/>
+      <c r="AV218" s="306"/>
       <c r="AW218">
         <f t="shared" si="29"/>
         <v>194</v>
@@ -19687,10 +19693,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU219" s="276" t="s">
+      <c r="AU219" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV219" s="277"/>
+      <c r="AV219" s="299"/>
       <c r="AW219">
         <f t="shared" ref="AW219:AW254" si="34">AW218+1</f>
         <v>195</v>
@@ -19739,10 +19745,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU220" s="283" t="s">
+      <c r="AU220" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV220" s="284"/>
+      <c r="AV220" s="310"/>
       <c r="AW220">
         <f t="shared" si="34"/>
         <v>196</v>
@@ -19791,10 +19797,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU221" s="282" t="s">
+      <c r="AU221" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV221" s="281"/>
+      <c r="AV221" s="306"/>
       <c r="AW221">
         <f t="shared" si="34"/>
         <v>197</v>
@@ -19843,10 +19849,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU222" s="282" t="s">
+      <c r="AU222" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV222" s="281"/>
+      <c r="AV222" s="306"/>
       <c r="AW222">
         <f t="shared" si="34"/>
         <v>198</v>
@@ -19895,10 +19901,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU223" s="276" t="s">
+      <c r="AU223" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV223" s="277"/>
+      <c r="AV223" s="299"/>
       <c r="AW223">
         <f t="shared" si="34"/>
         <v>199</v>
@@ -19947,10 +19953,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU224" s="282" t="s">
+      <c r="AU224" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV224" s="281"/>
+      <c r="AV224" s="306"/>
       <c r="AW224">
         <f t="shared" si="34"/>
         <v>200</v>
@@ -19999,10 +20005,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU225" s="282" t="s">
+      <c r="AU225" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV225" s="281"/>
+      <c r="AV225" s="306"/>
       <c r="AW225">
         <f t="shared" si="34"/>
         <v>201</v>
@@ -20051,10 +20057,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU226" s="287" t="s">
+      <c r="AU226" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV226" s="288"/>
+      <c r="AV226" s="341"/>
       <c r="AW226">
         <f t="shared" si="34"/>
         <v>202</v>
@@ -20103,10 +20109,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU227" s="276" t="s">
+      <c r="AU227" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV227" s="277"/>
+      <c r="AV227" s="299"/>
       <c r="AW227">
         <f t="shared" si="34"/>
         <v>203</v>
@@ -20155,10 +20161,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU228" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV228" s="281"/>
+      <c r="AU228" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="306"/>
       <c r="AW228">
         <f t="shared" si="34"/>
         <v>204</v>
@@ -20207,10 +20213,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU229" s="282" t="s">
+      <c r="AU229" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV229" s="281"/>
+      <c r="AV229" s="306"/>
       <c r="AW229">
         <f t="shared" si="34"/>
         <v>205</v>
@@ -20259,10 +20265,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU230" s="292" t="s">
+      <c r="AU230" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV230" s="298"/>
+      <c r="AV230" s="303"/>
       <c r="AW230">
         <f t="shared" si="34"/>
         <v>206</v>
@@ -20311,10 +20317,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU231" s="276" t="s">
+      <c r="AU231" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV231" s="277"/>
+      <c r="AV231" s="299"/>
       <c r="AW231">
         <f t="shared" si="34"/>
         <v>207</v>
@@ -20363,10 +20369,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU232" s="282" t="s">
+      <c r="AU232" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV232" s="281"/>
+      <c r="AV232" s="306"/>
       <c r="AW232">
         <f t="shared" si="34"/>
         <v>208</v>
@@ -20415,10 +20421,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU233" s="280" t="s">
+      <c r="AU233" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV233" s="281"/>
+      <c r="AV233" s="306"/>
       <c r="AW233">
         <f t="shared" si="34"/>
         <v>209</v>
@@ -20467,10 +20473,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU234" s="292" t="s">
+      <c r="AU234" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV234" s="281"/>
+      <c r="AV234" s="306"/>
       <c r="AW234">
         <f t="shared" si="34"/>
         <v>210</v>
@@ -20519,10 +20525,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU235" s="282" t="s">
+      <c r="AU235" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV235" s="281"/>
+      <c r="AV235" s="306"/>
       <c r="AW235">
         <f t="shared" si="34"/>
         <v>211</v>
@@ -20571,10 +20577,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU236" s="283" t="s">
+      <c r="AU236" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV236" s="284"/>
+      <c r="AV236" s="310"/>
       <c r="AW236">
         <f t="shared" si="34"/>
         <v>212</v>
@@ -20623,10 +20629,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU237" s="292" t="s">
+      <c r="AU237" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV237" s="281"/>
+      <c r="AV237" s="306"/>
       <c r="AW237">
         <f t="shared" si="34"/>
         <v>213</v>
@@ -20675,10 +20681,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU238" s="278" t="s">
+      <c r="AU238" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV238" s="279"/>
+      <c r="AV238" s="317"/>
       <c r="AW238">
         <f t="shared" si="34"/>
         <v>214</v>
@@ -20727,10 +20733,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU239" s="278" t="s">
+      <c r="AU239" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV239" s="279"/>
+      <c r="AV239" s="317"/>
       <c r="AW239">
         <f t="shared" si="34"/>
         <v>215</v>
@@ -20779,10 +20785,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU240" s="282" t="s">
+      <c r="AU240" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV240" s="281"/>
+      <c r="AV240" s="306"/>
       <c r="AW240">
         <f t="shared" si="34"/>
         <v>216</v>
@@ -20831,10 +20837,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU241" s="278" t="s">
+      <c r="AU241" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV241" s="279"/>
+      <c r="AV241" s="317"/>
       <c r="AW241">
         <f t="shared" si="34"/>
         <v>217</v>
@@ -20883,10 +20889,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU242" s="282" t="s">
+      <c r="AU242" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV242" s="281"/>
+      <c r="AV242" s="306"/>
       <c r="AW242">
         <f t="shared" si="34"/>
         <v>218</v>
@@ -20935,10 +20941,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU243" s="287" t="s">
+      <c r="AU243" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV243" s="288"/>
+      <c r="AV243" s="341"/>
       <c r="AW243">
         <f t="shared" si="34"/>
         <v>219</v>
@@ -20987,10 +20993,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU244" s="292" t="s">
+      <c r="AU244" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV244" s="298"/>
+      <c r="AV244" s="303"/>
       <c r="AW244">
         <f t="shared" si="34"/>
         <v>220</v>
@@ -21039,10 +21045,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU245" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV245" s="281"/>
+      <c r="AU245" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV245" s="306"/>
       <c r="AW245">
         <f t="shared" si="34"/>
         <v>221</v>
@@ -21091,10 +21097,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU246" s="280" t="s">
+      <c r="AU246" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV246" s="281"/>
+      <c r="AV246" s="306"/>
       <c r="AW246">
         <f t="shared" si="34"/>
         <v>222</v>
@@ -21143,10 +21149,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU247" s="280" t="s">
+      <c r="AU247" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV247" s="281"/>
+      <c r="AV247" s="306"/>
       <c r="AW247">
         <f t="shared" si="34"/>
         <v>223</v>
@@ -21195,10 +21201,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU248" s="282" t="s">
+      <c r="AU248" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV248" s="281"/>
+      <c r="AV248" s="306"/>
       <c r="AW248">
         <f t="shared" si="34"/>
         <v>224</v>
@@ -21247,10 +21253,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU249" s="292" t="s">
+      <c r="AU249" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV249" s="281"/>
+      <c r="AV249" s="306"/>
       <c r="AW249">
         <f t="shared" si="34"/>
         <v>225</v>
@@ -21299,10 +21305,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU250" s="282" t="s">
+      <c r="AU250" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV250" s="299"/>
+      <c r="AV250" s="342"/>
       <c r="AW250">
         <f t="shared" si="34"/>
         <v>226</v>
@@ -21351,10 +21357,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU251" s="276" t="s">
+      <c r="AU251" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV251" s="277"/>
+      <c r="AV251" s="299"/>
       <c r="AW251">
         <f t="shared" si="34"/>
         <v>227</v>
@@ -21403,10 +21409,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU252" s="290" t="s">
+      <c r="AU252" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV252" s="291"/>
+      <c r="AV252" s="339"/>
       <c r="AW252">
         <f t="shared" si="34"/>
         <v>228</v>
@@ -21455,10 +21461,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU253" s="292" t="s">
+      <c r="AU253" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV253" s="298"/>
+      <c r="AV253" s="303"/>
       <c r="AW253">
         <f t="shared" si="34"/>
         <v>229</v>
@@ -21507,10 +21513,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU254" s="292" t="s">
+      <c r="AU254" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV254" s="298"/>
+      <c r="AV254" s="303"/>
       <c r="AW254">
         <f t="shared" si="34"/>
         <v>230</v>
@@ -23466,28 +23472,404 @@
     </row>
   </sheetData>
   <mergeCells count="444">
-    <mergeCell ref="H20:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:E8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="BF28:BG28"/>
+    <mergeCell ref="BF29:BG29"/>
+    <mergeCell ref="BF30:BG30"/>
+    <mergeCell ref="BF31:BG31"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="AZ92:BA92"/>
+    <mergeCell ref="AZ94:BA94"/>
+    <mergeCell ref="BF34:BG34"/>
+    <mergeCell ref="BF35:BG35"/>
+    <mergeCell ref="BF36:BG36"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="BF32:BG32"/>
+    <mergeCell ref="AZ49:BA49"/>
+    <mergeCell ref="AZ51:BA51"/>
+    <mergeCell ref="AZ57:BA57"/>
+    <mergeCell ref="AZ54:BA54"/>
+    <mergeCell ref="AZ38:BA38"/>
+    <mergeCell ref="AZ43:BA43"/>
+    <mergeCell ref="AZ45:BA45"/>
+    <mergeCell ref="AZ46:BA46"/>
+    <mergeCell ref="AZ40:BA40"/>
+    <mergeCell ref="AZ53:BA53"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="AZ48:BA48"/>
+    <mergeCell ref="AZ52:BA52"/>
+    <mergeCell ref="AZ42:BA42"/>
+    <mergeCell ref="AZ104:BA104"/>
+    <mergeCell ref="AZ95:BA95"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="AZ131:BA131"/>
+    <mergeCell ref="AZ125:BA125"/>
+    <mergeCell ref="AZ108:BA108"/>
+    <mergeCell ref="AZ107:BA107"/>
+    <mergeCell ref="AZ101:BA101"/>
+    <mergeCell ref="AZ109:BA109"/>
+    <mergeCell ref="AZ118:BA118"/>
+    <mergeCell ref="AZ105:BA105"/>
+    <mergeCell ref="AZ100:BA100"/>
+    <mergeCell ref="AZ96:BA96"/>
+    <mergeCell ref="AZ99:BA99"/>
+    <mergeCell ref="AZ103:BA103"/>
+    <mergeCell ref="AZ113:BA113"/>
+    <mergeCell ref="AZ116:BA116"/>
+    <mergeCell ref="AZ117:BA117"/>
+    <mergeCell ref="AZ134:BA134"/>
+    <mergeCell ref="AZ122:BA122"/>
+    <mergeCell ref="AZ129:BA129"/>
+    <mergeCell ref="AZ155:BA155"/>
+    <mergeCell ref="AZ153:BA153"/>
+    <mergeCell ref="AZ144:BA144"/>
+    <mergeCell ref="AZ147:BA147"/>
+    <mergeCell ref="AZ148:BA148"/>
+    <mergeCell ref="AZ152:BA152"/>
+    <mergeCell ref="AZ146:BA146"/>
+    <mergeCell ref="AZ133:BA133"/>
+    <mergeCell ref="AZ124:BA124"/>
+    <mergeCell ref="AZ127:BA127"/>
+    <mergeCell ref="AZ128:BA128"/>
+    <mergeCell ref="AZ132:BA132"/>
+    <mergeCell ref="AZ130:BA130"/>
+    <mergeCell ref="AZ198:BA198"/>
+    <mergeCell ref="AZ90:BA90"/>
+    <mergeCell ref="AZ97:BA97"/>
+    <mergeCell ref="AZ162:BA162"/>
+    <mergeCell ref="AZ142:BA142"/>
+    <mergeCell ref="AZ143:BA143"/>
+    <mergeCell ref="AZ138:BA138"/>
+    <mergeCell ref="AZ159:BA159"/>
+    <mergeCell ref="AZ151:BA151"/>
+    <mergeCell ref="AZ140:BA140"/>
+    <mergeCell ref="AZ190:BA190"/>
+    <mergeCell ref="AZ135:BA135"/>
+    <mergeCell ref="AZ149:BA149"/>
+    <mergeCell ref="AZ154:BA154"/>
+    <mergeCell ref="AZ157:BA157"/>
+    <mergeCell ref="AZ139:BA139"/>
+    <mergeCell ref="AZ141:BA141"/>
+    <mergeCell ref="AZ119:BA119"/>
+    <mergeCell ref="AZ123:BA123"/>
+    <mergeCell ref="AZ98:BA98"/>
+    <mergeCell ref="AZ121:BA121"/>
+    <mergeCell ref="AZ106:BA106"/>
+    <mergeCell ref="AZ114:BA114"/>
+    <mergeCell ref="AZ181:BA181"/>
+    <mergeCell ref="AZ64:BA64"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="AZ76:BA76"/>
+    <mergeCell ref="AZ68:BA68"/>
+    <mergeCell ref="AZ67:BA67"/>
+    <mergeCell ref="AZ72:BA72"/>
+    <mergeCell ref="AZ170:BA170"/>
+    <mergeCell ref="AZ178:BA178"/>
+    <mergeCell ref="AZ180:BA180"/>
+    <mergeCell ref="AZ165:BA165"/>
+    <mergeCell ref="AZ150:BA150"/>
+    <mergeCell ref="AZ145:BA145"/>
+    <mergeCell ref="AZ156:BA156"/>
+    <mergeCell ref="AZ71:BA71"/>
+    <mergeCell ref="AZ166:BA166"/>
+    <mergeCell ref="AZ176:BA176"/>
+    <mergeCell ref="AZ179:BA179"/>
+    <mergeCell ref="AZ173:BA173"/>
+    <mergeCell ref="AZ168:BA168"/>
+    <mergeCell ref="AZ172:BA172"/>
+    <mergeCell ref="AZ111:BA111"/>
+    <mergeCell ref="AZ112:BA112"/>
+    <mergeCell ref="AZ136:BA136"/>
+    <mergeCell ref="AZ137:BA137"/>
+    <mergeCell ref="AZ63:BA63"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="AZ188:BA188"/>
+    <mergeCell ref="AZ185:BA185"/>
+    <mergeCell ref="AZ197:BA197"/>
+    <mergeCell ref="AZ158:BA158"/>
+    <mergeCell ref="AZ160:BA160"/>
+    <mergeCell ref="AZ194:BA194"/>
+    <mergeCell ref="AZ195:BA195"/>
+    <mergeCell ref="AZ196:BA196"/>
+    <mergeCell ref="AZ171:BA171"/>
+    <mergeCell ref="AZ191:BA191"/>
+    <mergeCell ref="AZ193:BA193"/>
+    <mergeCell ref="AZ182:BA182"/>
+    <mergeCell ref="AZ161:BA161"/>
+    <mergeCell ref="AZ167:BA167"/>
+    <mergeCell ref="AZ169:BA169"/>
+    <mergeCell ref="AZ174:BA174"/>
+    <mergeCell ref="AZ163:BA163"/>
+    <mergeCell ref="AZ164:BA164"/>
+    <mergeCell ref="AZ189:BA189"/>
+    <mergeCell ref="AZ183:BA183"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="AZ187:BA187"/>
+    <mergeCell ref="AZ186:BA186"/>
+    <mergeCell ref="AZ184:BA184"/>
+    <mergeCell ref="AZ60:BA60"/>
+    <mergeCell ref="AZ61:BA61"/>
+    <mergeCell ref="AZ62:BA62"/>
+    <mergeCell ref="AZ70:BA70"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="AZ50:BA50"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="AZ58:BA58"/>
+    <mergeCell ref="AZ66:BA66"/>
+    <mergeCell ref="AZ47:BA47"/>
+    <mergeCell ref="AZ56:BA56"/>
+    <mergeCell ref="AZ55:BA55"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="AZ65:BA65"/>
+    <mergeCell ref="AZ192:BA192"/>
+    <mergeCell ref="AU208:AV208"/>
+    <mergeCell ref="AU202:AV202"/>
+    <mergeCell ref="AU203:AV203"/>
+    <mergeCell ref="AU207:AV207"/>
+    <mergeCell ref="AZ73:BA73"/>
+    <mergeCell ref="AZ75:BA75"/>
+    <mergeCell ref="AZ80:BA80"/>
+    <mergeCell ref="AZ77:BA77"/>
+    <mergeCell ref="AZ78:BA78"/>
+    <mergeCell ref="AZ81:BA81"/>
+    <mergeCell ref="AZ79:BA79"/>
+    <mergeCell ref="AZ91:BA91"/>
+    <mergeCell ref="AZ74:BA74"/>
+    <mergeCell ref="AZ83:BA83"/>
+    <mergeCell ref="AZ82:BA82"/>
+    <mergeCell ref="AZ88:BA88"/>
+    <mergeCell ref="AZ89:BA89"/>
+    <mergeCell ref="AZ84:BA84"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="AZ86:BA86"/>
+    <mergeCell ref="AZ87:BA87"/>
+    <mergeCell ref="AZ177:BA177"/>
+    <mergeCell ref="AZ175:BA175"/>
+    <mergeCell ref="AU166:AV166"/>
+    <mergeCell ref="AU172:AV172"/>
+    <mergeCell ref="AU235:AV235"/>
+    <mergeCell ref="AU223:AV223"/>
+    <mergeCell ref="AU238:AV238"/>
+    <mergeCell ref="AU234:AV234"/>
+    <mergeCell ref="AZ93:BA93"/>
+    <mergeCell ref="AZ115:BA115"/>
+    <mergeCell ref="AZ120:BA120"/>
+    <mergeCell ref="AZ126:BA126"/>
+    <mergeCell ref="AZ110:BA110"/>
+    <mergeCell ref="AU225:AV225"/>
+    <mergeCell ref="AU216:AV216"/>
+    <mergeCell ref="AU129:AV129"/>
+    <mergeCell ref="AU182:AV182"/>
+    <mergeCell ref="AU139:AV139"/>
+    <mergeCell ref="AU144:AV144"/>
+    <mergeCell ref="AU148:AV148"/>
+    <mergeCell ref="AU118:AV118"/>
+    <mergeCell ref="AU117:AV117"/>
+    <mergeCell ref="AU195:AV195"/>
+    <mergeCell ref="AU196:AV196"/>
+    <mergeCell ref="AU197:AV197"/>
+    <mergeCell ref="AU189:AV189"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU115:AV115"/>
+    <mergeCell ref="AU161:AV161"/>
+    <mergeCell ref="AU167:AV167"/>
+    <mergeCell ref="AU162:AV162"/>
+    <mergeCell ref="AU159:AV159"/>
+    <mergeCell ref="AU190:AV190"/>
+    <mergeCell ref="AU191:AV191"/>
+    <mergeCell ref="AU205:AV205"/>
+    <mergeCell ref="AU201:AV201"/>
+    <mergeCell ref="AU193:AV193"/>
+    <mergeCell ref="AU200:AV200"/>
+    <mergeCell ref="AU199:AV199"/>
+    <mergeCell ref="AU188:AV188"/>
+    <mergeCell ref="AU198:AV198"/>
+    <mergeCell ref="AU204:AV204"/>
+    <mergeCell ref="AU160:AV160"/>
+    <mergeCell ref="AU181:AV181"/>
+    <mergeCell ref="AU174:AV174"/>
+    <mergeCell ref="AU163:AV163"/>
+    <mergeCell ref="AU169:AV169"/>
+    <mergeCell ref="AU171:AV171"/>
+    <mergeCell ref="AU168:AV168"/>
+    <mergeCell ref="AU177:AV177"/>
+    <mergeCell ref="AU108:AV108"/>
+    <mergeCell ref="AU109:AV109"/>
+    <mergeCell ref="AU110:AV110"/>
+    <mergeCell ref="AU114:AV114"/>
+    <mergeCell ref="AU105:AV105"/>
+    <mergeCell ref="AU147:AV147"/>
+    <mergeCell ref="AU140:AV140"/>
+    <mergeCell ref="AU145:AV145"/>
+    <mergeCell ref="AU107:AV107"/>
+    <mergeCell ref="AU130:AV130"/>
+    <mergeCell ref="AU131:AV131"/>
+    <mergeCell ref="AU134:AV134"/>
+    <mergeCell ref="AU132:AV132"/>
+    <mergeCell ref="AU138:AV138"/>
+    <mergeCell ref="AU135:AV135"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU137:AV137"/>
+    <mergeCell ref="AU136:AV136"/>
+    <mergeCell ref="AU112:AV112"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU113:AV113"/>
+    <mergeCell ref="AU127:AV127"/>
+    <mergeCell ref="AU133:AV133"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU149:AV149"/>
+    <mergeCell ref="AU126:AV126"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU125:AV125"/>
+    <mergeCell ref="AU128:AV128"/>
+    <mergeCell ref="AU178:AV178"/>
+    <mergeCell ref="AU179:AV179"/>
+    <mergeCell ref="AU180:AV180"/>
+    <mergeCell ref="AU175:AV175"/>
+    <mergeCell ref="AU173:AV173"/>
+    <mergeCell ref="AU141:AV141"/>
+    <mergeCell ref="AU146:AV146"/>
+    <mergeCell ref="AU143:AV143"/>
+    <mergeCell ref="AU142:AV142"/>
+    <mergeCell ref="AU157:AV157"/>
+    <mergeCell ref="AU154:AV154"/>
+    <mergeCell ref="AU150:AV150"/>
+    <mergeCell ref="AU151:AV151"/>
+    <mergeCell ref="AU153:AV153"/>
+    <mergeCell ref="AU155:AV155"/>
+    <mergeCell ref="AU156:AV156"/>
+    <mergeCell ref="AU152:AV152"/>
+    <mergeCell ref="AU158:AV158"/>
+    <mergeCell ref="AU247:AV247"/>
+    <mergeCell ref="AU246:AV246"/>
+    <mergeCell ref="AU220:AV220"/>
+    <mergeCell ref="AU209:AV209"/>
+    <mergeCell ref="AU222:AV222"/>
+    <mergeCell ref="AU210:AV210"/>
+    <mergeCell ref="AU218:AV218"/>
+    <mergeCell ref="AU187:AV187"/>
+    <mergeCell ref="AU183:AV183"/>
+    <mergeCell ref="AU186:AV186"/>
+    <mergeCell ref="AU185:AV185"/>
+    <mergeCell ref="AU184:AV184"/>
+    <mergeCell ref="AU192:AV192"/>
+    <mergeCell ref="AU194:AV194"/>
+    <mergeCell ref="AU233:AV233"/>
+    <mergeCell ref="AU206:AV206"/>
+    <mergeCell ref="AU240:AV240"/>
+    <mergeCell ref="AU211:AV211"/>
+    <mergeCell ref="AU231:AV231"/>
+    <mergeCell ref="AU219:AV219"/>
+    <mergeCell ref="AU224:AV224"/>
+    <mergeCell ref="AU226:AV226"/>
+    <mergeCell ref="AU228:AV228"/>
+    <mergeCell ref="AU230:AV230"/>
+    <mergeCell ref="AU164:AV164"/>
+    <mergeCell ref="AU165:AV165"/>
+    <mergeCell ref="AU170:AV170"/>
+    <mergeCell ref="AU176:AV176"/>
+    <mergeCell ref="AU40:AV40"/>
+    <mergeCell ref="AU42:AV42"/>
+    <mergeCell ref="AU57:AV57"/>
+    <mergeCell ref="AU63:AV63"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="AU50:AV50"/>
+    <mergeCell ref="AU51:AV51"/>
+    <mergeCell ref="AU52:AV52"/>
+    <mergeCell ref="AU55:AV55"/>
+    <mergeCell ref="AU66:AV66"/>
+    <mergeCell ref="AU69:AV69"/>
+    <mergeCell ref="AU54:AV54"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="AU56:AV56"/>
+    <mergeCell ref="AU48:AV48"/>
+    <mergeCell ref="AU53:AV53"/>
+    <mergeCell ref="AU47:AV47"/>
+    <mergeCell ref="AU116:AV116"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU254:AV254"/>
+    <mergeCell ref="AU217:AV217"/>
+    <mergeCell ref="AU215:AV215"/>
+    <mergeCell ref="AU214:AV214"/>
+    <mergeCell ref="AU251:AV251"/>
+    <mergeCell ref="AU249:AV249"/>
+    <mergeCell ref="AU212:AV212"/>
+    <mergeCell ref="AU232:AV232"/>
+    <mergeCell ref="AU237:AV237"/>
+    <mergeCell ref="AU239:AV239"/>
+    <mergeCell ref="AU242:AV242"/>
+    <mergeCell ref="AU213:AV213"/>
+    <mergeCell ref="AU236:AV236"/>
+    <mergeCell ref="AU221:AV221"/>
+    <mergeCell ref="AU229:AV229"/>
+    <mergeCell ref="AU227:AV227"/>
+    <mergeCell ref="AU253:AV253"/>
+    <mergeCell ref="AU250:AV250"/>
+    <mergeCell ref="AU245:AV245"/>
+    <mergeCell ref="AU252:AV252"/>
+    <mergeCell ref="AU244:AV244"/>
+    <mergeCell ref="AU243:AV243"/>
+    <mergeCell ref="AU248:AV248"/>
+    <mergeCell ref="AU241:AV241"/>
+    <mergeCell ref="AU85:AV85"/>
+    <mergeCell ref="AU87:AV87"/>
+    <mergeCell ref="AU84:AV84"/>
+    <mergeCell ref="AU86:AV86"/>
+    <mergeCell ref="AU89:AV89"/>
+    <mergeCell ref="AU93:AV93"/>
+    <mergeCell ref="AU97:AV97"/>
+    <mergeCell ref="AU106:AV106"/>
+    <mergeCell ref="AU94:AV94"/>
+    <mergeCell ref="AU95:AV95"/>
+    <mergeCell ref="AU88:AV88"/>
+    <mergeCell ref="AU90:AV90"/>
+    <mergeCell ref="AU96:AV96"/>
+    <mergeCell ref="AU91:AV91"/>
+    <mergeCell ref="AU92:AV92"/>
+    <mergeCell ref="AU102:AV102"/>
+    <mergeCell ref="AU98:AV98"/>
+    <mergeCell ref="AU101:AV101"/>
+    <mergeCell ref="AU100:AV100"/>
+    <mergeCell ref="AU99:AV99"/>
+    <mergeCell ref="AU103:AV103"/>
+    <mergeCell ref="AU104:AV104"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU73:AV73"/>
+    <mergeCell ref="AU74:AV74"/>
+    <mergeCell ref="AU82:AV82"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AU81:AV81"/>
+    <mergeCell ref="AU83:AV83"/>
+    <mergeCell ref="AU60:AV60"/>
+    <mergeCell ref="AU64:AV64"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU61:AV61"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AU70:AV70"/>
+    <mergeCell ref="AU68:AV68"/>
+    <mergeCell ref="AU62:AV62"/>
+    <mergeCell ref="AU65:AV65"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU77:AV77"/>
     <mergeCell ref="AU26:AV26"/>
     <mergeCell ref="AU37:AV37"/>
     <mergeCell ref="AU39:AV39"/>
@@ -23512,404 +23894,28 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU73:AV73"/>
-    <mergeCell ref="AU74:AV74"/>
-    <mergeCell ref="AU82:AV82"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="AU81:AV81"/>
-    <mergeCell ref="AU83:AV83"/>
-    <mergeCell ref="AU60:AV60"/>
-    <mergeCell ref="AU64:AV64"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU61:AV61"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AU70:AV70"/>
-    <mergeCell ref="AU68:AV68"/>
-    <mergeCell ref="AU62:AV62"/>
-    <mergeCell ref="AU65:AV65"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU85:AV85"/>
-    <mergeCell ref="AU87:AV87"/>
-    <mergeCell ref="AU84:AV84"/>
-    <mergeCell ref="AU86:AV86"/>
-    <mergeCell ref="AU89:AV89"/>
-    <mergeCell ref="AU93:AV93"/>
-    <mergeCell ref="AU97:AV97"/>
-    <mergeCell ref="AU106:AV106"/>
-    <mergeCell ref="AU94:AV94"/>
-    <mergeCell ref="AU95:AV95"/>
-    <mergeCell ref="AU88:AV88"/>
-    <mergeCell ref="AU90:AV90"/>
-    <mergeCell ref="AU96:AV96"/>
-    <mergeCell ref="AU91:AV91"/>
-    <mergeCell ref="AU92:AV92"/>
-    <mergeCell ref="AU102:AV102"/>
-    <mergeCell ref="AU98:AV98"/>
-    <mergeCell ref="AU101:AV101"/>
-    <mergeCell ref="AU100:AV100"/>
-    <mergeCell ref="AU99:AV99"/>
-    <mergeCell ref="AU103:AV103"/>
-    <mergeCell ref="AU104:AV104"/>
-    <mergeCell ref="AU254:AV254"/>
-    <mergeCell ref="AU217:AV217"/>
-    <mergeCell ref="AU215:AV215"/>
-    <mergeCell ref="AU214:AV214"/>
-    <mergeCell ref="AU251:AV251"/>
-    <mergeCell ref="AU249:AV249"/>
-    <mergeCell ref="AU212:AV212"/>
-    <mergeCell ref="AU232:AV232"/>
-    <mergeCell ref="AU237:AV237"/>
-    <mergeCell ref="AU239:AV239"/>
-    <mergeCell ref="AU242:AV242"/>
-    <mergeCell ref="AU213:AV213"/>
-    <mergeCell ref="AU236:AV236"/>
-    <mergeCell ref="AU221:AV221"/>
-    <mergeCell ref="AU229:AV229"/>
-    <mergeCell ref="AU227:AV227"/>
-    <mergeCell ref="AU253:AV253"/>
-    <mergeCell ref="AU250:AV250"/>
-    <mergeCell ref="AU245:AV245"/>
-    <mergeCell ref="AU252:AV252"/>
-    <mergeCell ref="AU244:AV244"/>
-    <mergeCell ref="AU243:AV243"/>
-    <mergeCell ref="AU248:AV248"/>
-    <mergeCell ref="AU241:AV241"/>
-    <mergeCell ref="AU164:AV164"/>
-    <mergeCell ref="AU165:AV165"/>
-    <mergeCell ref="AU170:AV170"/>
-    <mergeCell ref="AU176:AV176"/>
-    <mergeCell ref="AU40:AV40"/>
-    <mergeCell ref="AU42:AV42"/>
-    <mergeCell ref="AU57:AV57"/>
-    <mergeCell ref="AU63:AV63"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="AU50:AV50"/>
-    <mergeCell ref="AU51:AV51"/>
-    <mergeCell ref="AU52:AV52"/>
-    <mergeCell ref="AU55:AV55"/>
-    <mergeCell ref="AU66:AV66"/>
-    <mergeCell ref="AU69:AV69"/>
-    <mergeCell ref="AU54:AV54"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="AU56:AV56"/>
-    <mergeCell ref="AU48:AV48"/>
-    <mergeCell ref="AU53:AV53"/>
-    <mergeCell ref="AU47:AV47"/>
-    <mergeCell ref="AU116:AV116"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU247:AV247"/>
-    <mergeCell ref="AU246:AV246"/>
-    <mergeCell ref="AU220:AV220"/>
-    <mergeCell ref="AU209:AV209"/>
-    <mergeCell ref="AU222:AV222"/>
-    <mergeCell ref="AU210:AV210"/>
-    <mergeCell ref="AU218:AV218"/>
-    <mergeCell ref="AU187:AV187"/>
-    <mergeCell ref="AU183:AV183"/>
-    <mergeCell ref="AU186:AV186"/>
-    <mergeCell ref="AU185:AV185"/>
-    <mergeCell ref="AU184:AV184"/>
-    <mergeCell ref="AU192:AV192"/>
-    <mergeCell ref="AU194:AV194"/>
-    <mergeCell ref="AU233:AV233"/>
-    <mergeCell ref="AU206:AV206"/>
-    <mergeCell ref="AU240:AV240"/>
-    <mergeCell ref="AU211:AV211"/>
-    <mergeCell ref="AU231:AV231"/>
-    <mergeCell ref="AU219:AV219"/>
-    <mergeCell ref="AU224:AV224"/>
-    <mergeCell ref="AU226:AV226"/>
-    <mergeCell ref="AU228:AV228"/>
-    <mergeCell ref="AU230:AV230"/>
-    <mergeCell ref="AU149:AV149"/>
-    <mergeCell ref="AU126:AV126"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU125:AV125"/>
-    <mergeCell ref="AU128:AV128"/>
-    <mergeCell ref="AU178:AV178"/>
-    <mergeCell ref="AU179:AV179"/>
-    <mergeCell ref="AU180:AV180"/>
-    <mergeCell ref="AU175:AV175"/>
-    <mergeCell ref="AU173:AV173"/>
-    <mergeCell ref="AU141:AV141"/>
-    <mergeCell ref="AU146:AV146"/>
-    <mergeCell ref="AU143:AV143"/>
-    <mergeCell ref="AU142:AV142"/>
-    <mergeCell ref="AU157:AV157"/>
-    <mergeCell ref="AU154:AV154"/>
-    <mergeCell ref="AU150:AV150"/>
-    <mergeCell ref="AU151:AV151"/>
-    <mergeCell ref="AU153:AV153"/>
-    <mergeCell ref="AU155:AV155"/>
-    <mergeCell ref="AU156:AV156"/>
-    <mergeCell ref="AU152:AV152"/>
-    <mergeCell ref="AU158:AV158"/>
-    <mergeCell ref="AU108:AV108"/>
-    <mergeCell ref="AU109:AV109"/>
-    <mergeCell ref="AU110:AV110"/>
-    <mergeCell ref="AU114:AV114"/>
-    <mergeCell ref="AU105:AV105"/>
-    <mergeCell ref="AU147:AV147"/>
-    <mergeCell ref="AU140:AV140"/>
-    <mergeCell ref="AU145:AV145"/>
-    <mergeCell ref="AU107:AV107"/>
-    <mergeCell ref="AU130:AV130"/>
-    <mergeCell ref="AU131:AV131"/>
-    <mergeCell ref="AU134:AV134"/>
-    <mergeCell ref="AU132:AV132"/>
-    <mergeCell ref="AU138:AV138"/>
-    <mergeCell ref="AU135:AV135"/>
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU137:AV137"/>
-    <mergeCell ref="AU136:AV136"/>
-    <mergeCell ref="AU112:AV112"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU113:AV113"/>
-    <mergeCell ref="AU127:AV127"/>
-    <mergeCell ref="AU133:AV133"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU115:AV115"/>
-    <mergeCell ref="AU161:AV161"/>
-    <mergeCell ref="AU167:AV167"/>
-    <mergeCell ref="AU162:AV162"/>
-    <mergeCell ref="AU159:AV159"/>
-    <mergeCell ref="AU190:AV190"/>
-    <mergeCell ref="AU191:AV191"/>
-    <mergeCell ref="AU205:AV205"/>
-    <mergeCell ref="AU201:AV201"/>
-    <mergeCell ref="AU193:AV193"/>
-    <mergeCell ref="AU200:AV200"/>
-    <mergeCell ref="AU199:AV199"/>
-    <mergeCell ref="AU188:AV188"/>
-    <mergeCell ref="AU198:AV198"/>
-    <mergeCell ref="AU204:AV204"/>
-    <mergeCell ref="AU160:AV160"/>
-    <mergeCell ref="AU181:AV181"/>
-    <mergeCell ref="AU174:AV174"/>
-    <mergeCell ref="AU163:AV163"/>
-    <mergeCell ref="AU169:AV169"/>
-    <mergeCell ref="AU171:AV171"/>
-    <mergeCell ref="AU168:AV168"/>
-    <mergeCell ref="AU177:AV177"/>
-    <mergeCell ref="AU166:AV166"/>
-    <mergeCell ref="AU172:AV172"/>
-    <mergeCell ref="AU235:AV235"/>
-    <mergeCell ref="AU223:AV223"/>
-    <mergeCell ref="AU238:AV238"/>
-    <mergeCell ref="AU234:AV234"/>
-    <mergeCell ref="AZ93:BA93"/>
-    <mergeCell ref="AZ115:BA115"/>
-    <mergeCell ref="AZ120:BA120"/>
-    <mergeCell ref="AZ126:BA126"/>
-    <mergeCell ref="AZ110:BA110"/>
-    <mergeCell ref="AU225:AV225"/>
-    <mergeCell ref="AU216:AV216"/>
-    <mergeCell ref="AU129:AV129"/>
-    <mergeCell ref="AU182:AV182"/>
-    <mergeCell ref="AU139:AV139"/>
-    <mergeCell ref="AU144:AV144"/>
-    <mergeCell ref="AU148:AV148"/>
-    <mergeCell ref="AU118:AV118"/>
-    <mergeCell ref="AU117:AV117"/>
-    <mergeCell ref="AU195:AV195"/>
-    <mergeCell ref="AU196:AV196"/>
-    <mergeCell ref="AU197:AV197"/>
-    <mergeCell ref="AU189:AV189"/>
-    <mergeCell ref="AZ192:BA192"/>
-    <mergeCell ref="AU208:AV208"/>
-    <mergeCell ref="AU202:AV202"/>
-    <mergeCell ref="AU203:AV203"/>
-    <mergeCell ref="AU207:AV207"/>
-    <mergeCell ref="AZ73:BA73"/>
-    <mergeCell ref="AZ75:BA75"/>
-    <mergeCell ref="AZ80:BA80"/>
-    <mergeCell ref="AZ77:BA77"/>
-    <mergeCell ref="AZ78:BA78"/>
-    <mergeCell ref="AZ81:BA81"/>
-    <mergeCell ref="AZ79:BA79"/>
-    <mergeCell ref="AZ91:BA91"/>
-    <mergeCell ref="AZ74:BA74"/>
-    <mergeCell ref="AZ83:BA83"/>
-    <mergeCell ref="AZ82:BA82"/>
-    <mergeCell ref="AZ88:BA88"/>
-    <mergeCell ref="AZ89:BA89"/>
-    <mergeCell ref="AZ84:BA84"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="AZ86:BA86"/>
-    <mergeCell ref="AZ87:BA87"/>
-    <mergeCell ref="AZ177:BA177"/>
-    <mergeCell ref="AZ175:BA175"/>
-    <mergeCell ref="AZ186:BA186"/>
-    <mergeCell ref="AZ184:BA184"/>
-    <mergeCell ref="AZ60:BA60"/>
-    <mergeCell ref="AZ61:BA61"/>
-    <mergeCell ref="AZ62:BA62"/>
-    <mergeCell ref="AZ70:BA70"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="AZ39:BA39"/>
-    <mergeCell ref="AZ50:BA50"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="AZ58:BA58"/>
-    <mergeCell ref="AZ66:BA66"/>
-    <mergeCell ref="AZ47:BA47"/>
-    <mergeCell ref="AZ56:BA56"/>
-    <mergeCell ref="AZ55:BA55"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="AZ65:BA65"/>
-    <mergeCell ref="AZ63:BA63"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="AZ188:BA188"/>
-    <mergeCell ref="AZ185:BA185"/>
-    <mergeCell ref="AZ197:BA197"/>
-    <mergeCell ref="AZ158:BA158"/>
-    <mergeCell ref="AZ160:BA160"/>
-    <mergeCell ref="AZ194:BA194"/>
-    <mergeCell ref="AZ195:BA195"/>
-    <mergeCell ref="AZ196:BA196"/>
-    <mergeCell ref="AZ171:BA171"/>
-    <mergeCell ref="AZ191:BA191"/>
-    <mergeCell ref="AZ193:BA193"/>
-    <mergeCell ref="AZ182:BA182"/>
-    <mergeCell ref="AZ161:BA161"/>
-    <mergeCell ref="AZ167:BA167"/>
-    <mergeCell ref="AZ169:BA169"/>
-    <mergeCell ref="AZ174:BA174"/>
-    <mergeCell ref="AZ163:BA163"/>
-    <mergeCell ref="AZ164:BA164"/>
-    <mergeCell ref="AZ189:BA189"/>
-    <mergeCell ref="AZ183:BA183"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="AZ187:BA187"/>
-    <mergeCell ref="AZ64:BA64"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="AZ76:BA76"/>
-    <mergeCell ref="AZ68:BA68"/>
-    <mergeCell ref="AZ67:BA67"/>
-    <mergeCell ref="AZ72:BA72"/>
-    <mergeCell ref="AZ170:BA170"/>
-    <mergeCell ref="AZ178:BA178"/>
-    <mergeCell ref="AZ180:BA180"/>
-    <mergeCell ref="AZ165:BA165"/>
-    <mergeCell ref="AZ150:BA150"/>
-    <mergeCell ref="AZ145:BA145"/>
-    <mergeCell ref="AZ156:BA156"/>
-    <mergeCell ref="AZ71:BA71"/>
-    <mergeCell ref="AZ166:BA166"/>
-    <mergeCell ref="AZ176:BA176"/>
-    <mergeCell ref="AZ179:BA179"/>
-    <mergeCell ref="AZ173:BA173"/>
-    <mergeCell ref="AZ168:BA168"/>
-    <mergeCell ref="AZ172:BA172"/>
-    <mergeCell ref="AZ111:BA111"/>
-    <mergeCell ref="AZ112:BA112"/>
-    <mergeCell ref="AZ136:BA136"/>
-    <mergeCell ref="AZ137:BA137"/>
-    <mergeCell ref="AZ198:BA198"/>
-    <mergeCell ref="AZ90:BA90"/>
-    <mergeCell ref="AZ97:BA97"/>
-    <mergeCell ref="AZ162:BA162"/>
-    <mergeCell ref="AZ142:BA142"/>
-    <mergeCell ref="AZ143:BA143"/>
-    <mergeCell ref="AZ138:BA138"/>
-    <mergeCell ref="AZ159:BA159"/>
-    <mergeCell ref="AZ151:BA151"/>
-    <mergeCell ref="AZ140:BA140"/>
-    <mergeCell ref="AZ190:BA190"/>
-    <mergeCell ref="AZ135:BA135"/>
-    <mergeCell ref="AZ149:BA149"/>
-    <mergeCell ref="AZ154:BA154"/>
-    <mergeCell ref="AZ157:BA157"/>
-    <mergeCell ref="AZ139:BA139"/>
-    <mergeCell ref="AZ141:BA141"/>
-    <mergeCell ref="AZ119:BA119"/>
-    <mergeCell ref="AZ123:BA123"/>
-    <mergeCell ref="AZ98:BA98"/>
-    <mergeCell ref="AZ121:BA121"/>
-    <mergeCell ref="AZ106:BA106"/>
-    <mergeCell ref="AZ114:BA114"/>
-    <mergeCell ref="AZ181:BA181"/>
-    <mergeCell ref="AZ134:BA134"/>
-    <mergeCell ref="AZ122:BA122"/>
-    <mergeCell ref="AZ129:BA129"/>
-    <mergeCell ref="AZ155:BA155"/>
-    <mergeCell ref="AZ153:BA153"/>
-    <mergeCell ref="AZ144:BA144"/>
-    <mergeCell ref="AZ147:BA147"/>
-    <mergeCell ref="AZ148:BA148"/>
-    <mergeCell ref="AZ152:BA152"/>
-    <mergeCell ref="AZ146:BA146"/>
-    <mergeCell ref="AZ133:BA133"/>
-    <mergeCell ref="AZ124:BA124"/>
-    <mergeCell ref="AZ127:BA127"/>
-    <mergeCell ref="AZ128:BA128"/>
-    <mergeCell ref="AZ132:BA132"/>
-    <mergeCell ref="AZ130:BA130"/>
-    <mergeCell ref="AZ104:BA104"/>
-    <mergeCell ref="AZ95:BA95"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="AZ131:BA131"/>
-    <mergeCell ref="AZ125:BA125"/>
-    <mergeCell ref="AZ108:BA108"/>
-    <mergeCell ref="AZ107:BA107"/>
-    <mergeCell ref="AZ101:BA101"/>
-    <mergeCell ref="AZ109:BA109"/>
-    <mergeCell ref="AZ118:BA118"/>
-    <mergeCell ref="AZ105:BA105"/>
-    <mergeCell ref="AZ100:BA100"/>
-    <mergeCell ref="AZ96:BA96"/>
-    <mergeCell ref="AZ99:BA99"/>
-    <mergeCell ref="AZ103:BA103"/>
-    <mergeCell ref="AZ113:BA113"/>
-    <mergeCell ref="AZ116:BA116"/>
-    <mergeCell ref="AZ117:BA117"/>
-    <mergeCell ref="AZ92:BA92"/>
-    <mergeCell ref="AZ94:BA94"/>
-    <mergeCell ref="BF34:BG34"/>
-    <mergeCell ref="BF35:BG35"/>
-    <mergeCell ref="BF36:BG36"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="BF32:BG32"/>
-    <mergeCell ref="AZ49:BA49"/>
-    <mergeCell ref="AZ51:BA51"/>
-    <mergeCell ref="AZ57:BA57"/>
-    <mergeCell ref="AZ54:BA54"/>
-    <mergeCell ref="AZ38:BA38"/>
-    <mergeCell ref="AZ43:BA43"/>
-    <mergeCell ref="AZ45:BA45"/>
-    <mergeCell ref="AZ46:BA46"/>
-    <mergeCell ref="AZ40:BA40"/>
-    <mergeCell ref="AZ53:BA53"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="AZ48:BA48"/>
-    <mergeCell ref="AZ52:BA52"/>
-    <mergeCell ref="AZ42:BA42"/>
-    <mergeCell ref="BF28:BG28"/>
-    <mergeCell ref="BF29:BG29"/>
-    <mergeCell ref="BF30:BG30"/>
-    <mergeCell ref="BF31:BG31"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="B2:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H20:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:C254">
@@ -23954,8 +23960,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="Q138" sqref="Q138"/>
+    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24008,10 +24014,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
       <c r="F2" s="2"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -24036,10 +24042,10 @@
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
       <c r="F3" s="248"/>
       <c r="G3" s="91" t="s">
         <v>32</v>
@@ -24066,10 +24072,10 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="316"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
+      <c r="B4" s="304"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
       <c r="F4" s="249"/>
       <c r="G4" s="50" t="s">
         <v>66</v>
@@ -24096,10 +24102,10 @@
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
       <c r="F5" s="249"/>
       <c r="G5" s="50" t="s">
         <v>63</v>
@@ -24126,24 +24132,24 @@
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="316"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
       <c r="F6" s="250"/>
-      <c r="G6" s="320"/>
-      <c r="H6" s="321"/>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="321"/>
-      <c r="L6" s="321"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="321"/>
-      <c r="S6" s="322"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
+      <c r="R6" s="319"/>
+      <c r="S6" s="320"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
@@ -24156,10 +24162,10 @@
     </row>
     <row r="7" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
-      <c r="B7" s="316"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
       <c r="F7" s="251"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -24185,20 +24191,20 @@
     <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
-      <c r="G8" s="368"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="367"/>
-      <c r="J8" s="368"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="353"/>
+      <c r="F8" s="353"/>
+      <c r="G8" s="354"/>
+      <c r="H8" s="353"/>
+      <c r="I8" s="353"/>
+      <c r="J8" s="354"/>
       <c r="K8" s="182"/>
       <c r="M8" s="80"/>
-      <c r="N8" s="365"/>
-      <c r="O8" s="366"/>
-      <c r="P8" s="369"/>
-      <c r="Q8" s="365"/>
-      <c r="R8" s="366"/>
+      <c r="N8" s="351"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="355"/>
+      <c r="Q8" s="351"/>
+      <c r="R8" s="352"/>
       <c r="S8" s="269"/>
       <c r="T8" s="97"/>
       <c r="U8" s="98"/>
@@ -24212,10 +24218,10 @@
     </row>
     <row r="9" spans="1:28" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95"/>
-      <c r="B9" s="371" t="s">
+      <c r="B9" s="357" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="372"/>
+      <c r="C9" s="358"/>
       <c r="D9" s="137" t="s">
         <v>8</v>
       </c>
@@ -24231,8 +24237,8 @@
       <c r="J9" s="127"/>
       <c r="K9" s="128"/>
       <c r="M9" s="125"/>
-      <c r="N9" s="363"/>
-      <c r="O9" s="364"/>
+      <c r="N9" s="349"/>
+      <c r="O9" s="350"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="259"/>
       <c r="S9" s="98"/>
@@ -24248,10 +24254,10 @@
     </row>
     <row r="10" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="278" t="s">
+      <c r="B10" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="355"/>
+      <c r="C10" s="368"/>
       <c r="D10" s="135">
         <f>COUNTIF(C$18:C$156,"&gt;""")</f>
         <v>30</v>
@@ -24287,10 +24293,10 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="282" t="s">
+      <c r="B11" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="360"/>
+      <c r="C11" s="373"/>
       <c r="D11" s="133">
         <f>COUNTIF(I$18:I$141,"&gt;""")</f>
         <v>0</v>
@@ -24326,30 +24332,30 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="361" t="s">
+      <c r="B12" s="374" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="362"/>
+      <c r="C12" s="375"/>
       <c r="D12" s="134">
         <f>COUNTIF(O$18:O$157,"&gt;""")</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E12" s="37">
         <f>SUM(AV:AV)</f>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F12" s="255"/>
       <c r="G12" s="176">
         <f>IF(D12=0,"",E12/D12)</f>
-        <v>0.76811594202898548</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
       <c r="K12" s="130"/>
       <c r="M12" s="125"/>
-      <c r="N12" s="358"/>
-      <c r="O12" s="359"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="372"/>
       <c r="P12" s="179"/>
       <c r="Q12" s="260"/>
       <c r="S12" s="98"/>
@@ -24372,13 +24378,13 @@
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
       <c r="H13" s="126"/>
-      <c r="I13" s="327"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="329"/>
-      <c r="N13" s="358"/>
-      <c r="O13" s="359"/>
+      <c r="I13" s="279"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="281"/>
+      <c r="M13" s="281"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="372"/>
       <c r="P13" s="179"/>
       <c r="Q13" s="260"/>
       <c r="S13" s="98"/>
@@ -24403,13 +24409,13 @@
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
-      <c r="I14" s="330"/>
-      <c r="J14" s="331"/>
-      <c r="K14" s="331"/>
-      <c r="L14" s="332"/>
-      <c r="M14" s="332"/>
-      <c r="N14" s="356"/>
-      <c r="O14" s="357"/>
+      <c r="I14" s="282"/>
+      <c r="J14" s="283"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="284"/>
+      <c r="N14" s="369"/>
+      <c r="O14" s="370"/>
       <c r="P14" s="179"/>
       <c r="Q14" s="260"/>
       <c r="S14" s="98"/>
@@ -24432,13 +24438,13 @@
       <c r="F15" s="89"/>
       <c r="G15" s="89"/>
       <c r="H15" s="90"/>
-      <c r="I15" s="333"/>
-      <c r="J15" s="334"/>
-      <c r="K15" s="334"/>
-      <c r="L15" s="335"/>
-      <c r="M15" s="335"/>
-      <c r="N15" s="356"/>
-      <c r="O15" s="357"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="286"/>
+      <c r="L15" s="287"/>
+      <c r="M15" s="287"/>
+      <c r="N15" s="369"/>
+      <c r="O15" s="370"/>
       <c r="P15" s="179"/>
       <c r="Q15" s="260"/>
       <c r="S15" s="98"/>
@@ -24454,27 +24460,27 @@
     </row>
     <row r="16" spans="1:28" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="349" t="s">
+      <c r="B16" s="362" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="350"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="351"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="364"/>
       <c r="F16" s="256"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="352" t="s">
+      <c r="G16" s="331"/>
+      <c r="H16" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="353"/>
-      <c r="J16" s="353"/>
-      <c r="K16" s="354"/>
+      <c r="I16" s="366"/>
+      <c r="J16" s="366"/>
+      <c r="K16" s="367"/>
       <c r="M16" s="72"/>
-      <c r="N16" s="346" t="s">
+      <c r="N16" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="347"/>
-      <c r="P16" s="347"/>
-      <c r="Q16" s="348"/>
+      <c r="O16" s="360"/>
+      <c r="P16" s="360"/>
+      <c r="Q16" s="361"/>
       <c r="S16" s="268"/>
       <c r="T16" s="103"/>
       <c r="U16" s="98"/>
@@ -24501,7 +24507,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="256"/>
-      <c r="G17" s="306"/>
+      <c r="G17" s="331"/>
       <c r="H17" s="117" t="s">
         <v>14</v>
       </c>
@@ -24807,10 +24813,12 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O22" s="201"/>
+      <c r="O22" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P22" s="16" t="str">
         <f>IF(AND(O22&gt;="A",O22&lt;="E"),VLOOKUP(N22,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q22" s="263"/>
       <c r="S22" s="72"/>
@@ -24833,7 +24841,7 @@
       </c>
       <c r="AV22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24923,10 +24931,12 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O24" s="201"/>
+      <c r="O24" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P24" s="16" t="str">
         <f>IF(AND(O24&gt;="A",O24&lt;="E"),VLOOKUP(N24,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q24" s="263"/>
       <c r="S24" s="272"/>
@@ -24949,7 +24959,7 @@
       </c>
       <c r="AV24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24981,10 +24991,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O25" s="201"/>
+      <c r="O25" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P25" s="16" t="str">
         <f>IF(AND(O25&gt;="A",O25&lt;="E"),VLOOKUP(N25,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q25" s="263"/>
       <c r="S25" s="272"/>
@@ -25007,7 +25019,7 @@
       </c>
       <c r="AV25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25162,10 +25174,12 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="O28" s="201"/>
+      <c r="O28" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P28" s="16" t="str">
         <f>IF(AND(O28&gt;="A",O28&lt;="E"),VLOOKUP(N28,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q28" s="263"/>
       <c r="S28" s="272"/>
@@ -25188,7 +25202,7 @@
       </c>
       <c r="AV28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26177,10 +26191,12 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O45" s="201"/>
+      <c r="O45" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P45" s="17" t="str">
         <f>IF(AND(O45&gt;="A",O45&lt;="E"),VLOOKUP(N45,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q45" s="263"/>
       <c r="S45" s="72"/>
@@ -26203,7 +26219,7 @@
       </c>
       <c r="AV45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26622,7 +26638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:48" ht="230.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="108">
         <f t="shared" si="3"/>
@@ -26659,7 +26675,7 @@
         <v>E</v>
       </c>
       <c r="Q53" s="263"/>
-      <c r="R53" s="373" t="s">
+      <c r="R53" s="276" t="s">
         <v>83</v>
       </c>
       <c r="S53" s="72"/>
@@ -27008,12 +27024,17 @@
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="O59" s="201"/>
+      <c r="O59" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P59" s="17" t="str">
         <f>IF(AND(O59&gt;="A",O59&lt;="E"),VLOOKUP(N59,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q59" s="263"/>
+      <c r="R59" t="s">
+        <v>98</v>
+      </c>
       <c r="S59" s="72"/>
       <c r="T59" s="63"/>
       <c r="U59" s="48"/>
@@ -27134,7 +27155,7 @@
         <v>A</v>
       </c>
       <c r="Q61" s="263"/>
-      <c r="R61" s="373" t="s">
+      <c r="R61" s="276" t="s">
         <v>96</v>
       </c>
       <c r="S61" s="72"/>
@@ -27608,12 +27629,19 @@
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="O69" s="201"/>
+      <c r="O69" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P69" s="17" t="str">
         <f>IF(AND(O69&gt;="A",O69&lt;="E"),VLOOKUP(N69,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q69" s="263"/>
+        <v>C</v>
+      </c>
+      <c r="Q69" s="263" t="s">
+        <v>57</v>
+      </c>
+      <c r="R69" t="s">
+        <v>99</v>
+      </c>
       <c r="S69" s="72"/>
       <c r="T69" s="63"/>
       <c r="U69" s="48"/>
@@ -27724,10 +27752,12 @@
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="O71" s="201"/>
+      <c r="O71" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P71" s="17" t="str">
         <f>IF(AND(O71&gt;="A",O71&lt;="E"),VLOOKUP(N71,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q71" s="263"/>
       <c r="S71" s="72"/>
@@ -27750,7 +27780,7 @@
       </c>
       <c r="AV71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28494,10 +28524,12 @@
         <f t="shared" ref="N84:N147" si="13">N83+1</f>
         <v>67</v>
       </c>
-      <c r="O84" s="201"/>
+      <c r="O84" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P84" s="17" t="str">
         <f>IF(AND(O84&gt;="A",O84&lt;="E"),VLOOKUP(N84,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q84" s="263"/>
       <c r="S84" s="72"/>
@@ -28520,7 +28552,7 @@
       </c>
       <c r="AV84">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28730,10 +28762,12 @@
         <f t="shared" si="13"/>
         <v>71</v>
       </c>
-      <c r="O88" s="201"/>
+      <c r="O88" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P88" s="17" t="str">
         <f>IF(AND(O88&gt;="A",O88&lt;="E"),VLOOKUP(N88,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q88" s="263"/>
       <c r="S88" s="72"/>
@@ -28756,7 +28790,7 @@
       </c>
       <c r="AV88">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29117,7 +29151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:48" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="53"/>
       <c r="B95" s="108">
         <f t="shared" si="11"/>
@@ -29156,7 +29190,7 @@
       <c r="Q95" s="263" t="s">
         <v>57</v>
       </c>
-      <c r="R95" s="373" t="s">
+      <c r="R95" s="276" t="s">
         <v>84</v>
       </c>
       <c r="S95" s="72"/>
@@ -29687,10 +29721,12 @@
         <f t="shared" si="13"/>
         <v>87</v>
       </c>
-      <c r="O104" s="201"/>
+      <c r="O104" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P104" s="17" t="str">
         <f>IF(AND(O104&gt;="A",O104&lt;="E"),VLOOKUP(N104,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q104" s="263"/>
       <c r="S104" s="72"/>
@@ -29713,10 +29749,10 @@
       </c>
       <c r="AV104">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="53"/>
       <c r="B105" s="108">
         <f t="shared" si="11"/>
@@ -29755,7 +29791,7 @@
         <v>B</v>
       </c>
       <c r="Q105" s="263"/>
-      <c r="R105" s="375" t="s">
+      <c r="R105" s="278" t="s">
         <v>91</v>
       </c>
       <c r="S105" s="72"/>
@@ -29781,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="53"/>
       <c r="B106" s="108">
         <f t="shared" si="11"/>
@@ -29822,7 +29858,7 @@
       <c r="Q106" s="263" t="s">
         <v>57</v>
       </c>
-      <c r="R106" s="375" t="s">
+      <c r="R106" s="278" t="s">
         <v>85</v>
       </c>
       <c r="S106" s="72"/>
@@ -29848,7 +29884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="53"/>
       <c r="B107" s="108">
         <f t="shared" si="11"/>
@@ -29879,13 +29915,15 @@
         <f t="shared" si="13"/>
         <v>90</v>
       </c>
-      <c r="O107" s="201"/>
+      <c r="O107" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P107" s="17" t="str">
         <f>IF(AND(O107&gt;="A",O107&lt;="E"),VLOOKUP(N107,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q107" s="263"/>
-      <c r="R107" s="373" t="s">
+      <c r="R107" s="276" t="s">
         <v>92</v>
       </c>
       <c r="S107" s="72"/>
@@ -29908,7 +29946,7 @@
       </c>
       <c r="AV107">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29950,7 +29988,7 @@
         <v>A</v>
       </c>
       <c r="Q108" s="263"/>
-      <c r="R108" s="374" t="s">
+      <c r="R108" s="277" t="s">
         <v>86</v>
       </c>
       <c r="S108" s="72"/>
@@ -30393,7 +30431,7 @@
       <c r="Q115" s="263" t="s">
         <v>57</v>
       </c>
-      <c r="R115" s="373" t="s">
+      <c r="R115" s="276" t="s">
         <v>93</v>
       </c>
       <c r="S115" s="72"/>
@@ -31000,10 +31038,12 @@
         <f t="shared" si="13"/>
         <v>108</v>
       </c>
-      <c r="O125" s="201"/>
+      <c r="O125" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P125" s="17" t="str">
         <f>IF(AND(O125&gt;="A",O125&lt;="E"),VLOOKUP(N125,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q125" s="263"/>
       <c r="S125" s="72"/>
@@ -31026,7 +31066,7 @@
       </c>
       <c r="AV125">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:48" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -31091,7 +31131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="53"/>
       <c r="B127" s="108">
         <f t="shared" si="11"/>
@@ -31132,7 +31172,7 @@
         <v/>
       </c>
       <c r="Q127" s="263"/>
-      <c r="R127" s="375" t="s">
+      <c r="R127" s="278" t="s">
         <v>94</v>
       </c>
       <c r="S127" s="72"/>
@@ -31573,7 +31613,7 @@
       <c r="Q134" s="263" t="s">
         <v>57</v>
       </c>
-      <c r="R134" s="373" t="s">
+      <c r="R134" s="276" t="s">
         <v>95</v>
       </c>
       <c r="S134" s="72"/>
@@ -31773,7 +31813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:48" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:48" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="53"/>
       <c r="B138" s="108">
         <f t="shared" si="11"/>
@@ -31812,7 +31852,7 @@
       <c r="Q138" s="263" t="s">
         <v>57</v>
       </c>
-      <c r="R138" s="373" t="s">
+      <c r="R138" s="276" t="s">
         <v>90</v>
       </c>
       <c r="S138" s="72"/>
@@ -37298,14 +37338,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="G6:S6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="G16:G17"/>
@@ -37318,6 +37350,14 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C18:C156">

--- a/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
+++ b/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="108">
   <si>
     <t>Powers &amp; Roots</t>
   </si>
@@ -579,6 +579,38 @@
   </si>
   <si>
     <t>Nominative absolute..learn it</t>
+  </si>
+  <si>
+    <t>"Noun + Prep " when referred 
+back is directed towards noun</t>
+  </si>
+  <si>
+    <t>Always suspicious - "evidence 
+that suggests" and "evidence which
+suggets"</t>
+  </si>
+  <si>
+    <t>"in that" is considered out of use</t>
+  </si>
+  <si>
+    <t>"may lay" requires a verb while
+"may lie" do not"</t>
+  </si>
+  <si>
+    <t>"Even though" is much acceptable
+on GMAT</t>
+  </si>
+  <si>
+    <t>"Do look for the comma behind
+the participles, it is required"</t>
+  </si>
+  <si>
+    <t>"with cannot be followed by an 
+independent clause"</t>
+  </si>
+  <si>
+    <t>"indicates its eastward orientation
+ and overall plan"</t>
   </si>
 </sst>
 </file>
@@ -3544,6 +3576,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3571,9 +3756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3591,187 +3773,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3823,6 +3825,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4604,10 +4636,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="81"/>
@@ -4631,10 +4663,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
       <c r="F3" s="91" t="s">
         <v>62</v>
       </c>
@@ -4660,10 +4692,10 @@
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
       <c r="F4" s="50" t="s">
         <v>64</v>
       </c>
@@ -4689,10 +4721,10 @@
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
       <c r="F5" s="50" t="s">
         <v>63</v>
       </c>
@@ -4718,25 +4750,25 @@
     </row>
     <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="318" t="s">
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="323" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="320"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="325"/>
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
@@ -4747,10 +4779,10 @@
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
       <c r="F7" s="221" t="s">
         <v>61</v>
       </c>
@@ -4776,10 +4808,10 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
       <c r="F8" s="58"/>
       <c r="G8" s="55"/>
       <c r="H8" s="144"/>
@@ -4804,28 +4836,28 @@
     <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="313" t="s">
+      <c r="D9" s="320" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="314"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="313" t="s">
+      <c r="E9" s="321"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="322"/>
       <c r="J9" s="59"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="321" t="s">
+      <c r="L9" s="326" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="322"/>
-      <c r="N9" s="328" t="s">
+      <c r="M9" s="327"/>
+      <c r="N9" s="306" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="329"/>
-      <c r="P9" s="329"/>
-      <c r="Q9" s="330"/>
+      <c r="O9" s="307"/>
+      <c r="P9" s="307"/>
+      <c r="Q9" s="308"/>
       <c r="R9" s="72"/>
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
@@ -4837,10 +4869,10 @@
     </row>
     <row r="10" spans="1:25" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95"/>
-      <c r="B10" s="336" t="s">
+      <c r="B10" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="337"/>
+      <c r="C10" s="318"/>
       <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
@@ -4863,8 +4895,8 @@
         <v>11</v>
       </c>
       <c r="K10" s="85"/>
-      <c r="L10" s="332"/>
-      <c r="M10" s="333"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="312"/>
       <c r="N10" s="92" t="s">
         <v>60</v>
       </c>
@@ -4888,10 +4920,10 @@
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="298" t="s">
+      <c r="B11" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="299"/>
+      <c r="C11" s="280"/>
       <c r="D11" s="24">
         <f t="shared" ref="D11:D19" si="0">SUMIF($AU:$AU,$B11,$AT:$AT)</f>
         <v>0</v>
@@ -4921,13 +4953,13 @@
         <v/>
       </c>
       <c r="K11" s="60"/>
-      <c r="L11" s="292" t="s">
+      <c r="L11" s="342" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="293"/>
+      <c r="M11" s="343"/>
+      <c r="N11" s="343"/>
+      <c r="O11" s="343"/>
+      <c r="P11" s="343"/>
       <c r="Q11" s="208"/>
       <c r="R11" s="63"/>
       <c r="S11" s="48"/>
@@ -4940,10 +4972,10 @@
     </row>
     <row r="12" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="301"/>
+      <c r="B12" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="348"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4973,10 +5005,10 @@
         <v/>
       </c>
       <c r="K12" s="60"/>
-      <c r="L12" s="311" t="s">
+      <c r="L12" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="312"/>
+      <c r="M12" s="314"/>
       <c r="N12" s="207"/>
       <c r="O12" s="207"/>
       <c r="P12" s="207"/>
@@ -4992,10 +5024,10 @@
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="303"/>
+      <c r="C13" s="301"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5025,10 +5057,10 @@
         <v/>
       </c>
       <c r="K13" s="60"/>
-      <c r="L13" s="311" t="s">
+      <c r="L13" s="313" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="312"/>
+      <c r="M13" s="314"/>
       <c r="N13" s="209"/>
       <c r="O13" s="209"/>
       <c r="P13" s="209"/>
@@ -5044,10 +5076,10 @@
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="316" t="s">
+      <c r="B14" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="317"/>
+      <c r="C14" s="282"/>
       <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5077,13 +5109,13 @@
         <v/>
       </c>
       <c r="K14" s="60"/>
-      <c r="L14" s="294" t="s">
+      <c r="L14" s="344" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="295"/>
-      <c r="P14" s="295"/>
+      <c r="M14" s="345"/>
+      <c r="N14" s="345"/>
+      <c r="O14" s="345"/>
+      <c r="P14" s="345"/>
       <c r="Q14" s="208"/>
       <c r="R14" s="63"/>
       <c r="S14" s="48"/>
@@ -5096,10 +5128,10 @@
     </row>
     <row r="15" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="305" t="s">
+      <c r="B15" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="306"/>
+      <c r="C15" s="284"/>
       <c r="D15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,10 +5161,10 @@
         <v/>
       </c>
       <c r="K15" s="60"/>
-      <c r="L15" s="311" t="s">
+      <c r="L15" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="312"/>
+      <c r="M15" s="314"/>
       <c r="N15" s="207"/>
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
@@ -5148,10 +5180,10 @@
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="307" t="s">
+      <c r="B16" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="308"/>
+      <c r="C16" s="300"/>
       <c r="D16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5181,10 +5213,10 @@
         <v/>
       </c>
       <c r="K16" s="60"/>
-      <c r="L16" s="323" t="s">
+      <c r="L16" s="328" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="324"/>
+      <c r="M16" s="329"/>
       <c r="N16" s="205"/>
       <c r="O16" s="205"/>
       <c r="P16" s="205"/>
@@ -5200,10 +5232,10 @@
     </row>
     <row r="17" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="309" t="s">
+      <c r="B17" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="310"/>
+      <c r="C17" s="287"/>
       <c r="D17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5233,11 +5265,11 @@
         <v/>
       </c>
       <c r="K17" s="85"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="290"/>
-      <c r="N17" s="290"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="291"/>
+      <c r="L17" s="339"/>
+      <c r="M17" s="340"/>
+      <c r="N17" s="340"/>
+      <c r="O17" s="340"/>
+      <c r="P17" s="341"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="63"/>
       <c r="S17" s="48"/>
@@ -5250,10 +5282,10 @@
     </row>
     <row r="18" spans="1:59" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
-      <c r="B18" s="338" t="s">
+      <c r="B18" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="339"/>
+      <c r="C18" s="294"/>
       <c r="D18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5283,8 +5315,8 @@
         <v/>
       </c>
       <c r="K18" s="85"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
+      <c r="L18" s="310"/>
+      <c r="M18" s="310"/>
       <c r="N18" s="214"/>
       <c r="O18" s="214"/>
       <c r="P18" s="215"/>
@@ -5300,10 +5332,10 @@
     </row>
     <row r="19" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="315" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="335"/>
+      <c r="C19" s="316"/>
       <c r="D19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5333,8 +5365,8 @@
         <v/>
       </c>
       <c r="K19" s="85"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
+      <c r="L19" s="310"/>
+      <c r="M19" s="310"/>
       <c r="N19" s="216"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
@@ -5356,15 +5388,15 @@
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="281"/>
-      <c r="L20" s="296"/>
-      <c r="M20" s="297"/>
-      <c r="N20" s="297"/>
-      <c r="O20" s="297"/>
-      <c r="P20" s="297"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="331"/>
+      <c r="J20" s="331"/>
+      <c r="K20" s="332"/>
+      <c r="L20" s="346"/>
+      <c r="M20" s="347"/>
+      <c r="N20" s="347"/>
+      <c r="O20" s="347"/>
+      <c r="P20" s="347"/>
       <c r="Q20" s="125"/>
       <c r="R20" s="63"/>
       <c r="S20" s="48"/>
@@ -5385,12 +5417,12 @@
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="88"/>
-      <c r="H21" s="282"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="283"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="288"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="334"/>
+      <c r="J21" s="334"/>
+      <c r="K21" s="335"/>
+      <c r="L21" s="310"/>
+      <c r="M21" s="310"/>
       <c r="N21" s="214"/>
       <c r="O21" s="214"/>
       <c r="P21" s="215"/>
@@ -5412,12 +5444,12 @@
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="286"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
+      <c r="H22" s="336"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
+      <c r="K22" s="338"/>
+      <c r="L22" s="310"/>
+      <c r="M22" s="310"/>
       <c r="N22" s="214"/>
       <c r="O22" s="214"/>
       <c r="P22" s="215"/>
@@ -5433,19 +5465,19 @@
     </row>
     <row r="23" spans="1:59" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
-      <c r="B23" s="325" t="s">
+      <c r="B23" s="303" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="326"/>
-      <c r="D23" s="326"/>
-      <c r="E23" s="327"/>
-      <c r="F23" s="331"/>
-      <c r="G23" s="325" t="s">
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="326"/>
-      <c r="I23" s="326"/>
-      <c r="J23" s="327"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="305"/>
       <c r="K23" s="72"/>
       <c r="L23" s="218"/>
       <c r="M23" s="219"/>
@@ -5482,7 +5514,7 @@
       <c r="E24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="331"/>
+      <c r="F24" s="309"/>
       <c r="G24" s="43" t="s">
         <v>14</v>
       </c>
@@ -5573,10 +5605,10 @@
         <f>IF(C25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU25" s="298" t="s">
+      <c r="AU25" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV25" s="299"/>
+      <c r="AV25" s="280"/>
       <c r="AW25">
         <v>1</v>
       </c>
@@ -5588,10 +5620,10 @@
         <f>IF(H25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="298" t="s">
+      <c r="AZ25" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA25" s="343"/>
+      <c r="BA25" s="289"/>
       <c r="BB25" s="243">
         <v>1</v>
       </c>
@@ -5645,10 +5677,10 @@
         <f t="shared" ref="AT26:AT89" si="8">IF(C26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="298" t="s">
+      <c r="AU26" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV26" s="299"/>
+      <c r="AV26" s="280"/>
       <c r="AW26">
         <f>AW25+1</f>
         <v>2</v>
@@ -5661,10 +5693,10 @@
         <f t="shared" ref="AY26:AY89" si="10">IF(H26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ26" s="305" t="s">
+      <c r="AZ26" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA26" s="344"/>
+      <c r="BA26" s="288"/>
       <c r="BB26" s="244">
         <f>BB25+1</f>
         <v>2</v>
@@ -5720,10 +5752,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="305" t="s">
+      <c r="AU27" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV27" s="306"/>
+      <c r="AV27" s="284"/>
       <c r="AW27">
         <f t="shared" ref="AW27:AW90" si="13">AW26+1</f>
         <v>3</v>
@@ -5736,10 +5768,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ27" s="307" t="s">
+      <c r="AZ27" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA27" s="344"/>
+      <c r="BA27" s="288"/>
       <c r="BB27" s="244">
         <f t="shared" ref="BB27:BC90" si="14">BB26+1</f>
         <v>3</v>
@@ -5798,10 +5830,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU28" s="305" t="s">
+      <c r="AU28" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV28" s="306"/>
+      <c r="AV28" s="284"/>
       <c r="AW28">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -5814,10 +5846,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ28" s="305" t="s">
+      <c r="AZ28" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA28" s="344"/>
+      <c r="BA28" s="288"/>
       <c r="BB28" s="244">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -5826,10 +5858,10 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="BF28" s="298" t="s">
+      <c r="BF28" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BG28" s="299"/>
+      <c r="BG28" s="280"/>
     </row>
     <row r="29" spans="1:59" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
@@ -5877,10 +5909,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU29" s="302" t="s">
+      <c r="AU29" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV29" s="306"/>
+      <c r="AV29" s="284"/>
       <c r="AW29">
         <f>AW28+1</f>
         <v>5</v>
@@ -5893,10 +5925,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ29" s="298" t="s">
+      <c r="AZ29" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA29" s="343"/>
+      <c r="BA29" s="289"/>
       <c r="BB29" s="244">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -5905,10 +5937,10 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="BF29" s="316" t="s">
+      <c r="BF29" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BG29" s="317"/>
+      <c r="BG29" s="282"/>
     </row>
     <row r="30" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -5972,10 +6004,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ30" s="302" t="s">
+      <c r="AZ30" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA30" s="344"/>
+      <c r="BA30" s="288"/>
       <c r="BB30" s="244">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -5984,10 +6016,10 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="BF30" s="307" t="s">
+      <c r="BF30" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BG30" s="306"/>
+      <c r="BG30" s="284"/>
     </row>
     <row r="31" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
@@ -6035,10 +6067,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU31" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="306"/>
+      <c r="AU31" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="284"/>
       <c r="AW31">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -6051,10 +6083,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ31" s="340" t="s">
+      <c r="AZ31" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BA31" s="346"/>
+      <c r="BA31" s="299"/>
       <c r="BB31" s="244">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -6063,10 +6095,10 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="BF31" s="305" t="s">
+      <c r="BF31" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BG31" s="306"/>
+      <c r="BG31" s="284"/>
     </row>
     <row r="32" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
@@ -6114,10 +6146,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU32" s="340" t="s">
+      <c r="AU32" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV32" s="341"/>
+      <c r="AV32" s="291"/>
       <c r="AW32">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -6130,10 +6162,10 @@
         <f>IF(H32&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="305" t="s">
+      <c r="AZ32" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA32" s="344"/>
+      <c r="BA32" s="288"/>
       <c r="BB32" s="244">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -6142,10 +6174,10 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="BF32" s="302" t="s">
+      <c r="BF32" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BG32" s="306"/>
+      <c r="BG32" s="284"/>
     </row>
     <row r="33" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
@@ -6193,10 +6225,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU33" s="298" t="s">
+      <c r="AU33" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="299"/>
+      <c r="AV33" s="280"/>
       <c r="AW33">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -6209,10 +6241,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ33" s="307" t="s">
+      <c r="AZ33" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA33" s="344"/>
+      <c r="BA33" s="288"/>
       <c r="BB33" s="244">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -6221,10 +6253,10 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="BF33" s="309" t="s">
+      <c r="BF33" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BG33" s="310"/>
+      <c r="BG33" s="287"/>
     </row>
     <row r="34" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
@@ -6272,10 +6304,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU34" s="309" t="s">
+      <c r="AU34" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV34" s="310"/>
+      <c r="AV34" s="287"/>
       <c r="AW34">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -6288,10 +6320,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ34" s="298" t="s">
+      <c r="AZ34" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA34" s="343"/>
+      <c r="BA34" s="289"/>
       <c r="BB34" s="244">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -6300,10 +6332,10 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="BF34" s="340" t="s">
+      <c r="BF34" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BG34" s="341"/>
+      <c r="BG34" s="291"/>
     </row>
     <row r="35" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
@@ -6351,10 +6383,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU35" s="298" t="s">
+      <c r="AU35" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV35" s="299"/>
+      <c r="AV35" s="280"/>
       <c r="AW35">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -6367,10 +6399,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ35" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="344"/>
+      <c r="AZ35" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="288"/>
       <c r="BB35" s="244">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -6379,10 +6411,10 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="BF35" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="306"/>
+      <c r="BF35" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="284"/>
     </row>
     <row r="36" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -6430,10 +6462,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU36" s="316" t="s">
+      <c r="AU36" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV36" s="317"/>
+      <c r="AV36" s="282"/>
       <c r="AW36">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -6446,10 +6478,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ36" s="305" t="s">
+      <c r="AZ36" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA36" s="344"/>
+      <c r="BA36" s="288"/>
       <c r="BB36" s="244">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -6458,10 +6490,10 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="BF36" s="338" t="s">
+      <c r="BF36" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="BG36" s="339"/>
+      <c r="BG36" s="294"/>
     </row>
     <row r="37" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
@@ -6509,10 +6541,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU37" s="316" t="s">
+      <c r="AU37" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV37" s="317"/>
+      <c r="AV37" s="282"/>
       <c r="AW37">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -6525,10 +6557,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ37" s="305" t="s">
+      <c r="AZ37" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA37" s="344"/>
+      <c r="BA37" s="288"/>
       <c r="BB37" s="244">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -6600,10 +6632,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="309" t="s">
+      <c r="AZ38" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA38" s="347"/>
+      <c r="BA38" s="296"/>
       <c r="BB38" s="244">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -6659,10 +6691,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU39" s="309" t="s">
+      <c r="AU39" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV39" s="310"/>
+      <c r="AV39" s="287"/>
       <c r="AW39">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -6675,10 +6707,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="305" t="s">
+      <c r="AZ39" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA39" s="344"/>
+      <c r="BA39" s="288"/>
       <c r="BB39" s="244">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -6734,10 +6766,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="302" t="s">
+      <c r="AU40" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV40" s="306"/>
+      <c r="AV40" s="284"/>
       <c r="AW40">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -6750,10 +6782,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="302" t="s">
+      <c r="AZ40" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA40" s="344"/>
+      <c r="BA40" s="288"/>
       <c r="BB40" s="244">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -6809,10 +6841,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU41" s="302" t="s">
+      <c r="AU41" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV41" s="306"/>
+      <c r="AV41" s="284"/>
       <c r="AW41">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -6825,10 +6857,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ41" s="305" t="s">
+      <c r="AZ41" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA41" s="344"/>
+      <c r="BA41" s="288"/>
       <c r="BB41" s="244">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -6884,10 +6916,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU42" s="316" t="s">
+      <c r="AU42" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV42" s="317"/>
+      <c r="AV42" s="282"/>
       <c r="AW42">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -6900,10 +6932,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ42" s="302" t="s">
+      <c r="AZ42" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA42" s="344"/>
+      <c r="BA42" s="288"/>
       <c r="BB42" s="244">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -6959,10 +6991,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU43" s="298" t="s">
+      <c r="AU43" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV43" s="299"/>
+      <c r="AV43" s="280"/>
       <c r="AW43">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -6975,10 +7007,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ43" s="305" t="s">
+      <c r="AZ43" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA43" s="344"/>
+      <c r="BA43" s="288"/>
       <c r="BB43" s="244">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -7034,10 +7066,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU44" s="309" t="s">
+      <c r="AU44" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV44" s="310"/>
+      <c r="AV44" s="287"/>
       <c r="AW44">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -7050,10 +7082,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ44" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="344"/>
+      <c r="AZ44" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="288"/>
       <c r="BB44" s="244">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -7109,10 +7141,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU45" s="302" t="s">
+      <c r="AU45" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV45" s="306"/>
+      <c r="AV45" s="284"/>
       <c r="AW45">
         <f t="shared" si="13"/>
         <v>21</v>
@@ -7125,10 +7157,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ45" s="298" t="s">
+      <c r="AZ45" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA45" s="343"/>
+      <c r="BA45" s="289"/>
       <c r="BB45" s="244">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -7184,10 +7216,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU46" s="298" t="s">
+      <c r="AU46" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV46" s="299"/>
+      <c r="AV46" s="280"/>
       <c r="AW46">
         <f t="shared" si="13"/>
         <v>22</v>
@@ -7200,10 +7232,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ46" s="305" t="s">
+      <c r="AZ46" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA46" s="344"/>
+      <c r="BA46" s="288"/>
       <c r="BB46" s="244">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -7259,10 +7291,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU47" s="316" t="s">
+      <c r="AU47" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV47" s="317"/>
+      <c r="AV47" s="282"/>
       <c r="AW47">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -7275,10 +7307,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ47" s="305" t="s">
+      <c r="AZ47" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA47" s="344"/>
+      <c r="BA47" s="288"/>
       <c r="BB47" s="244">
         <f t="shared" si="14"/>
         <v>23</v>
@@ -7334,10 +7366,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU48" s="298" t="s">
+      <c r="AU48" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV48" s="299"/>
+      <c r="AV48" s="280"/>
       <c r="AW48">
         <f t="shared" si="13"/>
         <v>24</v>
@@ -7350,10 +7382,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ48" s="298" t="s">
+      <c r="AZ48" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA48" s="343"/>
+      <c r="BA48" s="289"/>
       <c r="BB48" s="244">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -7409,10 +7441,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU49" s="302" t="s">
+      <c r="AU49" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV49" s="306"/>
+      <c r="AV49" s="284"/>
       <c r="AW49">
         <f t="shared" si="13"/>
         <v>25</v>
@@ -7425,10 +7457,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ49" s="305" t="s">
+      <c r="AZ49" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA49" s="344"/>
+      <c r="BA49" s="288"/>
       <c r="BB49" s="244">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -7484,10 +7516,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU50" s="298" t="s">
+      <c r="AU50" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV50" s="299"/>
+      <c r="AV50" s="280"/>
       <c r="AW50">
         <f t="shared" si="13"/>
         <v>26</v>
@@ -7500,10 +7532,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ50" s="316" t="s">
+      <c r="AZ50" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA50" s="345"/>
+      <c r="BA50" s="297"/>
       <c r="BB50" s="244">
         <f t="shared" si="14"/>
         <v>26</v>
@@ -7559,10 +7591,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU51" s="298" t="s">
+      <c r="AU51" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV51" s="299"/>
+      <c r="AV51" s="280"/>
       <c r="AW51">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -7575,10 +7607,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ51" s="302" t="s">
+      <c r="AZ51" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA51" s="344"/>
+      <c r="BA51" s="288"/>
       <c r="BB51" s="244">
         <f t="shared" si="14"/>
         <v>27</v>
@@ -7634,10 +7666,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU52" s="298" t="s">
+      <c r="AU52" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV52" s="299"/>
+      <c r="AV52" s="280"/>
       <c r="AW52">
         <f t="shared" si="13"/>
         <v>28</v>
@@ -7650,10 +7682,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ52" s="305" t="s">
+      <c r="AZ52" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA52" s="344"/>
+      <c r="BA52" s="288"/>
       <c r="BB52" s="244">
         <f t="shared" si="14"/>
         <v>28</v>
@@ -7709,10 +7741,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU53" s="298" t="s">
+      <c r="AU53" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV53" s="299"/>
+      <c r="AV53" s="280"/>
       <c r="AW53">
         <f t="shared" si="13"/>
         <v>29</v>
@@ -7725,10 +7757,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ53" s="298" t="s">
+      <c r="AZ53" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA53" s="343"/>
+      <c r="BA53" s="289"/>
       <c r="BB53" s="244">
         <f t="shared" si="14"/>
         <v>29</v>
@@ -7784,10 +7816,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU54" s="298" t="s">
+      <c r="AU54" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV54" s="299"/>
+      <c r="AV54" s="280"/>
       <c r="AW54">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -7800,10 +7832,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ54" s="305" t="s">
+      <c r="AZ54" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA54" s="344"/>
+      <c r="BA54" s="288"/>
       <c r="BB54" s="244">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -7859,10 +7891,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU55" s="316" t="s">
+      <c r="AU55" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV55" s="317"/>
+      <c r="AV55" s="282"/>
       <c r="AW55">
         <f t="shared" si="13"/>
         <v>31</v>
@@ -7875,10 +7907,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ55" s="307" t="s">
+      <c r="AZ55" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA55" s="344"/>
+      <c r="BA55" s="288"/>
       <c r="BB55" s="244">
         <f t="shared" si="14"/>
         <v>31</v>
@@ -7934,10 +7966,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU56" s="309" t="s">
+      <c r="AU56" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV56" s="310"/>
+      <c r="AV56" s="287"/>
       <c r="AW56">
         <f t="shared" si="13"/>
         <v>32</v>
@@ -7950,10 +7982,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ56" s="305" t="s">
+      <c r="AZ56" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA56" s="344"/>
+      <c r="BA56" s="288"/>
       <c r="BB56" s="244">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -8009,10 +8041,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU57" s="316" t="s">
+      <c r="AU57" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV57" s="317"/>
+      <c r="AV57" s="282"/>
       <c r="AW57">
         <f t="shared" si="13"/>
         <v>33</v>
@@ -8025,10 +8057,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ57" s="305" t="s">
+      <c r="AZ57" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA57" s="344"/>
+      <c r="BA57" s="288"/>
       <c r="BB57" s="244">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -8084,10 +8116,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU58" s="298" t="s">
+      <c r="AU58" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV58" s="299"/>
+      <c r="AV58" s="280"/>
       <c r="AW58">
         <f t="shared" si="13"/>
         <v>34</v>
@@ -8100,10 +8132,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ58" s="298" t="s">
+      <c r="AZ58" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA58" s="343"/>
+      <c r="BA58" s="289"/>
       <c r="BB58" s="244">
         <f t="shared" si="14"/>
         <v>34</v>
@@ -8159,10 +8191,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU59" s="307" t="s">
+      <c r="AU59" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV59" s="306"/>
+      <c r="AV59" s="284"/>
       <c r="AW59">
         <f t="shared" si="13"/>
         <v>35</v>
@@ -8175,10 +8207,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ59" s="298" t="s">
+      <c r="AZ59" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA59" s="343"/>
+      <c r="BA59" s="289"/>
       <c r="BB59" s="244">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -8234,10 +8266,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU60" s="298" t="s">
+      <c r="AU60" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV60" s="299"/>
+      <c r="AV60" s="280"/>
       <c r="AW60">
         <f t="shared" si="13"/>
         <v>36</v>
@@ -8250,10 +8282,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ60" s="307" t="s">
+      <c r="AZ60" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA60" s="344"/>
+      <c r="BA60" s="288"/>
       <c r="BB60" s="244">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -8309,10 +8341,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU61" s="305" t="s">
+      <c r="AU61" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV61" s="306"/>
+      <c r="AV61" s="284"/>
       <c r="AW61">
         <f t="shared" si="13"/>
         <v>37</v>
@@ -8325,10 +8357,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ61" s="302" t="s">
+      <c r="AZ61" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA61" s="344"/>
+      <c r="BA61" s="288"/>
       <c r="BB61" s="244">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -8384,10 +8416,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU62" s="307" t="s">
+      <c r="AU62" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV62" s="306"/>
+      <c r="AV62" s="284"/>
       <c r="AW62">
         <f t="shared" si="13"/>
         <v>38</v>
@@ -8400,10 +8432,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ62" s="302" t="s">
+      <c r="AZ62" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA62" s="344"/>
+      <c r="BA62" s="288"/>
       <c r="BB62" s="244">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -8459,10 +8491,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU63" s="305" t="s">
+      <c r="AU63" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV63" s="306"/>
+      <c r="AV63" s="284"/>
       <c r="AW63">
         <f t="shared" si="13"/>
         <v>39</v>
@@ -8475,10 +8507,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ63" s="302" t="s">
+      <c r="AZ63" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA63" s="344"/>
+      <c r="BA63" s="288"/>
       <c r="BB63" s="244">
         <f t="shared" si="14"/>
         <v>39</v>
@@ -8534,10 +8566,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU64" s="305" t="s">
+      <c r="AU64" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV64" s="306"/>
+      <c r="AV64" s="284"/>
       <c r="AW64">
         <f t="shared" si="13"/>
         <v>40</v>
@@ -8550,10 +8582,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ64" s="298" t="s">
+      <c r="AZ64" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA64" s="343"/>
+      <c r="BA64" s="289"/>
       <c r="BB64" s="244">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -8609,10 +8641,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU65" s="316" t="s">
+      <c r="AU65" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV65" s="317"/>
+      <c r="AV65" s="282"/>
       <c r="AW65">
         <f t="shared" si="13"/>
         <v>41</v>
@@ -8625,10 +8657,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ65" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="344"/>
+      <c r="AZ65" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="288"/>
       <c r="BB65" s="244">
         <f t="shared" si="14"/>
         <v>41</v>
@@ -8684,10 +8716,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU66" s="302" t="s">
+      <c r="AU66" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV66" s="303"/>
+      <c r="AV66" s="301"/>
       <c r="AW66">
         <f t="shared" si="13"/>
         <v>42</v>
@@ -8700,10 +8732,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ66" s="302" t="s">
+      <c r="AZ66" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA66" s="344"/>
+      <c r="BA66" s="288"/>
       <c r="BB66" s="244">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -8759,10 +8791,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU67" s="307" t="s">
+      <c r="AU67" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV67" s="306"/>
+      <c r="AV67" s="284"/>
       <c r="AW67">
         <f t="shared" si="13"/>
         <v>43</v>
@@ -8775,10 +8807,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ67" s="305" t="s">
+      <c r="AZ67" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA67" s="344"/>
+      <c r="BA67" s="288"/>
       <c r="BB67" s="244">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -8834,10 +8866,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU68" s="302" t="s">
+      <c r="AU68" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV68" s="306"/>
+      <c r="AV68" s="284"/>
       <c r="AW68">
         <f t="shared" si="13"/>
         <v>44</v>
@@ -8850,10 +8882,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ68" s="316" t="s">
+      <c r="AZ68" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA68" s="345"/>
+      <c r="BA68" s="297"/>
       <c r="BB68" s="244">
         <f t="shared" si="14"/>
         <v>44</v>
@@ -8909,10 +8941,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU69" s="316" t="s">
+      <c r="AU69" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV69" s="317"/>
+      <c r="AV69" s="282"/>
       <c r="AW69">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -8925,10 +8957,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ69" s="309" t="s">
+      <c r="AZ69" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA69" s="347"/>
+      <c r="BA69" s="296"/>
       <c r="BB69" s="244">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -8984,10 +9016,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU70" s="298" t="s">
+      <c r="AU70" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV70" s="299"/>
+      <c r="AV70" s="280"/>
       <c r="AW70">
         <f t="shared" si="13"/>
         <v>46</v>
@@ -9000,10 +9032,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ70" s="305" t="s">
+      <c r="AZ70" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA70" s="344"/>
+      <c r="BA70" s="288"/>
       <c r="BB70" s="244">
         <f t="shared" si="14"/>
         <v>46</v>
@@ -9059,10 +9091,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU71" s="302" t="s">
+      <c r="AU71" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV71" s="303"/>
+      <c r="AV71" s="301"/>
       <c r="AW71">
         <f t="shared" si="13"/>
         <v>47</v>
@@ -9075,10 +9107,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ71" s="309" t="s">
+      <c r="AZ71" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA71" s="347"/>
+      <c r="BA71" s="296"/>
       <c r="BB71" s="244">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -9134,10 +9166,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU72" s="307" t="s">
+      <c r="AU72" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV72" s="306"/>
+      <c r="AV72" s="284"/>
       <c r="AW72">
         <f t="shared" si="13"/>
         <v>48</v>
@@ -9150,10 +9182,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ72" s="305" t="s">
+      <c r="AZ72" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA72" s="344"/>
+      <c r="BA72" s="288"/>
       <c r="BB72" s="244">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -9209,10 +9241,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU73" s="298" t="s">
+      <c r="AU73" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV73" s="299"/>
+      <c r="AV73" s="280"/>
       <c r="AW73">
         <f t="shared" si="13"/>
         <v>49</v>
@@ -9225,10 +9257,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ73" s="316" t="s">
+      <c r="AZ73" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA73" s="345"/>
+      <c r="BA73" s="297"/>
       <c r="BB73" s="244">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -9284,10 +9316,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU74" s="305" t="s">
+      <c r="AU74" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV74" s="306"/>
+      <c r="AV74" s="284"/>
       <c r="AW74">
         <f t="shared" si="13"/>
         <v>50</v>
@@ -9300,10 +9332,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ74" s="340" t="s">
+      <c r="AZ74" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BA74" s="346"/>
+      <c r="BA74" s="299"/>
       <c r="BB74" s="244">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -9359,10 +9391,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU75" s="298" t="s">
+      <c r="AU75" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV75" s="299"/>
+      <c r="AV75" s="280"/>
       <c r="AW75">
         <f t="shared" si="13"/>
         <v>51</v>
@@ -9375,10 +9407,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ75" s="316" t="s">
+      <c r="AZ75" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA75" s="345"/>
+      <c r="BA75" s="297"/>
       <c r="BB75" s="244">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -9434,10 +9466,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU76" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="306"/>
+      <c r="AU76" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="284"/>
       <c r="AW76">
         <f t="shared" si="13"/>
         <v>52</v>
@@ -9450,10 +9482,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ76" s="305" t="s">
+      <c r="AZ76" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA76" s="344"/>
+      <c r="BA76" s="288"/>
       <c r="BB76" s="244">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -9509,10 +9541,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU77" s="302" t="s">
+      <c r="AU77" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV77" s="306"/>
+      <c r="AV77" s="284"/>
       <c r="AW77">
         <f t="shared" si="13"/>
         <v>53</v>
@@ -9525,10 +9557,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ77" s="302" t="s">
+      <c r="AZ77" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA77" s="344"/>
+      <c r="BA77" s="288"/>
       <c r="BB77" s="244">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -9584,10 +9616,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU78" s="302" t="s">
+      <c r="AU78" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV78" s="303"/>
+      <c r="AV78" s="301"/>
       <c r="AW78">
         <f t="shared" si="13"/>
         <v>54</v>
@@ -9600,10 +9632,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ78" s="302" t="s">
+      <c r="AZ78" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA78" s="344"/>
+      <c r="BA78" s="288"/>
       <c r="BB78" s="244">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -9659,10 +9691,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU79" s="305" t="s">
+      <c r="AU79" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV79" s="306"/>
+      <c r="AV79" s="284"/>
       <c r="AW79">
         <f t="shared" si="13"/>
         <v>55</v>
@@ -9675,10 +9707,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ79" s="305" t="s">
+      <c r="AZ79" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA79" s="344"/>
+      <c r="BA79" s="288"/>
       <c r="BB79" s="244">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -9734,10 +9766,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU80" s="305" t="s">
+      <c r="AU80" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV80" s="306"/>
+      <c r="AV80" s="284"/>
       <c r="AW80">
         <f t="shared" si="13"/>
         <v>56</v>
@@ -9750,10 +9782,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ80" s="316" t="s">
+      <c r="AZ80" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA80" s="345"/>
+      <c r="BA80" s="297"/>
       <c r="BB80" s="244">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -9809,10 +9841,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU81" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV81" s="306"/>
+      <c r="AU81" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="284"/>
       <c r="AW81">
         <f t="shared" si="13"/>
         <v>57</v>
@@ -9825,10 +9857,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ81" s="305" t="s">
+      <c r="AZ81" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA81" s="344"/>
+      <c r="BA81" s="288"/>
       <c r="BB81" s="244">
         <f t="shared" si="14"/>
         <v>57</v>
@@ -9884,10 +9916,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU82" s="305" t="s">
+      <c r="AU82" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV82" s="306"/>
+      <c r="AV82" s="284"/>
       <c r="AW82">
         <f t="shared" si="13"/>
         <v>58</v>
@@ -9900,10 +9932,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ82" s="298" t="s">
+      <c r="AZ82" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA82" s="343"/>
+      <c r="BA82" s="289"/>
       <c r="BB82" s="244">
         <f t="shared" si="14"/>
         <v>58</v>
@@ -9959,10 +9991,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU83" s="305" t="s">
+      <c r="AU83" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV83" s="306"/>
+      <c r="AV83" s="284"/>
       <c r="AW83">
         <f t="shared" si="13"/>
         <v>59</v>
@@ -9975,10 +10007,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ83" s="305" t="s">
+      <c r="AZ83" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA83" s="344"/>
+      <c r="BA83" s="288"/>
       <c r="BB83" s="244">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -10034,10 +10066,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU84" s="302" t="s">
+      <c r="AU84" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV84" s="306"/>
+      <c r="AV84" s="284"/>
       <c r="AW84">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -10050,10 +10082,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ84" s="307" t="s">
+      <c r="AZ84" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA84" s="344"/>
+      <c r="BA84" s="288"/>
       <c r="BB84" s="244">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -10109,10 +10141,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU85" s="302" t="s">
+      <c r="AU85" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV85" s="303"/>
+      <c r="AV85" s="301"/>
       <c r="AW85">
         <f t="shared" si="13"/>
         <v>61</v>
@@ -10125,10 +10157,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ85" s="302" t="s">
+      <c r="AZ85" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA85" s="344"/>
+      <c r="BA85" s="288"/>
       <c r="BB85" s="244">
         <f t="shared" si="14"/>
         <v>61</v>
@@ -10184,10 +10216,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU86" s="298" t="s">
+      <c r="AU86" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV86" s="299"/>
+      <c r="AV86" s="280"/>
       <c r="AW86">
         <f t="shared" si="13"/>
         <v>62</v>
@@ -10200,10 +10232,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ86" s="305" t="s">
+      <c r="AZ86" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA86" s="344"/>
+      <c r="BA86" s="288"/>
       <c r="BB86" s="244">
         <f t="shared" si="14"/>
         <v>62</v>
@@ -10259,10 +10291,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU87" s="302" t="s">
+      <c r="AU87" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV87" s="306"/>
+      <c r="AV87" s="284"/>
       <c r="AW87">
         <f t="shared" si="13"/>
         <v>63</v>
@@ -10275,10 +10307,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ87" s="305" t="s">
+      <c r="AZ87" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA87" s="344"/>
+      <c r="BA87" s="288"/>
       <c r="BB87" s="244">
         <f t="shared" si="14"/>
         <v>63</v>
@@ -10334,10 +10366,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU88" s="298" t="s">
+      <c r="AU88" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV88" s="299"/>
+      <c r="AV88" s="280"/>
       <c r="AW88">
         <f t="shared" si="13"/>
         <v>64</v>
@@ -10350,10 +10382,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ88" s="298" t="s">
+      <c r="AZ88" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA88" s="343"/>
+      <c r="BA88" s="289"/>
       <c r="BB88" s="244">
         <f t="shared" si="14"/>
         <v>64</v>
@@ -10409,10 +10441,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU89" s="305" t="s">
+      <c r="AU89" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV89" s="306"/>
+      <c r="AV89" s="284"/>
       <c r="AW89">
         <f t="shared" si="13"/>
         <v>65</v>
@@ -10425,10 +10457,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ89" s="302" t="s">
+      <c r="AZ89" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA89" s="344"/>
+      <c r="BA89" s="288"/>
       <c r="BB89" s="244">
         <f t="shared" si="14"/>
         <v>65</v>
@@ -10484,10 +10516,10 @@
         <f t="shared" ref="AT90:AT153" si="16">IF(C90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU90" s="302" t="s">
+      <c r="AU90" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV90" s="306"/>
+      <c r="AV90" s="284"/>
       <c r="AW90">
         <f t="shared" si="13"/>
         <v>66</v>
@@ -10500,10 +10532,10 @@
         <f t="shared" ref="AY90:AY153" si="18">IF(H90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ90" s="302" t="s">
+      <c r="AZ90" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA90" s="344"/>
+      <c r="BA90" s="288"/>
       <c r="BB90" s="244">
         <f t="shared" si="14"/>
         <v>66</v>
@@ -10559,10 +10591,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU91" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV91" s="306"/>
+      <c r="AU91" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="284"/>
       <c r="AW91">
         <f t="shared" ref="AW91:AW154" si="21">AW90+1</f>
         <v>67</v>
@@ -10575,10 +10607,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ91" s="305" t="s">
+      <c r="AZ91" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA91" s="344"/>
+      <c r="BA91" s="288"/>
       <c r="BB91" s="244">
         <f t="shared" ref="BB91:BC154" si="22">BB90+1</f>
         <v>67</v>
@@ -10634,10 +10666,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU92" s="302" t="s">
+      <c r="AU92" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV92" s="306"/>
+      <c r="AV92" s="284"/>
       <c r="AW92">
         <f t="shared" si="21"/>
         <v>68</v>
@@ -10650,10 +10682,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ92" s="305" t="s">
+      <c r="AZ92" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA92" s="344"/>
+      <c r="BA92" s="288"/>
       <c r="BB92" s="244">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -10709,10 +10741,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU93" s="305" t="s">
+      <c r="AU93" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV93" s="306"/>
+      <c r="AV93" s="284"/>
       <c r="AW93">
         <f t="shared" si="21"/>
         <v>69</v>
@@ -10725,10 +10757,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ93" s="298" t="s">
+      <c r="AZ93" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA93" s="343"/>
+      <c r="BA93" s="289"/>
       <c r="BB93" s="244">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -10784,10 +10816,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU94" s="316" t="s">
+      <c r="AU94" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV94" s="317"/>
+      <c r="AV94" s="282"/>
       <c r="AW94">
         <f t="shared" si="21"/>
         <v>70</v>
@@ -10800,10 +10832,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ94" s="298" t="s">
+      <c r="AZ94" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA94" s="343"/>
+      <c r="BA94" s="289"/>
       <c r="BB94" s="244">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -10859,10 +10891,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU95" s="305" t="s">
+      <c r="AU95" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV95" s="306"/>
+      <c r="AV95" s="284"/>
       <c r="AW95">
         <f t="shared" si="21"/>
         <v>71</v>
@@ -10875,10 +10907,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ95" s="305" t="s">
+      <c r="AZ95" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA95" s="344"/>
+      <c r="BA95" s="288"/>
       <c r="BB95" s="244">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -10934,10 +10966,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU96" s="298" t="s">
+      <c r="AU96" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV96" s="299"/>
+      <c r="AV96" s="280"/>
       <c r="AW96">
         <f t="shared" si="21"/>
         <v>72</v>
@@ -10950,10 +10982,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ96" s="307" t="s">
+      <c r="AZ96" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA96" s="344"/>
+      <c r="BA96" s="288"/>
       <c r="BB96" s="244">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -11009,10 +11041,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU97" s="316" t="s">
+      <c r="AU97" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV97" s="317"/>
+      <c r="AV97" s="282"/>
       <c r="AW97">
         <f t="shared" si="21"/>
         <v>73</v>
@@ -11025,10 +11057,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ97" s="338" t="s">
+      <c r="AZ97" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="BA97" s="348"/>
+      <c r="BA97" s="298"/>
       <c r="BB97" s="244">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -11084,10 +11116,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU98" s="305" t="s">
+      <c r="AU98" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV98" s="306"/>
+      <c r="AV98" s="284"/>
       <c r="AW98">
         <f t="shared" si="21"/>
         <v>74</v>
@@ -11100,10 +11132,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ98" s="302" t="s">
+      <c r="AZ98" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA98" s="344"/>
+      <c r="BA98" s="288"/>
       <c r="BB98" s="244">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -11159,10 +11191,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU99" s="302" t="s">
+      <c r="AU99" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV99" s="306"/>
+      <c r="AV99" s="284"/>
       <c r="AW99">
         <f t="shared" si="21"/>
         <v>75</v>
@@ -11175,10 +11207,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ99" s="305" t="s">
+      <c r="AZ99" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA99" s="344"/>
+      <c r="BA99" s="288"/>
       <c r="BB99" s="244">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -11234,10 +11266,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU100" s="305" t="s">
+      <c r="AU100" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV100" s="306"/>
+      <c r="AV100" s="284"/>
       <c r="AW100">
         <f t="shared" si="21"/>
         <v>76</v>
@@ -11250,10 +11282,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ100" s="298" t="s">
+      <c r="AZ100" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA100" s="343"/>
+      <c r="BA100" s="289"/>
       <c r="BB100" s="244">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -11309,10 +11341,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU101" s="305" t="s">
+      <c r="AU101" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV101" s="306"/>
+      <c r="AV101" s="284"/>
       <c r="AW101">
         <f t="shared" si="21"/>
         <v>77</v>
@@ -11325,10 +11357,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ101" s="305" t="s">
+      <c r="AZ101" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA101" s="344"/>
+      <c r="BA101" s="288"/>
       <c r="BB101" s="244">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -11384,10 +11416,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU102" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV102" s="306"/>
+      <c r="AU102" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="284"/>
       <c r="AW102">
         <f t="shared" si="21"/>
         <v>78</v>
@@ -11400,10 +11432,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ102" s="298" t="s">
+      <c r="AZ102" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA102" s="343"/>
+      <c r="BA102" s="289"/>
       <c r="BB102" s="244">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -11459,10 +11491,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU103" s="309" t="s">
+      <c r="AU103" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV103" s="310"/>
+      <c r="AV103" s="287"/>
       <c r="AW103">
         <f t="shared" si="21"/>
         <v>79</v>
@@ -11475,10 +11507,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ103" s="305" t="s">
+      <c r="AZ103" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA103" s="344"/>
+      <c r="BA103" s="288"/>
       <c r="BB103" s="244">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -11534,10 +11566,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU104" s="340" t="s">
+      <c r="AU104" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV104" s="341"/>
+      <c r="AV104" s="291"/>
       <c r="AW104">
         <f t="shared" si="21"/>
         <v>80</v>
@@ -11550,10 +11582,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ104" s="298" t="s">
+      <c r="AZ104" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA104" s="343"/>
+      <c r="BA104" s="289"/>
       <c r="BB104" s="244">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -11609,10 +11641,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU105" s="316" t="s">
+      <c r="AU105" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV105" s="317"/>
+      <c r="AV105" s="282"/>
       <c r="AW105">
         <f t="shared" si="21"/>
         <v>81</v>
@@ -11625,10 +11657,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ105" s="302" t="s">
+      <c r="AZ105" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA105" s="344"/>
+      <c r="BA105" s="288"/>
       <c r="BB105" s="244">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -11684,10 +11716,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU106" s="302" t="s">
+      <c r="AU106" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV106" s="306"/>
+      <c r="AV106" s="284"/>
       <c r="AW106">
         <f t="shared" si="21"/>
         <v>82</v>
@@ -11700,10 +11732,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ106" s="305" t="s">
+      <c r="AZ106" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA106" s="344"/>
+      <c r="BA106" s="288"/>
       <c r="BB106" s="244">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -11759,10 +11791,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU107" s="302" t="s">
+      <c r="AU107" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV107" s="306"/>
+      <c r="AV107" s="284"/>
       <c r="AW107">
         <f t="shared" si="21"/>
         <v>83</v>
@@ -11775,10 +11807,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ107" s="298" t="s">
+      <c r="AZ107" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA107" s="343"/>
+      <c r="BA107" s="289"/>
       <c r="BB107" s="244">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -11834,10 +11866,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU108" s="302" t="s">
+      <c r="AU108" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV108" s="306"/>
+      <c r="AV108" s="284"/>
       <c r="AW108">
         <f t="shared" si="21"/>
         <v>84</v>
@@ -11850,10 +11882,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ108" s="305" t="s">
+      <c r="AZ108" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA108" s="344"/>
+      <c r="BA108" s="288"/>
       <c r="BB108" s="244">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -11909,10 +11941,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU109" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV109" s="306"/>
+      <c r="AU109" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="284"/>
       <c r="AW109">
         <f t="shared" si="21"/>
         <v>85</v>
@@ -11925,10 +11957,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ109" s="305" t="s">
+      <c r="AZ109" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA109" s="344"/>
+      <c r="BA109" s="288"/>
       <c r="BB109" s="244">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -11984,10 +12016,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU110" s="316" t="s">
+      <c r="AU110" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV110" s="317"/>
+      <c r="AV110" s="282"/>
       <c r="AW110">
         <f t="shared" si="21"/>
         <v>86</v>
@@ -12000,10 +12032,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ110" s="316" t="s">
+      <c r="AZ110" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA110" s="345"/>
+      <c r="BA110" s="297"/>
       <c r="BB110" s="244">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -12059,10 +12091,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU111" s="298" t="s">
+      <c r="AU111" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV111" s="299"/>
+      <c r="AV111" s="280"/>
       <c r="AW111">
         <f t="shared" si="21"/>
         <v>87</v>
@@ -12075,10 +12107,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ111" s="298" t="s">
+      <c r="AZ111" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA111" s="343"/>
+      <c r="BA111" s="289"/>
       <c r="BB111" s="244">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -12134,10 +12166,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU112" s="309" t="s">
+      <c r="AU112" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV112" s="310"/>
+      <c r="AV112" s="287"/>
       <c r="AW112">
         <f t="shared" si="21"/>
         <v>88</v>
@@ -12150,10 +12182,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ112" s="309" t="s">
+      <c r="AZ112" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA112" s="347"/>
+      <c r="BA112" s="296"/>
       <c r="BB112" s="244">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -12209,10 +12241,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU113" s="305" t="s">
+      <c r="AU113" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV113" s="306"/>
+      <c r="AV113" s="284"/>
       <c r="AW113">
         <f t="shared" si="21"/>
         <v>89</v>
@@ -12225,10 +12257,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ113" s="305" t="s">
+      <c r="AZ113" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA113" s="344"/>
+      <c r="BA113" s="288"/>
       <c r="BB113" s="244">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -12284,10 +12316,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU114" s="305" t="s">
+      <c r="AU114" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV114" s="306"/>
+      <c r="AV114" s="284"/>
       <c r="AW114">
         <f t="shared" si="21"/>
         <v>90</v>
@@ -12300,10 +12332,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ114" s="316" t="s">
+      <c r="AZ114" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA114" s="345"/>
+      <c r="BA114" s="297"/>
       <c r="BB114" s="244">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -12359,10 +12391,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU115" s="305" t="s">
+      <c r="AU115" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV115" s="306"/>
+      <c r="AV115" s="284"/>
       <c r="AW115">
         <f t="shared" si="21"/>
         <v>91</v>
@@ -12375,10 +12407,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ115" s="302" t="s">
+      <c r="AZ115" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA115" s="344"/>
+      <c r="BA115" s="288"/>
       <c r="BB115" s="244">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -12434,10 +12466,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU116" s="302" t="s">
+      <c r="AU116" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV116" s="306"/>
+      <c r="AV116" s="284"/>
       <c r="AW116">
         <f t="shared" si="21"/>
         <v>92</v>
@@ -12450,10 +12482,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ116" s="309" t="s">
+      <c r="AZ116" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA116" s="347"/>
+      <c r="BA116" s="296"/>
       <c r="BB116" s="244">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -12509,10 +12541,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU117" s="307" t="s">
+      <c r="AU117" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV117" s="306"/>
+      <c r="AV117" s="284"/>
       <c r="AW117">
         <f t="shared" si="21"/>
         <v>93</v>
@@ -12525,10 +12557,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ117" s="305" t="s">
+      <c r="AZ117" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA117" s="344"/>
+      <c r="BA117" s="288"/>
       <c r="BB117" s="244">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -12584,10 +12616,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU118" s="316" t="s">
+      <c r="AU118" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV118" s="317"/>
+      <c r="AV118" s="282"/>
       <c r="AW118">
         <f t="shared" si="21"/>
         <v>94</v>
@@ -12600,10 +12632,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ118" s="302" t="s">
+      <c r="AZ118" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA118" s="344"/>
+      <c r="BA118" s="288"/>
       <c r="BB118" s="244">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -12659,10 +12691,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU119" s="298" t="s">
+      <c r="AU119" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV119" s="299"/>
+      <c r="AV119" s="280"/>
       <c r="AW119">
         <f t="shared" si="21"/>
         <v>95</v>
@@ -12675,10 +12707,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ119" s="305" t="s">
+      <c r="AZ119" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA119" s="344"/>
+      <c r="BA119" s="288"/>
       <c r="BB119" s="244">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -12734,10 +12766,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU120" s="307" t="s">
+      <c r="AU120" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV120" s="306"/>
+      <c r="AV120" s="284"/>
       <c r="AW120">
         <f t="shared" si="21"/>
         <v>96</v>
@@ -12750,10 +12782,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ120" s="305" t="s">
+      <c r="AZ120" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA120" s="344"/>
+      <c r="BA120" s="288"/>
       <c r="BB120" s="244">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -12809,10 +12841,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU121" s="302" t="s">
+      <c r="AU121" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV121" s="306"/>
+      <c r="AV121" s="284"/>
       <c r="AW121">
         <f t="shared" si="21"/>
         <v>97</v>
@@ -12825,10 +12857,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ121" s="305" t="s">
+      <c r="AZ121" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA121" s="344"/>
+      <c r="BA121" s="288"/>
       <c r="BB121" s="244">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -12884,10 +12916,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU122" s="305" t="s">
+      <c r="AU122" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV122" s="306"/>
+      <c r="AV122" s="284"/>
       <c r="AW122">
         <f t="shared" si="21"/>
         <v>98</v>
@@ -12900,10 +12932,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ122" s="316" t="s">
+      <c r="AZ122" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA122" s="345"/>
+      <c r="BA122" s="297"/>
       <c r="BB122" s="244">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -12959,10 +12991,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU123" s="305" t="s">
+      <c r="AU123" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV123" s="306"/>
+      <c r="AV123" s="284"/>
       <c r="AW123">
         <f t="shared" si="21"/>
         <v>99</v>
@@ -12975,10 +13007,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ123" s="307" t="s">
+      <c r="AZ123" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA123" s="344"/>
+      <c r="BA123" s="288"/>
       <c r="BB123" s="244">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -13034,10 +13066,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU124" s="298" t="s">
+      <c r="AU124" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV124" s="299"/>
+      <c r="AV124" s="280"/>
       <c r="AW124">
         <f t="shared" si="21"/>
         <v>100</v>
@@ -13050,10 +13082,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ124" s="298" t="s">
+      <c r="AZ124" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA124" s="343"/>
+      <c r="BA124" s="289"/>
       <c r="BB124" s="244">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -13109,10 +13141,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU125" s="305" t="s">
+      <c r="AU125" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV125" s="306"/>
+      <c r="AV125" s="284"/>
       <c r="AW125">
         <f t="shared" si="21"/>
         <v>101</v>
@@ -13125,10 +13157,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ125" s="302" t="s">
+      <c r="AZ125" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA125" s="344"/>
+      <c r="BA125" s="288"/>
       <c r="BB125" s="244">
         <f t="shared" si="22"/>
         <v>101</v>
@@ -13184,10 +13216,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU126" s="298" t="s">
+      <c r="AU126" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV126" s="299"/>
+      <c r="AV126" s="280"/>
       <c r="AW126">
         <f t="shared" si="21"/>
         <v>102</v>
@@ -13200,10 +13232,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ126" s="307" t="s">
+      <c r="AZ126" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA126" s="344"/>
+      <c r="BA126" s="288"/>
       <c r="BB126" s="244">
         <f t="shared" si="22"/>
         <v>102</v>
@@ -13259,10 +13291,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU127" s="305" t="s">
+      <c r="AU127" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV127" s="306"/>
+      <c r="AV127" s="284"/>
       <c r="AW127">
         <f t="shared" si="21"/>
         <v>103</v>
@@ -13275,10 +13307,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ127" s="309" t="s">
+      <c r="AZ127" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA127" s="347"/>
+      <c r="BA127" s="296"/>
       <c r="BB127" s="244">
         <f t="shared" si="22"/>
         <v>103</v>
@@ -13334,10 +13366,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU128" s="298" t="s">
+      <c r="AU128" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV128" s="299"/>
+      <c r="AV128" s="280"/>
       <c r="AW128">
         <f t="shared" si="21"/>
         <v>104</v>
@@ -13350,10 +13382,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ128" s="302" t="s">
+      <c r="AZ128" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA128" s="344"/>
+      <c r="BA128" s="288"/>
       <c r="BB128" s="244">
         <f t="shared" si="22"/>
         <v>104</v>
@@ -13409,10 +13441,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU129" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV129" s="306"/>
+      <c r="AU129" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV129" s="284"/>
       <c r="AW129">
         <f t="shared" si="21"/>
         <v>105</v>
@@ -13425,10 +13457,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ129" s="305" t="s">
+      <c r="AZ129" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA129" s="344"/>
+      <c r="BA129" s="288"/>
       <c r="BB129" s="244">
         <f t="shared" si="22"/>
         <v>105</v>
@@ -13484,10 +13516,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU130" s="307" t="s">
+      <c r="AU130" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV130" s="306"/>
+      <c r="AV130" s="284"/>
       <c r="AW130">
         <f t="shared" si="21"/>
         <v>106</v>
@@ -13500,10 +13532,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ130" s="305" t="s">
+      <c r="AZ130" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA130" s="344"/>
+      <c r="BA130" s="288"/>
       <c r="BB130" s="244">
         <f t="shared" si="22"/>
         <v>106</v>
@@ -13559,10 +13591,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU131" s="302" t="s">
+      <c r="AU131" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV131" s="306"/>
+      <c r="AV131" s="284"/>
       <c r="AW131">
         <f t="shared" si="21"/>
         <v>107</v>
@@ -13575,10 +13607,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ131" s="302" t="s">
+      <c r="AZ131" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA131" s="344"/>
+      <c r="BA131" s="288"/>
       <c r="BB131" s="244">
         <f t="shared" si="22"/>
         <v>107</v>
@@ -13634,10 +13666,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU132" s="307" t="s">
+      <c r="AU132" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV132" s="306"/>
+      <c r="AV132" s="284"/>
       <c r="AW132">
         <f t="shared" si="21"/>
         <v>108</v>
@@ -13650,10 +13682,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ132" s="305" t="s">
+      <c r="AZ132" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA132" s="344"/>
+      <c r="BA132" s="288"/>
       <c r="BB132" s="244">
         <f t="shared" si="22"/>
         <v>108</v>
@@ -13709,10 +13741,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU133" s="305" t="s">
+      <c r="AU133" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV133" s="306"/>
+      <c r="AV133" s="284"/>
       <c r="AW133">
         <f t="shared" si="21"/>
         <v>109</v>
@@ -13725,10 +13757,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ133" s="298" t="s">
+      <c r="AZ133" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA133" s="343"/>
+      <c r="BA133" s="289"/>
       <c r="BB133" s="244">
         <f t="shared" si="22"/>
         <v>109</v>
@@ -13784,10 +13816,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU134" s="305" t="s">
+      <c r="AU134" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV134" s="306"/>
+      <c r="AV134" s="284"/>
       <c r="AW134">
         <f t="shared" si="21"/>
         <v>110</v>
@@ -13800,10 +13832,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ134" s="309" t="s">
+      <c r="AZ134" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA134" s="347"/>
+      <c r="BA134" s="296"/>
       <c r="BB134" s="244">
         <f t="shared" si="22"/>
         <v>110</v>
@@ -13859,10 +13891,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU135" s="309" t="s">
+      <c r="AU135" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV135" s="310"/>
+      <c r="AV135" s="287"/>
       <c r="AW135">
         <f t="shared" si="21"/>
         <v>111</v>
@@ -13875,10 +13907,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ135" s="302" t="s">
+      <c r="AZ135" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA135" s="344"/>
+      <c r="BA135" s="288"/>
       <c r="BB135" s="244">
         <f t="shared" si="22"/>
         <v>111</v>
@@ -13934,10 +13966,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU136" s="309" t="s">
+      <c r="AU136" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV136" s="310"/>
+      <c r="AV136" s="287"/>
       <c r="AW136">
         <f t="shared" si="21"/>
         <v>112</v>
@@ -13950,10 +13982,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ136" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA136" s="344"/>
+      <c r="AZ136" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA136" s="288"/>
       <c r="BB136" s="244">
         <f t="shared" si="22"/>
         <v>112</v>
@@ -14009,10 +14041,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU137" s="316" t="s">
+      <c r="AU137" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV137" s="317"/>
+      <c r="AV137" s="282"/>
       <c r="AW137">
         <f t="shared" si="21"/>
         <v>113</v>
@@ -14025,10 +14057,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ137" s="298" t="s">
+      <c r="AZ137" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA137" s="343"/>
+      <c r="BA137" s="289"/>
       <c r="BB137" s="244">
         <f t="shared" si="22"/>
         <v>113</v>
@@ -14084,10 +14116,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU138" s="305" t="s">
+      <c r="AU138" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV138" s="306"/>
+      <c r="AV138" s="284"/>
       <c r="AW138">
         <f t="shared" si="21"/>
         <v>114</v>
@@ -14100,10 +14132,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ138" s="302" t="s">
+      <c r="AZ138" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA138" s="344"/>
+      <c r="BA138" s="288"/>
       <c r="BB138" s="244">
         <f t="shared" si="22"/>
         <v>114</v>
@@ -14159,10 +14191,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU139" s="305" t="s">
+      <c r="AU139" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV139" s="306"/>
+      <c r="AV139" s="284"/>
       <c r="AW139">
         <f t="shared" si="21"/>
         <v>115</v>
@@ -14175,10 +14207,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ139" s="316" t="s">
+      <c r="AZ139" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA139" s="345"/>
+      <c r="BA139" s="297"/>
       <c r="BB139" s="244">
         <f t="shared" si="22"/>
         <v>115</v>
@@ -14234,10 +14266,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU140" s="298" t="s">
+      <c r="AU140" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV140" s="299"/>
+      <c r="AV140" s="280"/>
       <c r="AW140">
         <f t="shared" si="21"/>
         <v>116</v>
@@ -14250,10 +14282,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ140" s="316" t="s">
+      <c r="AZ140" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA140" s="345"/>
+      <c r="BA140" s="297"/>
       <c r="BB140" s="244">
         <f t="shared" si="22"/>
         <v>116</v>
@@ -14309,10 +14341,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU141" s="338" t="s">
+      <c r="AU141" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV141" s="339"/>
+      <c r="AV141" s="294"/>
       <c r="AW141">
         <f t="shared" si="21"/>
         <v>117</v>
@@ -14325,10 +14357,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ141" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA141" s="344"/>
+      <c r="AZ141" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA141" s="288"/>
       <c r="BB141" s="244">
         <f t="shared" si="22"/>
         <v>117</v>
@@ -14384,10 +14416,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU142" s="307" t="s">
+      <c r="AU142" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV142" s="308"/>
+      <c r="AV142" s="300"/>
       <c r="AW142">
         <f t="shared" si="21"/>
         <v>118</v>
@@ -14400,10 +14432,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ142" s="316" t="s">
+      <c r="AZ142" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA142" s="345"/>
+      <c r="BA142" s="297"/>
       <c r="BB142" s="244">
         <f t="shared" si="22"/>
         <v>118</v>
@@ -14459,10 +14491,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU143" s="298" t="s">
+      <c r="AU143" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV143" s="299"/>
+      <c r="AV143" s="280"/>
       <c r="AW143">
         <f t="shared" si="21"/>
         <v>119</v>
@@ -14475,10 +14507,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ143" s="302" t="s">
+      <c r="AZ143" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA143" s="344"/>
+      <c r="BA143" s="288"/>
       <c r="BB143" s="244">
         <f t="shared" si="22"/>
         <v>119</v>
@@ -14534,10 +14566,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU144" s="298" t="s">
+      <c r="AU144" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV144" s="299"/>
+      <c r="AV144" s="280"/>
       <c r="AW144">
         <f t="shared" si="21"/>
         <v>120</v>
@@ -14550,10 +14582,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ144" s="305" t="s">
+      <c r="AZ144" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA144" s="344"/>
+      <c r="BA144" s="288"/>
       <c r="BB144" s="244">
         <f t="shared" si="22"/>
         <v>120</v>
@@ -14609,10 +14641,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU145" s="302" t="s">
+      <c r="AU145" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV145" s="306"/>
+      <c r="AV145" s="284"/>
       <c r="AW145">
         <f t="shared" si="21"/>
         <v>121</v>
@@ -14625,10 +14657,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ145" s="307" t="s">
+      <c r="AZ145" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA145" s="344"/>
+      <c r="BA145" s="288"/>
       <c r="BB145" s="244">
         <f t="shared" si="22"/>
         <v>121</v>
@@ -14684,10 +14716,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU146" s="316" t="s">
+      <c r="AU146" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV146" s="317"/>
+      <c r="AV146" s="282"/>
       <c r="AW146">
         <f t="shared" si="21"/>
         <v>122</v>
@@ -14700,10 +14732,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ146" s="305" t="s">
+      <c r="AZ146" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA146" s="344"/>
+      <c r="BA146" s="288"/>
       <c r="BB146" s="244">
         <f t="shared" si="22"/>
         <v>122</v>
@@ -14759,10 +14791,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU147" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV147" s="306"/>
+      <c r="AU147" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="284"/>
       <c r="AW147">
         <f t="shared" si="21"/>
         <v>123</v>
@@ -14775,10 +14807,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ147" s="309" t="s">
+      <c r="AZ147" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA147" s="347"/>
+      <c r="BA147" s="296"/>
       <c r="BB147" s="244">
         <f t="shared" si="22"/>
         <v>123</v>
@@ -14834,10 +14866,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU148" s="309" t="s">
+      <c r="AU148" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV148" s="310"/>
+      <c r="AV148" s="287"/>
       <c r="AW148">
         <f t="shared" si="21"/>
         <v>124</v>
@@ -14850,10 +14882,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ148" s="309" t="s">
+      <c r="AZ148" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA148" s="347"/>
+      <c r="BA148" s="296"/>
       <c r="BB148" s="244">
         <f t="shared" si="22"/>
         <v>124</v>
@@ -14909,10 +14941,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU149" s="316" t="s">
+      <c r="AU149" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV149" s="317"/>
+      <c r="AV149" s="282"/>
       <c r="AW149">
         <f t="shared" si="21"/>
         <v>125</v>
@@ -14925,10 +14957,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ149" s="307" t="s">
+      <c r="AZ149" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA149" s="344"/>
+      <c r="BA149" s="288"/>
       <c r="BB149" s="244">
         <f t="shared" si="22"/>
         <v>125</v>
@@ -14984,10 +15016,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU150" s="302" t="s">
+      <c r="AU150" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV150" s="306"/>
+      <c r="AV150" s="284"/>
       <c r="AW150">
         <f t="shared" si="21"/>
         <v>126</v>
@@ -15000,10 +15032,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ150" s="316" t="s">
+      <c r="AZ150" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA150" s="345"/>
+      <c r="BA150" s="297"/>
       <c r="BB150" s="244">
         <f t="shared" si="22"/>
         <v>126</v>
@@ -15059,10 +15091,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU151" s="305" t="s">
+      <c r="AU151" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV151" s="306"/>
+      <c r="AV151" s="284"/>
       <c r="AW151">
         <f t="shared" si="21"/>
         <v>127</v>
@@ -15075,10 +15107,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ151" s="298" t="s">
+      <c r="AZ151" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA151" s="343"/>
+      <c r="BA151" s="289"/>
       <c r="BB151" s="244">
         <f t="shared" si="22"/>
         <v>127</v>
@@ -15134,10 +15166,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU152" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV152" s="306"/>
+      <c r="AU152" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="284"/>
       <c r="AW152">
         <f t="shared" si="21"/>
         <v>128</v>
@@ -15150,10 +15182,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ152" s="305" t="s">
+      <c r="AZ152" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA152" s="344"/>
+      <c r="BA152" s="288"/>
       <c r="BB152" s="244">
         <f t="shared" si="22"/>
         <v>128</v>
@@ -15209,10 +15241,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU153" s="340" t="s">
+      <c r="AU153" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV153" s="341"/>
+      <c r="AV153" s="291"/>
       <c r="AW153">
         <f t="shared" si="21"/>
         <v>129</v>
@@ -15225,10 +15257,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ153" s="316" t="s">
+      <c r="AZ153" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA153" s="345"/>
+      <c r="BA153" s="297"/>
       <c r="BB153" s="244">
         <f t="shared" si="22"/>
         <v>129</v>
@@ -15284,10 +15316,10 @@
         <f t="shared" ref="AT154:AT217" si="24">IF(C154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU154" s="305" t="s">
+      <c r="AU154" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV154" s="306"/>
+      <c r="AV154" s="284"/>
       <c r="AW154">
         <f t="shared" si="21"/>
         <v>130</v>
@@ -15300,10 +15332,10 @@
         <f t="shared" ref="AY154:AY198" si="26">IF(H154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ154" s="302" t="s">
+      <c r="AZ154" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA154" s="344"/>
+      <c r="BA154" s="288"/>
       <c r="BB154" s="244">
         <f t="shared" si="22"/>
         <v>130</v>
@@ -15359,10 +15391,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU155" s="309" t="s">
+      <c r="AU155" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV155" s="310"/>
+      <c r="AV155" s="287"/>
       <c r="AW155">
         <f t="shared" ref="AW155:AW218" si="29">AW154+1</f>
         <v>131</v>
@@ -15375,10 +15407,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ155" s="316" t="s">
+      <c r="AZ155" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA155" s="345"/>
+      <c r="BA155" s="297"/>
       <c r="BB155" s="244">
         <f t="shared" ref="BB155:BC198" si="30">BB154+1</f>
         <v>131</v>
@@ -15434,10 +15466,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU156" s="307" t="s">
+      <c r="AU156" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV156" s="306"/>
+      <c r="AV156" s="284"/>
       <c r="AW156">
         <f t="shared" si="29"/>
         <v>132</v>
@@ -15450,10 +15482,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ156" s="309" t="s">
+      <c r="AZ156" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA156" s="347"/>
+      <c r="BA156" s="296"/>
       <c r="BB156" s="244">
         <f t="shared" si="30"/>
         <v>132</v>
@@ -15509,10 +15541,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU157" s="309" t="s">
+      <c r="AU157" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV157" s="310"/>
+      <c r="AV157" s="287"/>
       <c r="AW157">
         <f t="shared" si="29"/>
         <v>133</v>
@@ -15525,10 +15557,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ157" s="316" t="s">
+      <c r="AZ157" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA157" s="345"/>
+      <c r="BA157" s="297"/>
       <c r="BB157" s="244">
         <f t="shared" si="30"/>
         <v>133</v>
@@ -15584,10 +15616,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU158" s="305" t="s">
+      <c r="AU158" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV158" s="306"/>
+      <c r="AV158" s="284"/>
       <c r="AW158">
         <f t="shared" si="29"/>
         <v>134</v>
@@ -15600,10 +15632,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ158" s="305" t="s">
+      <c r="AZ158" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA158" s="344"/>
+      <c r="BA158" s="288"/>
       <c r="BB158" s="244">
         <f t="shared" si="30"/>
         <v>134</v>
@@ -15659,10 +15691,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU159" s="305" t="s">
+      <c r="AU159" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV159" s="306"/>
+      <c r="AV159" s="284"/>
       <c r="AW159">
         <f t="shared" si="29"/>
         <v>135</v>
@@ -15675,10 +15707,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ159" s="309" t="s">
+      <c r="AZ159" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA159" s="347"/>
+      <c r="BA159" s="296"/>
       <c r="BB159" s="244">
         <f t="shared" si="30"/>
         <v>135</v>
@@ -15734,10 +15766,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU160" s="340" t="s">
+      <c r="AU160" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV160" s="341"/>
+      <c r="AV160" s="291"/>
       <c r="AW160">
         <f t="shared" si="29"/>
         <v>136</v>
@@ -15750,10 +15782,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ160" s="302" t="s">
+      <c r="AZ160" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA160" s="344"/>
+      <c r="BA160" s="288"/>
       <c r="BB160" s="244">
         <f t="shared" si="30"/>
         <v>136</v>
@@ -15809,10 +15841,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU161" s="309" t="s">
+      <c r="AU161" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV161" s="310"/>
+      <c r="AV161" s="287"/>
       <c r="AW161">
         <f t="shared" si="29"/>
         <v>137</v>
@@ -15825,10 +15857,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ161" s="316" t="s">
+      <c r="AZ161" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA161" s="345"/>
+      <c r="BA161" s="297"/>
       <c r="BB161" s="244">
         <f t="shared" si="30"/>
         <v>137</v>
@@ -15884,10 +15916,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU162" s="298" t="s">
+      <c r="AU162" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV162" s="299"/>
+      <c r="AV162" s="280"/>
       <c r="AW162">
         <f t="shared" si="29"/>
         <v>138</v>
@@ -15900,10 +15932,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ162" s="309" t="s">
+      <c r="AZ162" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA162" s="347"/>
+      <c r="BA162" s="296"/>
       <c r="BB162" s="244">
         <f t="shared" si="30"/>
         <v>138</v>
@@ -15959,10 +15991,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU163" s="316" t="s">
+      <c r="AU163" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV163" s="317"/>
+      <c r="AV163" s="282"/>
       <c r="AW163">
         <f t="shared" si="29"/>
         <v>139</v>
@@ -15975,10 +16007,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ163" s="298" t="s">
+      <c r="AZ163" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA163" s="343"/>
+      <c r="BA163" s="289"/>
       <c r="BB163" s="244">
         <f t="shared" si="30"/>
         <v>139</v>
@@ -16034,10 +16066,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU164" s="307" t="s">
+      <c r="AU164" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV164" s="306"/>
+      <c r="AV164" s="284"/>
       <c r="AW164">
         <f t="shared" si="29"/>
         <v>140</v>
@@ -16050,10 +16082,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ164" s="340" t="s">
+      <c r="AZ164" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BA164" s="346"/>
+      <c r="BA164" s="299"/>
       <c r="BB164" s="244">
         <f t="shared" si="30"/>
         <v>140</v>
@@ -16109,10 +16141,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU165" s="307" t="s">
+      <c r="AU165" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV165" s="306"/>
+      <c r="AV165" s="284"/>
       <c r="AW165">
         <f t="shared" si="29"/>
         <v>141</v>
@@ -16125,10 +16157,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ165" s="298" t="s">
+      <c r="AZ165" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA165" s="343"/>
+      <c r="BA165" s="289"/>
       <c r="BB165" s="244">
         <f t="shared" si="30"/>
         <v>141</v>
@@ -16184,10 +16216,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU166" s="316" t="s">
+      <c r="AU166" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV166" s="317"/>
+      <c r="AV166" s="282"/>
       <c r="AW166">
         <f t="shared" si="29"/>
         <v>142</v>
@@ -16200,10 +16232,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ166" s="302" t="s">
+      <c r="AZ166" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA166" s="344"/>
+      <c r="BA166" s="288"/>
       <c r="BB166" s="244">
         <f t="shared" si="30"/>
         <v>142</v>
@@ -16259,10 +16291,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU167" s="307" t="s">
+      <c r="AU167" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV167" s="306"/>
+      <c r="AV167" s="284"/>
       <c r="AW167">
         <f t="shared" si="29"/>
         <v>143</v>
@@ -16275,10 +16307,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ167" s="316" t="s">
+      <c r="AZ167" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA167" s="345"/>
+      <c r="BA167" s="297"/>
       <c r="BB167" s="244">
         <f t="shared" si="30"/>
         <v>143</v>
@@ -16334,10 +16366,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU168" s="305" t="s">
+      <c r="AU168" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV168" s="306"/>
+      <c r="AV168" s="284"/>
       <c r="AW168">
         <f t="shared" si="29"/>
         <v>144</v>
@@ -16350,10 +16382,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ168" s="302" t="s">
+      <c r="AZ168" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA168" s="344"/>
+      <c r="BA168" s="288"/>
       <c r="BB168" s="244">
         <f t="shared" si="30"/>
         <v>144</v>
@@ -16409,10 +16441,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU169" s="302" t="s">
+      <c r="AU169" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV169" s="306"/>
+      <c r="AV169" s="284"/>
       <c r="AW169">
         <f t="shared" si="29"/>
         <v>145</v>
@@ -16425,10 +16457,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ169" s="316" t="s">
+      <c r="AZ169" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA169" s="345"/>
+      <c r="BA169" s="297"/>
       <c r="BB169" s="244">
         <f t="shared" si="30"/>
         <v>145</v>
@@ -16484,10 +16516,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU170" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV170" s="306"/>
+      <c r="AU170" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="284"/>
       <c r="AW170">
         <f t="shared" si="29"/>
         <v>146</v>
@@ -16500,10 +16532,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ170" s="298" t="s">
+      <c r="AZ170" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA170" s="343"/>
+      <c r="BA170" s="289"/>
       <c r="BB170" s="244">
         <f t="shared" si="30"/>
         <v>146</v>
@@ -16559,10 +16591,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU171" s="305" t="s">
+      <c r="AU171" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV171" s="306"/>
+      <c r="AV171" s="284"/>
       <c r="AW171">
         <f t="shared" si="29"/>
         <v>147</v>
@@ -16575,10 +16607,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ171" s="305" t="s">
+      <c r="AZ171" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA171" s="344"/>
+      <c r="BA171" s="288"/>
       <c r="BB171" s="244">
         <f t="shared" si="30"/>
         <v>147</v>
@@ -16634,10 +16666,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU172" s="338" t="s">
+      <c r="AU172" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV172" s="339"/>
+      <c r="AV172" s="294"/>
       <c r="AW172">
         <f t="shared" si="29"/>
         <v>148</v>
@@ -16650,10 +16682,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ172" s="305" t="s">
+      <c r="AZ172" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA172" s="344"/>
+      <c r="BA172" s="288"/>
       <c r="BB172" s="244">
         <f t="shared" si="30"/>
         <v>148</v>
@@ -16709,10 +16741,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU173" s="316" t="s">
+      <c r="AU173" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV173" s="317"/>
+      <c r="AV173" s="282"/>
       <c r="AW173">
         <f t="shared" si="29"/>
         <v>149</v>
@@ -16725,10 +16757,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ173" s="307" t="s">
+      <c r="AZ173" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA173" s="344"/>
+      <c r="BA173" s="288"/>
       <c r="BB173" s="244">
         <f t="shared" si="30"/>
         <v>149</v>
@@ -16784,10 +16816,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU174" s="305" t="s">
+      <c r="AU174" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV174" s="306"/>
+      <c r="AV174" s="284"/>
       <c r="AW174">
         <f t="shared" si="29"/>
         <v>150</v>
@@ -16800,10 +16832,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ174" s="305" t="s">
+      <c r="AZ174" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA174" s="344"/>
+      <c r="BA174" s="288"/>
       <c r="BB174" s="244">
         <f t="shared" si="30"/>
         <v>150</v>
@@ -16859,10 +16891,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU175" s="307" t="s">
+      <c r="AU175" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV175" s="306"/>
+      <c r="AV175" s="284"/>
       <c r="AW175">
         <f t="shared" si="29"/>
         <v>151</v>
@@ -16875,10 +16907,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ175" s="305" t="s">
+      <c r="AZ175" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA175" s="344"/>
+      <c r="BA175" s="288"/>
       <c r="BB175" s="244">
         <f t="shared" si="30"/>
         <v>151</v>
@@ -16934,10 +16966,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU176" s="338" t="s">
+      <c r="AU176" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV176" s="339"/>
+      <c r="AV176" s="294"/>
       <c r="AW176">
         <f t="shared" si="29"/>
         <v>152</v>
@@ -16950,10 +16982,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ176" s="309" t="s">
+      <c r="AZ176" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA176" s="347"/>
+      <c r="BA176" s="296"/>
       <c r="BB176" s="244">
         <f t="shared" si="30"/>
         <v>152</v>
@@ -17009,10 +17041,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU177" s="302" t="s">
+      <c r="AU177" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV177" s="306"/>
+      <c r="AV177" s="284"/>
       <c r="AW177">
         <f t="shared" si="29"/>
         <v>153</v>
@@ -17025,10 +17057,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ177" s="305" t="s">
+      <c r="AZ177" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA177" s="344"/>
+      <c r="BA177" s="288"/>
       <c r="BB177" s="244">
         <f t="shared" si="30"/>
         <v>153</v>
@@ -17084,10 +17116,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU178" s="302" t="s">
+      <c r="AU178" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV178" s="306"/>
+      <c r="AV178" s="284"/>
       <c r="AW178">
         <f t="shared" si="29"/>
         <v>154</v>
@@ -17100,10 +17132,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ178" s="305" t="s">
+      <c r="AZ178" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA178" s="344"/>
+      <c r="BA178" s="288"/>
       <c r="BB178" s="244">
         <f t="shared" si="30"/>
         <v>154</v>
@@ -17159,10 +17191,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU179" s="302" t="s">
+      <c r="AU179" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV179" s="306"/>
+      <c r="AV179" s="284"/>
       <c r="AW179">
         <f t="shared" si="29"/>
         <v>155</v>
@@ -17175,10 +17207,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ179" s="309" t="s">
+      <c r="AZ179" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA179" s="347"/>
+      <c r="BA179" s="296"/>
       <c r="BB179" s="244">
         <f t="shared" si="30"/>
         <v>155</v>
@@ -17234,10 +17266,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU180" s="305" t="s">
+      <c r="AU180" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV180" s="306"/>
+      <c r="AV180" s="284"/>
       <c r="AW180">
         <f t="shared" si="29"/>
         <v>156</v>
@@ -17250,10 +17282,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ180" s="298" t="s">
+      <c r="AZ180" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA180" s="343"/>
+      <c r="BA180" s="289"/>
       <c r="BB180" s="244">
         <f t="shared" si="30"/>
         <v>156</v>
@@ -17309,10 +17341,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU181" s="309" t="s">
+      <c r="AU181" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV181" s="310"/>
+      <c r="AV181" s="287"/>
       <c r="AW181">
         <f t="shared" si="29"/>
         <v>157</v>
@@ -17325,10 +17357,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ181" s="309" t="s">
+      <c r="AZ181" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA181" s="347"/>
+      <c r="BA181" s="296"/>
       <c r="BB181" s="244">
         <f t="shared" si="30"/>
         <v>157</v>
@@ -17384,10 +17416,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU182" s="338" t="s">
+      <c r="AU182" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV182" s="339"/>
+      <c r="AV182" s="294"/>
       <c r="AW182">
         <f t="shared" si="29"/>
         <v>158</v>
@@ -17400,10 +17432,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ182" s="298" t="s">
+      <c r="AZ182" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA182" s="343"/>
+      <c r="BA182" s="289"/>
       <c r="BB182" s="244">
         <f t="shared" si="30"/>
         <v>158</v>
@@ -17459,10 +17491,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU183" s="302" t="s">
+      <c r="AU183" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV183" s="306"/>
+      <c r="AV183" s="284"/>
       <c r="AW183">
         <f t="shared" si="29"/>
         <v>159</v>
@@ -17475,10 +17507,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ183" s="316" t="s">
+      <c r="AZ183" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA183" s="345"/>
+      <c r="BA183" s="297"/>
       <c r="BB183" s="244">
         <f t="shared" si="30"/>
         <v>159</v>
@@ -17534,10 +17566,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU184" s="298" t="s">
+      <c r="AU184" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV184" s="299"/>
+      <c r="AV184" s="280"/>
       <c r="AW184">
         <f t="shared" si="29"/>
         <v>160</v>
@@ -17550,10 +17582,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ184" s="305" t="s">
+      <c r="AZ184" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA184" s="344"/>
+      <c r="BA184" s="288"/>
       <c r="BB184" s="244">
         <f t="shared" si="30"/>
         <v>160</v>
@@ -17609,10 +17641,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU185" s="298" t="s">
+      <c r="AU185" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV185" s="299"/>
+      <c r="AV185" s="280"/>
       <c r="AW185">
         <f t="shared" si="29"/>
         <v>161</v>
@@ -17625,10 +17657,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ185" s="316" t="s">
+      <c r="AZ185" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA185" s="345"/>
+      <c r="BA185" s="297"/>
       <c r="BB185" s="244">
         <f t="shared" si="30"/>
         <v>161</v>
@@ -17684,10 +17716,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU186" s="305" t="s">
+      <c r="AU186" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV186" s="306"/>
+      <c r="AV186" s="284"/>
       <c r="AW186">
         <f t="shared" si="29"/>
         <v>162</v>
@@ -17700,10 +17732,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ186" s="309" t="s">
+      <c r="AZ186" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA186" s="347"/>
+      <c r="BA186" s="296"/>
       <c r="BB186" s="244">
         <f t="shared" si="30"/>
         <v>162</v>
@@ -17759,10 +17791,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU187" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV187" s="306"/>
+      <c r="AU187" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV187" s="284"/>
       <c r="AW187">
         <f t="shared" si="29"/>
         <v>163</v>
@@ -17775,10 +17807,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ187" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA187" s="344"/>
+      <c r="AZ187" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA187" s="288"/>
       <c r="BB187" s="244">
         <f t="shared" si="30"/>
         <v>163</v>
@@ -17834,10 +17866,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU188" s="305" t="s">
+      <c r="AU188" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV188" s="306"/>
+      <c r="AV188" s="284"/>
       <c r="AW188">
         <f t="shared" si="29"/>
         <v>164</v>
@@ -17850,10 +17882,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ188" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA188" s="344"/>
+      <c r="AZ188" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA188" s="288"/>
       <c r="BB188" s="244">
         <f t="shared" si="30"/>
         <v>164</v>
@@ -17909,10 +17941,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU189" s="305" t="s">
+      <c r="AU189" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV189" s="306"/>
+      <c r="AV189" s="284"/>
       <c r="AW189">
         <f t="shared" si="29"/>
         <v>165</v>
@@ -17925,10 +17957,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ189" s="305" t="s">
+      <c r="AZ189" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA189" s="306"/>
+      <c r="BA189" s="284"/>
       <c r="BB189" s="244">
         <f t="shared" si="30"/>
         <v>165</v>
@@ -17984,10 +18016,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU190" s="298" t="s">
+      <c r="AU190" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV190" s="299"/>
+      <c r="AV190" s="280"/>
       <c r="AW190">
         <f t="shared" si="29"/>
         <v>166</v>
@@ -18000,10 +18032,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ190" s="302" t="s">
+      <c r="AZ190" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA190" s="344"/>
+      <c r="BA190" s="288"/>
       <c r="BB190" s="244">
         <f t="shared" si="30"/>
         <v>166</v>
@@ -18059,10 +18091,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU191" s="298" t="s">
+      <c r="AU191" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV191" s="299"/>
+      <c r="AV191" s="280"/>
       <c r="AW191">
         <f t="shared" si="29"/>
         <v>167</v>
@@ -18075,10 +18107,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ191" s="316" t="s">
+      <c r="AZ191" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA191" s="345"/>
+      <c r="BA191" s="297"/>
       <c r="BB191" s="244">
         <f t="shared" si="30"/>
         <v>167</v>
@@ -18134,10 +18166,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU192" s="302" t="s">
+      <c r="AU192" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV192" s="306"/>
+      <c r="AV192" s="284"/>
       <c r="AW192">
         <f t="shared" si="29"/>
         <v>168</v>
@@ -18150,10 +18182,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ192" s="302" t="s">
+      <c r="AZ192" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA192" s="344"/>
+      <c r="BA192" s="288"/>
       <c r="BB192" s="244">
         <f t="shared" si="30"/>
         <v>168</v>
@@ -18209,10 +18241,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU193" s="305" t="s">
+      <c r="AU193" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV193" s="306"/>
+      <c r="AV193" s="284"/>
       <c r="AW193">
         <f t="shared" si="29"/>
         <v>169</v>
@@ -18225,10 +18257,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ193" s="298" t="s">
+      <c r="AZ193" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA193" s="343"/>
+      <c r="BA193" s="289"/>
       <c r="BB193" s="244">
         <f t="shared" si="30"/>
         <v>169</v>
@@ -18284,10 +18316,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU194" s="309" t="s">
+      <c r="AU194" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV194" s="310"/>
+      <c r="AV194" s="287"/>
       <c r="AW194">
         <f t="shared" si="29"/>
         <v>170</v>
@@ -18300,10 +18332,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ194" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA194" s="344"/>
+      <c r="AZ194" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA194" s="288"/>
       <c r="BB194" s="244">
         <f t="shared" si="30"/>
         <v>170</v>
@@ -18359,10 +18391,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU195" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV195" s="306"/>
+      <c r="AU195" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV195" s="284"/>
       <c r="AW195">
         <f t="shared" si="29"/>
         <v>171</v>
@@ -18375,10 +18407,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ195" s="298" t="s">
+      <c r="AZ195" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA195" s="343"/>
+      <c r="BA195" s="289"/>
       <c r="BB195" s="244">
         <f t="shared" si="30"/>
         <v>171</v>
@@ -18434,10 +18466,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU196" s="338" t="s">
+      <c r="AU196" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV196" s="339"/>
+      <c r="AV196" s="294"/>
       <c r="AW196">
         <f t="shared" si="29"/>
         <v>172</v>
@@ -18450,10 +18482,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ196" s="302" t="s">
+      <c r="AZ196" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA196" s="344"/>
+      <c r="BA196" s="288"/>
       <c r="BB196" s="244">
         <f t="shared" si="30"/>
         <v>172</v>
@@ -18509,10 +18541,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU197" s="302" t="s">
+      <c r="AU197" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV197" s="306"/>
+      <c r="AV197" s="284"/>
       <c r="AW197">
         <f t="shared" si="29"/>
         <v>173</v>
@@ -18525,10 +18557,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ197" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA197" s="344"/>
+      <c r="AZ197" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA197" s="288"/>
       <c r="BB197" s="244">
         <f t="shared" si="30"/>
         <v>173</v>
@@ -18584,10 +18616,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU198" s="302" t="s">
+      <c r="AU198" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV198" s="306"/>
+      <c r="AV198" s="284"/>
       <c r="AW198">
         <f t="shared" si="29"/>
         <v>174</v>
@@ -18600,10 +18632,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ198" s="307" t="s">
+      <c r="AZ198" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA198" s="344"/>
+      <c r="BA198" s="288"/>
       <c r="BB198" s="245">
         <f t="shared" si="30"/>
         <v>174</v>
@@ -18653,10 +18685,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU199" s="298" t="s">
+      <c r="AU199" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV199" s="299"/>
+      <c r="AV199" s="280"/>
       <c r="AW199">
         <f t="shared" si="29"/>
         <v>175</v>
@@ -18705,10 +18737,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU200" s="298" t="s">
+      <c r="AU200" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV200" s="299"/>
+      <c r="AV200" s="280"/>
       <c r="AW200">
         <f t="shared" si="29"/>
         <v>176</v>
@@ -18757,10 +18789,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU201" s="307" t="s">
+      <c r="AU201" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV201" s="306"/>
+      <c r="AV201" s="284"/>
       <c r="AW201">
         <f t="shared" si="29"/>
         <v>177</v>
@@ -18809,10 +18841,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU202" s="302" t="s">
+      <c r="AU202" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV202" s="306"/>
+      <c r="AV202" s="284"/>
       <c r="AW202">
         <f t="shared" si="29"/>
         <v>178</v>
@@ -18861,10 +18893,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU203" s="302" t="s">
+      <c r="AU203" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV203" s="306"/>
+      <c r="AV203" s="284"/>
       <c r="AW203">
         <f t="shared" si="29"/>
         <v>179</v>
@@ -18913,10 +18945,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU204" s="305" t="s">
+      <c r="AU204" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV204" s="306"/>
+      <c r="AV204" s="284"/>
       <c r="AW204">
         <f t="shared" si="29"/>
         <v>180</v>
@@ -18965,10 +18997,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU205" s="305" t="s">
+      <c r="AU205" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV205" s="306"/>
+      <c r="AV205" s="284"/>
       <c r="AW205">
         <f t="shared" si="29"/>
         <v>181</v>
@@ -19017,10 +19049,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU206" s="305" t="s">
+      <c r="AU206" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV206" s="306"/>
+      <c r="AV206" s="284"/>
       <c r="AW206">
         <f t="shared" si="29"/>
         <v>182</v>
@@ -19069,10 +19101,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU207" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV207" s="306"/>
+      <c r="AU207" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV207" s="284"/>
       <c r="AW207">
         <f t="shared" si="29"/>
         <v>183</v>
@@ -19121,10 +19153,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU208" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV208" s="306"/>
+      <c r="AU208" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV208" s="284"/>
       <c r="AW208">
         <f t="shared" si="29"/>
         <v>184</v>
@@ -19173,10 +19205,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU209" s="316" t="s">
+      <c r="AU209" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV209" s="317"/>
+      <c r="AV209" s="282"/>
       <c r="AW209">
         <f t="shared" si="29"/>
         <v>185</v>
@@ -19225,10 +19257,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU210" s="305" t="s">
+      <c r="AU210" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV210" s="306"/>
+      <c r="AV210" s="284"/>
       <c r="AW210">
         <f t="shared" si="29"/>
         <v>186</v>
@@ -19277,10 +19309,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU211" s="302" t="s">
+      <c r="AU211" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV211" s="303"/>
+      <c r="AV211" s="301"/>
       <c r="AW211">
         <f t="shared" si="29"/>
         <v>187</v>
@@ -19329,10 +19361,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU212" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV212" s="306"/>
+      <c r="AU212" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV212" s="284"/>
       <c r="AW212">
         <f t="shared" si="29"/>
         <v>188</v>
@@ -19381,10 +19413,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU213" s="305" t="s">
+      <c r="AU213" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV213" s="306"/>
+      <c r="AV213" s="284"/>
       <c r="AW213">
         <f t="shared" si="29"/>
         <v>189</v>
@@ -19433,10 +19465,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU214" s="307" t="s">
+      <c r="AU214" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV214" s="306"/>
+      <c r="AV214" s="284"/>
       <c r="AW214">
         <f t="shared" si="29"/>
         <v>190</v>
@@ -19485,10 +19517,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU215" s="305" t="s">
+      <c r="AU215" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV215" s="306"/>
+      <c r="AV215" s="284"/>
       <c r="AW215">
         <f t="shared" si="29"/>
         <v>191</v>
@@ -19537,10 +19569,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU216" s="305" t="s">
+      <c r="AU216" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV216" s="306"/>
+      <c r="AV216" s="284"/>
       <c r="AW216">
         <f t="shared" si="29"/>
         <v>192</v>
@@ -19589,10 +19621,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU217" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV217" s="306"/>
+      <c r="AU217" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV217" s="284"/>
       <c r="AW217">
         <f t="shared" si="29"/>
         <v>193</v>
@@ -19641,10 +19673,10 @@
         <f t="shared" ref="AT218:AT254" si="32">IF(C218&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU218" s="305" t="s">
+      <c r="AU218" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV218" s="306"/>
+      <c r="AV218" s="284"/>
       <c r="AW218">
         <f t="shared" si="29"/>
         <v>194</v>
@@ -19693,10 +19725,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU219" s="298" t="s">
+      <c r="AU219" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV219" s="299"/>
+      <c r="AV219" s="280"/>
       <c r="AW219">
         <f t="shared" ref="AW219:AW254" si="34">AW218+1</f>
         <v>195</v>
@@ -19745,10 +19777,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU220" s="309" t="s">
+      <c r="AU220" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV220" s="310"/>
+      <c r="AV220" s="287"/>
       <c r="AW220">
         <f t="shared" si="34"/>
         <v>196</v>
@@ -19797,10 +19829,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU221" s="305" t="s">
+      <c r="AU221" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV221" s="306"/>
+      <c r="AV221" s="284"/>
       <c r="AW221">
         <f t="shared" si="34"/>
         <v>197</v>
@@ -19849,10 +19881,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU222" s="305" t="s">
+      <c r="AU222" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV222" s="306"/>
+      <c r="AV222" s="284"/>
       <c r="AW222">
         <f t="shared" si="34"/>
         <v>198</v>
@@ -19901,10 +19933,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU223" s="298" t="s">
+      <c r="AU223" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV223" s="299"/>
+      <c r="AV223" s="280"/>
       <c r="AW223">
         <f t="shared" si="34"/>
         <v>199</v>
@@ -19953,10 +19985,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU224" s="305" t="s">
+      <c r="AU224" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV224" s="306"/>
+      <c r="AV224" s="284"/>
       <c r="AW224">
         <f t="shared" si="34"/>
         <v>200</v>
@@ -20005,10 +20037,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU225" s="305" t="s">
+      <c r="AU225" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV225" s="306"/>
+      <c r="AV225" s="284"/>
       <c r="AW225">
         <f t="shared" si="34"/>
         <v>201</v>
@@ -20057,10 +20089,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU226" s="340" t="s">
+      <c r="AU226" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV226" s="341"/>
+      <c r="AV226" s="291"/>
       <c r="AW226">
         <f t="shared" si="34"/>
         <v>202</v>
@@ -20109,10 +20141,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU227" s="298" t="s">
+      <c r="AU227" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV227" s="299"/>
+      <c r="AV227" s="280"/>
       <c r="AW227">
         <f t="shared" si="34"/>
         <v>203</v>
@@ -20161,10 +20193,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU228" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV228" s="306"/>
+      <c r="AU228" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="284"/>
       <c r="AW228">
         <f t="shared" si="34"/>
         <v>204</v>
@@ -20213,10 +20245,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU229" s="305" t="s">
+      <c r="AU229" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV229" s="306"/>
+      <c r="AV229" s="284"/>
       <c r="AW229">
         <f t="shared" si="34"/>
         <v>205</v>
@@ -20265,10 +20297,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU230" s="302" t="s">
+      <c r="AU230" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV230" s="303"/>
+      <c r="AV230" s="301"/>
       <c r="AW230">
         <f t="shared" si="34"/>
         <v>206</v>
@@ -20317,10 +20349,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU231" s="298" t="s">
+      <c r="AU231" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV231" s="299"/>
+      <c r="AV231" s="280"/>
       <c r="AW231">
         <f t="shared" si="34"/>
         <v>207</v>
@@ -20369,10 +20401,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU232" s="305" t="s">
+      <c r="AU232" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV232" s="306"/>
+      <c r="AV232" s="284"/>
       <c r="AW232">
         <f t="shared" si="34"/>
         <v>208</v>
@@ -20421,10 +20453,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU233" s="307" t="s">
+      <c r="AU233" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV233" s="306"/>
+      <c r="AV233" s="284"/>
       <c r="AW233">
         <f t="shared" si="34"/>
         <v>209</v>
@@ -20473,10 +20505,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU234" s="302" t="s">
+      <c r="AU234" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV234" s="306"/>
+      <c r="AV234" s="284"/>
       <c r="AW234">
         <f t="shared" si="34"/>
         <v>210</v>
@@ -20525,10 +20557,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU235" s="305" t="s">
+      <c r="AU235" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV235" s="306"/>
+      <c r="AV235" s="284"/>
       <c r="AW235">
         <f t="shared" si="34"/>
         <v>211</v>
@@ -20577,10 +20609,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU236" s="309" t="s">
+      <c r="AU236" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV236" s="310"/>
+      <c r="AV236" s="287"/>
       <c r="AW236">
         <f t="shared" si="34"/>
         <v>212</v>
@@ -20629,10 +20661,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU237" s="302" t="s">
+      <c r="AU237" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV237" s="306"/>
+      <c r="AV237" s="284"/>
       <c r="AW237">
         <f t="shared" si="34"/>
         <v>213</v>
@@ -20681,10 +20713,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU238" s="316" t="s">
+      <c r="AU238" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV238" s="317"/>
+      <c r="AV238" s="282"/>
       <c r="AW238">
         <f t="shared" si="34"/>
         <v>214</v>
@@ -20733,10 +20765,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU239" s="316" t="s">
+      <c r="AU239" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV239" s="317"/>
+      <c r="AV239" s="282"/>
       <c r="AW239">
         <f t="shared" si="34"/>
         <v>215</v>
@@ -20785,10 +20817,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU240" s="305" t="s">
+      <c r="AU240" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV240" s="306"/>
+      <c r="AV240" s="284"/>
       <c r="AW240">
         <f t="shared" si="34"/>
         <v>216</v>
@@ -20837,10 +20869,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU241" s="316" t="s">
+      <c r="AU241" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV241" s="317"/>
+      <c r="AV241" s="282"/>
       <c r="AW241">
         <f t="shared" si="34"/>
         <v>217</v>
@@ -20889,10 +20921,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU242" s="305" t="s">
+      <c r="AU242" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV242" s="306"/>
+      <c r="AV242" s="284"/>
       <c r="AW242">
         <f t="shared" si="34"/>
         <v>218</v>
@@ -20941,10 +20973,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU243" s="340" t="s">
+      <c r="AU243" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV243" s="341"/>
+      <c r="AV243" s="291"/>
       <c r="AW243">
         <f t="shared" si="34"/>
         <v>219</v>
@@ -20993,10 +21025,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU244" s="302" t="s">
+      <c r="AU244" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV244" s="303"/>
+      <c r="AV244" s="301"/>
       <c r="AW244">
         <f t="shared" si="34"/>
         <v>220</v>
@@ -21045,10 +21077,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU245" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV245" s="306"/>
+      <c r="AU245" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV245" s="284"/>
       <c r="AW245">
         <f t="shared" si="34"/>
         <v>221</v>
@@ -21097,10 +21129,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU246" s="307" t="s">
+      <c r="AU246" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV246" s="306"/>
+      <c r="AV246" s="284"/>
       <c r="AW246">
         <f t="shared" si="34"/>
         <v>222</v>
@@ -21149,10 +21181,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU247" s="307" t="s">
+      <c r="AU247" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV247" s="306"/>
+      <c r="AV247" s="284"/>
       <c r="AW247">
         <f t="shared" si="34"/>
         <v>223</v>
@@ -21201,10 +21233,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU248" s="305" t="s">
+      <c r="AU248" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV248" s="306"/>
+      <c r="AV248" s="284"/>
       <c r="AW248">
         <f t="shared" si="34"/>
         <v>224</v>
@@ -21253,10 +21285,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU249" s="302" t="s">
+      <c r="AU249" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV249" s="306"/>
+      <c r="AV249" s="284"/>
       <c r="AW249">
         <f t="shared" si="34"/>
         <v>225</v>
@@ -21305,10 +21337,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU250" s="305" t="s">
+      <c r="AU250" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV250" s="342"/>
+      <c r="AV250" s="302"/>
       <c r="AW250">
         <f t="shared" si="34"/>
         <v>226</v>
@@ -21357,10 +21389,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU251" s="298" t="s">
+      <c r="AU251" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV251" s="299"/>
+      <c r="AV251" s="280"/>
       <c r="AW251">
         <f t="shared" si="34"/>
         <v>227</v>
@@ -21409,10 +21441,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU252" s="338" t="s">
+      <c r="AU252" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV252" s="339"/>
+      <c r="AV252" s="294"/>
       <c r="AW252">
         <f t="shared" si="34"/>
         <v>228</v>
@@ -21461,10 +21493,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU253" s="302" t="s">
+      <c r="AU253" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV253" s="303"/>
+      <c r="AV253" s="301"/>
       <c r="AW253">
         <f t="shared" si="34"/>
         <v>229</v>
@@ -21513,10 +21545,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU254" s="302" t="s">
+      <c r="AU254" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV254" s="303"/>
+      <c r="AV254" s="301"/>
       <c r="AW254">
         <f t="shared" si="34"/>
         <v>230</v>
@@ -23472,16 +23504,416 @@
     </row>
   </sheetData>
   <mergeCells count="444">
-    <mergeCell ref="BF28:BG28"/>
-    <mergeCell ref="BF29:BG29"/>
-    <mergeCell ref="BF30:BG30"/>
-    <mergeCell ref="BF31:BG31"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="H20:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="AU26:AV26"/>
+    <mergeCell ref="AU37:AV37"/>
+    <mergeCell ref="AU39:AV39"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AU43:AV43"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AU49:AV49"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="AU44:AV44"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="AU45:AV45"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="AU25:AV25"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AU27:AV27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU73:AV73"/>
+    <mergeCell ref="AU74:AV74"/>
+    <mergeCell ref="AU82:AV82"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AU81:AV81"/>
+    <mergeCell ref="AU83:AV83"/>
+    <mergeCell ref="AU60:AV60"/>
+    <mergeCell ref="AU64:AV64"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU61:AV61"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AU70:AV70"/>
+    <mergeCell ref="AU68:AV68"/>
+    <mergeCell ref="AU62:AV62"/>
+    <mergeCell ref="AU65:AV65"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AU85:AV85"/>
+    <mergeCell ref="AU87:AV87"/>
+    <mergeCell ref="AU84:AV84"/>
+    <mergeCell ref="AU86:AV86"/>
+    <mergeCell ref="AU89:AV89"/>
+    <mergeCell ref="AU93:AV93"/>
+    <mergeCell ref="AU97:AV97"/>
+    <mergeCell ref="AU106:AV106"/>
+    <mergeCell ref="AU94:AV94"/>
+    <mergeCell ref="AU95:AV95"/>
+    <mergeCell ref="AU88:AV88"/>
+    <mergeCell ref="AU90:AV90"/>
+    <mergeCell ref="AU96:AV96"/>
+    <mergeCell ref="AU91:AV91"/>
+    <mergeCell ref="AU92:AV92"/>
+    <mergeCell ref="AU102:AV102"/>
+    <mergeCell ref="AU98:AV98"/>
+    <mergeCell ref="AU101:AV101"/>
+    <mergeCell ref="AU100:AV100"/>
+    <mergeCell ref="AU99:AV99"/>
+    <mergeCell ref="AU103:AV103"/>
+    <mergeCell ref="AU104:AV104"/>
+    <mergeCell ref="AU254:AV254"/>
+    <mergeCell ref="AU217:AV217"/>
+    <mergeCell ref="AU215:AV215"/>
+    <mergeCell ref="AU214:AV214"/>
+    <mergeCell ref="AU251:AV251"/>
+    <mergeCell ref="AU249:AV249"/>
+    <mergeCell ref="AU212:AV212"/>
+    <mergeCell ref="AU232:AV232"/>
+    <mergeCell ref="AU237:AV237"/>
+    <mergeCell ref="AU239:AV239"/>
+    <mergeCell ref="AU242:AV242"/>
+    <mergeCell ref="AU213:AV213"/>
+    <mergeCell ref="AU236:AV236"/>
+    <mergeCell ref="AU221:AV221"/>
+    <mergeCell ref="AU229:AV229"/>
+    <mergeCell ref="AU227:AV227"/>
+    <mergeCell ref="AU253:AV253"/>
+    <mergeCell ref="AU250:AV250"/>
+    <mergeCell ref="AU245:AV245"/>
+    <mergeCell ref="AU252:AV252"/>
+    <mergeCell ref="AU244:AV244"/>
+    <mergeCell ref="AU243:AV243"/>
+    <mergeCell ref="AU248:AV248"/>
+    <mergeCell ref="AU241:AV241"/>
+    <mergeCell ref="AU164:AV164"/>
+    <mergeCell ref="AU165:AV165"/>
+    <mergeCell ref="AU170:AV170"/>
+    <mergeCell ref="AU176:AV176"/>
+    <mergeCell ref="AU40:AV40"/>
+    <mergeCell ref="AU42:AV42"/>
+    <mergeCell ref="AU57:AV57"/>
+    <mergeCell ref="AU63:AV63"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="AU50:AV50"/>
+    <mergeCell ref="AU51:AV51"/>
+    <mergeCell ref="AU52:AV52"/>
+    <mergeCell ref="AU55:AV55"/>
+    <mergeCell ref="AU66:AV66"/>
+    <mergeCell ref="AU69:AV69"/>
+    <mergeCell ref="AU54:AV54"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="AU56:AV56"/>
+    <mergeCell ref="AU48:AV48"/>
+    <mergeCell ref="AU53:AV53"/>
+    <mergeCell ref="AU47:AV47"/>
+    <mergeCell ref="AU116:AV116"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU247:AV247"/>
+    <mergeCell ref="AU246:AV246"/>
+    <mergeCell ref="AU220:AV220"/>
+    <mergeCell ref="AU209:AV209"/>
+    <mergeCell ref="AU222:AV222"/>
+    <mergeCell ref="AU210:AV210"/>
+    <mergeCell ref="AU218:AV218"/>
+    <mergeCell ref="AU187:AV187"/>
+    <mergeCell ref="AU183:AV183"/>
+    <mergeCell ref="AU186:AV186"/>
+    <mergeCell ref="AU185:AV185"/>
+    <mergeCell ref="AU184:AV184"/>
+    <mergeCell ref="AU192:AV192"/>
+    <mergeCell ref="AU194:AV194"/>
+    <mergeCell ref="AU233:AV233"/>
+    <mergeCell ref="AU206:AV206"/>
+    <mergeCell ref="AU240:AV240"/>
+    <mergeCell ref="AU211:AV211"/>
+    <mergeCell ref="AU231:AV231"/>
+    <mergeCell ref="AU219:AV219"/>
+    <mergeCell ref="AU224:AV224"/>
+    <mergeCell ref="AU226:AV226"/>
+    <mergeCell ref="AU228:AV228"/>
+    <mergeCell ref="AU230:AV230"/>
+    <mergeCell ref="AU149:AV149"/>
+    <mergeCell ref="AU126:AV126"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU125:AV125"/>
+    <mergeCell ref="AU128:AV128"/>
+    <mergeCell ref="AU178:AV178"/>
+    <mergeCell ref="AU179:AV179"/>
+    <mergeCell ref="AU180:AV180"/>
+    <mergeCell ref="AU175:AV175"/>
+    <mergeCell ref="AU173:AV173"/>
+    <mergeCell ref="AU141:AV141"/>
+    <mergeCell ref="AU146:AV146"/>
+    <mergeCell ref="AU143:AV143"/>
+    <mergeCell ref="AU142:AV142"/>
+    <mergeCell ref="AU157:AV157"/>
+    <mergeCell ref="AU154:AV154"/>
+    <mergeCell ref="AU150:AV150"/>
+    <mergeCell ref="AU151:AV151"/>
+    <mergeCell ref="AU153:AV153"/>
+    <mergeCell ref="AU155:AV155"/>
+    <mergeCell ref="AU156:AV156"/>
+    <mergeCell ref="AU152:AV152"/>
+    <mergeCell ref="AU158:AV158"/>
+    <mergeCell ref="AU108:AV108"/>
+    <mergeCell ref="AU109:AV109"/>
+    <mergeCell ref="AU110:AV110"/>
+    <mergeCell ref="AU114:AV114"/>
+    <mergeCell ref="AU105:AV105"/>
+    <mergeCell ref="AU147:AV147"/>
+    <mergeCell ref="AU140:AV140"/>
+    <mergeCell ref="AU145:AV145"/>
+    <mergeCell ref="AU107:AV107"/>
+    <mergeCell ref="AU130:AV130"/>
+    <mergeCell ref="AU131:AV131"/>
+    <mergeCell ref="AU134:AV134"/>
+    <mergeCell ref="AU132:AV132"/>
+    <mergeCell ref="AU138:AV138"/>
+    <mergeCell ref="AU135:AV135"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU137:AV137"/>
+    <mergeCell ref="AU136:AV136"/>
+    <mergeCell ref="AU112:AV112"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU113:AV113"/>
+    <mergeCell ref="AU127:AV127"/>
+    <mergeCell ref="AU133:AV133"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU115:AV115"/>
+    <mergeCell ref="AU161:AV161"/>
+    <mergeCell ref="AU167:AV167"/>
+    <mergeCell ref="AU162:AV162"/>
+    <mergeCell ref="AU159:AV159"/>
+    <mergeCell ref="AU190:AV190"/>
+    <mergeCell ref="AU191:AV191"/>
+    <mergeCell ref="AU205:AV205"/>
+    <mergeCell ref="AU201:AV201"/>
+    <mergeCell ref="AU193:AV193"/>
+    <mergeCell ref="AU200:AV200"/>
+    <mergeCell ref="AU199:AV199"/>
+    <mergeCell ref="AU188:AV188"/>
+    <mergeCell ref="AU198:AV198"/>
+    <mergeCell ref="AU204:AV204"/>
+    <mergeCell ref="AU160:AV160"/>
+    <mergeCell ref="AU181:AV181"/>
+    <mergeCell ref="AU174:AV174"/>
+    <mergeCell ref="AU163:AV163"/>
+    <mergeCell ref="AU169:AV169"/>
+    <mergeCell ref="AU171:AV171"/>
+    <mergeCell ref="AU168:AV168"/>
+    <mergeCell ref="AU177:AV177"/>
+    <mergeCell ref="AU166:AV166"/>
+    <mergeCell ref="AU172:AV172"/>
+    <mergeCell ref="AU235:AV235"/>
+    <mergeCell ref="AU223:AV223"/>
+    <mergeCell ref="AU238:AV238"/>
+    <mergeCell ref="AU234:AV234"/>
+    <mergeCell ref="AZ93:BA93"/>
+    <mergeCell ref="AZ115:BA115"/>
+    <mergeCell ref="AZ120:BA120"/>
+    <mergeCell ref="AZ126:BA126"/>
+    <mergeCell ref="AZ110:BA110"/>
+    <mergeCell ref="AU225:AV225"/>
+    <mergeCell ref="AU216:AV216"/>
+    <mergeCell ref="AU129:AV129"/>
+    <mergeCell ref="AU182:AV182"/>
+    <mergeCell ref="AU139:AV139"/>
+    <mergeCell ref="AU144:AV144"/>
+    <mergeCell ref="AU148:AV148"/>
+    <mergeCell ref="AU118:AV118"/>
+    <mergeCell ref="AU117:AV117"/>
+    <mergeCell ref="AU195:AV195"/>
+    <mergeCell ref="AU196:AV196"/>
+    <mergeCell ref="AU197:AV197"/>
+    <mergeCell ref="AU189:AV189"/>
+    <mergeCell ref="AZ192:BA192"/>
+    <mergeCell ref="AU208:AV208"/>
+    <mergeCell ref="AU202:AV202"/>
+    <mergeCell ref="AU203:AV203"/>
+    <mergeCell ref="AU207:AV207"/>
+    <mergeCell ref="AZ73:BA73"/>
+    <mergeCell ref="AZ75:BA75"/>
+    <mergeCell ref="AZ80:BA80"/>
+    <mergeCell ref="AZ77:BA77"/>
+    <mergeCell ref="AZ78:BA78"/>
+    <mergeCell ref="AZ81:BA81"/>
+    <mergeCell ref="AZ79:BA79"/>
+    <mergeCell ref="AZ91:BA91"/>
+    <mergeCell ref="AZ74:BA74"/>
+    <mergeCell ref="AZ83:BA83"/>
+    <mergeCell ref="AZ82:BA82"/>
+    <mergeCell ref="AZ88:BA88"/>
+    <mergeCell ref="AZ89:BA89"/>
+    <mergeCell ref="AZ84:BA84"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="AZ86:BA86"/>
+    <mergeCell ref="AZ87:BA87"/>
+    <mergeCell ref="AZ177:BA177"/>
+    <mergeCell ref="AZ175:BA175"/>
+    <mergeCell ref="AZ186:BA186"/>
+    <mergeCell ref="AZ184:BA184"/>
+    <mergeCell ref="AZ60:BA60"/>
+    <mergeCell ref="AZ61:BA61"/>
+    <mergeCell ref="AZ62:BA62"/>
+    <mergeCell ref="AZ70:BA70"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="AZ50:BA50"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="AZ58:BA58"/>
+    <mergeCell ref="AZ66:BA66"/>
+    <mergeCell ref="AZ47:BA47"/>
+    <mergeCell ref="AZ56:BA56"/>
+    <mergeCell ref="AZ55:BA55"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="AZ65:BA65"/>
+    <mergeCell ref="AZ63:BA63"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="AZ188:BA188"/>
+    <mergeCell ref="AZ185:BA185"/>
+    <mergeCell ref="AZ197:BA197"/>
+    <mergeCell ref="AZ158:BA158"/>
+    <mergeCell ref="AZ160:BA160"/>
+    <mergeCell ref="AZ194:BA194"/>
+    <mergeCell ref="AZ195:BA195"/>
+    <mergeCell ref="AZ196:BA196"/>
+    <mergeCell ref="AZ171:BA171"/>
+    <mergeCell ref="AZ191:BA191"/>
+    <mergeCell ref="AZ193:BA193"/>
+    <mergeCell ref="AZ182:BA182"/>
+    <mergeCell ref="AZ161:BA161"/>
+    <mergeCell ref="AZ167:BA167"/>
+    <mergeCell ref="AZ169:BA169"/>
+    <mergeCell ref="AZ174:BA174"/>
+    <mergeCell ref="AZ163:BA163"/>
+    <mergeCell ref="AZ164:BA164"/>
+    <mergeCell ref="AZ189:BA189"/>
+    <mergeCell ref="AZ183:BA183"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="AZ187:BA187"/>
+    <mergeCell ref="AZ64:BA64"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="AZ76:BA76"/>
+    <mergeCell ref="AZ68:BA68"/>
+    <mergeCell ref="AZ67:BA67"/>
+    <mergeCell ref="AZ72:BA72"/>
+    <mergeCell ref="AZ170:BA170"/>
+    <mergeCell ref="AZ178:BA178"/>
+    <mergeCell ref="AZ180:BA180"/>
+    <mergeCell ref="AZ165:BA165"/>
+    <mergeCell ref="AZ150:BA150"/>
+    <mergeCell ref="AZ145:BA145"/>
+    <mergeCell ref="AZ156:BA156"/>
+    <mergeCell ref="AZ71:BA71"/>
+    <mergeCell ref="AZ166:BA166"/>
+    <mergeCell ref="AZ176:BA176"/>
+    <mergeCell ref="AZ179:BA179"/>
+    <mergeCell ref="AZ173:BA173"/>
+    <mergeCell ref="AZ168:BA168"/>
+    <mergeCell ref="AZ172:BA172"/>
+    <mergeCell ref="AZ111:BA111"/>
+    <mergeCell ref="AZ112:BA112"/>
+    <mergeCell ref="AZ136:BA136"/>
+    <mergeCell ref="AZ137:BA137"/>
+    <mergeCell ref="AZ198:BA198"/>
+    <mergeCell ref="AZ90:BA90"/>
+    <mergeCell ref="AZ97:BA97"/>
+    <mergeCell ref="AZ162:BA162"/>
+    <mergeCell ref="AZ142:BA142"/>
+    <mergeCell ref="AZ143:BA143"/>
+    <mergeCell ref="AZ138:BA138"/>
+    <mergeCell ref="AZ159:BA159"/>
+    <mergeCell ref="AZ151:BA151"/>
+    <mergeCell ref="AZ140:BA140"/>
+    <mergeCell ref="AZ190:BA190"/>
+    <mergeCell ref="AZ135:BA135"/>
+    <mergeCell ref="AZ149:BA149"/>
+    <mergeCell ref="AZ154:BA154"/>
+    <mergeCell ref="AZ157:BA157"/>
+    <mergeCell ref="AZ139:BA139"/>
+    <mergeCell ref="AZ141:BA141"/>
+    <mergeCell ref="AZ119:BA119"/>
+    <mergeCell ref="AZ123:BA123"/>
+    <mergeCell ref="AZ98:BA98"/>
+    <mergeCell ref="AZ121:BA121"/>
+    <mergeCell ref="AZ106:BA106"/>
+    <mergeCell ref="AZ114:BA114"/>
+    <mergeCell ref="AZ181:BA181"/>
+    <mergeCell ref="AZ134:BA134"/>
+    <mergeCell ref="AZ122:BA122"/>
+    <mergeCell ref="AZ129:BA129"/>
+    <mergeCell ref="AZ155:BA155"/>
+    <mergeCell ref="AZ153:BA153"/>
+    <mergeCell ref="AZ144:BA144"/>
+    <mergeCell ref="AZ147:BA147"/>
+    <mergeCell ref="AZ148:BA148"/>
+    <mergeCell ref="AZ152:BA152"/>
+    <mergeCell ref="AZ146:BA146"/>
+    <mergeCell ref="AZ133:BA133"/>
+    <mergeCell ref="AZ124:BA124"/>
+    <mergeCell ref="AZ127:BA127"/>
+    <mergeCell ref="AZ128:BA128"/>
+    <mergeCell ref="AZ132:BA132"/>
+    <mergeCell ref="AZ130:BA130"/>
+    <mergeCell ref="AZ104:BA104"/>
+    <mergeCell ref="AZ95:BA95"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="AZ131:BA131"/>
+    <mergeCell ref="AZ125:BA125"/>
+    <mergeCell ref="AZ108:BA108"/>
+    <mergeCell ref="AZ107:BA107"/>
+    <mergeCell ref="AZ101:BA101"/>
+    <mergeCell ref="AZ109:BA109"/>
+    <mergeCell ref="AZ118:BA118"/>
+    <mergeCell ref="AZ105:BA105"/>
+    <mergeCell ref="AZ100:BA100"/>
+    <mergeCell ref="AZ96:BA96"/>
+    <mergeCell ref="AZ99:BA99"/>
+    <mergeCell ref="AZ103:BA103"/>
+    <mergeCell ref="AZ113:BA113"/>
+    <mergeCell ref="AZ116:BA116"/>
+    <mergeCell ref="AZ117:BA117"/>
     <mergeCell ref="AZ92:BA92"/>
     <mergeCell ref="AZ94:BA94"/>
     <mergeCell ref="BF34:BG34"/>
@@ -23506,416 +23938,16 @@
     <mergeCell ref="AZ48:BA48"/>
     <mergeCell ref="AZ52:BA52"/>
     <mergeCell ref="AZ42:BA42"/>
-    <mergeCell ref="AZ104:BA104"/>
-    <mergeCell ref="AZ95:BA95"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="AZ131:BA131"/>
-    <mergeCell ref="AZ125:BA125"/>
-    <mergeCell ref="AZ108:BA108"/>
-    <mergeCell ref="AZ107:BA107"/>
-    <mergeCell ref="AZ101:BA101"/>
-    <mergeCell ref="AZ109:BA109"/>
-    <mergeCell ref="AZ118:BA118"/>
-    <mergeCell ref="AZ105:BA105"/>
-    <mergeCell ref="AZ100:BA100"/>
-    <mergeCell ref="AZ96:BA96"/>
-    <mergeCell ref="AZ99:BA99"/>
-    <mergeCell ref="AZ103:BA103"/>
-    <mergeCell ref="AZ113:BA113"/>
-    <mergeCell ref="AZ116:BA116"/>
-    <mergeCell ref="AZ117:BA117"/>
-    <mergeCell ref="AZ134:BA134"/>
-    <mergeCell ref="AZ122:BA122"/>
-    <mergeCell ref="AZ129:BA129"/>
-    <mergeCell ref="AZ155:BA155"/>
-    <mergeCell ref="AZ153:BA153"/>
-    <mergeCell ref="AZ144:BA144"/>
-    <mergeCell ref="AZ147:BA147"/>
-    <mergeCell ref="AZ148:BA148"/>
-    <mergeCell ref="AZ152:BA152"/>
-    <mergeCell ref="AZ146:BA146"/>
-    <mergeCell ref="AZ133:BA133"/>
-    <mergeCell ref="AZ124:BA124"/>
-    <mergeCell ref="AZ127:BA127"/>
-    <mergeCell ref="AZ128:BA128"/>
-    <mergeCell ref="AZ132:BA132"/>
-    <mergeCell ref="AZ130:BA130"/>
-    <mergeCell ref="AZ198:BA198"/>
-    <mergeCell ref="AZ90:BA90"/>
-    <mergeCell ref="AZ97:BA97"/>
-    <mergeCell ref="AZ162:BA162"/>
-    <mergeCell ref="AZ142:BA142"/>
-    <mergeCell ref="AZ143:BA143"/>
-    <mergeCell ref="AZ138:BA138"/>
-    <mergeCell ref="AZ159:BA159"/>
-    <mergeCell ref="AZ151:BA151"/>
-    <mergeCell ref="AZ140:BA140"/>
-    <mergeCell ref="AZ190:BA190"/>
-    <mergeCell ref="AZ135:BA135"/>
-    <mergeCell ref="AZ149:BA149"/>
-    <mergeCell ref="AZ154:BA154"/>
-    <mergeCell ref="AZ157:BA157"/>
-    <mergeCell ref="AZ139:BA139"/>
-    <mergeCell ref="AZ141:BA141"/>
-    <mergeCell ref="AZ119:BA119"/>
-    <mergeCell ref="AZ123:BA123"/>
-    <mergeCell ref="AZ98:BA98"/>
-    <mergeCell ref="AZ121:BA121"/>
-    <mergeCell ref="AZ106:BA106"/>
-    <mergeCell ref="AZ114:BA114"/>
-    <mergeCell ref="AZ181:BA181"/>
-    <mergeCell ref="AZ64:BA64"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="AZ76:BA76"/>
-    <mergeCell ref="AZ68:BA68"/>
-    <mergeCell ref="AZ67:BA67"/>
-    <mergeCell ref="AZ72:BA72"/>
-    <mergeCell ref="AZ170:BA170"/>
-    <mergeCell ref="AZ178:BA178"/>
-    <mergeCell ref="AZ180:BA180"/>
-    <mergeCell ref="AZ165:BA165"/>
-    <mergeCell ref="AZ150:BA150"/>
-    <mergeCell ref="AZ145:BA145"/>
-    <mergeCell ref="AZ156:BA156"/>
-    <mergeCell ref="AZ71:BA71"/>
-    <mergeCell ref="AZ166:BA166"/>
-    <mergeCell ref="AZ176:BA176"/>
-    <mergeCell ref="AZ179:BA179"/>
-    <mergeCell ref="AZ173:BA173"/>
-    <mergeCell ref="AZ168:BA168"/>
-    <mergeCell ref="AZ172:BA172"/>
-    <mergeCell ref="AZ111:BA111"/>
-    <mergeCell ref="AZ112:BA112"/>
-    <mergeCell ref="AZ136:BA136"/>
-    <mergeCell ref="AZ137:BA137"/>
-    <mergeCell ref="AZ63:BA63"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="AZ188:BA188"/>
-    <mergeCell ref="AZ185:BA185"/>
-    <mergeCell ref="AZ197:BA197"/>
-    <mergeCell ref="AZ158:BA158"/>
-    <mergeCell ref="AZ160:BA160"/>
-    <mergeCell ref="AZ194:BA194"/>
-    <mergeCell ref="AZ195:BA195"/>
-    <mergeCell ref="AZ196:BA196"/>
-    <mergeCell ref="AZ171:BA171"/>
-    <mergeCell ref="AZ191:BA191"/>
-    <mergeCell ref="AZ193:BA193"/>
-    <mergeCell ref="AZ182:BA182"/>
-    <mergeCell ref="AZ161:BA161"/>
-    <mergeCell ref="AZ167:BA167"/>
-    <mergeCell ref="AZ169:BA169"/>
-    <mergeCell ref="AZ174:BA174"/>
-    <mergeCell ref="AZ163:BA163"/>
-    <mergeCell ref="AZ164:BA164"/>
-    <mergeCell ref="AZ189:BA189"/>
-    <mergeCell ref="AZ183:BA183"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="AZ187:BA187"/>
-    <mergeCell ref="AZ186:BA186"/>
-    <mergeCell ref="AZ184:BA184"/>
-    <mergeCell ref="AZ60:BA60"/>
-    <mergeCell ref="AZ61:BA61"/>
-    <mergeCell ref="AZ62:BA62"/>
-    <mergeCell ref="AZ70:BA70"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="AZ39:BA39"/>
-    <mergeCell ref="AZ50:BA50"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="AZ58:BA58"/>
-    <mergeCell ref="AZ66:BA66"/>
-    <mergeCell ref="AZ47:BA47"/>
-    <mergeCell ref="AZ56:BA56"/>
-    <mergeCell ref="AZ55:BA55"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="AZ65:BA65"/>
-    <mergeCell ref="AZ192:BA192"/>
-    <mergeCell ref="AU208:AV208"/>
-    <mergeCell ref="AU202:AV202"/>
-    <mergeCell ref="AU203:AV203"/>
-    <mergeCell ref="AU207:AV207"/>
-    <mergeCell ref="AZ73:BA73"/>
-    <mergeCell ref="AZ75:BA75"/>
-    <mergeCell ref="AZ80:BA80"/>
-    <mergeCell ref="AZ77:BA77"/>
-    <mergeCell ref="AZ78:BA78"/>
-    <mergeCell ref="AZ81:BA81"/>
-    <mergeCell ref="AZ79:BA79"/>
-    <mergeCell ref="AZ91:BA91"/>
-    <mergeCell ref="AZ74:BA74"/>
-    <mergeCell ref="AZ83:BA83"/>
-    <mergeCell ref="AZ82:BA82"/>
-    <mergeCell ref="AZ88:BA88"/>
-    <mergeCell ref="AZ89:BA89"/>
-    <mergeCell ref="AZ84:BA84"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="AZ86:BA86"/>
-    <mergeCell ref="AZ87:BA87"/>
-    <mergeCell ref="AZ177:BA177"/>
-    <mergeCell ref="AZ175:BA175"/>
-    <mergeCell ref="AU166:AV166"/>
-    <mergeCell ref="AU172:AV172"/>
-    <mergeCell ref="AU235:AV235"/>
-    <mergeCell ref="AU223:AV223"/>
-    <mergeCell ref="AU238:AV238"/>
-    <mergeCell ref="AU234:AV234"/>
-    <mergeCell ref="AZ93:BA93"/>
-    <mergeCell ref="AZ115:BA115"/>
-    <mergeCell ref="AZ120:BA120"/>
-    <mergeCell ref="AZ126:BA126"/>
-    <mergeCell ref="AZ110:BA110"/>
-    <mergeCell ref="AU225:AV225"/>
-    <mergeCell ref="AU216:AV216"/>
-    <mergeCell ref="AU129:AV129"/>
-    <mergeCell ref="AU182:AV182"/>
-    <mergeCell ref="AU139:AV139"/>
-    <mergeCell ref="AU144:AV144"/>
-    <mergeCell ref="AU148:AV148"/>
-    <mergeCell ref="AU118:AV118"/>
-    <mergeCell ref="AU117:AV117"/>
-    <mergeCell ref="AU195:AV195"/>
-    <mergeCell ref="AU196:AV196"/>
-    <mergeCell ref="AU197:AV197"/>
-    <mergeCell ref="AU189:AV189"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU115:AV115"/>
-    <mergeCell ref="AU161:AV161"/>
-    <mergeCell ref="AU167:AV167"/>
-    <mergeCell ref="AU162:AV162"/>
-    <mergeCell ref="AU159:AV159"/>
-    <mergeCell ref="AU190:AV190"/>
-    <mergeCell ref="AU191:AV191"/>
-    <mergeCell ref="AU205:AV205"/>
-    <mergeCell ref="AU201:AV201"/>
-    <mergeCell ref="AU193:AV193"/>
-    <mergeCell ref="AU200:AV200"/>
-    <mergeCell ref="AU199:AV199"/>
-    <mergeCell ref="AU188:AV188"/>
-    <mergeCell ref="AU198:AV198"/>
-    <mergeCell ref="AU204:AV204"/>
-    <mergeCell ref="AU160:AV160"/>
-    <mergeCell ref="AU181:AV181"/>
-    <mergeCell ref="AU174:AV174"/>
-    <mergeCell ref="AU163:AV163"/>
-    <mergeCell ref="AU169:AV169"/>
-    <mergeCell ref="AU171:AV171"/>
-    <mergeCell ref="AU168:AV168"/>
-    <mergeCell ref="AU177:AV177"/>
-    <mergeCell ref="AU108:AV108"/>
-    <mergeCell ref="AU109:AV109"/>
-    <mergeCell ref="AU110:AV110"/>
-    <mergeCell ref="AU114:AV114"/>
-    <mergeCell ref="AU105:AV105"/>
-    <mergeCell ref="AU147:AV147"/>
-    <mergeCell ref="AU140:AV140"/>
-    <mergeCell ref="AU145:AV145"/>
-    <mergeCell ref="AU107:AV107"/>
-    <mergeCell ref="AU130:AV130"/>
-    <mergeCell ref="AU131:AV131"/>
-    <mergeCell ref="AU134:AV134"/>
-    <mergeCell ref="AU132:AV132"/>
-    <mergeCell ref="AU138:AV138"/>
-    <mergeCell ref="AU135:AV135"/>
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU137:AV137"/>
-    <mergeCell ref="AU136:AV136"/>
-    <mergeCell ref="AU112:AV112"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU113:AV113"/>
-    <mergeCell ref="AU127:AV127"/>
-    <mergeCell ref="AU133:AV133"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU149:AV149"/>
-    <mergeCell ref="AU126:AV126"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU125:AV125"/>
-    <mergeCell ref="AU128:AV128"/>
-    <mergeCell ref="AU178:AV178"/>
-    <mergeCell ref="AU179:AV179"/>
-    <mergeCell ref="AU180:AV180"/>
-    <mergeCell ref="AU175:AV175"/>
-    <mergeCell ref="AU173:AV173"/>
-    <mergeCell ref="AU141:AV141"/>
-    <mergeCell ref="AU146:AV146"/>
-    <mergeCell ref="AU143:AV143"/>
-    <mergeCell ref="AU142:AV142"/>
-    <mergeCell ref="AU157:AV157"/>
-    <mergeCell ref="AU154:AV154"/>
-    <mergeCell ref="AU150:AV150"/>
-    <mergeCell ref="AU151:AV151"/>
-    <mergeCell ref="AU153:AV153"/>
-    <mergeCell ref="AU155:AV155"/>
-    <mergeCell ref="AU156:AV156"/>
-    <mergeCell ref="AU152:AV152"/>
-    <mergeCell ref="AU158:AV158"/>
-    <mergeCell ref="AU247:AV247"/>
-    <mergeCell ref="AU246:AV246"/>
-    <mergeCell ref="AU220:AV220"/>
-    <mergeCell ref="AU209:AV209"/>
-    <mergeCell ref="AU222:AV222"/>
-    <mergeCell ref="AU210:AV210"/>
-    <mergeCell ref="AU218:AV218"/>
-    <mergeCell ref="AU187:AV187"/>
-    <mergeCell ref="AU183:AV183"/>
-    <mergeCell ref="AU186:AV186"/>
-    <mergeCell ref="AU185:AV185"/>
-    <mergeCell ref="AU184:AV184"/>
-    <mergeCell ref="AU192:AV192"/>
-    <mergeCell ref="AU194:AV194"/>
-    <mergeCell ref="AU233:AV233"/>
-    <mergeCell ref="AU206:AV206"/>
-    <mergeCell ref="AU240:AV240"/>
-    <mergeCell ref="AU211:AV211"/>
-    <mergeCell ref="AU231:AV231"/>
-    <mergeCell ref="AU219:AV219"/>
-    <mergeCell ref="AU224:AV224"/>
-    <mergeCell ref="AU226:AV226"/>
-    <mergeCell ref="AU228:AV228"/>
-    <mergeCell ref="AU230:AV230"/>
-    <mergeCell ref="AU164:AV164"/>
-    <mergeCell ref="AU165:AV165"/>
-    <mergeCell ref="AU170:AV170"/>
-    <mergeCell ref="AU176:AV176"/>
-    <mergeCell ref="AU40:AV40"/>
-    <mergeCell ref="AU42:AV42"/>
-    <mergeCell ref="AU57:AV57"/>
-    <mergeCell ref="AU63:AV63"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="AU50:AV50"/>
-    <mergeCell ref="AU51:AV51"/>
-    <mergeCell ref="AU52:AV52"/>
-    <mergeCell ref="AU55:AV55"/>
-    <mergeCell ref="AU66:AV66"/>
-    <mergeCell ref="AU69:AV69"/>
-    <mergeCell ref="AU54:AV54"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="AU56:AV56"/>
-    <mergeCell ref="AU48:AV48"/>
-    <mergeCell ref="AU53:AV53"/>
-    <mergeCell ref="AU47:AV47"/>
-    <mergeCell ref="AU116:AV116"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU254:AV254"/>
-    <mergeCell ref="AU217:AV217"/>
-    <mergeCell ref="AU215:AV215"/>
-    <mergeCell ref="AU214:AV214"/>
-    <mergeCell ref="AU251:AV251"/>
-    <mergeCell ref="AU249:AV249"/>
-    <mergeCell ref="AU212:AV212"/>
-    <mergeCell ref="AU232:AV232"/>
-    <mergeCell ref="AU237:AV237"/>
-    <mergeCell ref="AU239:AV239"/>
-    <mergeCell ref="AU242:AV242"/>
-    <mergeCell ref="AU213:AV213"/>
-    <mergeCell ref="AU236:AV236"/>
-    <mergeCell ref="AU221:AV221"/>
-    <mergeCell ref="AU229:AV229"/>
-    <mergeCell ref="AU227:AV227"/>
-    <mergeCell ref="AU253:AV253"/>
-    <mergeCell ref="AU250:AV250"/>
-    <mergeCell ref="AU245:AV245"/>
-    <mergeCell ref="AU252:AV252"/>
-    <mergeCell ref="AU244:AV244"/>
-    <mergeCell ref="AU243:AV243"/>
-    <mergeCell ref="AU248:AV248"/>
-    <mergeCell ref="AU241:AV241"/>
-    <mergeCell ref="AU85:AV85"/>
-    <mergeCell ref="AU87:AV87"/>
-    <mergeCell ref="AU84:AV84"/>
-    <mergeCell ref="AU86:AV86"/>
-    <mergeCell ref="AU89:AV89"/>
-    <mergeCell ref="AU93:AV93"/>
-    <mergeCell ref="AU97:AV97"/>
-    <mergeCell ref="AU106:AV106"/>
-    <mergeCell ref="AU94:AV94"/>
-    <mergeCell ref="AU95:AV95"/>
-    <mergeCell ref="AU88:AV88"/>
-    <mergeCell ref="AU90:AV90"/>
-    <mergeCell ref="AU96:AV96"/>
-    <mergeCell ref="AU91:AV91"/>
-    <mergeCell ref="AU92:AV92"/>
-    <mergeCell ref="AU102:AV102"/>
-    <mergeCell ref="AU98:AV98"/>
-    <mergeCell ref="AU101:AV101"/>
-    <mergeCell ref="AU100:AV100"/>
-    <mergeCell ref="AU99:AV99"/>
-    <mergeCell ref="AU103:AV103"/>
-    <mergeCell ref="AU104:AV104"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU73:AV73"/>
-    <mergeCell ref="AU74:AV74"/>
-    <mergeCell ref="AU82:AV82"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="AU81:AV81"/>
-    <mergeCell ref="AU83:AV83"/>
-    <mergeCell ref="AU60:AV60"/>
-    <mergeCell ref="AU64:AV64"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU61:AV61"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AU70:AV70"/>
-    <mergeCell ref="AU68:AV68"/>
-    <mergeCell ref="AU62:AV62"/>
-    <mergeCell ref="AU65:AV65"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU26:AV26"/>
-    <mergeCell ref="AU37:AV37"/>
-    <mergeCell ref="AU39:AV39"/>
-    <mergeCell ref="AU41:AV41"/>
-    <mergeCell ref="AU43:AV43"/>
-    <mergeCell ref="AU35:AV35"/>
-    <mergeCell ref="AU49:AV49"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="AU44:AV44"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="AU45:AV45"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="AU25:AV25"/>
-    <mergeCell ref="AU34:AV34"/>
-    <mergeCell ref="AU27:AV27"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:E8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H20:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="BF28:BG28"/>
+    <mergeCell ref="BF29:BG29"/>
+    <mergeCell ref="BF30:BG30"/>
+    <mergeCell ref="BF31:BG31"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU28:AV28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:C254">
@@ -23960,8 +23992,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="G122" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24014,10 +24046,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
       <c r="F2" s="2"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -24042,10 +24074,10 @@
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
       <c r="F3" s="248"/>
       <c r="G3" s="91" t="s">
         <v>32</v>
@@ -24072,10 +24104,10 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
       <c r="F4" s="249"/>
       <c r="G4" s="50" t="s">
         <v>66</v>
@@ -24102,10 +24134,10 @@
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
       <c r="F5" s="249"/>
       <c r="G5" s="50" t="s">
         <v>63</v>
@@ -24132,24 +24164,24 @@
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
       <c r="F6" s="250"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="319"/>
-      <c r="S6" s="320"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="324"/>
+      <c r="S6" s="325"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
@@ -24162,10 +24194,10 @@
     </row>
     <row r="7" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
       <c r="F7" s="251"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -24191,20 +24223,20 @@
     <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="353"/>
-      <c r="F8" s="353"/>
-      <c r="G8" s="354"/>
-      <c r="H8" s="353"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="354"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="371"/>
+      <c r="H8" s="370"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="371"/>
       <c r="K8" s="182"/>
       <c r="M8" s="80"/>
-      <c r="N8" s="351"/>
-      <c r="O8" s="352"/>
-      <c r="P8" s="355"/>
-      <c r="Q8" s="351"/>
-      <c r="R8" s="352"/>
+      <c r="N8" s="368"/>
+      <c r="O8" s="369"/>
+      <c r="P8" s="372"/>
+      <c r="Q8" s="368"/>
+      <c r="R8" s="369"/>
       <c r="S8" s="269"/>
       <c r="T8" s="97"/>
       <c r="U8" s="98"/>
@@ -24218,10 +24250,10 @@
     </row>
     <row r="9" spans="1:28" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95"/>
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="374" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="358"/>
+      <c r="C9" s="375"/>
       <c r="D9" s="137" t="s">
         <v>8</v>
       </c>
@@ -24237,8 +24269,8 @@
       <c r="J9" s="127"/>
       <c r="K9" s="128"/>
       <c r="M9" s="125"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="350"/>
+      <c r="N9" s="366"/>
+      <c r="O9" s="367"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="259"/>
       <c r="S9" s="98"/>
@@ -24254,10 +24286,10 @@
     </row>
     <row r="10" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="368"/>
+      <c r="C10" s="358"/>
       <c r="D10" s="135">
         <f>COUNTIF(C$18:C$156,"&gt;""")</f>
         <v>30</v>
@@ -24293,22 +24325,22 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="305" t="s">
+      <c r="B11" s="285" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="373"/>
+      <c r="C11" s="363"/>
       <c r="D11" s="133">
         <f>COUNTIF(I$18:I$141,"&gt;""")</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E11" s="133">
         <f>SUM(AU:AU)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F11" s="254"/>
-      <c r="G11" s="175" t="str">
+      <c r="G11" s="175">
         <f>IF(D11=0,"",E11/D11)</f>
-        <v/>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H11" s="132"/>
       <c r="I11" s="129"/>
@@ -24332,30 +24364,30 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="374" t="s">
+      <c r="B12" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="375"/>
+      <c r="C12" s="365"/>
       <c r="D12" s="134">
         <f>COUNTIF(O$18:O$157,"&gt;""")</f>
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E12" s="37">
         <f>SUM(AV:AV)</f>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F12" s="255"/>
       <c r="G12" s="176">
         <f>IF(D12=0,"",E12/D12)</f>
-        <v>0.78048780487804881</v>
+        <v>0.82178217821782173</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
       <c r="K12" s="130"/>
       <c r="M12" s="125"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="372"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="362"/>
       <c r="P12" s="179"/>
       <c r="Q12" s="260"/>
       <c r="S12" s="98"/>
@@ -24378,13 +24410,13 @@
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
       <c r="H13" s="126"/>
-      <c r="I13" s="279"/>
-      <c r="J13" s="280"/>
-      <c r="K13" s="280"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="372"/>
+      <c r="I13" s="330"/>
+      <c r="J13" s="331"/>
+      <c r="K13" s="331"/>
+      <c r="L13" s="332"/>
+      <c r="M13" s="332"/>
+      <c r="N13" s="361"/>
+      <c r="O13" s="362"/>
       <c r="P13" s="179"/>
       <c r="Q13" s="260"/>
       <c r="S13" s="98"/>
@@ -24409,13 +24441,13 @@
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
-      <c r="I14" s="282"/>
-      <c r="J14" s="283"/>
-      <c r="K14" s="283"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="284"/>
-      <c r="N14" s="369"/>
-      <c r="O14" s="370"/>
+      <c r="I14" s="333"/>
+      <c r="J14" s="334"/>
+      <c r="K14" s="334"/>
+      <c r="L14" s="335"/>
+      <c r="M14" s="335"/>
+      <c r="N14" s="359"/>
+      <c r="O14" s="360"/>
       <c r="P14" s="179"/>
       <c r="Q14" s="260"/>
       <c r="S14" s="98"/>
@@ -24438,13 +24470,13 @@
       <c r="F15" s="89"/>
       <c r="G15" s="89"/>
       <c r="H15" s="90"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="286"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="369"/>
-      <c r="O15" s="370"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="337"/>
+      <c r="K15" s="337"/>
+      <c r="L15" s="338"/>
+      <c r="M15" s="338"/>
+      <c r="N15" s="359"/>
+      <c r="O15" s="360"/>
       <c r="P15" s="179"/>
       <c r="Q15" s="260"/>
       <c r="S15" s="98"/>
@@ -24460,27 +24492,27 @@
     </row>
     <row r="16" spans="1:28" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="362" t="s">
+      <c r="B16" s="352" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="363"/>
-      <c r="D16" s="363"/>
-      <c r="E16" s="364"/>
+      <c r="C16" s="353"/>
+      <c r="D16" s="353"/>
+      <c r="E16" s="354"/>
       <c r="F16" s="256"/>
-      <c r="G16" s="331"/>
-      <c r="H16" s="365" t="s">
+      <c r="G16" s="309"/>
+      <c r="H16" s="355" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="366"/>
-      <c r="J16" s="366"/>
-      <c r="K16" s="367"/>
+      <c r="I16" s="356"/>
+      <c r="J16" s="356"/>
+      <c r="K16" s="357"/>
       <c r="M16" s="72"/>
-      <c r="N16" s="359" t="s">
+      <c r="N16" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="360"/>
-      <c r="P16" s="360"/>
-      <c r="Q16" s="361"/>
+      <c r="O16" s="350"/>
+      <c r="P16" s="350"/>
+      <c r="Q16" s="351"/>
       <c r="S16" s="268"/>
       <c r="T16" s="103"/>
       <c r="U16" s="98"/>
@@ -24507,7 +24539,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="256"/>
-      <c r="G17" s="331"/>
+      <c r="G17" s="309"/>
       <c r="H17" s="117" t="s">
         <v>14</v>
       </c>
@@ -26282,7 +26314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="108">
         <f t="shared" si="3"/>
@@ -26311,12 +26343,17 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="O47" s="201"/>
+      <c r="O47" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P47" s="17" t="str">
         <f>IF(AND(O47&gt;="A",O47&lt;="E"),VLOOKUP(N47,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q47" s="263"/>
+      <c r="R47" s="276" t="s">
+        <v>100</v>
+      </c>
       <c r="S47" s="72"/>
       <c r="T47" s="63"/>
       <c r="U47" s="48"/>
@@ -26370,7 +26407,7 @@
         <v>31</v>
       </c>
       <c r="O48" s="201" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P48" s="17" t="str">
         <f>IF(AND(O48&gt;="A",O48&lt;="E"),VLOOKUP(N48,Answer_Keys!$N:$O,2,FALSE),"")</f>
@@ -26397,7 +26434,7 @@
       </c>
       <c r="AV48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26966,10 +27003,12 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="O58" s="201"/>
+      <c r="O58" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P58" s="17" t="str">
         <f>IF(AND(O58&gt;="A",O58&lt;="E"),VLOOKUP(N58,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q58" s="263"/>
       <c r="S58" s="72"/>
@@ -26992,7 +27031,7 @@
       </c>
       <c r="AV58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27364,7 +27403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
       <c r="B65" s="108">
         <f t="shared" si="3"/>
@@ -27393,12 +27432,17 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="O65" s="201"/>
+      <c r="O65" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P65" s="17" t="str">
         <f>IF(AND(O65&gt;="A",O65&lt;="E"),VLOOKUP(N65,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q65" s="263"/>
+      <c r="R65" s="276" t="s">
+        <v>101</v>
+      </c>
       <c r="S65" s="72"/>
       <c r="T65" s="63"/>
       <c r="U65" s="48"/>
@@ -27419,7 +27463,7 @@
       </c>
       <c r="AV65">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27872,10 +27916,12 @@
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="O73" s="201"/>
+      <c r="O73" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P73" s="17" t="str">
         <f>IF(AND(O73&gt;="A",O73&lt;="E"),VLOOKUP(N73,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q73" s="263"/>
       <c r="S73" s="72"/>
@@ -27898,7 +27944,7 @@
       </c>
       <c r="AV73">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27930,10 +27976,12 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="O74" s="201"/>
+      <c r="O74" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P74" s="17" t="str">
         <f>IF(AND(O74&gt;="A",O74&lt;="E"),VLOOKUP(N74,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q74" s="263"/>
       <c r="S74" s="72"/>
@@ -27956,7 +28004,7 @@
       </c>
       <c r="AV74">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29305,10 +29353,12 @@
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="O97" s="201"/>
+      <c r="O97" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P97" s="17" t="str">
         <f>IF(AND(O97&gt;="A",O97&lt;="E"),VLOOKUP(N97,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q97" s="263"/>
       <c r="S97" s="72"/>
@@ -29331,7 +29381,7 @@
       </c>
       <c r="AV97">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29363,10 +29413,12 @@
         <f t="shared" si="13"/>
         <v>81</v>
       </c>
-      <c r="O98" s="201"/>
+      <c r="O98" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P98" s="17" t="str">
         <f>IF(AND(O98&gt;="A",O98&lt;="E"),VLOOKUP(N98,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q98" s="263"/>
       <c r="S98" s="72"/>
@@ -29389,7 +29441,7 @@
       </c>
       <c r="AV98">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29429,6 +29481,9 @@
         <v>E</v>
       </c>
       <c r="Q99" s="263"/>
+      <c r="R99" t="s">
+        <v>102</v>
+      </c>
       <c r="S99" s="72"/>
       <c r="T99" s="63"/>
       <c r="U99" s="48"/>
@@ -30825,7 +30880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="53"/>
       <c r="B122" s="108">
         <f t="shared" si="11"/>
@@ -30856,12 +30911,17 @@
         <f t="shared" si="13"/>
         <v>105</v>
       </c>
-      <c r="O122" s="201"/>
+      <c r="O122" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P122" s="17" t="str">
         <f>IF(AND(O122&gt;="A",O122&lt;="E"),VLOOKUP(N122,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q122" s="263"/>
+      <c r="R122" s="276" t="s">
+        <v>103</v>
+      </c>
       <c r="S122" s="72"/>
       <c r="T122" s="63"/>
       <c r="U122" s="48"/>
@@ -30882,10 +30942,10 @@
       </c>
       <c r="AV122">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="53"/>
       <c r="B123" s="108">
         <f t="shared" si="11"/>
@@ -30905,10 +30965,12 @@
         <f t="shared" si="12"/>
         <v>106</v>
       </c>
-      <c r="I123" s="201"/>
+      <c r="I123" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J123" s="17" t="str">
         <f>IF(AND(I123&gt;="A",I123&lt;="E"),VLOOKUP(H123,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K123" s="203"/>
       <c r="M123" s="62"/>
@@ -30916,12 +30978,17 @@
         <f t="shared" si="13"/>
         <v>106</v>
       </c>
-      <c r="O123" s="201"/>
+      <c r="O123" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P123" s="17" t="str">
         <f>IF(AND(O123&gt;="A",O123&lt;="E"),VLOOKUP(N123,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q123" s="263"/>
+      <c r="R123" s="276" t="s">
+        <v>104</v>
+      </c>
       <c r="S123" s="72"/>
       <c r="T123" s="63"/>
       <c r="U123" s="48"/>
@@ -30942,7 +31009,7 @@
       </c>
       <c r="AV123">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -30965,10 +31032,12 @@
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
-      <c r="I124" s="201"/>
+      <c r="I124" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J124" s="17" t="str">
         <f>IF(AND(I124&gt;="A",I124&lt;="E"),VLOOKUP(H124,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K124" s="203"/>
       <c r="M124" s="62"/>
@@ -31000,7 +31069,7 @@
       </c>
       <c r="AU124">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV124">
         <f t="shared" si="10"/>
@@ -31027,10 +31096,12 @@
         <f t="shared" si="12"/>
         <v>108</v>
       </c>
-      <c r="I125" s="201"/>
+      <c r="I125" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J125" s="17" t="str">
         <f>IF(AND(I125&gt;="A",I125&lt;="E"),VLOOKUP(H125,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K125" s="203"/>
       <c r="M125" s="62"/>
@@ -31062,7 +31133,7 @@
       </c>
       <c r="AU125">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV125">
         <f t="shared" si="10"/>
@@ -31091,10 +31162,12 @@
         <f t="shared" si="12"/>
         <v>109</v>
       </c>
-      <c r="I126" s="201"/>
+      <c r="I126" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J126" s="17" t="str">
         <f>IF(AND(I126&gt;="A",I126&lt;="E"),VLOOKUP(H126,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="K126" s="203"/>
       <c r="M126" s="62"/>
@@ -31102,12 +31175,17 @@
         <f t="shared" si="13"/>
         <v>109</v>
       </c>
-      <c r="O126" s="201"/>
+      <c r="O126" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P126" s="17" t="str">
         <f>IF(AND(O126&gt;="A",O126&lt;="E"),VLOOKUP(N126,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q126" s="263"/>
+      <c r="R126" s="276" t="s">
+        <v>105</v>
+      </c>
       <c r="S126" s="72"/>
       <c r="T126" s="63"/>
       <c r="U126" s="48"/>
@@ -31128,7 +31206,7 @@
       </c>
       <c r="AV126">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -31153,10 +31231,12 @@
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
-      <c r="I127" s="201"/>
+      <c r="I127" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J127" s="17" t="str">
         <f>IF(AND(I127&gt;="A",I127&lt;="E"),VLOOKUP(H127,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K127" s="203"/>
       <c r="M127" s="62"/>
@@ -31220,10 +31300,12 @@
         <f t="shared" si="12"/>
         <v>111</v>
       </c>
-      <c r="I128" s="201"/>
+      <c r="I128" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J128" s="17" t="str">
         <f>IF(AND(I128&gt;="A",I128&lt;="E"),VLOOKUP(H128,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K128" s="203"/>
       <c r="M128" s="62"/>
@@ -31260,7 +31342,7 @@
       </c>
       <c r="AU128">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV128">
         <f t="shared" si="10"/>
@@ -31287,10 +31369,12 @@
         <f t="shared" si="12"/>
         <v>112</v>
       </c>
-      <c r="I129" s="201"/>
+      <c r="I129" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J129" s="17" t="str">
         <f>IF(AND(I129&gt;="A",I129&lt;="E"),VLOOKUP(H129,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K129" s="203"/>
       <c r="M129" s="62"/>
@@ -31298,10 +31382,12 @@
         <f t="shared" si="13"/>
         <v>112</v>
       </c>
-      <c r="O129" s="201"/>
+      <c r="O129" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P129" s="17" t="str">
         <f>IF(AND(O129&gt;="A",O129&lt;="E"),VLOOKUP(N129,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q129" s="263"/>
       <c r="S129" s="72"/>
@@ -31320,11 +31406,11 @@
       </c>
       <c r="AU129">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV129">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -31349,10 +31435,12 @@
         <f t="shared" si="12"/>
         <v>113</v>
       </c>
-      <c r="I130" s="201"/>
+      <c r="I130" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J130" s="17" t="str">
         <f>IF(AND(I130&gt;="A",I130&lt;="E"),VLOOKUP(H130,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K130" s="203"/>
       <c r="M130" s="62"/>
@@ -31382,7 +31470,7 @@
       </c>
       <c r="AU130">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV130">
         <f t="shared" si="10"/>
@@ -31409,10 +31497,12 @@
         <f t="shared" si="12"/>
         <v>114</v>
       </c>
-      <c r="I131" s="201"/>
+      <c r="I131" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J131" s="17" t="str">
         <f>IF(AND(I131&gt;="A",I131&lt;="E"),VLOOKUP(H131,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K131" s="203"/>
       <c r="M131" s="62"/>
@@ -31420,10 +31510,12 @@
         <f t="shared" si="13"/>
         <v>114</v>
       </c>
-      <c r="O131" s="201"/>
+      <c r="O131" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P131" s="17" t="str">
         <f>IF(AND(O131&gt;="A",O131&lt;="E"),VLOOKUP(N131,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q131" s="263"/>
       <c r="S131" s="72"/>
@@ -31442,11 +31534,11 @@
       </c>
       <c r="AU131">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV131">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -31469,10 +31561,12 @@
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="I132" s="201"/>
+      <c r="I132" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J132" s="17" t="str">
         <f>IF(AND(I132&gt;="A",I132&lt;="E"),VLOOKUP(H132,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="K132" s="203"/>
       <c r="M132" s="62"/>
@@ -31534,10 +31628,12 @@
         <f t="shared" si="12"/>
         <v>116</v>
       </c>
-      <c r="I133" s="201"/>
+      <c r="I133" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J133" s="17" t="str">
         <f>IF(AND(I133&gt;="A",I133&lt;="E"),VLOOKUP(H133,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K133" s="203"/>
       <c r="M133" s="62"/>
@@ -31567,7 +31663,7 @@
       </c>
       <c r="AU133">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV133">
         <f t="shared" si="10"/>
@@ -31592,10 +31688,12 @@
         <f t="shared" si="12"/>
         <v>117</v>
       </c>
-      <c r="I134" s="201"/>
+      <c r="I134" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J134" s="17" t="str">
         <f>IF(AND(I134&gt;="A",I134&lt;="E"),VLOOKUP(H134,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K134" s="203"/>
       <c r="M134" s="62"/>
@@ -31632,7 +31730,7 @@
       </c>
       <c r="AU134">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV134">
         <f t="shared" si="10"/>
@@ -31657,10 +31755,12 @@
         <f t="shared" si="12"/>
         <v>118</v>
       </c>
-      <c r="I135" s="201"/>
+      <c r="I135" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J135" s="17" t="str">
         <f>IF(AND(I135&gt;="A",I135&lt;="E"),VLOOKUP(H135,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K135" s="203"/>
       <c r="M135" s="62"/>
@@ -31690,7 +31790,7 @@
       </c>
       <c r="AU135">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV135">
         <f t="shared" si="10"/>
@@ -31715,10 +31815,12 @@
         <f t="shared" si="12"/>
         <v>119</v>
       </c>
-      <c r="I136" s="201"/>
+      <c r="I136" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J136" s="17" t="str">
         <f>IF(AND(I136&gt;="A",I136&lt;="E"),VLOOKUP(H136,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K136" s="203"/>
       <c r="M136" s="62"/>
@@ -31773,10 +31875,12 @@
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="I137" s="201"/>
+      <c r="I137" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J137" s="17" t="str">
         <f>IF(AND(I137&gt;="A",I137&lt;="E"),VLOOKUP(H137,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K137" s="203"/>
       <c r="M137" s="62"/>
@@ -31806,7 +31910,7 @@
       </c>
       <c r="AU137">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV137">
         <f t="shared" si="10"/>
@@ -31831,10 +31935,12 @@
         <f t="shared" si="12"/>
         <v>121</v>
       </c>
-      <c r="I138" s="201"/>
+      <c r="I138" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J138" s="17" t="str">
         <f>IF(AND(I138&gt;="A",I138&lt;="E"),VLOOKUP(H138,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K138" s="203"/>
       <c r="M138" s="62"/>
@@ -31871,7 +31977,7 @@
       </c>
       <c r="AU138">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV138">
         <f t="shared" si="10"/>
@@ -31896,10 +32002,12 @@
         <f t="shared" si="12"/>
         <v>122</v>
       </c>
-      <c r="I139" s="201"/>
+      <c r="I139" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J139" s="17" t="str">
         <f>IF(AND(I139&gt;="A",I139&lt;="E"),VLOOKUP(H139,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K139" s="203"/>
       <c r="M139" s="62"/>
@@ -31929,7 +32037,7 @@
       </c>
       <c r="AU139">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV139">
         <f t="shared" si="10"/>
@@ -31954,10 +32062,12 @@
         <f t="shared" si="12"/>
         <v>123</v>
       </c>
-      <c r="I140" s="201"/>
+      <c r="I140" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J140" s="17" t="str">
         <f>IF(AND(I140&gt;="A",I140&lt;="E"),VLOOKUP(H140,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K140" s="203"/>
       <c r="M140" s="62"/>
@@ -31987,7 +32097,7 @@
       </c>
       <c r="AU140">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV140">
         <f t="shared" si="10"/>
@@ -32012,10 +32122,12 @@
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="I141" s="201"/>
+      <c r="I141" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J141" s="122" t="str">
         <f>IF(AND(I141&gt;="A",I141&lt;="E"),VLOOKUP(H141,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K141" s="204"/>
       <c r="M141" s="62"/>
@@ -32045,7 +32157,7 @@
       </c>
       <c r="AU141">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV141">
         <f t="shared" si="10"/>
@@ -32296,7 +32408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:48" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="53"/>
       <c r="B147" s="108">
         <f t="shared" si="11"/>
@@ -32319,12 +32431,17 @@
         <f t="shared" si="13"/>
         <v>130</v>
       </c>
-      <c r="O147" s="201"/>
+      <c r="O147" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P147" s="17" t="str">
         <f>IF(AND(O147&gt;="A",O147&lt;="E"),VLOOKUP(N147,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q147" s="263"/>
+      <c r="R147" s="276" t="s">
+        <v>106</v>
+      </c>
       <c r="S147" s="72"/>
       <c r="T147" s="63"/>
       <c r="U147" s="48"/>
@@ -32341,7 +32458,7 @@
       </c>
       <c r="AV147">
         <f t="shared" ref="AV147:AV157" si="17">IF(AND(O147&gt;"",O147=P147),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32367,10 +32484,12 @@
         <f t="shared" ref="N148:N157" si="19">N147+1</f>
         <v>131</v>
       </c>
-      <c r="O148" s="201"/>
+      <c r="O148" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P148" s="17" t="str">
         <f>IF(AND(O148&gt;="A",O148&lt;="E"),VLOOKUP(N148,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q148" s="263"/>
       <c r="S148" s="72"/>
@@ -32389,7 +32508,7 @@
       </c>
       <c r="AV148">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32415,10 +32534,12 @@
         <f t="shared" si="19"/>
         <v>132</v>
       </c>
-      <c r="O149" s="201"/>
+      <c r="O149" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P149" s="17" t="str">
         <f>IF(AND(O149&gt;="A",O149&lt;="E"),VLOOKUP(N149,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q149" s="263"/>
       <c r="S149" s="72"/>
@@ -32437,7 +32558,7 @@
       </c>
       <c r="AV149">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32463,10 +32584,12 @@
         <f t="shared" si="19"/>
         <v>133</v>
       </c>
-      <c r="O150" s="201"/>
+      <c r="O150" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P150" s="17" t="str">
         <f>IF(AND(O150&gt;="A",O150&lt;="E"),VLOOKUP(N150,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q150" s="263"/>
       <c r="S150" s="72"/>
@@ -32485,7 +32608,7 @@
       </c>
       <c r="AV150">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32586,7 +32709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:48" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="53"/>
       <c r="B153" s="108">
         <f t="shared" si="18"/>
@@ -32609,12 +32732,17 @@
         <f t="shared" si="19"/>
         <v>136</v>
       </c>
-      <c r="O153" s="201"/>
+      <c r="O153" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P153" s="17" t="str">
         <f>IF(AND(O153&gt;="A",O153&lt;="E"),VLOOKUP(N153,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q153" s="263"/>
+      <c r="R153" s="276" t="s">
+        <v>107</v>
+      </c>
       <c r="S153" s="72"/>
       <c r="T153" s="63"/>
       <c r="U153" s="48"/>
@@ -32631,7 +32759,7 @@
       </c>
       <c r="AV153">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32657,10 +32785,12 @@
         <f t="shared" si="19"/>
         <v>137</v>
       </c>
-      <c r="O154" s="201"/>
+      <c r="O154" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P154" s="17" t="str">
         <f>IF(AND(O154&gt;="A",O154&lt;="E"),VLOOKUP(N154,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q154" s="263"/>
       <c r="S154" s="72"/>
@@ -32679,7 +32809,7 @@
       </c>
       <c r="AV154">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32705,10 +32835,12 @@
         <f t="shared" si="19"/>
         <v>138</v>
       </c>
-      <c r="O155" s="201"/>
+      <c r="O155" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P155" s="17" t="str">
         <f>IF(AND(O155&gt;="A",O155&lt;="E"),VLOOKUP(N155,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q155" s="263"/>
       <c r="S155" s="72"/>
@@ -32727,7 +32859,7 @@
       </c>
       <c r="AV155">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -37338,6 +37470,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="G16:G17"/>
@@ -37350,14 +37490,6 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="G6:S6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C18:C156">

--- a/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
+++ b/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
@@ -3576,159 +3576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3756,6 +3603,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3773,7 +3623,187 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3825,36 +3855,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="81"/>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
       <c r="F3" s="91" t="s">
         <v>62</v>
       </c>
@@ -4692,10 +4692,10 @@
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="319"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
+      <c r="B4" s="304"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
       <c r="F4" s="50" t="s">
         <v>64</v>
       </c>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
       <c r="F5" s="50" t="s">
         <v>63</v>
       </c>
@@ -4750,25 +4750,25 @@
     </row>
     <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="319"/>
-      <c r="C6" s="319"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="323" t="s">
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="318" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="324"/>
-      <c r="N6" s="324"/>
-      <c r="O6" s="324"/>
-      <c r="P6" s="324"/>
-      <c r="Q6" s="324"/>
-      <c r="R6" s="325"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
+      <c r="R6" s="320"/>
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
-      <c r="B7" s="319"/>
-      <c r="C7" s="319"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
       <c r="F7" s="221" t="s">
         <v>61</v>
       </c>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="319"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
       <c r="F8" s="58"/>
       <c r="G8" s="55"/>
       <c r="H8" s="144"/>
@@ -4836,28 +4836,28 @@
     <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="320" t="s">
+      <c r="D9" s="313" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="321"/>
-      <c r="F9" s="322"/>
-      <c r="G9" s="320" t="s">
+      <c r="E9" s="314"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="321"/>
-      <c r="I9" s="322"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="315"/>
       <c r="J9" s="59"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="326" t="s">
+      <c r="L9" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="327"/>
-      <c r="N9" s="306" t="s">
+      <c r="M9" s="322"/>
+      <c r="N9" s="328" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="307"/>
-      <c r="P9" s="307"/>
-      <c r="Q9" s="308"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="330"/>
       <c r="R9" s="72"/>
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="10" spans="1:25" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95"/>
-      <c r="B10" s="317" t="s">
+      <c r="B10" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="318"/>
+      <c r="C10" s="337"/>
       <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
@@ -4895,8 +4895,8 @@
         <v>11</v>
       </c>
       <c r="K10" s="85"/>
-      <c r="L10" s="311"/>
-      <c r="M10" s="312"/>
+      <c r="L10" s="332"/>
+      <c r="M10" s="333"/>
       <c r="N10" s="92" t="s">
         <v>60</v>
       </c>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="279" t="s">
+      <c r="B11" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="280"/>
+      <c r="C11" s="299"/>
       <c r="D11" s="24">
         <f t="shared" ref="D11:D19" si="0">SUMIF($AU:$AU,$B11,$AT:$AT)</f>
         <v>0</v>
@@ -4953,13 +4953,13 @@
         <v/>
       </c>
       <c r="K11" s="60"/>
-      <c r="L11" s="342" t="s">
+      <c r="L11" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="343"/>
-      <c r="N11" s="343"/>
-      <c r="O11" s="343"/>
-      <c r="P11" s="343"/>
+      <c r="M11" s="293"/>
+      <c r="N11" s="293"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="293"/>
       <c r="Q11" s="208"/>
       <c r="R11" s="63"/>
       <c r="S11" s="48"/>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="12" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="348"/>
+      <c r="B12" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="301"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5005,10 +5005,10 @@
         <v/>
       </c>
       <c r="K12" s="60"/>
-      <c r="L12" s="313" t="s">
+      <c r="L12" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="314"/>
+      <c r="M12" s="312"/>
       <c r="N12" s="207"/>
       <c r="O12" s="207"/>
       <c r="P12" s="207"/>
@@ -5024,10 +5024,10 @@
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="301"/>
+      <c r="C13" s="303"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5057,10 +5057,10 @@
         <v/>
       </c>
       <c r="K13" s="60"/>
-      <c r="L13" s="313" t="s">
+      <c r="L13" s="311" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="314"/>
+      <c r="M13" s="312"/>
       <c r="N13" s="209"/>
       <c r="O13" s="209"/>
       <c r="P13" s="209"/>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="281" t="s">
+      <c r="B14" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="282"/>
+      <c r="C14" s="317"/>
       <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5109,13 +5109,13 @@
         <v/>
       </c>
       <c r="K14" s="60"/>
-      <c r="L14" s="344" t="s">
+      <c r="L14" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="345"/>
-      <c r="N14" s="345"/>
-      <c r="O14" s="345"/>
-      <c r="P14" s="345"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="295"/>
+      <c r="P14" s="295"/>
       <c r="Q14" s="208"/>
       <c r="R14" s="63"/>
       <c r="S14" s="48"/>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="15" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="285" t="s">
+      <c r="B15" s="305" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="284"/>
+      <c r="C15" s="306"/>
       <c r="D15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5161,10 +5161,10 @@
         <v/>
       </c>
       <c r="K15" s="60"/>
-      <c r="L15" s="313" t="s">
+      <c r="L15" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="314"/>
+      <c r="M15" s="312"/>
       <c r="N15" s="207"/>
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="283" t="s">
+      <c r="B16" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="300"/>
+      <c r="C16" s="308"/>
       <c r="D16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v/>
       </c>
       <c r="K16" s="60"/>
-      <c r="L16" s="328" t="s">
+      <c r="L16" s="323" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="329"/>
+      <c r="M16" s="324"/>
       <c r="N16" s="205"/>
       <c r="O16" s="205"/>
       <c r="P16" s="205"/>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="17" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="287"/>
+      <c r="C17" s="310"/>
       <c r="D17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5265,11 +5265,11 @@
         <v/>
       </c>
       <c r="K17" s="85"/>
-      <c r="L17" s="339"/>
-      <c r="M17" s="340"/>
-      <c r="N17" s="340"/>
-      <c r="O17" s="340"/>
-      <c r="P17" s="341"/>
+      <c r="L17" s="289"/>
+      <c r="M17" s="290"/>
+      <c r="N17" s="290"/>
+      <c r="O17" s="290"/>
+      <c r="P17" s="291"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="63"/>
       <c r="S17" s="48"/>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="18" spans="1:59" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
-      <c r="B18" s="293" t="s">
+      <c r="B18" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="294"/>
+      <c r="C18" s="339"/>
       <c r="D18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5315,8 +5315,8 @@
         <v/>
       </c>
       <c r="K18" s="85"/>
-      <c r="L18" s="310"/>
-      <c r="M18" s="310"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="288"/>
       <c r="N18" s="214"/>
       <c r="O18" s="214"/>
       <c r="P18" s="215"/>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="19" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="315" t="s">
+      <c r="B19" s="334" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="316"/>
+      <c r="C19" s="335"/>
       <c r="D19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5365,8 +5365,8 @@
         <v/>
       </c>
       <c r="K19" s="85"/>
-      <c r="L19" s="310"/>
-      <c r="M19" s="310"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
       <c r="N19" s="216"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
@@ -5388,15 +5388,15 @@
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="331"/>
-      <c r="J20" s="331"/>
-      <c r="K20" s="332"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="347"/>
-      <c r="N20" s="347"/>
-      <c r="O20" s="347"/>
-      <c r="P20" s="347"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="281"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="297"/>
+      <c r="N20" s="297"/>
+      <c r="O20" s="297"/>
+      <c r="P20" s="297"/>
       <c r="Q20" s="125"/>
       <c r="R20" s="63"/>
       <c r="S20" s="48"/>
@@ -5417,12 +5417,12 @@
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="88"/>
-      <c r="H21" s="333"/>
-      <c r="I21" s="334"/>
-      <c r="J21" s="334"/>
-      <c r="K21" s="335"/>
-      <c r="L21" s="310"/>
-      <c r="M21" s="310"/>
+      <c r="H21" s="282"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="288"/>
       <c r="N21" s="214"/>
       <c r="O21" s="214"/>
       <c r="P21" s="215"/>
@@ -5444,12 +5444,12 @@
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="336"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
-      <c r="K22" s="338"/>
-      <c r="L22" s="310"/>
-      <c r="M22" s="310"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="286"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="288"/>
       <c r="N22" s="214"/>
       <c r="O22" s="214"/>
       <c r="P22" s="215"/>
@@ -5465,19 +5465,19 @@
     </row>
     <row r="23" spans="1:59" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
-      <c r="B23" s="303" t="s">
+      <c r="B23" s="325" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="304"/>
-      <c r="D23" s="304"/>
-      <c r="E23" s="305"/>
-      <c r="F23" s="309"/>
-      <c r="G23" s="303" t="s">
+      <c r="C23" s="326"/>
+      <c r="D23" s="326"/>
+      <c r="E23" s="327"/>
+      <c r="F23" s="331"/>
+      <c r="G23" s="325" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="304"/>
-      <c r="I23" s="304"/>
-      <c r="J23" s="305"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="327"/>
       <c r="K23" s="72"/>
       <c r="L23" s="218"/>
       <c r="M23" s="219"/>
@@ -5514,7 +5514,7 @@
       <c r="E24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="309"/>
+      <c r="F24" s="331"/>
       <c r="G24" s="43" t="s">
         <v>14</v>
       </c>
@@ -5605,10 +5605,10 @@
         <f>IF(C25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU25" s="279" t="s">
+      <c r="AU25" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV25" s="280"/>
+      <c r="AV25" s="299"/>
       <c r="AW25">
         <v>1</v>
       </c>
@@ -5620,10 +5620,10 @@
         <f>IF(H25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="279" t="s">
+      <c r="AZ25" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA25" s="289"/>
+      <c r="BA25" s="343"/>
       <c r="BB25" s="243">
         <v>1</v>
       </c>
@@ -5677,10 +5677,10 @@
         <f t="shared" ref="AT26:AT89" si="8">IF(C26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="279" t="s">
+      <c r="AU26" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV26" s="280"/>
+      <c r="AV26" s="299"/>
       <c r="AW26">
         <f>AW25+1</f>
         <v>2</v>
@@ -5693,10 +5693,10 @@
         <f t="shared" ref="AY26:AY89" si="10">IF(H26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ26" s="285" t="s">
+      <c r="AZ26" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA26" s="288"/>
+      <c r="BA26" s="344"/>
       <c r="BB26" s="244">
         <f>BB25+1</f>
         <v>2</v>
@@ -5752,10 +5752,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="285" t="s">
+      <c r="AU27" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV27" s="284"/>
+      <c r="AV27" s="306"/>
       <c r="AW27">
         <f t="shared" ref="AW27:AW90" si="13">AW26+1</f>
         <v>3</v>
@@ -5768,10 +5768,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ27" s="283" t="s">
+      <c r="AZ27" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA27" s="288"/>
+      <c r="BA27" s="344"/>
       <c r="BB27" s="244">
         <f t="shared" ref="BB27:BC90" si="14">BB26+1</f>
         <v>3</v>
@@ -5830,10 +5830,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU28" s="285" t="s">
+      <c r="AU28" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV28" s="284"/>
+      <c r="AV28" s="306"/>
       <c r="AW28">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -5846,10 +5846,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ28" s="285" t="s">
+      <c r="AZ28" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA28" s="288"/>
+      <c r="BA28" s="344"/>
       <c r="BB28" s="244">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -5858,10 +5858,10 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="BF28" s="279" t="s">
+      <c r="BF28" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BG28" s="280"/>
+      <c r="BG28" s="299"/>
     </row>
     <row r="29" spans="1:59" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
@@ -5909,10 +5909,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU29" s="295" t="s">
+      <c r="AU29" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV29" s="284"/>
+      <c r="AV29" s="306"/>
       <c r="AW29">
         <f>AW28+1</f>
         <v>5</v>
@@ -5925,10 +5925,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ29" s="279" t="s">
+      <c r="AZ29" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA29" s="289"/>
+      <c r="BA29" s="343"/>
       <c r="BB29" s="244">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -5937,10 +5937,10 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="BF29" s="281" t="s">
+      <c r="BF29" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BG29" s="282"/>
+      <c r="BG29" s="317"/>
     </row>
     <row r="30" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -6004,10 +6004,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ30" s="295" t="s">
+      <c r="AZ30" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA30" s="288"/>
+      <c r="BA30" s="344"/>
       <c r="BB30" s="244">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -6016,10 +6016,10 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="BF30" s="283" t="s">
+      <c r="BF30" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BG30" s="284"/>
+      <c r="BG30" s="306"/>
     </row>
     <row r="31" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
@@ -6067,10 +6067,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU31" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="284"/>
+      <c r="AU31" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="306"/>
       <c r="AW31">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -6083,10 +6083,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ31" s="290" t="s">
+      <c r="AZ31" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BA31" s="299"/>
+      <c r="BA31" s="346"/>
       <c r="BB31" s="244">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -6095,10 +6095,10 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="BF31" s="285" t="s">
+      <c r="BF31" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BG31" s="284"/>
+      <c r="BG31" s="306"/>
     </row>
     <row r="32" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
@@ -6146,10 +6146,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU32" s="290" t="s">
+      <c r="AU32" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV32" s="291"/>
+      <c r="AV32" s="341"/>
       <c r="AW32">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -6162,10 +6162,10 @@
         <f>IF(H32&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="285" t="s">
+      <c r="AZ32" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA32" s="288"/>
+      <c r="BA32" s="344"/>
       <c r="BB32" s="244">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -6174,10 +6174,10 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="BF32" s="295" t="s">
+      <c r="BF32" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BG32" s="284"/>
+      <c r="BG32" s="306"/>
     </row>
     <row r="33" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
@@ -6225,10 +6225,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU33" s="279" t="s">
+      <c r="AU33" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="280"/>
+      <c r="AV33" s="299"/>
       <c r="AW33">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -6241,10 +6241,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ33" s="283" t="s">
+      <c r="AZ33" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA33" s="288"/>
+      <c r="BA33" s="344"/>
       <c r="BB33" s="244">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -6253,10 +6253,10 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="BF33" s="286" t="s">
+      <c r="BF33" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BG33" s="287"/>
+      <c r="BG33" s="310"/>
     </row>
     <row r="34" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
@@ -6304,10 +6304,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU34" s="286" t="s">
+      <c r="AU34" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV34" s="287"/>
+      <c r="AV34" s="310"/>
       <c r="AW34">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -6320,10 +6320,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ34" s="279" t="s">
+      <c r="AZ34" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA34" s="289"/>
+      <c r="BA34" s="343"/>
       <c r="BB34" s="244">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -6332,10 +6332,10 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="BF34" s="290" t="s">
+      <c r="BF34" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BG34" s="291"/>
+      <c r="BG34" s="341"/>
     </row>
     <row r="35" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
@@ -6383,10 +6383,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU35" s="279" t="s">
+      <c r="AU35" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV35" s="280"/>
+      <c r="AV35" s="299"/>
       <c r="AW35">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -6399,10 +6399,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ35" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="288"/>
+      <c r="AZ35" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="344"/>
       <c r="BB35" s="244">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -6411,10 +6411,10 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="BF35" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="284"/>
+      <c r="BF35" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="306"/>
     </row>
     <row r="36" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -6462,10 +6462,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU36" s="281" t="s">
+      <c r="AU36" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV36" s="282"/>
+      <c r="AV36" s="317"/>
       <c r="AW36">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -6478,10 +6478,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ36" s="285" t="s">
+      <c r="AZ36" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA36" s="288"/>
+      <c r="BA36" s="344"/>
       <c r="BB36" s="244">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -6490,10 +6490,10 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="BF36" s="293" t="s">
+      <c r="BF36" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="BG36" s="294"/>
+      <c r="BG36" s="339"/>
     </row>
     <row r="37" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
@@ -6541,10 +6541,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU37" s="281" t="s">
+      <c r="AU37" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV37" s="282"/>
+      <c r="AV37" s="317"/>
       <c r="AW37">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -6557,10 +6557,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ37" s="285" t="s">
+      <c r="AZ37" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA37" s="288"/>
+      <c r="BA37" s="344"/>
       <c r="BB37" s="244">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -6632,10 +6632,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="286" t="s">
+      <c r="AZ38" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA38" s="296"/>
+      <c r="BA38" s="347"/>
       <c r="BB38" s="244">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -6691,10 +6691,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU39" s="286" t="s">
+      <c r="AU39" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV39" s="287"/>
+      <c r="AV39" s="310"/>
       <c r="AW39">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -6707,10 +6707,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="285" t="s">
+      <c r="AZ39" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA39" s="288"/>
+      <c r="BA39" s="344"/>
       <c r="BB39" s="244">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -6766,10 +6766,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="295" t="s">
+      <c r="AU40" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV40" s="284"/>
+      <c r="AV40" s="306"/>
       <c r="AW40">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -6782,10 +6782,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="295" t="s">
+      <c r="AZ40" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA40" s="288"/>
+      <c r="BA40" s="344"/>
       <c r="BB40" s="244">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -6841,10 +6841,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU41" s="295" t="s">
+      <c r="AU41" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV41" s="284"/>
+      <c r="AV41" s="306"/>
       <c r="AW41">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -6857,10 +6857,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ41" s="285" t="s">
+      <c r="AZ41" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA41" s="288"/>
+      <c r="BA41" s="344"/>
       <c r="BB41" s="244">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -6916,10 +6916,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU42" s="281" t="s">
+      <c r="AU42" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV42" s="282"/>
+      <c r="AV42" s="317"/>
       <c r="AW42">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -6932,10 +6932,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ42" s="295" t="s">
+      <c r="AZ42" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA42" s="288"/>
+      <c r="BA42" s="344"/>
       <c r="BB42" s="244">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -6991,10 +6991,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU43" s="279" t="s">
+      <c r="AU43" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV43" s="280"/>
+      <c r="AV43" s="299"/>
       <c r="AW43">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -7007,10 +7007,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ43" s="285" t="s">
+      <c r="AZ43" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA43" s="288"/>
+      <c r="BA43" s="344"/>
       <c r="BB43" s="244">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -7066,10 +7066,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU44" s="286" t="s">
+      <c r="AU44" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV44" s="287"/>
+      <c r="AV44" s="310"/>
       <c r="AW44">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -7082,10 +7082,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ44" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="288"/>
+      <c r="AZ44" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="344"/>
       <c r="BB44" s="244">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -7141,10 +7141,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU45" s="295" t="s">
+      <c r="AU45" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV45" s="284"/>
+      <c r="AV45" s="306"/>
       <c r="AW45">
         <f t="shared" si="13"/>
         <v>21</v>
@@ -7157,10 +7157,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ45" s="279" t="s">
+      <c r="AZ45" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA45" s="289"/>
+      <c r="BA45" s="343"/>
       <c r="BB45" s="244">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -7216,10 +7216,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU46" s="279" t="s">
+      <c r="AU46" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV46" s="280"/>
+      <c r="AV46" s="299"/>
       <c r="AW46">
         <f t="shared" si="13"/>
         <v>22</v>
@@ -7232,10 +7232,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ46" s="285" t="s">
+      <c r="AZ46" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA46" s="288"/>
+      <c r="BA46" s="344"/>
       <c r="BB46" s="244">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -7291,10 +7291,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU47" s="281" t="s">
+      <c r="AU47" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV47" s="282"/>
+      <c r="AV47" s="317"/>
       <c r="AW47">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -7307,10 +7307,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ47" s="285" t="s">
+      <c r="AZ47" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA47" s="288"/>
+      <c r="BA47" s="344"/>
       <c r="BB47" s="244">
         <f t="shared" si="14"/>
         <v>23</v>
@@ -7366,10 +7366,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU48" s="279" t="s">
+      <c r="AU48" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV48" s="280"/>
+      <c r="AV48" s="299"/>
       <c r="AW48">
         <f t="shared" si="13"/>
         <v>24</v>
@@ -7382,10 +7382,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ48" s="279" t="s">
+      <c r="AZ48" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA48" s="289"/>
+      <c r="BA48" s="343"/>
       <c r="BB48" s="244">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -7441,10 +7441,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU49" s="295" t="s">
+      <c r="AU49" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV49" s="284"/>
+      <c r="AV49" s="306"/>
       <c r="AW49">
         <f t="shared" si="13"/>
         <v>25</v>
@@ -7457,10 +7457,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ49" s="285" t="s">
+      <c r="AZ49" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA49" s="288"/>
+      <c r="BA49" s="344"/>
       <c r="BB49" s="244">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -7516,10 +7516,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU50" s="279" t="s">
+      <c r="AU50" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV50" s="280"/>
+      <c r="AV50" s="299"/>
       <c r="AW50">
         <f t="shared" si="13"/>
         <v>26</v>
@@ -7532,10 +7532,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ50" s="281" t="s">
+      <c r="AZ50" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA50" s="297"/>
+      <c r="BA50" s="345"/>
       <c r="BB50" s="244">
         <f t="shared" si="14"/>
         <v>26</v>
@@ -7591,10 +7591,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU51" s="279" t="s">
+      <c r="AU51" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV51" s="280"/>
+      <c r="AV51" s="299"/>
       <c r="AW51">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -7607,10 +7607,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ51" s="295" t="s">
+      <c r="AZ51" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA51" s="288"/>
+      <c r="BA51" s="344"/>
       <c r="BB51" s="244">
         <f t="shared" si="14"/>
         <v>27</v>
@@ -7666,10 +7666,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU52" s="279" t="s">
+      <c r="AU52" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV52" s="280"/>
+      <c r="AV52" s="299"/>
       <c r="AW52">
         <f t="shared" si="13"/>
         <v>28</v>
@@ -7682,10 +7682,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ52" s="285" t="s">
+      <c r="AZ52" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA52" s="288"/>
+      <c r="BA52" s="344"/>
       <c r="BB52" s="244">
         <f t="shared" si="14"/>
         <v>28</v>
@@ -7741,10 +7741,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU53" s="279" t="s">
+      <c r="AU53" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV53" s="280"/>
+      <c r="AV53" s="299"/>
       <c r="AW53">
         <f t="shared" si="13"/>
         <v>29</v>
@@ -7757,10 +7757,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ53" s="279" t="s">
+      <c r="AZ53" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA53" s="289"/>
+      <c r="BA53" s="343"/>
       <c r="BB53" s="244">
         <f t="shared" si="14"/>
         <v>29</v>
@@ -7816,10 +7816,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU54" s="279" t="s">
+      <c r="AU54" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV54" s="280"/>
+      <c r="AV54" s="299"/>
       <c r="AW54">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -7832,10 +7832,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ54" s="285" t="s">
+      <c r="AZ54" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA54" s="288"/>
+      <c r="BA54" s="344"/>
       <c r="BB54" s="244">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -7891,10 +7891,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU55" s="281" t="s">
+      <c r="AU55" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV55" s="282"/>
+      <c r="AV55" s="317"/>
       <c r="AW55">
         <f t="shared" si="13"/>
         <v>31</v>
@@ -7907,10 +7907,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ55" s="283" t="s">
+      <c r="AZ55" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA55" s="288"/>
+      <c r="BA55" s="344"/>
       <c r="BB55" s="244">
         <f t="shared" si="14"/>
         <v>31</v>
@@ -7966,10 +7966,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU56" s="286" t="s">
+      <c r="AU56" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV56" s="287"/>
+      <c r="AV56" s="310"/>
       <c r="AW56">
         <f t="shared" si="13"/>
         <v>32</v>
@@ -7982,10 +7982,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ56" s="285" t="s">
+      <c r="AZ56" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA56" s="288"/>
+      <c r="BA56" s="344"/>
       <c r="BB56" s="244">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -8041,10 +8041,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU57" s="281" t="s">
+      <c r="AU57" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV57" s="282"/>
+      <c r="AV57" s="317"/>
       <c r="AW57">
         <f t="shared" si="13"/>
         <v>33</v>
@@ -8057,10 +8057,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ57" s="285" t="s">
+      <c r="AZ57" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA57" s="288"/>
+      <c r="BA57" s="344"/>
       <c r="BB57" s="244">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -8116,10 +8116,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU58" s="279" t="s">
+      <c r="AU58" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV58" s="280"/>
+      <c r="AV58" s="299"/>
       <c r="AW58">
         <f t="shared" si="13"/>
         <v>34</v>
@@ -8132,10 +8132,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ58" s="279" t="s">
+      <c r="AZ58" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA58" s="289"/>
+      <c r="BA58" s="343"/>
       <c r="BB58" s="244">
         <f t="shared" si="14"/>
         <v>34</v>
@@ -8191,10 +8191,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU59" s="283" t="s">
+      <c r="AU59" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV59" s="284"/>
+      <c r="AV59" s="306"/>
       <c r="AW59">
         <f t="shared" si="13"/>
         <v>35</v>
@@ -8207,10 +8207,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ59" s="279" t="s">
+      <c r="AZ59" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA59" s="289"/>
+      <c r="BA59" s="343"/>
       <c r="BB59" s="244">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -8266,10 +8266,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU60" s="279" t="s">
+      <c r="AU60" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV60" s="280"/>
+      <c r="AV60" s="299"/>
       <c r="AW60">
         <f t="shared" si="13"/>
         <v>36</v>
@@ -8282,10 +8282,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ60" s="283" t="s">
+      <c r="AZ60" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA60" s="288"/>
+      <c r="BA60" s="344"/>
       <c r="BB60" s="244">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -8341,10 +8341,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU61" s="285" t="s">
+      <c r="AU61" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV61" s="284"/>
+      <c r="AV61" s="306"/>
       <c r="AW61">
         <f t="shared" si="13"/>
         <v>37</v>
@@ -8357,10 +8357,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ61" s="295" t="s">
+      <c r="AZ61" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA61" s="288"/>
+      <c r="BA61" s="344"/>
       <c r="BB61" s="244">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -8416,10 +8416,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU62" s="283" t="s">
+      <c r="AU62" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV62" s="284"/>
+      <c r="AV62" s="306"/>
       <c r="AW62">
         <f t="shared" si="13"/>
         <v>38</v>
@@ -8432,10 +8432,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ62" s="295" t="s">
+      <c r="AZ62" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA62" s="288"/>
+      <c r="BA62" s="344"/>
       <c r="BB62" s="244">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -8491,10 +8491,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU63" s="285" t="s">
+      <c r="AU63" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV63" s="284"/>
+      <c r="AV63" s="306"/>
       <c r="AW63">
         <f t="shared" si="13"/>
         <v>39</v>
@@ -8507,10 +8507,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ63" s="295" t="s">
+      <c r="AZ63" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA63" s="288"/>
+      <c r="BA63" s="344"/>
       <c r="BB63" s="244">
         <f t="shared" si="14"/>
         <v>39</v>
@@ -8566,10 +8566,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU64" s="285" t="s">
+      <c r="AU64" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV64" s="284"/>
+      <c r="AV64" s="306"/>
       <c r="AW64">
         <f t="shared" si="13"/>
         <v>40</v>
@@ -8582,10 +8582,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ64" s="279" t="s">
+      <c r="AZ64" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA64" s="289"/>
+      <c r="BA64" s="343"/>
       <c r="BB64" s="244">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -8641,10 +8641,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU65" s="281" t="s">
+      <c r="AU65" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV65" s="282"/>
+      <c r="AV65" s="317"/>
       <c r="AW65">
         <f t="shared" si="13"/>
         <v>41</v>
@@ -8657,10 +8657,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ65" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="288"/>
+      <c r="AZ65" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="344"/>
       <c r="BB65" s="244">
         <f t="shared" si="14"/>
         <v>41</v>
@@ -8716,10 +8716,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU66" s="295" t="s">
+      <c r="AU66" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV66" s="301"/>
+      <c r="AV66" s="303"/>
       <c r="AW66">
         <f t="shared" si="13"/>
         <v>42</v>
@@ -8732,10 +8732,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ66" s="295" t="s">
+      <c r="AZ66" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA66" s="288"/>
+      <c r="BA66" s="344"/>
       <c r="BB66" s="244">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -8791,10 +8791,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU67" s="283" t="s">
+      <c r="AU67" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV67" s="284"/>
+      <c r="AV67" s="306"/>
       <c r="AW67">
         <f t="shared" si="13"/>
         <v>43</v>
@@ -8807,10 +8807,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ67" s="285" t="s">
+      <c r="AZ67" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA67" s="288"/>
+      <c r="BA67" s="344"/>
       <c r="BB67" s="244">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -8866,10 +8866,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU68" s="295" t="s">
+      <c r="AU68" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV68" s="284"/>
+      <c r="AV68" s="306"/>
       <c r="AW68">
         <f t="shared" si="13"/>
         <v>44</v>
@@ -8882,10 +8882,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ68" s="281" t="s">
+      <c r="AZ68" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA68" s="297"/>
+      <c r="BA68" s="345"/>
       <c r="BB68" s="244">
         <f t="shared" si="14"/>
         <v>44</v>
@@ -8941,10 +8941,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU69" s="281" t="s">
+      <c r="AU69" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV69" s="282"/>
+      <c r="AV69" s="317"/>
       <c r="AW69">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -8957,10 +8957,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ69" s="286" t="s">
+      <c r="AZ69" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA69" s="296"/>
+      <c r="BA69" s="347"/>
       <c r="BB69" s="244">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -9016,10 +9016,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU70" s="279" t="s">
+      <c r="AU70" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV70" s="280"/>
+      <c r="AV70" s="299"/>
       <c r="AW70">
         <f t="shared" si="13"/>
         <v>46</v>
@@ -9032,10 +9032,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ70" s="285" t="s">
+      <c r="AZ70" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA70" s="288"/>
+      <c r="BA70" s="344"/>
       <c r="BB70" s="244">
         <f t="shared" si="14"/>
         <v>46</v>
@@ -9091,10 +9091,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU71" s="295" t="s">
+      <c r="AU71" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV71" s="301"/>
+      <c r="AV71" s="303"/>
       <c r="AW71">
         <f t="shared" si="13"/>
         <v>47</v>
@@ -9107,10 +9107,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ71" s="286" t="s">
+      <c r="AZ71" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA71" s="296"/>
+      <c r="BA71" s="347"/>
       <c r="BB71" s="244">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -9166,10 +9166,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU72" s="283" t="s">
+      <c r="AU72" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV72" s="284"/>
+      <c r="AV72" s="306"/>
       <c r="AW72">
         <f t="shared" si="13"/>
         <v>48</v>
@@ -9182,10 +9182,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ72" s="285" t="s">
+      <c r="AZ72" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA72" s="288"/>
+      <c r="BA72" s="344"/>
       <c r="BB72" s="244">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -9241,10 +9241,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU73" s="279" t="s">
+      <c r="AU73" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV73" s="280"/>
+      <c r="AV73" s="299"/>
       <c r="AW73">
         <f t="shared" si="13"/>
         <v>49</v>
@@ -9257,10 +9257,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ73" s="281" t="s">
+      <c r="AZ73" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA73" s="297"/>
+      <c r="BA73" s="345"/>
       <c r="BB73" s="244">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -9316,10 +9316,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU74" s="285" t="s">
+      <c r="AU74" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV74" s="284"/>
+      <c r="AV74" s="306"/>
       <c r="AW74">
         <f t="shared" si="13"/>
         <v>50</v>
@@ -9332,10 +9332,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ74" s="290" t="s">
+      <c r="AZ74" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BA74" s="299"/>
+      <c r="BA74" s="346"/>
       <c r="BB74" s="244">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -9391,10 +9391,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU75" s="279" t="s">
+      <c r="AU75" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV75" s="280"/>
+      <c r="AV75" s="299"/>
       <c r="AW75">
         <f t="shared" si="13"/>
         <v>51</v>
@@ -9407,10 +9407,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ75" s="281" t="s">
+      <c r="AZ75" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA75" s="297"/>
+      <c r="BA75" s="345"/>
       <c r="BB75" s="244">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -9466,10 +9466,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU76" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="284"/>
+      <c r="AU76" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="306"/>
       <c r="AW76">
         <f t="shared" si="13"/>
         <v>52</v>
@@ -9482,10 +9482,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ76" s="285" t="s">
+      <c r="AZ76" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA76" s="288"/>
+      <c r="BA76" s="344"/>
       <c r="BB76" s="244">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -9541,10 +9541,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU77" s="295" t="s">
+      <c r="AU77" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV77" s="284"/>
+      <c r="AV77" s="306"/>
       <c r="AW77">
         <f t="shared" si="13"/>
         <v>53</v>
@@ -9557,10 +9557,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ77" s="295" t="s">
+      <c r="AZ77" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA77" s="288"/>
+      <c r="BA77" s="344"/>
       <c r="BB77" s="244">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -9616,10 +9616,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU78" s="295" t="s">
+      <c r="AU78" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV78" s="301"/>
+      <c r="AV78" s="303"/>
       <c r="AW78">
         <f t="shared" si="13"/>
         <v>54</v>
@@ -9632,10 +9632,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ78" s="295" t="s">
+      <c r="AZ78" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA78" s="288"/>
+      <c r="BA78" s="344"/>
       <c r="BB78" s="244">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -9691,10 +9691,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU79" s="285" t="s">
+      <c r="AU79" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV79" s="284"/>
+      <c r="AV79" s="306"/>
       <c r="AW79">
         <f t="shared" si="13"/>
         <v>55</v>
@@ -9707,10 +9707,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ79" s="285" t="s">
+      <c r="AZ79" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA79" s="288"/>
+      <c r="BA79" s="344"/>
       <c r="BB79" s="244">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -9766,10 +9766,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU80" s="285" t="s">
+      <c r="AU80" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV80" s="284"/>
+      <c r="AV80" s="306"/>
       <c r="AW80">
         <f t="shared" si="13"/>
         <v>56</v>
@@ -9782,10 +9782,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ80" s="281" t="s">
+      <c r="AZ80" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA80" s="297"/>
+      <c r="BA80" s="345"/>
       <c r="BB80" s="244">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -9841,10 +9841,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU81" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV81" s="284"/>
+      <c r="AU81" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="306"/>
       <c r="AW81">
         <f t="shared" si="13"/>
         <v>57</v>
@@ -9857,10 +9857,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ81" s="285" t="s">
+      <c r="AZ81" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA81" s="288"/>
+      <c r="BA81" s="344"/>
       <c r="BB81" s="244">
         <f t="shared" si="14"/>
         <v>57</v>
@@ -9916,10 +9916,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU82" s="285" t="s">
+      <c r="AU82" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV82" s="284"/>
+      <c r="AV82" s="306"/>
       <c r="AW82">
         <f t="shared" si="13"/>
         <v>58</v>
@@ -9932,10 +9932,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ82" s="279" t="s">
+      <c r="AZ82" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA82" s="289"/>
+      <c r="BA82" s="343"/>
       <c r="BB82" s="244">
         <f t="shared" si="14"/>
         <v>58</v>
@@ -9991,10 +9991,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU83" s="285" t="s">
+      <c r="AU83" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV83" s="284"/>
+      <c r="AV83" s="306"/>
       <c r="AW83">
         <f t="shared" si="13"/>
         <v>59</v>
@@ -10007,10 +10007,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ83" s="285" t="s">
+      <c r="AZ83" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA83" s="288"/>
+      <c r="BA83" s="344"/>
       <c r="BB83" s="244">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -10066,10 +10066,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU84" s="295" t="s">
+      <c r="AU84" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV84" s="284"/>
+      <c r="AV84" s="306"/>
       <c r="AW84">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -10082,10 +10082,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ84" s="283" t="s">
+      <c r="AZ84" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA84" s="288"/>
+      <c r="BA84" s="344"/>
       <c r="BB84" s="244">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -10141,10 +10141,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU85" s="295" t="s">
+      <c r="AU85" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV85" s="301"/>
+      <c r="AV85" s="303"/>
       <c r="AW85">
         <f t="shared" si="13"/>
         <v>61</v>
@@ -10157,10 +10157,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ85" s="295" t="s">
+      <c r="AZ85" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA85" s="288"/>
+      <c r="BA85" s="344"/>
       <c r="BB85" s="244">
         <f t="shared" si="14"/>
         <v>61</v>
@@ -10216,10 +10216,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU86" s="279" t="s">
+      <c r="AU86" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV86" s="280"/>
+      <c r="AV86" s="299"/>
       <c r="AW86">
         <f t="shared" si="13"/>
         <v>62</v>
@@ -10232,10 +10232,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ86" s="285" t="s">
+      <c r="AZ86" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA86" s="288"/>
+      <c r="BA86" s="344"/>
       <c r="BB86" s="244">
         <f t="shared" si="14"/>
         <v>62</v>
@@ -10291,10 +10291,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU87" s="295" t="s">
+      <c r="AU87" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV87" s="284"/>
+      <c r="AV87" s="306"/>
       <c r="AW87">
         <f t="shared" si="13"/>
         <v>63</v>
@@ -10307,10 +10307,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ87" s="285" t="s">
+      <c r="AZ87" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA87" s="288"/>
+      <c r="BA87" s="344"/>
       <c r="BB87" s="244">
         <f t="shared" si="14"/>
         <v>63</v>
@@ -10366,10 +10366,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU88" s="279" t="s">
+      <c r="AU88" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV88" s="280"/>
+      <c r="AV88" s="299"/>
       <c r="AW88">
         <f t="shared" si="13"/>
         <v>64</v>
@@ -10382,10 +10382,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ88" s="279" t="s">
+      <c r="AZ88" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA88" s="289"/>
+      <c r="BA88" s="343"/>
       <c r="BB88" s="244">
         <f t="shared" si="14"/>
         <v>64</v>
@@ -10441,10 +10441,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU89" s="285" t="s">
+      <c r="AU89" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV89" s="284"/>
+      <c r="AV89" s="306"/>
       <c r="AW89">
         <f t="shared" si="13"/>
         <v>65</v>
@@ -10457,10 +10457,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ89" s="295" t="s">
+      <c r="AZ89" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA89" s="288"/>
+      <c r="BA89" s="344"/>
       <c r="BB89" s="244">
         <f t="shared" si="14"/>
         <v>65</v>
@@ -10516,10 +10516,10 @@
         <f t="shared" ref="AT90:AT153" si="16">IF(C90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU90" s="295" t="s">
+      <c r="AU90" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV90" s="284"/>
+      <c r="AV90" s="306"/>
       <c r="AW90">
         <f t="shared" si="13"/>
         <v>66</v>
@@ -10532,10 +10532,10 @@
         <f t="shared" ref="AY90:AY153" si="18">IF(H90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ90" s="295" t="s">
+      <c r="AZ90" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA90" s="288"/>
+      <c r="BA90" s="344"/>
       <c r="BB90" s="244">
         <f t="shared" si="14"/>
         <v>66</v>
@@ -10591,10 +10591,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU91" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV91" s="284"/>
+      <c r="AU91" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="306"/>
       <c r="AW91">
         <f t="shared" ref="AW91:AW154" si="21">AW90+1</f>
         <v>67</v>
@@ -10607,10 +10607,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ91" s="285" t="s">
+      <c r="AZ91" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA91" s="288"/>
+      <c r="BA91" s="344"/>
       <c r="BB91" s="244">
         <f t="shared" ref="BB91:BC154" si="22">BB90+1</f>
         <v>67</v>
@@ -10666,10 +10666,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU92" s="295" t="s">
+      <c r="AU92" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV92" s="284"/>
+      <c r="AV92" s="306"/>
       <c r="AW92">
         <f t="shared" si="21"/>
         <v>68</v>
@@ -10682,10 +10682,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ92" s="285" t="s">
+      <c r="AZ92" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA92" s="288"/>
+      <c r="BA92" s="344"/>
       <c r="BB92" s="244">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -10741,10 +10741,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU93" s="285" t="s">
+      <c r="AU93" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV93" s="284"/>
+      <c r="AV93" s="306"/>
       <c r="AW93">
         <f t="shared" si="21"/>
         <v>69</v>
@@ -10757,10 +10757,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ93" s="279" t="s">
+      <c r="AZ93" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA93" s="289"/>
+      <c r="BA93" s="343"/>
       <c r="BB93" s="244">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -10816,10 +10816,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU94" s="281" t="s">
+      <c r="AU94" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV94" s="282"/>
+      <c r="AV94" s="317"/>
       <c r="AW94">
         <f t="shared" si="21"/>
         <v>70</v>
@@ -10832,10 +10832,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ94" s="279" t="s">
+      <c r="AZ94" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA94" s="289"/>
+      <c r="BA94" s="343"/>
       <c r="BB94" s="244">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -10891,10 +10891,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU95" s="285" t="s">
+      <c r="AU95" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV95" s="284"/>
+      <c r="AV95" s="306"/>
       <c r="AW95">
         <f t="shared" si="21"/>
         <v>71</v>
@@ -10907,10 +10907,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ95" s="285" t="s">
+      <c r="AZ95" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA95" s="288"/>
+      <c r="BA95" s="344"/>
       <c r="BB95" s="244">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -10966,10 +10966,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU96" s="279" t="s">
+      <c r="AU96" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV96" s="280"/>
+      <c r="AV96" s="299"/>
       <c r="AW96">
         <f t="shared" si="21"/>
         <v>72</v>
@@ -10982,10 +10982,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ96" s="283" t="s">
+      <c r="AZ96" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA96" s="288"/>
+      <c r="BA96" s="344"/>
       <c r="BB96" s="244">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -11041,10 +11041,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU97" s="281" t="s">
+      <c r="AU97" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV97" s="282"/>
+      <c r="AV97" s="317"/>
       <c r="AW97">
         <f t="shared" si="21"/>
         <v>73</v>
@@ -11057,10 +11057,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ97" s="293" t="s">
+      <c r="AZ97" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="BA97" s="298"/>
+      <c r="BA97" s="348"/>
       <c r="BB97" s="244">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -11116,10 +11116,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU98" s="285" t="s">
+      <c r="AU98" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV98" s="284"/>
+      <c r="AV98" s="306"/>
       <c r="AW98">
         <f t="shared" si="21"/>
         <v>74</v>
@@ -11132,10 +11132,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ98" s="295" t="s">
+      <c r="AZ98" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA98" s="288"/>
+      <c r="BA98" s="344"/>
       <c r="BB98" s="244">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -11191,10 +11191,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU99" s="295" t="s">
+      <c r="AU99" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV99" s="284"/>
+      <c r="AV99" s="306"/>
       <c r="AW99">
         <f t="shared" si="21"/>
         <v>75</v>
@@ -11207,10 +11207,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ99" s="285" t="s">
+      <c r="AZ99" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA99" s="288"/>
+      <c r="BA99" s="344"/>
       <c r="BB99" s="244">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -11266,10 +11266,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU100" s="285" t="s">
+      <c r="AU100" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV100" s="284"/>
+      <c r="AV100" s="306"/>
       <c r="AW100">
         <f t="shared" si="21"/>
         <v>76</v>
@@ -11282,10 +11282,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ100" s="279" t="s">
+      <c r="AZ100" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA100" s="289"/>
+      <c r="BA100" s="343"/>
       <c r="BB100" s="244">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -11341,10 +11341,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU101" s="285" t="s">
+      <c r="AU101" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV101" s="284"/>
+      <c r="AV101" s="306"/>
       <c r="AW101">
         <f t="shared" si="21"/>
         <v>77</v>
@@ -11357,10 +11357,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ101" s="285" t="s">
+      <c r="AZ101" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA101" s="288"/>
+      <c r="BA101" s="344"/>
       <c r="BB101" s="244">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -11416,10 +11416,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU102" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV102" s="284"/>
+      <c r="AU102" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="306"/>
       <c r="AW102">
         <f t="shared" si="21"/>
         <v>78</v>
@@ -11432,10 +11432,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ102" s="279" t="s">
+      <c r="AZ102" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA102" s="289"/>
+      <c r="BA102" s="343"/>
       <c r="BB102" s="244">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -11491,10 +11491,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU103" s="286" t="s">
+      <c r="AU103" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV103" s="287"/>
+      <c r="AV103" s="310"/>
       <c r="AW103">
         <f t="shared" si="21"/>
         <v>79</v>
@@ -11507,10 +11507,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ103" s="285" t="s">
+      <c r="AZ103" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA103" s="288"/>
+      <c r="BA103" s="344"/>
       <c r="BB103" s="244">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -11566,10 +11566,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU104" s="290" t="s">
+      <c r="AU104" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV104" s="291"/>
+      <c r="AV104" s="341"/>
       <c r="AW104">
         <f t="shared" si="21"/>
         <v>80</v>
@@ -11582,10 +11582,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ104" s="279" t="s">
+      <c r="AZ104" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA104" s="289"/>
+      <c r="BA104" s="343"/>
       <c r="BB104" s="244">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -11641,10 +11641,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU105" s="281" t="s">
+      <c r="AU105" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV105" s="282"/>
+      <c r="AV105" s="317"/>
       <c r="AW105">
         <f t="shared" si="21"/>
         <v>81</v>
@@ -11657,10 +11657,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ105" s="295" t="s">
+      <c r="AZ105" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA105" s="288"/>
+      <c r="BA105" s="344"/>
       <c r="BB105" s="244">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -11716,10 +11716,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU106" s="295" t="s">
+      <c r="AU106" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV106" s="284"/>
+      <c r="AV106" s="306"/>
       <c r="AW106">
         <f t="shared" si="21"/>
         <v>82</v>
@@ -11732,10 +11732,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ106" s="285" t="s">
+      <c r="AZ106" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA106" s="288"/>
+      <c r="BA106" s="344"/>
       <c r="BB106" s="244">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -11791,10 +11791,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU107" s="295" t="s">
+      <c r="AU107" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV107" s="284"/>
+      <c r="AV107" s="306"/>
       <c r="AW107">
         <f t="shared" si="21"/>
         <v>83</v>
@@ -11807,10 +11807,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ107" s="279" t="s">
+      <c r="AZ107" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA107" s="289"/>
+      <c r="BA107" s="343"/>
       <c r="BB107" s="244">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -11866,10 +11866,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU108" s="295" t="s">
+      <c r="AU108" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV108" s="284"/>
+      <c r="AV108" s="306"/>
       <c r="AW108">
         <f t="shared" si="21"/>
         <v>84</v>
@@ -11882,10 +11882,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ108" s="285" t="s">
+      <c r="AZ108" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA108" s="288"/>
+      <c r="BA108" s="344"/>
       <c r="BB108" s="244">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -11941,10 +11941,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU109" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV109" s="284"/>
+      <c r="AU109" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="306"/>
       <c r="AW109">
         <f t="shared" si="21"/>
         <v>85</v>
@@ -11957,10 +11957,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ109" s="285" t="s">
+      <c r="AZ109" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA109" s="288"/>
+      <c r="BA109" s="344"/>
       <c r="BB109" s="244">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -12016,10 +12016,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU110" s="281" t="s">
+      <c r="AU110" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV110" s="282"/>
+      <c r="AV110" s="317"/>
       <c r="AW110">
         <f t="shared" si="21"/>
         <v>86</v>
@@ -12032,10 +12032,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ110" s="281" t="s">
+      <c r="AZ110" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA110" s="297"/>
+      <c r="BA110" s="345"/>
       <c r="BB110" s="244">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -12091,10 +12091,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU111" s="279" t="s">
+      <c r="AU111" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV111" s="280"/>
+      <c r="AV111" s="299"/>
       <c r="AW111">
         <f t="shared" si="21"/>
         <v>87</v>
@@ -12107,10 +12107,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ111" s="279" t="s">
+      <c r="AZ111" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA111" s="289"/>
+      <c r="BA111" s="343"/>
       <c r="BB111" s="244">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -12166,10 +12166,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU112" s="286" t="s">
+      <c r="AU112" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV112" s="287"/>
+      <c r="AV112" s="310"/>
       <c r="AW112">
         <f t="shared" si="21"/>
         <v>88</v>
@@ -12182,10 +12182,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ112" s="286" t="s">
+      <c r="AZ112" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA112" s="296"/>
+      <c r="BA112" s="347"/>
       <c r="BB112" s="244">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -12241,10 +12241,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU113" s="285" t="s">
+      <c r="AU113" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV113" s="284"/>
+      <c r="AV113" s="306"/>
       <c r="AW113">
         <f t="shared" si="21"/>
         <v>89</v>
@@ -12257,10 +12257,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ113" s="285" t="s">
+      <c r="AZ113" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA113" s="288"/>
+      <c r="BA113" s="344"/>
       <c r="BB113" s="244">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -12316,10 +12316,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU114" s="285" t="s">
+      <c r="AU114" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV114" s="284"/>
+      <c r="AV114" s="306"/>
       <c r="AW114">
         <f t="shared" si="21"/>
         <v>90</v>
@@ -12332,10 +12332,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ114" s="281" t="s">
+      <c r="AZ114" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA114" s="297"/>
+      <c r="BA114" s="345"/>
       <c r="BB114" s="244">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -12391,10 +12391,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU115" s="285" t="s">
+      <c r="AU115" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV115" s="284"/>
+      <c r="AV115" s="306"/>
       <c r="AW115">
         <f t="shared" si="21"/>
         <v>91</v>
@@ -12407,10 +12407,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ115" s="295" t="s">
+      <c r="AZ115" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA115" s="288"/>
+      <c r="BA115" s="344"/>
       <c r="BB115" s="244">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -12466,10 +12466,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU116" s="295" t="s">
+      <c r="AU116" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV116" s="284"/>
+      <c r="AV116" s="306"/>
       <c r="AW116">
         <f t="shared" si="21"/>
         <v>92</v>
@@ -12482,10 +12482,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ116" s="286" t="s">
+      <c r="AZ116" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA116" s="296"/>
+      <c r="BA116" s="347"/>
       <c r="BB116" s="244">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -12541,10 +12541,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU117" s="283" t="s">
+      <c r="AU117" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV117" s="284"/>
+      <c r="AV117" s="306"/>
       <c r="AW117">
         <f t="shared" si="21"/>
         <v>93</v>
@@ -12557,10 +12557,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ117" s="285" t="s">
+      <c r="AZ117" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA117" s="288"/>
+      <c r="BA117" s="344"/>
       <c r="BB117" s="244">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -12616,10 +12616,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU118" s="281" t="s">
+      <c r="AU118" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV118" s="282"/>
+      <c r="AV118" s="317"/>
       <c r="AW118">
         <f t="shared" si="21"/>
         <v>94</v>
@@ -12632,10 +12632,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ118" s="295" t="s">
+      <c r="AZ118" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA118" s="288"/>
+      <c r="BA118" s="344"/>
       <c r="BB118" s="244">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -12691,10 +12691,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU119" s="279" t="s">
+      <c r="AU119" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV119" s="280"/>
+      <c r="AV119" s="299"/>
       <c r="AW119">
         <f t="shared" si="21"/>
         <v>95</v>
@@ -12707,10 +12707,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ119" s="285" t="s">
+      <c r="AZ119" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA119" s="288"/>
+      <c r="BA119" s="344"/>
       <c r="BB119" s="244">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -12766,10 +12766,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU120" s="283" t="s">
+      <c r="AU120" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV120" s="284"/>
+      <c r="AV120" s="306"/>
       <c r="AW120">
         <f t="shared" si="21"/>
         <v>96</v>
@@ -12782,10 +12782,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ120" s="285" t="s">
+      <c r="AZ120" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA120" s="288"/>
+      <c r="BA120" s="344"/>
       <c r="BB120" s="244">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -12841,10 +12841,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU121" s="295" t="s">
+      <c r="AU121" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV121" s="284"/>
+      <c r="AV121" s="306"/>
       <c r="AW121">
         <f t="shared" si="21"/>
         <v>97</v>
@@ -12857,10 +12857,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ121" s="285" t="s">
+      <c r="AZ121" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA121" s="288"/>
+      <c r="BA121" s="344"/>
       <c r="BB121" s="244">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -12916,10 +12916,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU122" s="285" t="s">
+      <c r="AU122" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV122" s="284"/>
+      <c r="AV122" s="306"/>
       <c r="AW122">
         <f t="shared" si="21"/>
         <v>98</v>
@@ -12932,10 +12932,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ122" s="281" t="s">
+      <c r="AZ122" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA122" s="297"/>
+      <c r="BA122" s="345"/>
       <c r="BB122" s="244">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -12991,10 +12991,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU123" s="285" t="s">
+      <c r="AU123" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV123" s="284"/>
+      <c r="AV123" s="306"/>
       <c r="AW123">
         <f t="shared" si="21"/>
         <v>99</v>
@@ -13007,10 +13007,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ123" s="283" t="s">
+      <c r="AZ123" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA123" s="288"/>
+      <c r="BA123" s="344"/>
       <c r="BB123" s="244">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -13066,10 +13066,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU124" s="279" t="s">
+      <c r="AU124" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV124" s="280"/>
+      <c r="AV124" s="299"/>
       <c r="AW124">
         <f t="shared" si="21"/>
         <v>100</v>
@@ -13082,10 +13082,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ124" s="279" t="s">
+      <c r="AZ124" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA124" s="289"/>
+      <c r="BA124" s="343"/>
       <c r="BB124" s="244">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -13141,10 +13141,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU125" s="285" t="s">
+      <c r="AU125" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV125" s="284"/>
+      <c r="AV125" s="306"/>
       <c r="AW125">
         <f t="shared" si="21"/>
         <v>101</v>
@@ -13157,10 +13157,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ125" s="295" t="s">
+      <c r="AZ125" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA125" s="288"/>
+      <c r="BA125" s="344"/>
       <c r="BB125" s="244">
         <f t="shared" si="22"/>
         <v>101</v>
@@ -13216,10 +13216,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU126" s="279" t="s">
+      <c r="AU126" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV126" s="280"/>
+      <c r="AV126" s="299"/>
       <c r="AW126">
         <f t="shared" si="21"/>
         <v>102</v>
@@ -13232,10 +13232,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ126" s="283" t="s">
+      <c r="AZ126" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA126" s="288"/>
+      <c r="BA126" s="344"/>
       <c r="BB126" s="244">
         <f t="shared" si="22"/>
         <v>102</v>
@@ -13291,10 +13291,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU127" s="285" t="s">
+      <c r="AU127" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV127" s="284"/>
+      <c r="AV127" s="306"/>
       <c r="AW127">
         <f t="shared" si="21"/>
         <v>103</v>
@@ -13307,10 +13307,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ127" s="286" t="s">
+      <c r="AZ127" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA127" s="296"/>
+      <c r="BA127" s="347"/>
       <c r="BB127" s="244">
         <f t="shared" si="22"/>
         <v>103</v>
@@ -13366,10 +13366,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU128" s="279" t="s">
+      <c r="AU128" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV128" s="280"/>
+      <c r="AV128" s="299"/>
       <c r="AW128">
         <f t="shared" si="21"/>
         <v>104</v>
@@ -13382,10 +13382,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ128" s="295" t="s">
+      <c r="AZ128" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA128" s="288"/>
+      <c r="BA128" s="344"/>
       <c r="BB128" s="244">
         <f t="shared" si="22"/>
         <v>104</v>
@@ -13441,10 +13441,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU129" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV129" s="284"/>
+      <c r="AU129" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV129" s="306"/>
       <c r="AW129">
         <f t="shared" si="21"/>
         <v>105</v>
@@ -13457,10 +13457,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ129" s="285" t="s">
+      <c r="AZ129" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA129" s="288"/>
+      <c r="BA129" s="344"/>
       <c r="BB129" s="244">
         <f t="shared" si="22"/>
         <v>105</v>
@@ -13516,10 +13516,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU130" s="283" t="s">
+      <c r="AU130" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV130" s="284"/>
+      <c r="AV130" s="306"/>
       <c r="AW130">
         <f t="shared" si="21"/>
         <v>106</v>
@@ -13532,10 +13532,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ130" s="285" t="s">
+      <c r="AZ130" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA130" s="288"/>
+      <c r="BA130" s="344"/>
       <c r="BB130" s="244">
         <f t="shared" si="22"/>
         <v>106</v>
@@ -13591,10 +13591,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU131" s="295" t="s">
+      <c r="AU131" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV131" s="284"/>
+      <c r="AV131" s="306"/>
       <c r="AW131">
         <f t="shared" si="21"/>
         <v>107</v>
@@ -13607,10 +13607,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ131" s="295" t="s">
+      <c r="AZ131" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA131" s="288"/>
+      <c r="BA131" s="344"/>
       <c r="BB131" s="244">
         <f t="shared" si="22"/>
         <v>107</v>
@@ -13666,10 +13666,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU132" s="283" t="s">
+      <c r="AU132" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV132" s="284"/>
+      <c r="AV132" s="306"/>
       <c r="AW132">
         <f t="shared" si="21"/>
         <v>108</v>
@@ -13682,10 +13682,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ132" s="285" t="s">
+      <c r="AZ132" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA132" s="288"/>
+      <c r="BA132" s="344"/>
       <c r="BB132" s="244">
         <f t="shared" si="22"/>
         <v>108</v>
@@ -13741,10 +13741,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU133" s="285" t="s">
+      <c r="AU133" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV133" s="284"/>
+      <c r="AV133" s="306"/>
       <c r="AW133">
         <f t="shared" si="21"/>
         <v>109</v>
@@ -13757,10 +13757,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ133" s="279" t="s">
+      <c r="AZ133" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA133" s="289"/>
+      <c r="BA133" s="343"/>
       <c r="BB133" s="244">
         <f t="shared" si="22"/>
         <v>109</v>
@@ -13816,10 +13816,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU134" s="285" t="s">
+      <c r="AU134" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV134" s="284"/>
+      <c r="AV134" s="306"/>
       <c r="AW134">
         <f t="shared" si="21"/>
         <v>110</v>
@@ -13832,10 +13832,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ134" s="286" t="s">
+      <c r="AZ134" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA134" s="296"/>
+      <c r="BA134" s="347"/>
       <c r="BB134" s="244">
         <f t="shared" si="22"/>
         <v>110</v>
@@ -13891,10 +13891,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU135" s="286" t="s">
+      <c r="AU135" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV135" s="287"/>
+      <c r="AV135" s="310"/>
       <c r="AW135">
         <f t="shared" si="21"/>
         <v>111</v>
@@ -13907,10 +13907,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ135" s="295" t="s">
+      <c r="AZ135" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA135" s="288"/>
+      <c r="BA135" s="344"/>
       <c r="BB135" s="244">
         <f t="shared" si="22"/>
         <v>111</v>
@@ -13966,10 +13966,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU136" s="286" t="s">
+      <c r="AU136" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV136" s="287"/>
+      <c r="AV136" s="310"/>
       <c r="AW136">
         <f t="shared" si="21"/>
         <v>112</v>
@@ -13982,10 +13982,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ136" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA136" s="288"/>
+      <c r="AZ136" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA136" s="344"/>
       <c r="BB136" s="244">
         <f t="shared" si="22"/>
         <v>112</v>
@@ -14041,10 +14041,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU137" s="281" t="s">
+      <c r="AU137" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV137" s="282"/>
+      <c r="AV137" s="317"/>
       <c r="AW137">
         <f t="shared" si="21"/>
         <v>113</v>
@@ -14057,10 +14057,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ137" s="279" t="s">
+      <c r="AZ137" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA137" s="289"/>
+      <c r="BA137" s="343"/>
       <c r="BB137" s="244">
         <f t="shared" si="22"/>
         <v>113</v>
@@ -14116,10 +14116,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU138" s="285" t="s">
+      <c r="AU138" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV138" s="284"/>
+      <c r="AV138" s="306"/>
       <c r="AW138">
         <f t="shared" si="21"/>
         <v>114</v>
@@ -14132,10 +14132,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ138" s="295" t="s">
+      <c r="AZ138" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA138" s="288"/>
+      <c r="BA138" s="344"/>
       <c r="BB138" s="244">
         <f t="shared" si="22"/>
         <v>114</v>
@@ -14191,10 +14191,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU139" s="285" t="s">
+      <c r="AU139" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV139" s="284"/>
+      <c r="AV139" s="306"/>
       <c r="AW139">
         <f t="shared" si="21"/>
         <v>115</v>
@@ -14207,10 +14207,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ139" s="281" t="s">
+      <c r="AZ139" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA139" s="297"/>
+      <c r="BA139" s="345"/>
       <c r="BB139" s="244">
         <f t="shared" si="22"/>
         <v>115</v>
@@ -14266,10 +14266,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU140" s="279" t="s">
+      <c r="AU140" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV140" s="280"/>
+      <c r="AV140" s="299"/>
       <c r="AW140">
         <f t="shared" si="21"/>
         <v>116</v>
@@ -14282,10 +14282,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ140" s="281" t="s">
+      <c r="AZ140" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA140" s="297"/>
+      <c r="BA140" s="345"/>
       <c r="BB140" s="244">
         <f t="shared" si="22"/>
         <v>116</v>
@@ -14341,10 +14341,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU141" s="293" t="s">
+      <c r="AU141" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV141" s="294"/>
+      <c r="AV141" s="339"/>
       <c r="AW141">
         <f t="shared" si="21"/>
         <v>117</v>
@@ -14357,10 +14357,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ141" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA141" s="288"/>
+      <c r="AZ141" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA141" s="344"/>
       <c r="BB141" s="244">
         <f t="shared" si="22"/>
         <v>117</v>
@@ -14416,10 +14416,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU142" s="283" t="s">
+      <c r="AU142" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV142" s="300"/>
+      <c r="AV142" s="308"/>
       <c r="AW142">
         <f t="shared" si="21"/>
         <v>118</v>
@@ -14432,10 +14432,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ142" s="281" t="s">
+      <c r="AZ142" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA142" s="297"/>
+      <c r="BA142" s="345"/>
       <c r="BB142" s="244">
         <f t="shared" si="22"/>
         <v>118</v>
@@ -14491,10 +14491,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU143" s="279" t="s">
+      <c r="AU143" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV143" s="280"/>
+      <c r="AV143" s="299"/>
       <c r="AW143">
         <f t="shared" si="21"/>
         <v>119</v>
@@ -14507,10 +14507,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ143" s="295" t="s">
+      <c r="AZ143" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA143" s="288"/>
+      <c r="BA143" s="344"/>
       <c r="BB143" s="244">
         <f t="shared" si="22"/>
         <v>119</v>
@@ -14566,10 +14566,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU144" s="279" t="s">
+      <c r="AU144" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV144" s="280"/>
+      <c r="AV144" s="299"/>
       <c r="AW144">
         <f t="shared" si="21"/>
         <v>120</v>
@@ -14582,10 +14582,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ144" s="285" t="s">
+      <c r="AZ144" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA144" s="288"/>
+      <c r="BA144" s="344"/>
       <c r="BB144" s="244">
         <f t="shared" si="22"/>
         <v>120</v>
@@ -14641,10 +14641,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU145" s="295" t="s">
+      <c r="AU145" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV145" s="284"/>
+      <c r="AV145" s="306"/>
       <c r="AW145">
         <f t="shared" si="21"/>
         <v>121</v>
@@ -14657,10 +14657,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ145" s="283" t="s">
+      <c r="AZ145" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA145" s="288"/>
+      <c r="BA145" s="344"/>
       <c r="BB145" s="244">
         <f t="shared" si="22"/>
         <v>121</v>
@@ -14716,10 +14716,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU146" s="281" t="s">
+      <c r="AU146" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV146" s="282"/>
+      <c r="AV146" s="317"/>
       <c r="AW146">
         <f t="shared" si="21"/>
         <v>122</v>
@@ -14732,10 +14732,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ146" s="285" t="s">
+      <c r="AZ146" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA146" s="288"/>
+      <c r="BA146" s="344"/>
       <c r="BB146" s="244">
         <f t="shared" si="22"/>
         <v>122</v>
@@ -14791,10 +14791,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU147" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV147" s="284"/>
+      <c r="AU147" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="306"/>
       <c r="AW147">
         <f t="shared" si="21"/>
         <v>123</v>
@@ -14807,10 +14807,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ147" s="286" t="s">
+      <c r="AZ147" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA147" s="296"/>
+      <c r="BA147" s="347"/>
       <c r="BB147" s="244">
         <f t="shared" si="22"/>
         <v>123</v>
@@ -14866,10 +14866,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU148" s="286" t="s">
+      <c r="AU148" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV148" s="287"/>
+      <c r="AV148" s="310"/>
       <c r="AW148">
         <f t="shared" si="21"/>
         <v>124</v>
@@ -14882,10 +14882,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ148" s="286" t="s">
+      <c r="AZ148" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA148" s="296"/>
+      <c r="BA148" s="347"/>
       <c r="BB148" s="244">
         <f t="shared" si="22"/>
         <v>124</v>
@@ -14941,10 +14941,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU149" s="281" t="s">
+      <c r="AU149" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV149" s="282"/>
+      <c r="AV149" s="317"/>
       <c r="AW149">
         <f t="shared" si="21"/>
         <v>125</v>
@@ -14957,10 +14957,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ149" s="283" t="s">
+      <c r="AZ149" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA149" s="288"/>
+      <c r="BA149" s="344"/>
       <c r="BB149" s="244">
         <f t="shared" si="22"/>
         <v>125</v>
@@ -15016,10 +15016,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU150" s="295" t="s">
+      <c r="AU150" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV150" s="284"/>
+      <c r="AV150" s="306"/>
       <c r="AW150">
         <f t="shared" si="21"/>
         <v>126</v>
@@ -15032,10 +15032,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ150" s="281" t="s">
+      <c r="AZ150" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA150" s="297"/>
+      <c r="BA150" s="345"/>
       <c r="BB150" s="244">
         <f t="shared" si="22"/>
         <v>126</v>
@@ -15091,10 +15091,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU151" s="285" t="s">
+      <c r="AU151" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV151" s="284"/>
+      <c r="AV151" s="306"/>
       <c r="AW151">
         <f t="shared" si="21"/>
         <v>127</v>
@@ -15107,10 +15107,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ151" s="279" t="s">
+      <c r="AZ151" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA151" s="289"/>
+      <c r="BA151" s="343"/>
       <c r="BB151" s="244">
         <f t="shared" si="22"/>
         <v>127</v>
@@ -15166,10 +15166,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU152" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV152" s="284"/>
+      <c r="AU152" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="306"/>
       <c r="AW152">
         <f t="shared" si="21"/>
         <v>128</v>
@@ -15182,10 +15182,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ152" s="285" t="s">
+      <c r="AZ152" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA152" s="288"/>
+      <c r="BA152" s="344"/>
       <c r="BB152" s="244">
         <f t="shared" si="22"/>
         <v>128</v>
@@ -15241,10 +15241,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU153" s="290" t="s">
+      <c r="AU153" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV153" s="291"/>
+      <c r="AV153" s="341"/>
       <c r="AW153">
         <f t="shared" si="21"/>
         <v>129</v>
@@ -15257,10 +15257,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ153" s="281" t="s">
+      <c r="AZ153" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA153" s="297"/>
+      <c r="BA153" s="345"/>
       <c r="BB153" s="244">
         <f t="shared" si="22"/>
         <v>129</v>
@@ -15316,10 +15316,10 @@
         <f t="shared" ref="AT154:AT217" si="24">IF(C154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU154" s="285" t="s">
+      <c r="AU154" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV154" s="284"/>
+      <c r="AV154" s="306"/>
       <c r="AW154">
         <f t="shared" si="21"/>
         <v>130</v>
@@ -15332,10 +15332,10 @@
         <f t="shared" ref="AY154:AY198" si="26">IF(H154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ154" s="295" t="s">
+      <c r="AZ154" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA154" s="288"/>
+      <c r="BA154" s="344"/>
       <c r="BB154" s="244">
         <f t="shared" si="22"/>
         <v>130</v>
@@ -15391,10 +15391,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU155" s="286" t="s">
+      <c r="AU155" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV155" s="287"/>
+      <c r="AV155" s="310"/>
       <c r="AW155">
         <f t="shared" ref="AW155:AW218" si="29">AW154+1</f>
         <v>131</v>
@@ -15407,10 +15407,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ155" s="281" t="s">
+      <c r="AZ155" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA155" s="297"/>
+      <c r="BA155" s="345"/>
       <c r="BB155" s="244">
         <f t="shared" ref="BB155:BC198" si="30">BB154+1</f>
         <v>131</v>
@@ -15466,10 +15466,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU156" s="283" t="s">
+      <c r="AU156" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV156" s="284"/>
+      <c r="AV156" s="306"/>
       <c r="AW156">
         <f t="shared" si="29"/>
         <v>132</v>
@@ -15482,10 +15482,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ156" s="286" t="s">
+      <c r="AZ156" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA156" s="296"/>
+      <c r="BA156" s="347"/>
       <c r="BB156" s="244">
         <f t="shared" si="30"/>
         <v>132</v>
@@ -15541,10 +15541,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU157" s="286" t="s">
+      <c r="AU157" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV157" s="287"/>
+      <c r="AV157" s="310"/>
       <c r="AW157">
         <f t="shared" si="29"/>
         <v>133</v>
@@ -15557,10 +15557,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ157" s="281" t="s">
+      <c r="AZ157" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA157" s="297"/>
+      <c r="BA157" s="345"/>
       <c r="BB157" s="244">
         <f t="shared" si="30"/>
         <v>133</v>
@@ -15616,10 +15616,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU158" s="285" t="s">
+      <c r="AU158" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV158" s="284"/>
+      <c r="AV158" s="306"/>
       <c r="AW158">
         <f t="shared" si="29"/>
         <v>134</v>
@@ -15632,10 +15632,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ158" s="285" t="s">
+      <c r="AZ158" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA158" s="288"/>
+      <c r="BA158" s="344"/>
       <c r="BB158" s="244">
         <f t="shared" si="30"/>
         <v>134</v>
@@ -15691,10 +15691,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU159" s="285" t="s">
+      <c r="AU159" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV159" s="284"/>
+      <c r="AV159" s="306"/>
       <c r="AW159">
         <f t="shared" si="29"/>
         <v>135</v>
@@ -15707,10 +15707,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ159" s="286" t="s">
+      <c r="AZ159" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA159" s="296"/>
+      <c r="BA159" s="347"/>
       <c r="BB159" s="244">
         <f t="shared" si="30"/>
         <v>135</v>
@@ -15766,10 +15766,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU160" s="290" t="s">
+      <c r="AU160" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV160" s="291"/>
+      <c r="AV160" s="341"/>
       <c r="AW160">
         <f t="shared" si="29"/>
         <v>136</v>
@@ -15782,10 +15782,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ160" s="295" t="s">
+      <c r="AZ160" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA160" s="288"/>
+      <c r="BA160" s="344"/>
       <c r="BB160" s="244">
         <f t="shared" si="30"/>
         <v>136</v>
@@ -15841,10 +15841,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU161" s="286" t="s">
+      <c r="AU161" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV161" s="287"/>
+      <c r="AV161" s="310"/>
       <c r="AW161">
         <f t="shared" si="29"/>
         <v>137</v>
@@ -15857,10 +15857,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ161" s="281" t="s">
+      <c r="AZ161" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA161" s="297"/>
+      <c r="BA161" s="345"/>
       <c r="BB161" s="244">
         <f t="shared" si="30"/>
         <v>137</v>
@@ -15916,10 +15916,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU162" s="279" t="s">
+      <c r="AU162" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV162" s="280"/>
+      <c r="AV162" s="299"/>
       <c r="AW162">
         <f t="shared" si="29"/>
         <v>138</v>
@@ -15932,10 +15932,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ162" s="286" t="s">
+      <c r="AZ162" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA162" s="296"/>
+      <c r="BA162" s="347"/>
       <c r="BB162" s="244">
         <f t="shared" si="30"/>
         <v>138</v>
@@ -15991,10 +15991,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU163" s="281" t="s">
+      <c r="AU163" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV163" s="282"/>
+      <c r="AV163" s="317"/>
       <c r="AW163">
         <f t="shared" si="29"/>
         <v>139</v>
@@ -16007,10 +16007,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ163" s="279" t="s">
+      <c r="AZ163" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA163" s="289"/>
+      <c r="BA163" s="343"/>
       <c r="BB163" s="244">
         <f t="shared" si="30"/>
         <v>139</v>
@@ -16066,10 +16066,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU164" s="283" t="s">
+      <c r="AU164" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV164" s="284"/>
+      <c r="AV164" s="306"/>
       <c r="AW164">
         <f t="shared" si="29"/>
         <v>140</v>
@@ -16082,10 +16082,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ164" s="290" t="s">
+      <c r="AZ164" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="BA164" s="299"/>
+      <c r="BA164" s="346"/>
       <c r="BB164" s="244">
         <f t="shared" si="30"/>
         <v>140</v>
@@ -16141,10 +16141,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU165" s="283" t="s">
+      <c r="AU165" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV165" s="284"/>
+      <c r="AV165" s="306"/>
       <c r="AW165">
         <f t="shared" si="29"/>
         <v>141</v>
@@ -16157,10 +16157,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ165" s="279" t="s">
+      <c r="AZ165" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA165" s="289"/>
+      <c r="BA165" s="343"/>
       <c r="BB165" s="244">
         <f t="shared" si="30"/>
         <v>141</v>
@@ -16216,10 +16216,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU166" s="281" t="s">
+      <c r="AU166" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV166" s="282"/>
+      <c r="AV166" s="317"/>
       <c r="AW166">
         <f t="shared" si="29"/>
         <v>142</v>
@@ -16232,10 +16232,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ166" s="295" t="s">
+      <c r="AZ166" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA166" s="288"/>
+      <c r="BA166" s="344"/>
       <c r="BB166" s="244">
         <f t="shared" si="30"/>
         <v>142</v>
@@ -16291,10 +16291,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU167" s="283" t="s">
+      <c r="AU167" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV167" s="284"/>
+      <c r="AV167" s="306"/>
       <c r="AW167">
         <f t="shared" si="29"/>
         <v>143</v>
@@ -16307,10 +16307,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ167" s="281" t="s">
+      <c r="AZ167" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA167" s="297"/>
+      <c r="BA167" s="345"/>
       <c r="BB167" s="244">
         <f t="shared" si="30"/>
         <v>143</v>
@@ -16366,10 +16366,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU168" s="285" t="s">
+      <c r="AU168" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV168" s="284"/>
+      <c r="AV168" s="306"/>
       <c r="AW168">
         <f t="shared" si="29"/>
         <v>144</v>
@@ -16382,10 +16382,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ168" s="295" t="s">
+      <c r="AZ168" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA168" s="288"/>
+      <c r="BA168" s="344"/>
       <c r="BB168" s="244">
         <f t="shared" si="30"/>
         <v>144</v>
@@ -16441,10 +16441,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU169" s="295" t="s">
+      <c r="AU169" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV169" s="284"/>
+      <c r="AV169" s="306"/>
       <c r="AW169">
         <f t="shared" si="29"/>
         <v>145</v>
@@ -16457,10 +16457,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ169" s="281" t="s">
+      <c r="AZ169" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA169" s="297"/>
+      <c r="BA169" s="345"/>
       <c r="BB169" s="244">
         <f t="shared" si="30"/>
         <v>145</v>
@@ -16516,10 +16516,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU170" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV170" s="284"/>
+      <c r="AU170" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="306"/>
       <c r="AW170">
         <f t="shared" si="29"/>
         <v>146</v>
@@ -16532,10 +16532,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ170" s="279" t="s">
+      <c r="AZ170" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA170" s="289"/>
+      <c r="BA170" s="343"/>
       <c r="BB170" s="244">
         <f t="shared" si="30"/>
         <v>146</v>
@@ -16591,10 +16591,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU171" s="285" t="s">
+      <c r="AU171" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV171" s="284"/>
+      <c r="AV171" s="306"/>
       <c r="AW171">
         <f t="shared" si="29"/>
         <v>147</v>
@@ -16607,10 +16607,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ171" s="285" t="s">
+      <c r="AZ171" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA171" s="288"/>
+      <c r="BA171" s="344"/>
       <c r="BB171" s="244">
         <f t="shared" si="30"/>
         <v>147</v>
@@ -16666,10 +16666,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU172" s="293" t="s">
+      <c r="AU172" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV172" s="294"/>
+      <c r="AV172" s="339"/>
       <c r="AW172">
         <f t="shared" si="29"/>
         <v>148</v>
@@ -16682,10 +16682,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ172" s="285" t="s">
+      <c r="AZ172" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA172" s="288"/>
+      <c r="BA172" s="344"/>
       <c r="BB172" s="244">
         <f t="shared" si="30"/>
         <v>148</v>
@@ -16741,10 +16741,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU173" s="281" t="s">
+      <c r="AU173" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV173" s="282"/>
+      <c r="AV173" s="317"/>
       <c r="AW173">
         <f t="shared" si="29"/>
         <v>149</v>
@@ -16757,10 +16757,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ173" s="283" t="s">
+      <c r="AZ173" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA173" s="288"/>
+      <c r="BA173" s="344"/>
       <c r="BB173" s="244">
         <f t="shared" si="30"/>
         <v>149</v>
@@ -16816,10 +16816,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU174" s="285" t="s">
+      <c r="AU174" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV174" s="284"/>
+      <c r="AV174" s="306"/>
       <c r="AW174">
         <f t="shared" si="29"/>
         <v>150</v>
@@ -16832,10 +16832,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ174" s="285" t="s">
+      <c r="AZ174" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA174" s="288"/>
+      <c r="BA174" s="344"/>
       <c r="BB174" s="244">
         <f t="shared" si="30"/>
         <v>150</v>
@@ -16891,10 +16891,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU175" s="283" t="s">
+      <c r="AU175" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV175" s="284"/>
+      <c r="AV175" s="306"/>
       <c r="AW175">
         <f t="shared" si="29"/>
         <v>151</v>
@@ -16907,10 +16907,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ175" s="285" t="s">
+      <c r="AZ175" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA175" s="288"/>
+      <c r="BA175" s="344"/>
       <c r="BB175" s="244">
         <f t="shared" si="30"/>
         <v>151</v>
@@ -16966,10 +16966,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU176" s="293" t="s">
+      <c r="AU176" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV176" s="294"/>
+      <c r="AV176" s="339"/>
       <c r="AW176">
         <f t="shared" si="29"/>
         <v>152</v>
@@ -16982,10 +16982,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ176" s="286" t="s">
+      <c r="AZ176" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA176" s="296"/>
+      <c r="BA176" s="347"/>
       <c r="BB176" s="244">
         <f t="shared" si="30"/>
         <v>152</v>
@@ -17041,10 +17041,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU177" s="295" t="s">
+      <c r="AU177" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV177" s="284"/>
+      <c r="AV177" s="306"/>
       <c r="AW177">
         <f t="shared" si="29"/>
         <v>153</v>
@@ -17057,10 +17057,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ177" s="285" t="s">
+      <c r="AZ177" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA177" s="288"/>
+      <c r="BA177" s="344"/>
       <c r="BB177" s="244">
         <f t="shared" si="30"/>
         <v>153</v>
@@ -17116,10 +17116,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU178" s="295" t="s">
+      <c r="AU178" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV178" s="284"/>
+      <c r="AV178" s="306"/>
       <c r="AW178">
         <f t="shared" si="29"/>
         <v>154</v>
@@ -17132,10 +17132,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ178" s="285" t="s">
+      <c r="AZ178" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA178" s="288"/>
+      <c r="BA178" s="344"/>
       <c r="BB178" s="244">
         <f t="shared" si="30"/>
         <v>154</v>
@@ -17191,10 +17191,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU179" s="295" t="s">
+      <c r="AU179" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV179" s="284"/>
+      <c r="AV179" s="306"/>
       <c r="AW179">
         <f t="shared" si="29"/>
         <v>155</v>
@@ -17207,10 +17207,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ179" s="286" t="s">
+      <c r="AZ179" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA179" s="296"/>
+      <c r="BA179" s="347"/>
       <c r="BB179" s="244">
         <f t="shared" si="30"/>
         <v>155</v>
@@ -17266,10 +17266,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU180" s="285" t="s">
+      <c r="AU180" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV180" s="284"/>
+      <c r="AV180" s="306"/>
       <c r="AW180">
         <f t="shared" si="29"/>
         <v>156</v>
@@ -17282,10 +17282,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ180" s="279" t="s">
+      <c r="AZ180" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA180" s="289"/>
+      <c r="BA180" s="343"/>
       <c r="BB180" s="244">
         <f t="shared" si="30"/>
         <v>156</v>
@@ -17341,10 +17341,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU181" s="286" t="s">
+      <c r="AU181" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV181" s="287"/>
+      <c r="AV181" s="310"/>
       <c r="AW181">
         <f t="shared" si="29"/>
         <v>157</v>
@@ -17357,10 +17357,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ181" s="286" t="s">
+      <c r="AZ181" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA181" s="296"/>
+      <c r="BA181" s="347"/>
       <c r="BB181" s="244">
         <f t="shared" si="30"/>
         <v>157</v>
@@ -17416,10 +17416,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU182" s="293" t="s">
+      <c r="AU182" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV182" s="294"/>
+      <c r="AV182" s="339"/>
       <c r="AW182">
         <f t="shared" si="29"/>
         <v>158</v>
@@ -17432,10 +17432,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ182" s="279" t="s">
+      <c r="AZ182" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA182" s="289"/>
+      <c r="BA182" s="343"/>
       <c r="BB182" s="244">
         <f t="shared" si="30"/>
         <v>158</v>
@@ -17491,10 +17491,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU183" s="295" t="s">
+      <c r="AU183" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV183" s="284"/>
+      <c r="AV183" s="306"/>
       <c r="AW183">
         <f t="shared" si="29"/>
         <v>159</v>
@@ -17507,10 +17507,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ183" s="281" t="s">
+      <c r="AZ183" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA183" s="297"/>
+      <c r="BA183" s="345"/>
       <c r="BB183" s="244">
         <f t="shared" si="30"/>
         <v>159</v>
@@ -17566,10 +17566,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU184" s="279" t="s">
+      <c r="AU184" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV184" s="280"/>
+      <c r="AV184" s="299"/>
       <c r="AW184">
         <f t="shared" si="29"/>
         <v>160</v>
@@ -17582,10 +17582,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ184" s="285" t="s">
+      <c r="AZ184" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA184" s="288"/>
+      <c r="BA184" s="344"/>
       <c r="BB184" s="244">
         <f t="shared" si="30"/>
         <v>160</v>
@@ -17641,10 +17641,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU185" s="279" t="s">
+      <c r="AU185" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV185" s="280"/>
+      <c r="AV185" s="299"/>
       <c r="AW185">
         <f t="shared" si="29"/>
         <v>161</v>
@@ -17657,10 +17657,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ185" s="281" t="s">
+      <c r="AZ185" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA185" s="297"/>
+      <c r="BA185" s="345"/>
       <c r="BB185" s="244">
         <f t="shared" si="30"/>
         <v>161</v>
@@ -17716,10 +17716,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU186" s="285" t="s">
+      <c r="AU186" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV186" s="284"/>
+      <c r="AV186" s="306"/>
       <c r="AW186">
         <f t="shared" si="29"/>
         <v>162</v>
@@ -17732,10 +17732,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ186" s="286" t="s">
+      <c r="AZ186" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="BA186" s="296"/>
+      <c r="BA186" s="347"/>
       <c r="BB186" s="244">
         <f t="shared" si="30"/>
         <v>162</v>
@@ -17791,10 +17791,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU187" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV187" s="284"/>
+      <c r="AU187" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV187" s="306"/>
       <c r="AW187">
         <f t="shared" si="29"/>
         <v>163</v>
@@ -17807,10 +17807,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ187" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA187" s="288"/>
+      <c r="AZ187" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA187" s="344"/>
       <c r="BB187" s="244">
         <f t="shared" si="30"/>
         <v>163</v>
@@ -17866,10 +17866,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU188" s="285" t="s">
+      <c r="AU188" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV188" s="284"/>
+      <c r="AV188" s="306"/>
       <c r="AW188">
         <f t="shared" si="29"/>
         <v>164</v>
@@ -17882,10 +17882,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ188" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA188" s="288"/>
+      <c r="AZ188" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA188" s="344"/>
       <c r="BB188" s="244">
         <f t="shared" si="30"/>
         <v>164</v>
@@ -17941,10 +17941,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU189" s="285" t="s">
+      <c r="AU189" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV189" s="284"/>
+      <c r="AV189" s="306"/>
       <c r="AW189">
         <f t="shared" si="29"/>
         <v>165</v>
@@ -17957,10 +17957,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ189" s="285" t="s">
+      <c r="AZ189" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="BA189" s="284"/>
+      <c r="BA189" s="306"/>
       <c r="BB189" s="244">
         <f t="shared" si="30"/>
         <v>165</v>
@@ -18016,10 +18016,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU190" s="279" t="s">
+      <c r="AU190" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV190" s="280"/>
+      <c r="AV190" s="299"/>
       <c r="AW190">
         <f t="shared" si="29"/>
         <v>166</v>
@@ -18032,10 +18032,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ190" s="295" t="s">
+      <c r="AZ190" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA190" s="288"/>
+      <c r="BA190" s="344"/>
       <c r="BB190" s="244">
         <f t="shared" si="30"/>
         <v>166</v>
@@ -18091,10 +18091,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU191" s="279" t="s">
+      <c r="AU191" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV191" s="280"/>
+      <c r="AV191" s="299"/>
       <c r="AW191">
         <f t="shared" si="29"/>
         <v>167</v>
@@ -18107,10 +18107,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ191" s="281" t="s">
+      <c r="AZ191" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="BA191" s="297"/>
+      <c r="BA191" s="345"/>
       <c r="BB191" s="244">
         <f t="shared" si="30"/>
         <v>167</v>
@@ -18166,10 +18166,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU192" s="295" t="s">
+      <c r="AU192" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV192" s="284"/>
+      <c r="AV192" s="306"/>
       <c r="AW192">
         <f t="shared" si="29"/>
         <v>168</v>
@@ -18182,10 +18182,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ192" s="295" t="s">
+      <c r="AZ192" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA192" s="288"/>
+      <c r="BA192" s="344"/>
       <c r="BB192" s="244">
         <f t="shared" si="30"/>
         <v>168</v>
@@ -18241,10 +18241,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU193" s="285" t="s">
+      <c r="AU193" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV193" s="284"/>
+      <c r="AV193" s="306"/>
       <c r="AW193">
         <f t="shared" si="29"/>
         <v>169</v>
@@ -18257,10 +18257,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ193" s="279" t="s">
+      <c r="AZ193" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA193" s="289"/>
+      <c r="BA193" s="343"/>
       <c r="BB193" s="244">
         <f t="shared" si="30"/>
         <v>169</v>
@@ -18316,10 +18316,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU194" s="286" t="s">
+      <c r="AU194" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV194" s="287"/>
+      <c r="AV194" s="310"/>
       <c r="AW194">
         <f t="shared" si="29"/>
         <v>170</v>
@@ -18332,10 +18332,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ194" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA194" s="288"/>
+      <c r="AZ194" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA194" s="344"/>
       <c r="BB194" s="244">
         <f t="shared" si="30"/>
         <v>170</v>
@@ -18391,10 +18391,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU195" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV195" s="284"/>
+      <c r="AU195" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV195" s="306"/>
       <c r="AW195">
         <f t="shared" si="29"/>
         <v>171</v>
@@ -18407,10 +18407,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ195" s="279" t="s">
+      <c r="AZ195" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="BA195" s="289"/>
+      <c r="BA195" s="343"/>
       <c r="BB195" s="244">
         <f t="shared" si="30"/>
         <v>171</v>
@@ -18466,10 +18466,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU196" s="293" t="s">
+      <c r="AU196" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV196" s="294"/>
+      <c r="AV196" s="339"/>
       <c r="AW196">
         <f t="shared" si="29"/>
         <v>172</v>
@@ -18482,10 +18482,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ196" s="295" t="s">
+      <c r="AZ196" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="BA196" s="288"/>
+      <c r="BA196" s="344"/>
       <c r="BB196" s="244">
         <f t="shared" si="30"/>
         <v>172</v>
@@ -18541,10 +18541,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU197" s="295" t="s">
+      <c r="AU197" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV197" s="284"/>
+      <c r="AV197" s="306"/>
       <c r="AW197">
         <f t="shared" si="29"/>
         <v>173</v>
@@ -18557,10 +18557,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ197" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA197" s="288"/>
+      <c r="AZ197" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA197" s="344"/>
       <c r="BB197" s="244">
         <f t="shared" si="30"/>
         <v>173</v>
@@ -18616,10 +18616,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU198" s="295" t="s">
+      <c r="AU198" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV198" s="284"/>
+      <c r="AV198" s="306"/>
       <c r="AW198">
         <f t="shared" si="29"/>
         <v>174</v>
@@ -18632,10 +18632,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ198" s="283" t="s">
+      <c r="AZ198" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="BA198" s="288"/>
+      <c r="BA198" s="344"/>
       <c r="BB198" s="245">
         <f t="shared" si="30"/>
         <v>174</v>
@@ -18685,10 +18685,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU199" s="279" t="s">
+      <c r="AU199" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV199" s="280"/>
+      <c r="AV199" s="299"/>
       <c r="AW199">
         <f t="shared" si="29"/>
         <v>175</v>
@@ -18737,10 +18737,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU200" s="279" t="s">
+      <c r="AU200" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV200" s="280"/>
+      <c r="AV200" s="299"/>
       <c r="AW200">
         <f t="shared" si="29"/>
         <v>176</v>
@@ -18789,10 +18789,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU201" s="283" t="s">
+      <c r="AU201" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV201" s="284"/>
+      <c r="AV201" s="306"/>
       <c r="AW201">
         <f t="shared" si="29"/>
         <v>177</v>
@@ -18841,10 +18841,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU202" s="295" t="s">
+      <c r="AU202" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV202" s="284"/>
+      <c r="AV202" s="306"/>
       <c r="AW202">
         <f t="shared" si="29"/>
         <v>178</v>
@@ -18893,10 +18893,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU203" s="295" t="s">
+      <c r="AU203" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV203" s="284"/>
+      <c r="AV203" s="306"/>
       <c r="AW203">
         <f t="shared" si="29"/>
         <v>179</v>
@@ -18945,10 +18945,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU204" s="285" t="s">
+      <c r="AU204" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV204" s="284"/>
+      <c r="AV204" s="306"/>
       <c r="AW204">
         <f t="shared" si="29"/>
         <v>180</v>
@@ -18997,10 +18997,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU205" s="285" t="s">
+      <c r="AU205" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV205" s="284"/>
+      <c r="AV205" s="306"/>
       <c r="AW205">
         <f t="shared" si="29"/>
         <v>181</v>
@@ -19049,10 +19049,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU206" s="285" t="s">
+      <c r="AU206" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV206" s="284"/>
+      <c r="AV206" s="306"/>
       <c r="AW206">
         <f t="shared" si="29"/>
         <v>182</v>
@@ -19101,10 +19101,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU207" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV207" s="284"/>
+      <c r="AU207" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV207" s="306"/>
       <c r="AW207">
         <f t="shared" si="29"/>
         <v>183</v>
@@ -19153,10 +19153,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU208" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV208" s="284"/>
+      <c r="AU208" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV208" s="306"/>
       <c r="AW208">
         <f t="shared" si="29"/>
         <v>184</v>
@@ -19205,10 +19205,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU209" s="281" t="s">
+      <c r="AU209" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV209" s="282"/>
+      <c r="AV209" s="317"/>
       <c r="AW209">
         <f t="shared" si="29"/>
         <v>185</v>
@@ -19257,10 +19257,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU210" s="285" t="s">
+      <c r="AU210" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV210" s="284"/>
+      <c r="AV210" s="306"/>
       <c r="AW210">
         <f t="shared" si="29"/>
         <v>186</v>
@@ -19309,10 +19309,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU211" s="295" t="s">
+      <c r="AU211" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV211" s="301"/>
+      <c r="AV211" s="303"/>
       <c r="AW211">
         <f t="shared" si="29"/>
         <v>187</v>
@@ -19361,10 +19361,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU212" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV212" s="284"/>
+      <c r="AU212" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV212" s="306"/>
       <c r="AW212">
         <f t="shared" si="29"/>
         <v>188</v>
@@ -19413,10 +19413,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU213" s="285" t="s">
+      <c r="AU213" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV213" s="284"/>
+      <c r="AV213" s="306"/>
       <c r="AW213">
         <f t="shared" si="29"/>
         <v>189</v>
@@ -19465,10 +19465,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU214" s="283" t="s">
+      <c r="AU214" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV214" s="284"/>
+      <c r="AV214" s="306"/>
       <c r="AW214">
         <f t="shared" si="29"/>
         <v>190</v>
@@ -19517,10 +19517,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU215" s="285" t="s">
+      <c r="AU215" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV215" s="284"/>
+      <c r="AV215" s="306"/>
       <c r="AW215">
         <f t="shared" si="29"/>
         <v>191</v>
@@ -19569,10 +19569,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU216" s="285" t="s">
+      <c r="AU216" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV216" s="284"/>
+      <c r="AV216" s="306"/>
       <c r="AW216">
         <f t="shared" si="29"/>
         <v>192</v>
@@ -19621,10 +19621,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU217" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV217" s="284"/>
+      <c r="AU217" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV217" s="306"/>
       <c r="AW217">
         <f t="shared" si="29"/>
         <v>193</v>
@@ -19673,10 +19673,10 @@
         <f t="shared" ref="AT218:AT254" si="32">IF(C218&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU218" s="285" t="s">
+      <c r="AU218" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV218" s="284"/>
+      <c r="AV218" s="306"/>
       <c r="AW218">
         <f t="shared" si="29"/>
         <v>194</v>
@@ -19725,10 +19725,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU219" s="279" t="s">
+      <c r="AU219" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV219" s="280"/>
+      <c r="AV219" s="299"/>
       <c r="AW219">
         <f t="shared" ref="AW219:AW254" si="34">AW218+1</f>
         <v>195</v>
@@ -19777,10 +19777,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU220" s="286" t="s">
+      <c r="AU220" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV220" s="287"/>
+      <c r="AV220" s="310"/>
       <c r="AW220">
         <f t="shared" si="34"/>
         <v>196</v>
@@ -19829,10 +19829,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU221" s="285" t="s">
+      <c r="AU221" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV221" s="284"/>
+      <c r="AV221" s="306"/>
       <c r="AW221">
         <f t="shared" si="34"/>
         <v>197</v>
@@ -19881,10 +19881,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU222" s="285" t="s">
+      <c r="AU222" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV222" s="284"/>
+      <c r="AV222" s="306"/>
       <c r="AW222">
         <f t="shared" si="34"/>
         <v>198</v>
@@ -19933,10 +19933,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU223" s="279" t="s">
+      <c r="AU223" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV223" s="280"/>
+      <c r="AV223" s="299"/>
       <c r="AW223">
         <f t="shared" si="34"/>
         <v>199</v>
@@ -19985,10 +19985,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU224" s="285" t="s">
+      <c r="AU224" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV224" s="284"/>
+      <c r="AV224" s="306"/>
       <c r="AW224">
         <f t="shared" si="34"/>
         <v>200</v>
@@ -20037,10 +20037,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU225" s="285" t="s">
+      <c r="AU225" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV225" s="284"/>
+      <c r="AV225" s="306"/>
       <c r="AW225">
         <f t="shared" si="34"/>
         <v>201</v>
@@ -20089,10 +20089,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU226" s="290" t="s">
+      <c r="AU226" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV226" s="291"/>
+      <c r="AV226" s="341"/>
       <c r="AW226">
         <f t="shared" si="34"/>
         <v>202</v>
@@ -20141,10 +20141,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU227" s="279" t="s">
+      <c r="AU227" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV227" s="280"/>
+      <c r="AV227" s="299"/>
       <c r="AW227">
         <f t="shared" si="34"/>
         <v>203</v>
@@ -20193,10 +20193,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU228" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV228" s="284"/>
+      <c r="AU228" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="306"/>
       <c r="AW228">
         <f t="shared" si="34"/>
         <v>204</v>
@@ -20245,10 +20245,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU229" s="285" t="s">
+      <c r="AU229" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV229" s="284"/>
+      <c r="AV229" s="306"/>
       <c r="AW229">
         <f t="shared" si="34"/>
         <v>205</v>
@@ -20297,10 +20297,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU230" s="295" t="s">
+      <c r="AU230" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV230" s="301"/>
+      <c r="AV230" s="303"/>
       <c r="AW230">
         <f t="shared" si="34"/>
         <v>206</v>
@@ -20349,10 +20349,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU231" s="279" t="s">
+      <c r="AU231" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV231" s="280"/>
+      <c r="AV231" s="299"/>
       <c r="AW231">
         <f t="shared" si="34"/>
         <v>207</v>
@@ -20401,10 +20401,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU232" s="285" t="s">
+      <c r="AU232" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV232" s="284"/>
+      <c r="AV232" s="306"/>
       <c r="AW232">
         <f t="shared" si="34"/>
         <v>208</v>
@@ -20453,10 +20453,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU233" s="283" t="s">
+      <c r="AU233" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV233" s="284"/>
+      <c r="AV233" s="306"/>
       <c r="AW233">
         <f t="shared" si="34"/>
         <v>209</v>
@@ -20505,10 +20505,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU234" s="295" t="s">
+      <c r="AU234" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV234" s="284"/>
+      <c r="AV234" s="306"/>
       <c r="AW234">
         <f t="shared" si="34"/>
         <v>210</v>
@@ -20557,10 +20557,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU235" s="285" t="s">
+      <c r="AU235" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV235" s="284"/>
+      <c r="AV235" s="306"/>
       <c r="AW235">
         <f t="shared" si="34"/>
         <v>211</v>
@@ -20609,10 +20609,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU236" s="286" t="s">
+      <c r="AU236" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="AV236" s="287"/>
+      <c r="AV236" s="310"/>
       <c r="AW236">
         <f t="shared" si="34"/>
         <v>212</v>
@@ -20661,10 +20661,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU237" s="295" t="s">
+      <c r="AU237" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV237" s="284"/>
+      <c r="AV237" s="306"/>
       <c r="AW237">
         <f t="shared" si="34"/>
         <v>213</v>
@@ -20713,10 +20713,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU238" s="281" t="s">
+      <c r="AU238" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV238" s="282"/>
+      <c r="AV238" s="317"/>
       <c r="AW238">
         <f t="shared" si="34"/>
         <v>214</v>
@@ -20765,10 +20765,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU239" s="281" t="s">
+      <c r="AU239" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV239" s="282"/>
+      <c r="AV239" s="317"/>
       <c r="AW239">
         <f t="shared" si="34"/>
         <v>215</v>
@@ -20817,10 +20817,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU240" s="285" t="s">
+      <c r="AU240" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV240" s="284"/>
+      <c r="AV240" s="306"/>
       <c r="AW240">
         <f t="shared" si="34"/>
         <v>216</v>
@@ -20869,10 +20869,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU241" s="281" t="s">
+      <c r="AU241" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="AV241" s="282"/>
+      <c r="AV241" s="317"/>
       <c r="AW241">
         <f t="shared" si="34"/>
         <v>217</v>
@@ -20921,10 +20921,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU242" s="285" t="s">
+      <c r="AU242" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV242" s="284"/>
+      <c r="AV242" s="306"/>
       <c r="AW242">
         <f t="shared" si="34"/>
         <v>218</v>
@@ -20973,10 +20973,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU243" s="290" t="s">
+      <c r="AU243" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="AV243" s="291"/>
+      <c r="AV243" s="341"/>
       <c r="AW243">
         <f t="shared" si="34"/>
         <v>219</v>
@@ -21025,10 +21025,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU244" s="295" t="s">
+      <c r="AU244" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV244" s="301"/>
+      <c r="AV244" s="303"/>
       <c r="AW244">
         <f t="shared" si="34"/>
         <v>220</v>
@@ -21077,10 +21077,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU245" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV245" s="284"/>
+      <c r="AU245" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV245" s="306"/>
       <c r="AW245">
         <f t="shared" si="34"/>
         <v>221</v>
@@ -21129,10 +21129,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU246" s="283" t="s">
+      <c r="AU246" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV246" s="284"/>
+      <c r="AV246" s="306"/>
       <c r="AW246">
         <f t="shared" si="34"/>
         <v>222</v>
@@ -21181,10 +21181,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU247" s="283" t="s">
+      <c r="AU247" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="AV247" s="284"/>
+      <c r="AV247" s="306"/>
       <c r="AW247">
         <f t="shared" si="34"/>
         <v>223</v>
@@ -21233,10 +21233,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU248" s="285" t="s">
+      <c r="AU248" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV248" s="284"/>
+      <c r="AV248" s="306"/>
       <c r="AW248">
         <f t="shared" si="34"/>
         <v>224</v>
@@ -21285,10 +21285,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU249" s="295" t="s">
+      <c r="AU249" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV249" s="284"/>
+      <c r="AV249" s="306"/>
       <c r="AW249">
         <f t="shared" si="34"/>
         <v>225</v>
@@ -21337,10 +21337,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU250" s="285" t="s">
+      <c r="AU250" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="AV250" s="302"/>
+      <c r="AV250" s="342"/>
       <c r="AW250">
         <f t="shared" si="34"/>
         <v>226</v>
@@ -21389,10 +21389,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU251" s="279" t="s">
+      <c r="AU251" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="AV251" s="280"/>
+      <c r="AV251" s="299"/>
       <c r="AW251">
         <f t="shared" si="34"/>
         <v>227</v>
@@ -21441,10 +21441,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU252" s="293" t="s">
+      <c r="AU252" s="338" t="s">
         <v>5</v>
       </c>
-      <c r="AV252" s="294"/>
+      <c r="AV252" s="339"/>
       <c r="AW252">
         <f t="shared" si="34"/>
         <v>228</v>
@@ -21493,10 +21493,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU253" s="295" t="s">
+      <c r="AU253" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV253" s="301"/>
+      <c r="AV253" s="303"/>
       <c r="AW253">
         <f t="shared" si="34"/>
         <v>229</v>
@@ -21545,10 +21545,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU254" s="295" t="s">
+      <c r="AU254" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="AV254" s="301"/>
+      <c r="AV254" s="303"/>
       <c r="AW254">
         <f t="shared" si="34"/>
         <v>230</v>
@@ -23504,28 +23504,404 @@
     </row>
   </sheetData>
   <mergeCells count="444">
-    <mergeCell ref="H20:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:E8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="BF28:BG28"/>
+    <mergeCell ref="BF29:BG29"/>
+    <mergeCell ref="BF30:BG30"/>
+    <mergeCell ref="BF31:BG31"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="AZ92:BA92"/>
+    <mergeCell ref="AZ94:BA94"/>
+    <mergeCell ref="BF34:BG34"/>
+    <mergeCell ref="BF35:BG35"/>
+    <mergeCell ref="BF36:BG36"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="BF32:BG32"/>
+    <mergeCell ref="AZ49:BA49"/>
+    <mergeCell ref="AZ51:BA51"/>
+    <mergeCell ref="AZ57:BA57"/>
+    <mergeCell ref="AZ54:BA54"/>
+    <mergeCell ref="AZ38:BA38"/>
+    <mergeCell ref="AZ43:BA43"/>
+    <mergeCell ref="AZ45:BA45"/>
+    <mergeCell ref="AZ46:BA46"/>
+    <mergeCell ref="AZ40:BA40"/>
+    <mergeCell ref="AZ53:BA53"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="AZ48:BA48"/>
+    <mergeCell ref="AZ52:BA52"/>
+    <mergeCell ref="AZ42:BA42"/>
+    <mergeCell ref="AZ104:BA104"/>
+    <mergeCell ref="AZ95:BA95"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="AZ131:BA131"/>
+    <mergeCell ref="AZ125:BA125"/>
+    <mergeCell ref="AZ108:BA108"/>
+    <mergeCell ref="AZ107:BA107"/>
+    <mergeCell ref="AZ101:BA101"/>
+    <mergeCell ref="AZ109:BA109"/>
+    <mergeCell ref="AZ118:BA118"/>
+    <mergeCell ref="AZ105:BA105"/>
+    <mergeCell ref="AZ100:BA100"/>
+    <mergeCell ref="AZ96:BA96"/>
+    <mergeCell ref="AZ99:BA99"/>
+    <mergeCell ref="AZ103:BA103"/>
+    <mergeCell ref="AZ113:BA113"/>
+    <mergeCell ref="AZ116:BA116"/>
+    <mergeCell ref="AZ117:BA117"/>
+    <mergeCell ref="AZ134:BA134"/>
+    <mergeCell ref="AZ122:BA122"/>
+    <mergeCell ref="AZ129:BA129"/>
+    <mergeCell ref="AZ155:BA155"/>
+    <mergeCell ref="AZ153:BA153"/>
+    <mergeCell ref="AZ144:BA144"/>
+    <mergeCell ref="AZ147:BA147"/>
+    <mergeCell ref="AZ148:BA148"/>
+    <mergeCell ref="AZ152:BA152"/>
+    <mergeCell ref="AZ146:BA146"/>
+    <mergeCell ref="AZ133:BA133"/>
+    <mergeCell ref="AZ124:BA124"/>
+    <mergeCell ref="AZ127:BA127"/>
+    <mergeCell ref="AZ128:BA128"/>
+    <mergeCell ref="AZ132:BA132"/>
+    <mergeCell ref="AZ130:BA130"/>
+    <mergeCell ref="AZ198:BA198"/>
+    <mergeCell ref="AZ90:BA90"/>
+    <mergeCell ref="AZ97:BA97"/>
+    <mergeCell ref="AZ162:BA162"/>
+    <mergeCell ref="AZ142:BA142"/>
+    <mergeCell ref="AZ143:BA143"/>
+    <mergeCell ref="AZ138:BA138"/>
+    <mergeCell ref="AZ159:BA159"/>
+    <mergeCell ref="AZ151:BA151"/>
+    <mergeCell ref="AZ140:BA140"/>
+    <mergeCell ref="AZ190:BA190"/>
+    <mergeCell ref="AZ135:BA135"/>
+    <mergeCell ref="AZ149:BA149"/>
+    <mergeCell ref="AZ154:BA154"/>
+    <mergeCell ref="AZ157:BA157"/>
+    <mergeCell ref="AZ139:BA139"/>
+    <mergeCell ref="AZ141:BA141"/>
+    <mergeCell ref="AZ119:BA119"/>
+    <mergeCell ref="AZ123:BA123"/>
+    <mergeCell ref="AZ98:BA98"/>
+    <mergeCell ref="AZ121:BA121"/>
+    <mergeCell ref="AZ106:BA106"/>
+    <mergeCell ref="AZ114:BA114"/>
+    <mergeCell ref="AZ181:BA181"/>
+    <mergeCell ref="AZ64:BA64"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="AZ76:BA76"/>
+    <mergeCell ref="AZ68:BA68"/>
+    <mergeCell ref="AZ67:BA67"/>
+    <mergeCell ref="AZ72:BA72"/>
+    <mergeCell ref="AZ170:BA170"/>
+    <mergeCell ref="AZ178:BA178"/>
+    <mergeCell ref="AZ180:BA180"/>
+    <mergeCell ref="AZ165:BA165"/>
+    <mergeCell ref="AZ150:BA150"/>
+    <mergeCell ref="AZ145:BA145"/>
+    <mergeCell ref="AZ156:BA156"/>
+    <mergeCell ref="AZ71:BA71"/>
+    <mergeCell ref="AZ166:BA166"/>
+    <mergeCell ref="AZ176:BA176"/>
+    <mergeCell ref="AZ179:BA179"/>
+    <mergeCell ref="AZ173:BA173"/>
+    <mergeCell ref="AZ168:BA168"/>
+    <mergeCell ref="AZ172:BA172"/>
+    <mergeCell ref="AZ111:BA111"/>
+    <mergeCell ref="AZ112:BA112"/>
+    <mergeCell ref="AZ136:BA136"/>
+    <mergeCell ref="AZ137:BA137"/>
+    <mergeCell ref="AZ63:BA63"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="AZ188:BA188"/>
+    <mergeCell ref="AZ185:BA185"/>
+    <mergeCell ref="AZ197:BA197"/>
+    <mergeCell ref="AZ158:BA158"/>
+    <mergeCell ref="AZ160:BA160"/>
+    <mergeCell ref="AZ194:BA194"/>
+    <mergeCell ref="AZ195:BA195"/>
+    <mergeCell ref="AZ196:BA196"/>
+    <mergeCell ref="AZ171:BA171"/>
+    <mergeCell ref="AZ191:BA191"/>
+    <mergeCell ref="AZ193:BA193"/>
+    <mergeCell ref="AZ182:BA182"/>
+    <mergeCell ref="AZ161:BA161"/>
+    <mergeCell ref="AZ167:BA167"/>
+    <mergeCell ref="AZ169:BA169"/>
+    <mergeCell ref="AZ174:BA174"/>
+    <mergeCell ref="AZ163:BA163"/>
+    <mergeCell ref="AZ164:BA164"/>
+    <mergeCell ref="AZ189:BA189"/>
+    <mergeCell ref="AZ183:BA183"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="AZ187:BA187"/>
+    <mergeCell ref="AZ186:BA186"/>
+    <mergeCell ref="AZ184:BA184"/>
+    <mergeCell ref="AZ60:BA60"/>
+    <mergeCell ref="AZ61:BA61"/>
+    <mergeCell ref="AZ62:BA62"/>
+    <mergeCell ref="AZ70:BA70"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="AZ50:BA50"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="AZ58:BA58"/>
+    <mergeCell ref="AZ66:BA66"/>
+    <mergeCell ref="AZ47:BA47"/>
+    <mergeCell ref="AZ56:BA56"/>
+    <mergeCell ref="AZ55:BA55"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="AZ65:BA65"/>
+    <mergeCell ref="AZ192:BA192"/>
+    <mergeCell ref="AU208:AV208"/>
+    <mergeCell ref="AU202:AV202"/>
+    <mergeCell ref="AU203:AV203"/>
+    <mergeCell ref="AU207:AV207"/>
+    <mergeCell ref="AZ73:BA73"/>
+    <mergeCell ref="AZ75:BA75"/>
+    <mergeCell ref="AZ80:BA80"/>
+    <mergeCell ref="AZ77:BA77"/>
+    <mergeCell ref="AZ78:BA78"/>
+    <mergeCell ref="AZ81:BA81"/>
+    <mergeCell ref="AZ79:BA79"/>
+    <mergeCell ref="AZ91:BA91"/>
+    <mergeCell ref="AZ74:BA74"/>
+    <mergeCell ref="AZ83:BA83"/>
+    <mergeCell ref="AZ82:BA82"/>
+    <mergeCell ref="AZ88:BA88"/>
+    <mergeCell ref="AZ89:BA89"/>
+    <mergeCell ref="AZ84:BA84"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="AZ86:BA86"/>
+    <mergeCell ref="AZ87:BA87"/>
+    <mergeCell ref="AZ177:BA177"/>
+    <mergeCell ref="AZ175:BA175"/>
+    <mergeCell ref="AU166:AV166"/>
+    <mergeCell ref="AU172:AV172"/>
+    <mergeCell ref="AU235:AV235"/>
+    <mergeCell ref="AU223:AV223"/>
+    <mergeCell ref="AU238:AV238"/>
+    <mergeCell ref="AU234:AV234"/>
+    <mergeCell ref="AZ93:BA93"/>
+    <mergeCell ref="AZ115:BA115"/>
+    <mergeCell ref="AZ120:BA120"/>
+    <mergeCell ref="AZ126:BA126"/>
+    <mergeCell ref="AZ110:BA110"/>
+    <mergeCell ref="AU225:AV225"/>
+    <mergeCell ref="AU216:AV216"/>
+    <mergeCell ref="AU129:AV129"/>
+    <mergeCell ref="AU182:AV182"/>
+    <mergeCell ref="AU139:AV139"/>
+    <mergeCell ref="AU144:AV144"/>
+    <mergeCell ref="AU148:AV148"/>
+    <mergeCell ref="AU118:AV118"/>
+    <mergeCell ref="AU117:AV117"/>
+    <mergeCell ref="AU195:AV195"/>
+    <mergeCell ref="AU196:AV196"/>
+    <mergeCell ref="AU197:AV197"/>
+    <mergeCell ref="AU189:AV189"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU115:AV115"/>
+    <mergeCell ref="AU161:AV161"/>
+    <mergeCell ref="AU167:AV167"/>
+    <mergeCell ref="AU162:AV162"/>
+    <mergeCell ref="AU159:AV159"/>
+    <mergeCell ref="AU190:AV190"/>
+    <mergeCell ref="AU191:AV191"/>
+    <mergeCell ref="AU205:AV205"/>
+    <mergeCell ref="AU201:AV201"/>
+    <mergeCell ref="AU193:AV193"/>
+    <mergeCell ref="AU200:AV200"/>
+    <mergeCell ref="AU199:AV199"/>
+    <mergeCell ref="AU188:AV188"/>
+    <mergeCell ref="AU198:AV198"/>
+    <mergeCell ref="AU204:AV204"/>
+    <mergeCell ref="AU160:AV160"/>
+    <mergeCell ref="AU181:AV181"/>
+    <mergeCell ref="AU174:AV174"/>
+    <mergeCell ref="AU163:AV163"/>
+    <mergeCell ref="AU169:AV169"/>
+    <mergeCell ref="AU171:AV171"/>
+    <mergeCell ref="AU168:AV168"/>
+    <mergeCell ref="AU177:AV177"/>
+    <mergeCell ref="AU108:AV108"/>
+    <mergeCell ref="AU109:AV109"/>
+    <mergeCell ref="AU110:AV110"/>
+    <mergeCell ref="AU114:AV114"/>
+    <mergeCell ref="AU105:AV105"/>
+    <mergeCell ref="AU147:AV147"/>
+    <mergeCell ref="AU140:AV140"/>
+    <mergeCell ref="AU145:AV145"/>
+    <mergeCell ref="AU107:AV107"/>
+    <mergeCell ref="AU130:AV130"/>
+    <mergeCell ref="AU131:AV131"/>
+    <mergeCell ref="AU134:AV134"/>
+    <mergeCell ref="AU132:AV132"/>
+    <mergeCell ref="AU138:AV138"/>
+    <mergeCell ref="AU135:AV135"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU137:AV137"/>
+    <mergeCell ref="AU136:AV136"/>
+    <mergeCell ref="AU112:AV112"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU113:AV113"/>
+    <mergeCell ref="AU127:AV127"/>
+    <mergeCell ref="AU133:AV133"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU149:AV149"/>
+    <mergeCell ref="AU126:AV126"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU125:AV125"/>
+    <mergeCell ref="AU128:AV128"/>
+    <mergeCell ref="AU178:AV178"/>
+    <mergeCell ref="AU179:AV179"/>
+    <mergeCell ref="AU180:AV180"/>
+    <mergeCell ref="AU175:AV175"/>
+    <mergeCell ref="AU173:AV173"/>
+    <mergeCell ref="AU141:AV141"/>
+    <mergeCell ref="AU146:AV146"/>
+    <mergeCell ref="AU143:AV143"/>
+    <mergeCell ref="AU142:AV142"/>
+    <mergeCell ref="AU157:AV157"/>
+    <mergeCell ref="AU154:AV154"/>
+    <mergeCell ref="AU150:AV150"/>
+    <mergeCell ref="AU151:AV151"/>
+    <mergeCell ref="AU153:AV153"/>
+    <mergeCell ref="AU155:AV155"/>
+    <mergeCell ref="AU156:AV156"/>
+    <mergeCell ref="AU152:AV152"/>
+    <mergeCell ref="AU158:AV158"/>
+    <mergeCell ref="AU247:AV247"/>
+    <mergeCell ref="AU246:AV246"/>
+    <mergeCell ref="AU220:AV220"/>
+    <mergeCell ref="AU209:AV209"/>
+    <mergeCell ref="AU222:AV222"/>
+    <mergeCell ref="AU210:AV210"/>
+    <mergeCell ref="AU218:AV218"/>
+    <mergeCell ref="AU187:AV187"/>
+    <mergeCell ref="AU183:AV183"/>
+    <mergeCell ref="AU186:AV186"/>
+    <mergeCell ref="AU185:AV185"/>
+    <mergeCell ref="AU184:AV184"/>
+    <mergeCell ref="AU192:AV192"/>
+    <mergeCell ref="AU194:AV194"/>
+    <mergeCell ref="AU233:AV233"/>
+    <mergeCell ref="AU206:AV206"/>
+    <mergeCell ref="AU240:AV240"/>
+    <mergeCell ref="AU211:AV211"/>
+    <mergeCell ref="AU231:AV231"/>
+    <mergeCell ref="AU219:AV219"/>
+    <mergeCell ref="AU224:AV224"/>
+    <mergeCell ref="AU226:AV226"/>
+    <mergeCell ref="AU228:AV228"/>
+    <mergeCell ref="AU230:AV230"/>
+    <mergeCell ref="AU164:AV164"/>
+    <mergeCell ref="AU165:AV165"/>
+    <mergeCell ref="AU170:AV170"/>
+    <mergeCell ref="AU176:AV176"/>
+    <mergeCell ref="AU40:AV40"/>
+    <mergeCell ref="AU42:AV42"/>
+    <mergeCell ref="AU57:AV57"/>
+    <mergeCell ref="AU63:AV63"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="AU50:AV50"/>
+    <mergeCell ref="AU51:AV51"/>
+    <mergeCell ref="AU52:AV52"/>
+    <mergeCell ref="AU55:AV55"/>
+    <mergeCell ref="AU66:AV66"/>
+    <mergeCell ref="AU69:AV69"/>
+    <mergeCell ref="AU54:AV54"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="AU56:AV56"/>
+    <mergeCell ref="AU48:AV48"/>
+    <mergeCell ref="AU53:AV53"/>
+    <mergeCell ref="AU47:AV47"/>
+    <mergeCell ref="AU116:AV116"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU254:AV254"/>
+    <mergeCell ref="AU217:AV217"/>
+    <mergeCell ref="AU215:AV215"/>
+    <mergeCell ref="AU214:AV214"/>
+    <mergeCell ref="AU251:AV251"/>
+    <mergeCell ref="AU249:AV249"/>
+    <mergeCell ref="AU212:AV212"/>
+    <mergeCell ref="AU232:AV232"/>
+    <mergeCell ref="AU237:AV237"/>
+    <mergeCell ref="AU239:AV239"/>
+    <mergeCell ref="AU242:AV242"/>
+    <mergeCell ref="AU213:AV213"/>
+    <mergeCell ref="AU236:AV236"/>
+    <mergeCell ref="AU221:AV221"/>
+    <mergeCell ref="AU229:AV229"/>
+    <mergeCell ref="AU227:AV227"/>
+    <mergeCell ref="AU253:AV253"/>
+    <mergeCell ref="AU250:AV250"/>
+    <mergeCell ref="AU245:AV245"/>
+    <mergeCell ref="AU252:AV252"/>
+    <mergeCell ref="AU244:AV244"/>
+    <mergeCell ref="AU243:AV243"/>
+    <mergeCell ref="AU248:AV248"/>
+    <mergeCell ref="AU241:AV241"/>
+    <mergeCell ref="AU85:AV85"/>
+    <mergeCell ref="AU87:AV87"/>
+    <mergeCell ref="AU84:AV84"/>
+    <mergeCell ref="AU86:AV86"/>
+    <mergeCell ref="AU89:AV89"/>
+    <mergeCell ref="AU93:AV93"/>
+    <mergeCell ref="AU97:AV97"/>
+    <mergeCell ref="AU106:AV106"/>
+    <mergeCell ref="AU94:AV94"/>
+    <mergeCell ref="AU95:AV95"/>
+    <mergeCell ref="AU88:AV88"/>
+    <mergeCell ref="AU90:AV90"/>
+    <mergeCell ref="AU96:AV96"/>
+    <mergeCell ref="AU91:AV91"/>
+    <mergeCell ref="AU92:AV92"/>
+    <mergeCell ref="AU102:AV102"/>
+    <mergeCell ref="AU98:AV98"/>
+    <mergeCell ref="AU101:AV101"/>
+    <mergeCell ref="AU100:AV100"/>
+    <mergeCell ref="AU99:AV99"/>
+    <mergeCell ref="AU103:AV103"/>
+    <mergeCell ref="AU104:AV104"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU73:AV73"/>
+    <mergeCell ref="AU74:AV74"/>
+    <mergeCell ref="AU82:AV82"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AU81:AV81"/>
+    <mergeCell ref="AU83:AV83"/>
+    <mergeCell ref="AU60:AV60"/>
+    <mergeCell ref="AU64:AV64"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU61:AV61"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AU70:AV70"/>
+    <mergeCell ref="AU68:AV68"/>
+    <mergeCell ref="AU62:AV62"/>
+    <mergeCell ref="AU65:AV65"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU77:AV77"/>
     <mergeCell ref="AU26:AV26"/>
     <mergeCell ref="AU37:AV37"/>
     <mergeCell ref="AU39:AV39"/>
@@ -23550,404 +23926,28 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU73:AV73"/>
-    <mergeCell ref="AU74:AV74"/>
-    <mergeCell ref="AU82:AV82"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="AU81:AV81"/>
-    <mergeCell ref="AU83:AV83"/>
-    <mergeCell ref="AU60:AV60"/>
-    <mergeCell ref="AU64:AV64"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU61:AV61"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AU70:AV70"/>
-    <mergeCell ref="AU68:AV68"/>
-    <mergeCell ref="AU62:AV62"/>
-    <mergeCell ref="AU65:AV65"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU85:AV85"/>
-    <mergeCell ref="AU87:AV87"/>
-    <mergeCell ref="AU84:AV84"/>
-    <mergeCell ref="AU86:AV86"/>
-    <mergeCell ref="AU89:AV89"/>
-    <mergeCell ref="AU93:AV93"/>
-    <mergeCell ref="AU97:AV97"/>
-    <mergeCell ref="AU106:AV106"/>
-    <mergeCell ref="AU94:AV94"/>
-    <mergeCell ref="AU95:AV95"/>
-    <mergeCell ref="AU88:AV88"/>
-    <mergeCell ref="AU90:AV90"/>
-    <mergeCell ref="AU96:AV96"/>
-    <mergeCell ref="AU91:AV91"/>
-    <mergeCell ref="AU92:AV92"/>
-    <mergeCell ref="AU102:AV102"/>
-    <mergeCell ref="AU98:AV98"/>
-    <mergeCell ref="AU101:AV101"/>
-    <mergeCell ref="AU100:AV100"/>
-    <mergeCell ref="AU99:AV99"/>
-    <mergeCell ref="AU103:AV103"/>
-    <mergeCell ref="AU104:AV104"/>
-    <mergeCell ref="AU254:AV254"/>
-    <mergeCell ref="AU217:AV217"/>
-    <mergeCell ref="AU215:AV215"/>
-    <mergeCell ref="AU214:AV214"/>
-    <mergeCell ref="AU251:AV251"/>
-    <mergeCell ref="AU249:AV249"/>
-    <mergeCell ref="AU212:AV212"/>
-    <mergeCell ref="AU232:AV232"/>
-    <mergeCell ref="AU237:AV237"/>
-    <mergeCell ref="AU239:AV239"/>
-    <mergeCell ref="AU242:AV242"/>
-    <mergeCell ref="AU213:AV213"/>
-    <mergeCell ref="AU236:AV236"/>
-    <mergeCell ref="AU221:AV221"/>
-    <mergeCell ref="AU229:AV229"/>
-    <mergeCell ref="AU227:AV227"/>
-    <mergeCell ref="AU253:AV253"/>
-    <mergeCell ref="AU250:AV250"/>
-    <mergeCell ref="AU245:AV245"/>
-    <mergeCell ref="AU252:AV252"/>
-    <mergeCell ref="AU244:AV244"/>
-    <mergeCell ref="AU243:AV243"/>
-    <mergeCell ref="AU248:AV248"/>
-    <mergeCell ref="AU241:AV241"/>
-    <mergeCell ref="AU164:AV164"/>
-    <mergeCell ref="AU165:AV165"/>
-    <mergeCell ref="AU170:AV170"/>
-    <mergeCell ref="AU176:AV176"/>
-    <mergeCell ref="AU40:AV40"/>
-    <mergeCell ref="AU42:AV42"/>
-    <mergeCell ref="AU57:AV57"/>
-    <mergeCell ref="AU63:AV63"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="AU50:AV50"/>
-    <mergeCell ref="AU51:AV51"/>
-    <mergeCell ref="AU52:AV52"/>
-    <mergeCell ref="AU55:AV55"/>
-    <mergeCell ref="AU66:AV66"/>
-    <mergeCell ref="AU69:AV69"/>
-    <mergeCell ref="AU54:AV54"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="AU56:AV56"/>
-    <mergeCell ref="AU48:AV48"/>
-    <mergeCell ref="AU53:AV53"/>
-    <mergeCell ref="AU47:AV47"/>
-    <mergeCell ref="AU116:AV116"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU247:AV247"/>
-    <mergeCell ref="AU246:AV246"/>
-    <mergeCell ref="AU220:AV220"/>
-    <mergeCell ref="AU209:AV209"/>
-    <mergeCell ref="AU222:AV222"/>
-    <mergeCell ref="AU210:AV210"/>
-    <mergeCell ref="AU218:AV218"/>
-    <mergeCell ref="AU187:AV187"/>
-    <mergeCell ref="AU183:AV183"/>
-    <mergeCell ref="AU186:AV186"/>
-    <mergeCell ref="AU185:AV185"/>
-    <mergeCell ref="AU184:AV184"/>
-    <mergeCell ref="AU192:AV192"/>
-    <mergeCell ref="AU194:AV194"/>
-    <mergeCell ref="AU233:AV233"/>
-    <mergeCell ref="AU206:AV206"/>
-    <mergeCell ref="AU240:AV240"/>
-    <mergeCell ref="AU211:AV211"/>
-    <mergeCell ref="AU231:AV231"/>
-    <mergeCell ref="AU219:AV219"/>
-    <mergeCell ref="AU224:AV224"/>
-    <mergeCell ref="AU226:AV226"/>
-    <mergeCell ref="AU228:AV228"/>
-    <mergeCell ref="AU230:AV230"/>
-    <mergeCell ref="AU149:AV149"/>
-    <mergeCell ref="AU126:AV126"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU125:AV125"/>
-    <mergeCell ref="AU128:AV128"/>
-    <mergeCell ref="AU178:AV178"/>
-    <mergeCell ref="AU179:AV179"/>
-    <mergeCell ref="AU180:AV180"/>
-    <mergeCell ref="AU175:AV175"/>
-    <mergeCell ref="AU173:AV173"/>
-    <mergeCell ref="AU141:AV141"/>
-    <mergeCell ref="AU146:AV146"/>
-    <mergeCell ref="AU143:AV143"/>
-    <mergeCell ref="AU142:AV142"/>
-    <mergeCell ref="AU157:AV157"/>
-    <mergeCell ref="AU154:AV154"/>
-    <mergeCell ref="AU150:AV150"/>
-    <mergeCell ref="AU151:AV151"/>
-    <mergeCell ref="AU153:AV153"/>
-    <mergeCell ref="AU155:AV155"/>
-    <mergeCell ref="AU156:AV156"/>
-    <mergeCell ref="AU152:AV152"/>
-    <mergeCell ref="AU158:AV158"/>
-    <mergeCell ref="AU108:AV108"/>
-    <mergeCell ref="AU109:AV109"/>
-    <mergeCell ref="AU110:AV110"/>
-    <mergeCell ref="AU114:AV114"/>
-    <mergeCell ref="AU105:AV105"/>
-    <mergeCell ref="AU147:AV147"/>
-    <mergeCell ref="AU140:AV140"/>
-    <mergeCell ref="AU145:AV145"/>
-    <mergeCell ref="AU107:AV107"/>
-    <mergeCell ref="AU130:AV130"/>
-    <mergeCell ref="AU131:AV131"/>
-    <mergeCell ref="AU134:AV134"/>
-    <mergeCell ref="AU132:AV132"/>
-    <mergeCell ref="AU138:AV138"/>
-    <mergeCell ref="AU135:AV135"/>
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU137:AV137"/>
-    <mergeCell ref="AU136:AV136"/>
-    <mergeCell ref="AU112:AV112"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU113:AV113"/>
-    <mergeCell ref="AU127:AV127"/>
-    <mergeCell ref="AU133:AV133"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU115:AV115"/>
-    <mergeCell ref="AU161:AV161"/>
-    <mergeCell ref="AU167:AV167"/>
-    <mergeCell ref="AU162:AV162"/>
-    <mergeCell ref="AU159:AV159"/>
-    <mergeCell ref="AU190:AV190"/>
-    <mergeCell ref="AU191:AV191"/>
-    <mergeCell ref="AU205:AV205"/>
-    <mergeCell ref="AU201:AV201"/>
-    <mergeCell ref="AU193:AV193"/>
-    <mergeCell ref="AU200:AV200"/>
-    <mergeCell ref="AU199:AV199"/>
-    <mergeCell ref="AU188:AV188"/>
-    <mergeCell ref="AU198:AV198"/>
-    <mergeCell ref="AU204:AV204"/>
-    <mergeCell ref="AU160:AV160"/>
-    <mergeCell ref="AU181:AV181"/>
-    <mergeCell ref="AU174:AV174"/>
-    <mergeCell ref="AU163:AV163"/>
-    <mergeCell ref="AU169:AV169"/>
-    <mergeCell ref="AU171:AV171"/>
-    <mergeCell ref="AU168:AV168"/>
-    <mergeCell ref="AU177:AV177"/>
-    <mergeCell ref="AU166:AV166"/>
-    <mergeCell ref="AU172:AV172"/>
-    <mergeCell ref="AU235:AV235"/>
-    <mergeCell ref="AU223:AV223"/>
-    <mergeCell ref="AU238:AV238"/>
-    <mergeCell ref="AU234:AV234"/>
-    <mergeCell ref="AZ93:BA93"/>
-    <mergeCell ref="AZ115:BA115"/>
-    <mergeCell ref="AZ120:BA120"/>
-    <mergeCell ref="AZ126:BA126"/>
-    <mergeCell ref="AZ110:BA110"/>
-    <mergeCell ref="AU225:AV225"/>
-    <mergeCell ref="AU216:AV216"/>
-    <mergeCell ref="AU129:AV129"/>
-    <mergeCell ref="AU182:AV182"/>
-    <mergeCell ref="AU139:AV139"/>
-    <mergeCell ref="AU144:AV144"/>
-    <mergeCell ref="AU148:AV148"/>
-    <mergeCell ref="AU118:AV118"/>
-    <mergeCell ref="AU117:AV117"/>
-    <mergeCell ref="AU195:AV195"/>
-    <mergeCell ref="AU196:AV196"/>
-    <mergeCell ref="AU197:AV197"/>
-    <mergeCell ref="AU189:AV189"/>
-    <mergeCell ref="AZ192:BA192"/>
-    <mergeCell ref="AU208:AV208"/>
-    <mergeCell ref="AU202:AV202"/>
-    <mergeCell ref="AU203:AV203"/>
-    <mergeCell ref="AU207:AV207"/>
-    <mergeCell ref="AZ73:BA73"/>
-    <mergeCell ref="AZ75:BA75"/>
-    <mergeCell ref="AZ80:BA80"/>
-    <mergeCell ref="AZ77:BA77"/>
-    <mergeCell ref="AZ78:BA78"/>
-    <mergeCell ref="AZ81:BA81"/>
-    <mergeCell ref="AZ79:BA79"/>
-    <mergeCell ref="AZ91:BA91"/>
-    <mergeCell ref="AZ74:BA74"/>
-    <mergeCell ref="AZ83:BA83"/>
-    <mergeCell ref="AZ82:BA82"/>
-    <mergeCell ref="AZ88:BA88"/>
-    <mergeCell ref="AZ89:BA89"/>
-    <mergeCell ref="AZ84:BA84"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="AZ86:BA86"/>
-    <mergeCell ref="AZ87:BA87"/>
-    <mergeCell ref="AZ177:BA177"/>
-    <mergeCell ref="AZ175:BA175"/>
-    <mergeCell ref="AZ186:BA186"/>
-    <mergeCell ref="AZ184:BA184"/>
-    <mergeCell ref="AZ60:BA60"/>
-    <mergeCell ref="AZ61:BA61"/>
-    <mergeCell ref="AZ62:BA62"/>
-    <mergeCell ref="AZ70:BA70"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="AZ39:BA39"/>
-    <mergeCell ref="AZ50:BA50"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="AZ58:BA58"/>
-    <mergeCell ref="AZ66:BA66"/>
-    <mergeCell ref="AZ47:BA47"/>
-    <mergeCell ref="AZ56:BA56"/>
-    <mergeCell ref="AZ55:BA55"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="AZ65:BA65"/>
-    <mergeCell ref="AZ63:BA63"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="AZ188:BA188"/>
-    <mergeCell ref="AZ185:BA185"/>
-    <mergeCell ref="AZ197:BA197"/>
-    <mergeCell ref="AZ158:BA158"/>
-    <mergeCell ref="AZ160:BA160"/>
-    <mergeCell ref="AZ194:BA194"/>
-    <mergeCell ref="AZ195:BA195"/>
-    <mergeCell ref="AZ196:BA196"/>
-    <mergeCell ref="AZ171:BA171"/>
-    <mergeCell ref="AZ191:BA191"/>
-    <mergeCell ref="AZ193:BA193"/>
-    <mergeCell ref="AZ182:BA182"/>
-    <mergeCell ref="AZ161:BA161"/>
-    <mergeCell ref="AZ167:BA167"/>
-    <mergeCell ref="AZ169:BA169"/>
-    <mergeCell ref="AZ174:BA174"/>
-    <mergeCell ref="AZ163:BA163"/>
-    <mergeCell ref="AZ164:BA164"/>
-    <mergeCell ref="AZ189:BA189"/>
-    <mergeCell ref="AZ183:BA183"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="AZ187:BA187"/>
-    <mergeCell ref="AZ64:BA64"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="AZ76:BA76"/>
-    <mergeCell ref="AZ68:BA68"/>
-    <mergeCell ref="AZ67:BA67"/>
-    <mergeCell ref="AZ72:BA72"/>
-    <mergeCell ref="AZ170:BA170"/>
-    <mergeCell ref="AZ178:BA178"/>
-    <mergeCell ref="AZ180:BA180"/>
-    <mergeCell ref="AZ165:BA165"/>
-    <mergeCell ref="AZ150:BA150"/>
-    <mergeCell ref="AZ145:BA145"/>
-    <mergeCell ref="AZ156:BA156"/>
-    <mergeCell ref="AZ71:BA71"/>
-    <mergeCell ref="AZ166:BA166"/>
-    <mergeCell ref="AZ176:BA176"/>
-    <mergeCell ref="AZ179:BA179"/>
-    <mergeCell ref="AZ173:BA173"/>
-    <mergeCell ref="AZ168:BA168"/>
-    <mergeCell ref="AZ172:BA172"/>
-    <mergeCell ref="AZ111:BA111"/>
-    <mergeCell ref="AZ112:BA112"/>
-    <mergeCell ref="AZ136:BA136"/>
-    <mergeCell ref="AZ137:BA137"/>
-    <mergeCell ref="AZ198:BA198"/>
-    <mergeCell ref="AZ90:BA90"/>
-    <mergeCell ref="AZ97:BA97"/>
-    <mergeCell ref="AZ162:BA162"/>
-    <mergeCell ref="AZ142:BA142"/>
-    <mergeCell ref="AZ143:BA143"/>
-    <mergeCell ref="AZ138:BA138"/>
-    <mergeCell ref="AZ159:BA159"/>
-    <mergeCell ref="AZ151:BA151"/>
-    <mergeCell ref="AZ140:BA140"/>
-    <mergeCell ref="AZ190:BA190"/>
-    <mergeCell ref="AZ135:BA135"/>
-    <mergeCell ref="AZ149:BA149"/>
-    <mergeCell ref="AZ154:BA154"/>
-    <mergeCell ref="AZ157:BA157"/>
-    <mergeCell ref="AZ139:BA139"/>
-    <mergeCell ref="AZ141:BA141"/>
-    <mergeCell ref="AZ119:BA119"/>
-    <mergeCell ref="AZ123:BA123"/>
-    <mergeCell ref="AZ98:BA98"/>
-    <mergeCell ref="AZ121:BA121"/>
-    <mergeCell ref="AZ106:BA106"/>
-    <mergeCell ref="AZ114:BA114"/>
-    <mergeCell ref="AZ181:BA181"/>
-    <mergeCell ref="AZ134:BA134"/>
-    <mergeCell ref="AZ122:BA122"/>
-    <mergeCell ref="AZ129:BA129"/>
-    <mergeCell ref="AZ155:BA155"/>
-    <mergeCell ref="AZ153:BA153"/>
-    <mergeCell ref="AZ144:BA144"/>
-    <mergeCell ref="AZ147:BA147"/>
-    <mergeCell ref="AZ148:BA148"/>
-    <mergeCell ref="AZ152:BA152"/>
-    <mergeCell ref="AZ146:BA146"/>
-    <mergeCell ref="AZ133:BA133"/>
-    <mergeCell ref="AZ124:BA124"/>
-    <mergeCell ref="AZ127:BA127"/>
-    <mergeCell ref="AZ128:BA128"/>
-    <mergeCell ref="AZ132:BA132"/>
-    <mergeCell ref="AZ130:BA130"/>
-    <mergeCell ref="AZ104:BA104"/>
-    <mergeCell ref="AZ95:BA95"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="AZ131:BA131"/>
-    <mergeCell ref="AZ125:BA125"/>
-    <mergeCell ref="AZ108:BA108"/>
-    <mergeCell ref="AZ107:BA107"/>
-    <mergeCell ref="AZ101:BA101"/>
-    <mergeCell ref="AZ109:BA109"/>
-    <mergeCell ref="AZ118:BA118"/>
-    <mergeCell ref="AZ105:BA105"/>
-    <mergeCell ref="AZ100:BA100"/>
-    <mergeCell ref="AZ96:BA96"/>
-    <mergeCell ref="AZ99:BA99"/>
-    <mergeCell ref="AZ103:BA103"/>
-    <mergeCell ref="AZ113:BA113"/>
-    <mergeCell ref="AZ116:BA116"/>
-    <mergeCell ref="AZ117:BA117"/>
-    <mergeCell ref="AZ92:BA92"/>
-    <mergeCell ref="AZ94:BA94"/>
-    <mergeCell ref="BF34:BG34"/>
-    <mergeCell ref="BF35:BG35"/>
-    <mergeCell ref="BF36:BG36"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="BF32:BG32"/>
-    <mergeCell ref="AZ49:BA49"/>
-    <mergeCell ref="AZ51:BA51"/>
-    <mergeCell ref="AZ57:BA57"/>
-    <mergeCell ref="AZ54:BA54"/>
-    <mergeCell ref="AZ38:BA38"/>
-    <mergeCell ref="AZ43:BA43"/>
-    <mergeCell ref="AZ45:BA45"/>
-    <mergeCell ref="AZ46:BA46"/>
-    <mergeCell ref="AZ40:BA40"/>
-    <mergeCell ref="AZ53:BA53"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="AZ48:BA48"/>
-    <mergeCell ref="AZ52:BA52"/>
-    <mergeCell ref="AZ42:BA42"/>
-    <mergeCell ref="BF28:BG28"/>
-    <mergeCell ref="BF29:BG29"/>
-    <mergeCell ref="BF30:BG30"/>
-    <mergeCell ref="BF31:BG31"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="B2:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H20:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:C254">
@@ -23992,7 +23992,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
@@ -24046,10 +24046,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
       <c r="F2" s="2"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -24074,10 +24074,10 @@
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
       <c r="F3" s="248"/>
       <c r="G3" s="91" t="s">
         <v>32</v>
@@ -24104,10 +24104,10 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="319"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
+      <c r="B4" s="304"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
       <c r="F4" s="249"/>
       <c r="G4" s="50" t="s">
         <v>66</v>
@@ -24134,10 +24134,10 @@
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
       <c r="F5" s="249"/>
       <c r="G5" s="50" t="s">
         <v>63</v>
@@ -24164,24 +24164,24 @@
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="319"/>
-      <c r="C6" s="319"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
       <c r="F6" s="250"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="324"/>
-      <c r="N6" s="324"/>
-      <c r="O6" s="324"/>
-      <c r="P6" s="324"/>
-      <c r="Q6" s="324"/>
-      <c r="R6" s="324"/>
-      <c r="S6" s="325"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
+      <c r="R6" s="319"/>
+      <c r="S6" s="320"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
@@ -24194,10 +24194,10 @@
     </row>
     <row r="7" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
-      <c r="B7" s="319"/>
-      <c r="C7" s="319"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
       <c r="F7" s="251"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -24223,20 +24223,20 @@
     <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="371"/>
-      <c r="H8" s="370"/>
-      <c r="I8" s="370"/>
-      <c r="J8" s="371"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="353"/>
+      <c r="F8" s="353"/>
+      <c r="G8" s="354"/>
+      <c r="H8" s="353"/>
+      <c r="I8" s="353"/>
+      <c r="J8" s="354"/>
       <c r="K8" s="182"/>
       <c r="M8" s="80"/>
-      <c r="N8" s="368"/>
-      <c r="O8" s="369"/>
-      <c r="P8" s="372"/>
-      <c r="Q8" s="368"/>
-      <c r="R8" s="369"/>
+      <c r="N8" s="351"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="355"/>
+      <c r="Q8" s="351"/>
+      <c r="R8" s="352"/>
       <c r="S8" s="269"/>
       <c r="T8" s="97"/>
       <c r="U8" s="98"/>
@@ -24250,10 +24250,10 @@
     </row>
     <row r="9" spans="1:28" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95"/>
-      <c r="B9" s="374" t="s">
+      <c r="B9" s="357" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="375"/>
+      <c r="C9" s="358"/>
       <c r="D9" s="137" t="s">
         <v>8</v>
       </c>
@@ -24269,8 +24269,8 @@
       <c r="J9" s="127"/>
       <c r="K9" s="128"/>
       <c r="M9" s="125"/>
-      <c r="N9" s="366"/>
-      <c r="O9" s="367"/>
+      <c r="N9" s="349"/>
+      <c r="O9" s="350"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="259"/>
       <c r="S9" s="98"/>
@@ -24286,10 +24286,10 @@
     </row>
     <row r="10" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="358"/>
+      <c r="C10" s="368"/>
       <c r="D10" s="135">
         <f>COUNTIF(C$18:C$156,"&gt;""")</f>
         <v>30</v>
@@ -24325,10 +24325,10 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="285" t="s">
+      <c r="B11" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="363"/>
+      <c r="C11" s="373"/>
       <c r="D11" s="133">
         <f>COUNTIF(I$18:I$141,"&gt;""")</f>
         <v>19</v>
@@ -24364,10 +24364,10 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="364" t="s">
+      <c r="B12" s="374" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="365"/>
+      <c r="C12" s="375"/>
       <c r="D12" s="134">
         <f>COUNTIF(O$18:O$157,"&gt;""")</f>
         <v>101</v>
@@ -24386,8 +24386,8 @@
       <c r="J12" s="129"/>
       <c r="K12" s="130"/>
       <c r="M12" s="125"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="362"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="372"/>
       <c r="P12" s="179"/>
       <c r="Q12" s="260"/>
       <c r="S12" s="98"/>
@@ -24410,13 +24410,13 @@
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
       <c r="H13" s="126"/>
-      <c r="I13" s="330"/>
-      <c r="J13" s="331"/>
-      <c r="K13" s="331"/>
-      <c r="L13" s="332"/>
-      <c r="M13" s="332"/>
-      <c r="N13" s="361"/>
-      <c r="O13" s="362"/>
+      <c r="I13" s="279"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="281"/>
+      <c r="M13" s="281"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="372"/>
       <c r="P13" s="179"/>
       <c r="Q13" s="260"/>
       <c r="S13" s="98"/>
@@ -24441,13 +24441,13 @@
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
-      <c r="I14" s="333"/>
-      <c r="J14" s="334"/>
-      <c r="K14" s="334"/>
-      <c r="L14" s="335"/>
-      <c r="M14" s="335"/>
-      <c r="N14" s="359"/>
-      <c r="O14" s="360"/>
+      <c r="I14" s="282"/>
+      <c r="J14" s="283"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="284"/>
+      <c r="N14" s="369"/>
+      <c r="O14" s="370"/>
       <c r="P14" s="179"/>
       <c r="Q14" s="260"/>
       <c r="S14" s="98"/>
@@ -24470,13 +24470,13 @@
       <c r="F15" s="89"/>
       <c r="G15" s="89"/>
       <c r="H15" s="90"/>
-      <c r="I15" s="336"/>
-      <c r="J15" s="337"/>
-      <c r="K15" s="337"/>
-      <c r="L15" s="338"/>
-      <c r="M15" s="338"/>
-      <c r="N15" s="359"/>
-      <c r="O15" s="360"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="286"/>
+      <c r="L15" s="287"/>
+      <c r="M15" s="287"/>
+      <c r="N15" s="369"/>
+      <c r="O15" s="370"/>
       <c r="P15" s="179"/>
       <c r="Q15" s="260"/>
       <c r="S15" s="98"/>
@@ -24492,27 +24492,27 @@
     </row>
     <row r="16" spans="1:28" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="352" t="s">
+      <c r="B16" s="362" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="353"/>
-      <c r="D16" s="353"/>
-      <c r="E16" s="354"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="364"/>
       <c r="F16" s="256"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="355" t="s">
+      <c r="G16" s="331"/>
+      <c r="H16" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="356"/>
-      <c r="J16" s="356"/>
-      <c r="K16" s="357"/>
+      <c r="I16" s="366"/>
+      <c r="J16" s="366"/>
+      <c r="K16" s="367"/>
       <c r="M16" s="72"/>
-      <c r="N16" s="349" t="s">
+      <c r="N16" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="350"/>
-      <c r="P16" s="350"/>
-      <c r="Q16" s="351"/>
+      <c r="O16" s="360"/>
+      <c r="P16" s="360"/>
+      <c r="Q16" s="361"/>
       <c r="S16" s="268"/>
       <c r="T16" s="103"/>
       <c r="U16" s="98"/>
@@ -24539,7 +24539,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="256"/>
-      <c r="G17" s="309"/>
+      <c r="G17" s="331"/>
       <c r="H17" s="117" t="s">
         <v>14</v>
       </c>
@@ -37470,14 +37470,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="G6:S6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="G16:G17"/>
@@ -37490,6 +37482,14 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C18:C156">

--- a/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
+++ b/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="111">
   <si>
     <t>Powers &amp; Roots</t>
   </si>
@@ -611,6 +611,22 @@
   <si>
     <t>"indicates its eastward orientation
  and overall plan"</t>
+  </si>
+  <si>
+    <t>"meaning problem, human beings'
+burning seems ok"</t>
+  </si>
+  <si>
+    <t>"Multiple modifier problem, even if
+think that the sentence is not 
+clause rather a modifier, check
+if sentence makes sense after
+your interpretation</t>
+  </si>
+  <si>
+    <t>use poe
+wherever
+possible</t>
   </si>
 </sst>
 </file>
@@ -23992,8 +24008,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24292,16 +24308,16 @@
       <c r="C10" s="368"/>
       <c r="D10" s="135">
         <f>COUNTIF(C$18:C$156,"&gt;""")</f>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E10" s="136">
         <f>SUM(AT:AT)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F10" s="253"/>
       <c r="G10" s="174">
         <f>IF(D10=0,"",E10/D10)</f>
-        <v>0.66666666666666663</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="H10" s="132"/>
       <c r="I10" s="129"/>
@@ -24331,16 +24347,16 @@
       <c r="C11" s="373"/>
       <c r="D11" s="133">
         <f>COUNTIF(I$18:I$141,"&gt;""")</f>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E11" s="133">
         <f>SUM(AU:AU)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F11" s="254"/>
       <c r="G11" s="175">
         <f>IF(D11=0,"",E11/D11)</f>
-        <v>0.73684210526315785</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H11" s="132"/>
       <c r="I11" s="129"/>
@@ -24370,16 +24386,16 @@
       <c r="C12" s="375"/>
       <c r="D12" s="134">
         <f>COUNTIF(O$18:O$157,"&gt;""")</f>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E12" s="37">
         <f>SUM(AV:AV)</f>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F12" s="255"/>
       <c r="G12" s="176">
         <f>IF(D12=0,"",E12/D12)</f>
-        <v>0.82178217821782173</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="129"/>
@@ -24590,10 +24606,12 @@
       <c r="B18" s="106">
         <v>1</v>
       </c>
-      <c r="C18" s="201"/>
+      <c r="C18" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="D18" s="46" t="str">
         <f>IF(AND(C18&gt;="A",C18&lt;="E"),VLOOKUP(B18,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E18" s="202"/>
       <c r="F18" s="2"/>
@@ -24629,7 +24647,7 @@
       <c r="AB18" s="63"/>
       <c r="AT18">
         <f t="shared" ref="AT18:AT49" si="0">IF(AND(C18&gt;"",C18=D18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <f t="shared" ref="AU18:AU49" si="1">IF(AND(I18&gt;"",I18=J18),1,0)</f>
@@ -24646,10 +24664,12 @@
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="C19" s="201"/>
+      <c r="C19" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="D19" s="16" t="str">
         <f>IF(AND(C19&gt;="A",C19&lt;="E"),VLOOKUP(B19,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E19" s="203"/>
       <c r="F19" s="2"/>
@@ -24687,7 +24707,7 @@
       <c r="AB19" s="63"/>
       <c r="AT19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <f t="shared" si="1"/>
@@ -24704,10 +24724,12 @@
         <f t="shared" ref="B20:B83" si="3">B19+1</f>
         <v>3</v>
       </c>
-      <c r="C20" s="201"/>
+      <c r="C20" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="D20" s="16" t="str">
         <f>IF(AND(C20&gt;="A",C20&lt;="E"),VLOOKUP(B20,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="E20" s="203"/>
       <c r="F20" s="2"/>
@@ -24747,7 +24769,7 @@
       <c r="AB20" s="63"/>
       <c r="AT20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <f t="shared" si="1"/>
@@ -24764,10 +24786,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C21" s="201"/>
+      <c r="C21" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="D21" s="16" t="str">
         <f>IF(AND(C21&gt;="A",C21&lt;="E"),VLOOKUP(B21,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E21" s="203"/>
       <c r="F21" s="2"/>
@@ -24787,10 +24811,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="O21" s="201"/>
+      <c r="O21" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P21" s="16" t="str">
         <f>IF(AND(O21&gt;="A",O21&lt;="E"),VLOOKUP(N21,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q21" s="263"/>
       <c r="S21" s="72"/>
@@ -24805,7 +24831,7 @@
       <c r="AB21" s="63"/>
       <c r="AT21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <f t="shared" si="1"/>
@@ -24813,7 +24839,7 @@
       </c>
       <c r="AV21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -24822,10 +24848,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C22" s="201"/>
+      <c r="C22" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="D22" s="16" t="str">
         <f>IF(AND(C22&gt;="A",C22&lt;="E"),VLOOKUP(B22,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E22" s="203"/>
       <c r="F22" s="2"/>
@@ -24865,7 +24893,7 @@
       <c r="AB22" s="63"/>
       <c r="AT22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <f t="shared" si="1"/>
@@ -24882,10 +24910,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C23" s="201"/>
+      <c r="C23" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="16" t="str">
         <f>IF(AND(C23&gt;="A",C23&lt;="E"),VLOOKUP(B23,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="E23" s="203"/>
       <c r="F23" s="2"/>
@@ -24923,7 +24953,7 @@
       <c r="AB23" s="63"/>
       <c r="AT23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <f t="shared" si="1"/>
@@ -24940,10 +24970,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C24" s="201"/>
+      <c r="C24" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="D24" s="16" t="str">
         <f>IF(AND(C24&gt;="A",C24&lt;="E"),VLOOKUP(B24,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E24" s="203"/>
       <c r="F24" s="2"/>
@@ -24983,7 +25015,7 @@
       <c r="AB24" s="63"/>
       <c r="AT24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <f t="shared" si="1"/>
@@ -25000,10 +25032,12 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C25" s="201"/>
+      <c r="C25" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="16" t="str">
         <f>IF(AND(C25&gt;="A",C25&lt;="E"),VLOOKUP(B25,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="E25" s="203"/>
       <c r="F25" s="2"/>
@@ -25043,7 +25077,7 @@
       <c r="AB25" s="63"/>
       <c r="AT25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <f t="shared" si="1"/>
@@ -25060,10 +25094,12 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C26" s="201"/>
+      <c r="C26" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="D26" s="16" t="str">
         <f>IF(AND(C26&gt;="A",C26&lt;="E"),VLOOKUP(B26,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="E26" s="203"/>
       <c r="F26" s="2"/>
@@ -25083,10 +25119,12 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="O26" s="201"/>
+      <c r="O26" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P26" s="16" t="str">
         <f>IF(AND(O26&gt;="A",O26&lt;="E"),VLOOKUP(N26,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q26" s="263"/>
       <c r="S26" s="272"/>
@@ -25101,7 +25139,7 @@
       <c r="AB26" s="63"/>
       <c r="AT26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <f t="shared" si="1"/>
@@ -25109,7 +25147,7 @@
       </c>
       <c r="AV26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25118,10 +25156,12 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C27" s="201"/>
+      <c r="C27" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="D27" s="16" t="str">
         <f>IF(AND(C27&gt;="A",C27&lt;="E"),VLOOKUP(B27,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E27" s="203"/>
       <c r="F27" s="2"/>
@@ -25166,7 +25206,7 @@
       <c r="AB27" s="63"/>
       <c r="AT27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <f t="shared" si="1"/>
@@ -25183,10 +25223,12 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C28" s="201"/>
+      <c r="C28" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="16" t="str">
         <f>IF(AND(C28&gt;="A",C28&lt;="E"),VLOOKUP(B28,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="E28" s="203"/>
       <c r="F28" s="2"/>
@@ -25226,7 +25268,7 @@
       <c r="AB28" s="63"/>
       <c r="AT28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <f t="shared" si="1"/>
@@ -25243,10 +25285,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="16" t="str">
         <f>IF(AND(C29&gt;="A",C29&lt;="E"),VLOOKUP(B29,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E29" s="203"/>
       <c r="F29" s="2"/>
@@ -25286,7 +25330,7 @@
       <c r="AB29" s="63"/>
       <c r="AT29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <f t="shared" si="1"/>
@@ -25303,10 +25347,12 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C30" s="201"/>
+      <c r="C30" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="D30" s="16" t="str">
         <f>IF(AND(C30&gt;="A",C30&lt;="E"),VLOOKUP(B30,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E30" s="203"/>
       <c r="F30" s="2"/>
@@ -25344,7 +25390,7 @@
       <c r="AB30" s="63"/>
       <c r="AT30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <f t="shared" si="1"/>
@@ -25361,10 +25407,12 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="C31" s="201"/>
+      <c r="C31" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="D31" s="16" t="str">
         <f>IF(AND(C31&gt;="A",C31&lt;="E"),VLOOKUP(B31,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="E31" s="203"/>
       <c r="F31" s="2"/>
@@ -25404,7 +25452,7 @@
       <c r="AB31" s="63"/>
       <c r="AT31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <f t="shared" si="1"/>
@@ -25421,10 +25469,12 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C32" s="201"/>
+      <c r="C32" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="D32" s="16" t="str">
         <f>IF(AND(C32&gt;="A",C32&lt;="E"),VLOOKUP(B32,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="E32" s="203"/>
       <c r="F32" s="2"/>
@@ -25464,7 +25514,7 @@
       <c r="AB32" s="63"/>
       <c r="AT32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <f t="shared" si="1"/>
@@ -25481,10 +25531,12 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C33" s="201"/>
+      <c r="C33" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="D33" s="16" t="str">
         <f>IF(AND(C33&gt;="A",C33&lt;="E"),VLOOKUP(B33,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E33" s="203"/>
       <c r="F33" s="2"/>
@@ -25541,10 +25593,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="C34" s="201"/>
+      <c r="C34" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="D34" s="16" t="str">
         <f>IF(AND(C34&gt;="A",C34&lt;="E"),VLOOKUP(B34,Answer_Keys!$G:$H,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E34" s="203"/>
       <c r="F34" s="2"/>
@@ -25584,7 +25638,7 @@
       <c r="AB34" s="63"/>
       <c r="AT34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <f t="shared" si="1"/>
@@ -25624,10 +25678,12 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="O35" s="201"/>
+      <c r="O35" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P35" s="16" t="str">
         <f>IF(AND(O35&gt;="A",O35&lt;="E"),VLOOKUP(N35,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q35" s="263"/>
       <c r="S35" s="72"/>
@@ -25650,7 +25706,7 @@
       </c>
       <c r="AV35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26165,10 +26221,12 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="O44" s="201"/>
+      <c r="O44" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P44" s="17" t="str">
         <f>IF(AND(O44&gt;="A",O44&lt;="E"),VLOOKUP(N44,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q44" s="263"/>
       <c r="S44" s="72"/>
@@ -26191,7 +26249,7 @@
       </c>
       <c r="AV44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27738,10 +27796,12 @@
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="O70" s="201"/>
+      <c r="O70" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P70" s="17" t="str">
         <f>IF(AND(O70&gt;="A",O70&lt;="E"),VLOOKUP(N70,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q70" s="263"/>
       <c r="S70" s="72"/>
@@ -27764,7 +27824,7 @@
       </c>
       <c r="AV70">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28216,10 +28276,12 @@
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="O78" s="201"/>
+      <c r="O78" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P78" s="17" t="str">
         <f>IF(AND(O78&gt;="A",O78&lt;="E"),VLOOKUP(N78,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q78" s="263"/>
       <c r="S78" s="72"/>
@@ -28242,7 +28304,7 @@
       </c>
       <c r="AV78">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28692,10 +28754,12 @@
         <f t="shared" si="13"/>
         <v>69</v>
       </c>
-      <c r="O86" s="201"/>
+      <c r="O86" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P86" s="17" t="str">
         <f>IF(AND(O86&gt;="A",O86&lt;="E"),VLOOKUP(N86,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q86" s="263"/>
       <c r="S86" s="72"/>
@@ -28718,7 +28782,7 @@
       </c>
       <c r="AV86">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -30089,10 +30153,12 @@
         <f t="shared" si="12"/>
         <v>92</v>
       </c>
-      <c r="I109" s="201"/>
+      <c r="I109" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J109" s="17" t="str">
         <f>IF(AND(I109&gt;="A",I109&lt;="E"),VLOOKUP(H109,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K109" s="203"/>
       <c r="M109" s="62"/>
@@ -30122,7 +30188,7 @@
       </c>
       <c r="AU109">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV109">
         <f t="shared" si="10"/>
@@ -30151,10 +30217,12 @@
         <f t="shared" si="12"/>
         <v>93</v>
       </c>
-      <c r="I110" s="201"/>
+      <c r="I110" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J110" s="17" t="str">
         <f>IF(AND(I110&gt;="A",I110&lt;="E"),VLOOKUP(H110,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K110" s="203"/>
       <c r="M110" s="62"/>
@@ -30186,14 +30254,14 @@
       </c>
       <c r="AU110">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV110">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="53"/>
       <c r="B111" s="108">
         <f t="shared" si="11"/>
@@ -30213,12 +30281,17 @@
         <f t="shared" si="12"/>
         <v>94</v>
       </c>
-      <c r="I111" s="201"/>
+      <c r="I111" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J111" s="17" t="str">
         <f>IF(AND(I111&gt;="A",I111&lt;="E"),VLOOKUP(H111,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="K111" s="203"/>
+      <c r="L111" s="276" t="s">
+        <v>110</v>
+      </c>
       <c r="M111" s="62"/>
       <c r="N111" s="10">
         <f t="shared" si="13"/>
@@ -30275,10 +30348,12 @@
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
-      <c r="I112" s="201"/>
+      <c r="I112" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J112" s="17" t="str">
         <f>IF(AND(I112&gt;="A",I112&lt;="E"),VLOOKUP(H112,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K112" s="203"/>
       <c r="M112" s="62"/>
@@ -30310,7 +30385,7 @@
       </c>
       <c r="AU112">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV112">
         <f t="shared" si="10"/>
@@ -30339,10 +30414,12 @@
         <f t="shared" si="12"/>
         <v>96</v>
       </c>
-      <c r="I113" s="201"/>
+      <c r="I113" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J113" s="17" t="str">
         <f>IF(AND(I113&gt;="A",I113&lt;="E"),VLOOKUP(H113,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K113" s="203"/>
       <c r="M113" s="62"/>
@@ -30374,7 +30451,7 @@
       </c>
       <c r="AU113">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV113">
         <f t="shared" si="10"/>
@@ -30403,10 +30480,12 @@
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
-      <c r="I114" s="201"/>
+      <c r="I114" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J114" s="17" t="str">
         <f>IF(AND(I114&gt;="A",I114&lt;="E"),VLOOKUP(H114,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K114" s="203"/>
       <c r="M114" s="62"/>
@@ -30414,10 +30493,12 @@
         <f t="shared" si="13"/>
         <v>97</v>
       </c>
-      <c r="O114" s="201"/>
+      <c r="O114" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P114" s="17" t="str">
         <f>IF(AND(O114&gt;="A",O114&lt;="E"),VLOOKUP(N114,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q114" s="263"/>
       <c r="S114" s="72"/>
@@ -30436,11 +30517,11 @@
       </c>
       <c r="AU114">
         <f t="shared" ref="AU114:AU141" si="15">IF(AND(I114&gt;"",I114=J114),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV114">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -30465,10 +30546,12 @@
         <f t="shared" si="12"/>
         <v>98</v>
       </c>
-      <c r="I115" s="201"/>
+      <c r="I115" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J115" s="17" t="str">
         <f>IF(AND(I115&gt;="A",I115&lt;="E"),VLOOKUP(H115,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K115" s="203"/>
       <c r="M115" s="62"/>
@@ -30505,7 +30588,7 @@
       </c>
       <c r="AU115">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV115">
         <f t="shared" si="10"/>
@@ -30532,10 +30615,12 @@
         <f t="shared" si="12"/>
         <v>99</v>
       </c>
-      <c r="I116" s="201"/>
+      <c r="I116" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="J116" s="17" t="str">
         <f>IF(AND(I116&gt;="A",I116&lt;="E"),VLOOKUP(H116,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="K116" s="203"/>
       <c r="M116" s="62"/>
@@ -30543,10 +30628,12 @@
         <f t="shared" si="13"/>
         <v>99</v>
       </c>
-      <c r="O116" s="201"/>
+      <c r="O116" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P116" s="17" t="str">
         <f>IF(AND(O116&gt;="A",O116&lt;="E"),VLOOKUP(N116,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q116" s="263"/>
       <c r="S116" s="72"/>
@@ -30565,11 +30652,11 @@
       </c>
       <c r="AU116">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV116">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -30592,10 +30679,12 @@
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="I117" s="201"/>
+      <c r="I117" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="J117" s="17" t="str">
         <f>IF(AND(I117&gt;="A",I117&lt;="E"),VLOOKUP(H117,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K117" s="203"/>
       <c r="M117" s="62"/>
@@ -30627,7 +30716,7 @@
       </c>
       <c r="AU117">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV117">
         <f t="shared" si="10"/>
@@ -30654,10 +30743,12 @@
         <f t="shared" si="12"/>
         <v>101</v>
       </c>
-      <c r="I118" s="201"/>
+      <c r="I118" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J118" s="17" t="str">
         <f>IF(AND(I118&gt;="A",I118&lt;="E"),VLOOKUP(H118,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K118" s="203"/>
       <c r="M118" s="62"/>
@@ -30687,7 +30778,7 @@
       </c>
       <c r="AU118">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV118">
         <f t="shared" si="10"/>
@@ -30714,10 +30805,12 @@
         <f t="shared" si="12"/>
         <v>102</v>
       </c>
-      <c r="I119" s="201"/>
+      <c r="I119" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J119" s="17" t="str">
         <f>IF(AND(I119&gt;="A",I119&lt;="E"),VLOOKUP(H119,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="K119" s="203"/>
       <c r="M119" s="62"/>
@@ -30776,10 +30869,12 @@
         <f t="shared" si="12"/>
         <v>103</v>
       </c>
-      <c r="I120" s="201"/>
+      <c r="I120" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J120" s="17" t="str">
         <f>IF(AND(I120&gt;="A",I120&lt;="E"),VLOOKUP(H120,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K120" s="203"/>
       <c r="M120" s="62"/>
@@ -30811,7 +30906,7 @@
       </c>
       <c r="AU120">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV120">
         <f t="shared" si="10"/>
@@ -30838,10 +30933,12 @@
         <f t="shared" si="12"/>
         <v>104</v>
       </c>
-      <c r="I121" s="201"/>
+      <c r="I121" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="J121" s="17" t="str">
         <f>IF(AND(I121&gt;="A",I121&lt;="E"),VLOOKUP(H121,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K121" s="203"/>
       <c r="M121" s="62"/>
@@ -30873,7 +30970,7 @@
       </c>
       <c r="AU121">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV121">
         <f t="shared" si="10"/>
@@ -30900,10 +30997,12 @@
         <f t="shared" si="12"/>
         <v>105</v>
       </c>
-      <c r="I122" s="201"/>
+      <c r="I122" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="J122" s="17" t="str">
         <f>IF(AND(I122&gt;="A",I122&lt;="E"),VLOOKUP(H122,Answer_Keys!$J:$K,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="K122" s="203"/>
       <c r="M122" s="62"/>
@@ -31768,10 +31867,12 @@
         <f t="shared" si="13"/>
         <v>118</v>
       </c>
-      <c r="O135" s="201"/>
+      <c r="O135" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P135" s="17" t="str">
         <f>IF(AND(O135&gt;="A",O135&lt;="E"),VLOOKUP(N135,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q135" s="263"/>
       <c r="S135" s="72"/>
@@ -31794,10 +31895,10 @@
       </c>
       <c r="AV135">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="53"/>
       <c r="B136" s="108">
         <f t="shared" si="11"/>
@@ -31828,12 +31929,19 @@
         <f t="shared" si="13"/>
         <v>119</v>
       </c>
-      <c r="O136" s="201"/>
+      <c r="O136" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P136" s="17" t="str">
         <f>IF(AND(O136&gt;="A",O136&lt;="E"),VLOOKUP(N136,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q136" s="263"/>
+        <v>C</v>
+      </c>
+      <c r="Q136" s="263" t="s">
+        <v>57</v>
+      </c>
+      <c r="R136" s="276" t="s">
+        <v>108</v>
+      </c>
       <c r="S136" s="72"/>
       <c r="T136" s="63"/>
       <c r="U136" s="48"/>
@@ -31984,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:48" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="53"/>
       <c r="B139" s="108">
         <f t="shared" si="11"/>
@@ -32015,12 +32123,19 @@
         <f t="shared" si="13"/>
         <v>122</v>
       </c>
-      <c r="O139" s="201"/>
+      <c r="O139" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P139" s="17" t="str">
         <f>IF(AND(O139&gt;="A",O139&lt;="E"),VLOOKUP(N139,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q139" s="263"/>
+        <v>A</v>
+      </c>
+      <c r="Q139" s="263" t="s">
+        <v>57</v>
+      </c>
+      <c r="R139" s="276" t="s">
+        <v>109</v>
+      </c>
       <c r="S139" s="72"/>
       <c r="T139" s="63"/>
       <c r="U139" s="48"/>
@@ -32135,10 +32250,12 @@
         <f t="shared" si="13"/>
         <v>124</v>
       </c>
-      <c r="O141" s="201"/>
+      <c r="O141" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P141" s="17" t="str">
         <f>IF(AND(O141&gt;="A",O141&lt;="E"),VLOOKUP(N141,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q141" s="263"/>
       <c r="S141" s="72"/>
@@ -32161,7 +32278,7 @@
       </c>
       <c r="AV141">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32237,10 +32354,12 @@
         <f t="shared" si="13"/>
         <v>126</v>
       </c>
-      <c r="O143" s="201"/>
+      <c r="O143" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P143" s="17" t="str">
         <f>IF(AND(O143&gt;="A",O143&lt;="E"),VLOOKUP(N143,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q143" s="263"/>
       <c r="S143" s="72"/>
@@ -32259,7 +32378,7 @@
       </c>
       <c r="AV143">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32335,10 +32454,12 @@
         <f t="shared" si="13"/>
         <v>128</v>
       </c>
-      <c r="O145" s="201"/>
+      <c r="O145" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P145" s="17" t="str">
         <f>IF(AND(O145&gt;="A",O145&lt;="E"),VLOOKUP(N145,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q145" s="263"/>
       <c r="S145" s="72"/>
@@ -32357,7 +32478,7 @@
       </c>
       <c r="AV145">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32383,10 +32504,12 @@
         <f t="shared" si="13"/>
         <v>129</v>
       </c>
-      <c r="O146" s="201"/>
+      <c r="O146" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P146" s="17" t="str">
         <f>IF(AND(O146&gt;="A",O146&lt;="E"),VLOOKUP(N146,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q146" s="263"/>
       <c r="S146" s="72"/>
@@ -32405,7 +32528,7 @@
       </c>
       <c r="AV146">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:48" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32634,10 +32757,12 @@
         <f t="shared" si="19"/>
         <v>134</v>
       </c>
-      <c r="O151" s="201"/>
+      <c r="O151" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P151" s="17" t="str">
         <f>IF(AND(O151&gt;="A",O151&lt;="E"),VLOOKUP(N151,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q151" s="263"/>
       <c r="S151" s="72"/>
@@ -32656,7 +32781,7 @@
       </c>
       <c r="AV151">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32885,10 +33010,12 @@
         <f t="shared" si="19"/>
         <v>139</v>
       </c>
-      <c r="O156" s="201"/>
+      <c r="O156" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P156" s="17" t="str">
         <f>IF(AND(O156&gt;="A",O156&lt;="E"),VLOOKUP(N156,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q156" s="263"/>
       <c r="S156" s="72"/>
@@ -32907,7 +33034,7 @@
       </c>
       <c r="AV156">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -32927,10 +33054,12 @@
         <f t="shared" si="19"/>
         <v>140</v>
       </c>
-      <c r="O157" s="231"/>
+      <c r="O157" s="231" t="s">
+        <v>72</v>
+      </c>
       <c r="P157" s="18" t="str">
         <f>IF(AND(O157&gt;="A",O157&lt;="E"),VLOOKUP(N157,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q157" s="264"/>
       <c r="S157" s="72"/>
@@ -32945,7 +33074,7 @@
       <c r="AB157" s="63"/>
       <c r="AV157">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:48" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
+++ b/gmat/verbal/GMAT-Improvement-Chart-for-OG2016-BTG.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpruthi\Documents\algorithms\gmat\verbal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Verbal Grids" sheetId="2" r:id="rId2"/>
     <sheet name="Answer_Keys" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="113">
   <si>
     <t>Powers &amp; Roots</t>
   </si>
@@ -627,6 +622,13 @@
     <t>use poe
 wherever
 possible</t>
+  </si>
+  <si>
+    <t>"as X as" is a correct idiom", 
+meaning issues as well</t>
+  </si>
+  <si>
+    <t>"which is" ambiguous</t>
   </si>
 </sst>
 </file>
@@ -3592,6 +3594,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3619,9 +3774,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3639,187 +3791,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3871,6 +3843,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4346,7 +4348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4381,7 +4383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4652,10 +4654,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="81"/>
@@ -4679,10 +4681,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
       <c r="F3" s="91" t="s">
         <v>62</v>
       </c>
@@ -4708,10 +4710,10 @@
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
       <c r="F4" s="50" t="s">
         <v>64</v>
       </c>
@@ -4737,10 +4739,10 @@
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
       <c r="F5" s="50" t="s">
         <v>63</v>
       </c>
@@ -4766,25 +4768,25 @@
     </row>
     <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="318" t="s">
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="323" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="320"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="325"/>
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
@@ -4795,10 +4797,10 @@
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
       <c r="F7" s="221" t="s">
         <v>61</v>
       </c>
@@ -4824,10 +4826,10 @@
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
       <c r="F8" s="58"/>
       <c r="G8" s="55"/>
       <c r="H8" s="144"/>
@@ -4852,28 +4854,28 @@
     <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="313" t="s">
+      <c r="D9" s="320" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="314"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="313" t="s">
+      <c r="E9" s="321"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="322"/>
       <c r="J9" s="59"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="321" t="s">
+      <c r="L9" s="326" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="322"/>
-      <c r="N9" s="328" t="s">
+      <c r="M9" s="327"/>
+      <c r="N9" s="306" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="329"/>
-      <c r="P9" s="329"/>
-      <c r="Q9" s="330"/>
+      <c r="O9" s="307"/>
+      <c r="P9" s="307"/>
+      <c r="Q9" s="308"/>
       <c r="R9" s="72"/>
       <c r="S9" s="48"/>
       <c r="T9" s="48"/>
@@ -4885,10 +4887,10 @@
     </row>
     <row r="10" spans="1:25" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95"/>
-      <c r="B10" s="336" t="s">
+      <c r="B10" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="337"/>
+      <c r="C10" s="318"/>
       <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
@@ -4911,8 +4913,8 @@
         <v>11</v>
       </c>
       <c r="K10" s="85"/>
-      <c r="L10" s="332"/>
-      <c r="M10" s="333"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="312"/>
       <c r="N10" s="92" t="s">
         <v>60</v>
       </c>
@@ -4936,10 +4938,10 @@
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="298" t="s">
+      <c r="B11" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="299"/>
+      <c r="C11" s="280"/>
       <c r="D11" s="24">
         <f t="shared" ref="D11:D19" si="0">SUMIF($AU:$AU,$B11,$AT:$AT)</f>
         <v>0</v>
@@ -4969,13 +4971,13 @@
         <v/>
       </c>
       <c r="K11" s="60"/>
-      <c r="L11" s="292" t="s">
+      <c r="L11" s="342" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="293"/>
+      <c r="M11" s="343"/>
+      <c r="N11" s="343"/>
+      <c r="O11" s="343"/>
+      <c r="P11" s="343"/>
       <c r="Q11" s="208"/>
       <c r="R11" s="63"/>
       <c r="S11" s="48"/>
@@ -4988,10 +4990,10 @@
     </row>
     <row r="12" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="301"/>
+      <c r="B12" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="348"/>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5021,10 +5023,10 @@
         <v/>
       </c>
       <c r="K12" s="60"/>
-      <c r="L12" s="311" t="s">
+      <c r="L12" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="312"/>
+      <c r="M12" s="314"/>
       <c r="N12" s="207"/>
       <c r="O12" s="207"/>
       <c r="P12" s="207"/>
@@ -5040,10 +5042,10 @@
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="303"/>
+      <c r="C13" s="301"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5073,10 +5075,10 @@
         <v/>
       </c>
       <c r="K13" s="60"/>
-      <c r="L13" s="311" t="s">
+      <c r="L13" s="313" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="312"/>
+      <c r="M13" s="314"/>
       <c r="N13" s="209"/>
       <c r="O13" s="209"/>
       <c r="P13" s="209"/>
@@ -5092,10 +5094,10 @@
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="316" t="s">
+      <c r="B14" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="317"/>
+      <c r="C14" s="282"/>
       <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5125,13 +5127,13 @@
         <v/>
       </c>
       <c r="K14" s="60"/>
-      <c r="L14" s="294" t="s">
+      <c r="L14" s="344" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="295"/>
-      <c r="P14" s="295"/>
+      <c r="M14" s="345"/>
+      <c r="N14" s="345"/>
+      <c r="O14" s="345"/>
+      <c r="P14" s="345"/>
       <c r="Q14" s="208"/>
       <c r="R14" s="63"/>
       <c r="S14" s="48"/>
@@ -5144,10 +5146,10 @@
     </row>
     <row r="15" spans="1:25" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="305" t="s">
+      <c r="B15" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="306"/>
+      <c r="C15" s="284"/>
       <c r="D15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5177,10 +5179,10 @@
         <v/>
       </c>
       <c r="K15" s="60"/>
-      <c r="L15" s="311" t="s">
+      <c r="L15" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="312"/>
+      <c r="M15" s="314"/>
       <c r="N15" s="207"/>
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
@@ -5196,10 +5198,10 @@
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="307" t="s">
+      <c r="B16" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="308"/>
+      <c r="C16" s="300"/>
       <c r="D16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5229,10 +5231,10 @@
         <v/>
       </c>
       <c r="K16" s="60"/>
-      <c r="L16" s="323" t="s">
+      <c r="L16" s="328" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="324"/>
+      <c r="M16" s="329"/>
       <c r="N16" s="205"/>
       <c r="O16" s="205"/>
       <c r="P16" s="205"/>
@@ -5248,10 +5250,10 @@
     </row>
     <row r="17" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="309" t="s">
+      <c r="B17" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="310"/>
+      <c r="C17" s="287"/>
       <c r="D17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5281,11 +5283,11 @@
         <v/>
       </c>
       <c r="K17" s="85"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="290"/>
-      <c r="N17" s="290"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="291"/>
+      <c r="L17" s="339"/>
+      <c r="M17" s="340"/>
+      <c r="N17" s="340"/>
+      <c r="O17" s="340"/>
+      <c r="P17" s="341"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="63"/>
       <c r="S17" s="48"/>
@@ -5298,10 +5300,10 @@
     </row>
     <row r="18" spans="1:59" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
-      <c r="B18" s="338" t="s">
+      <c r="B18" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="339"/>
+      <c r="C18" s="294"/>
       <c r="D18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5331,8 +5333,8 @@
         <v/>
       </c>
       <c r="K18" s="85"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
+      <c r="L18" s="310"/>
+      <c r="M18" s="310"/>
       <c r="N18" s="214"/>
       <c r="O18" s="214"/>
       <c r="P18" s="215"/>
@@ -5348,10 +5350,10 @@
     </row>
     <row r="19" spans="1:59" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="315" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="335"/>
+      <c r="C19" s="316"/>
       <c r="D19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5381,8 +5383,8 @@
         <v/>
       </c>
       <c r="K19" s="85"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
+      <c r="L19" s="310"/>
+      <c r="M19" s="310"/>
       <c r="N19" s="216"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
@@ -5404,15 +5406,15 @@
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="281"/>
-      <c r="L20" s="296"/>
-      <c r="M20" s="297"/>
-      <c r="N20" s="297"/>
-      <c r="O20" s="297"/>
-      <c r="P20" s="297"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="331"/>
+      <c r="J20" s="331"/>
+      <c r="K20" s="332"/>
+      <c r="L20" s="346"/>
+      <c r="M20" s="347"/>
+      <c r="N20" s="347"/>
+      <c r="O20" s="347"/>
+      <c r="P20" s="347"/>
       <c r="Q20" s="125"/>
       <c r="R20" s="63"/>
       <c r="S20" s="48"/>
@@ -5433,12 +5435,12 @@
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="88"/>
-      <c r="H21" s="282"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="283"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="288"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="334"/>
+      <c r="J21" s="334"/>
+      <c r="K21" s="335"/>
+      <c r="L21" s="310"/>
+      <c r="M21" s="310"/>
       <c r="N21" s="214"/>
       <c r="O21" s="214"/>
       <c r="P21" s="215"/>
@@ -5460,12 +5462,12 @@
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
       <c r="G22" s="90"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="286"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
+      <c r="H22" s="336"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
+      <c r="K22" s="338"/>
+      <c r="L22" s="310"/>
+      <c r="M22" s="310"/>
       <c r="N22" s="214"/>
       <c r="O22" s="214"/>
       <c r="P22" s="215"/>
@@ -5481,19 +5483,19 @@
     </row>
     <row r="23" spans="1:59" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
-      <c r="B23" s="325" t="s">
+      <c r="B23" s="303" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="326"/>
-      <c r="D23" s="326"/>
-      <c r="E23" s="327"/>
-      <c r="F23" s="331"/>
-      <c r="G23" s="325" t="s">
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="326"/>
-      <c r="I23" s="326"/>
-      <c r="J23" s="327"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="305"/>
       <c r="K23" s="72"/>
       <c r="L23" s="218"/>
       <c r="M23" s="219"/>
@@ -5530,7 +5532,7 @@
       <c r="E24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="331"/>
+      <c r="F24" s="309"/>
       <c r="G24" s="43" t="s">
         <v>14</v>
       </c>
@@ -5621,10 +5623,10 @@
         <f>IF(C25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU25" s="298" t="s">
+      <c r="AU25" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV25" s="299"/>
+      <c r="AV25" s="280"/>
       <c r="AW25">
         <v>1</v>
       </c>
@@ -5636,10 +5638,10 @@
         <f>IF(H25&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="298" t="s">
+      <c r="AZ25" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA25" s="343"/>
+      <c r="BA25" s="289"/>
       <c r="BB25" s="243">
         <v>1</v>
       </c>
@@ -5693,10 +5695,10 @@
         <f t="shared" ref="AT26:AT89" si="8">IF(C26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="298" t="s">
+      <c r="AU26" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV26" s="299"/>
+      <c r="AV26" s="280"/>
       <c r="AW26">
         <f>AW25+1</f>
         <v>2</v>
@@ -5709,10 +5711,10 @@
         <f t="shared" ref="AY26:AY89" si="10">IF(H26&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ26" s="305" t="s">
+      <c r="AZ26" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA26" s="344"/>
+      <c r="BA26" s="288"/>
       <c r="BB26" s="244">
         <f>BB25+1</f>
         <v>2</v>
@@ -5768,10 +5770,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="305" t="s">
+      <c r="AU27" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV27" s="306"/>
+      <c r="AV27" s="284"/>
       <c r="AW27">
         <f t="shared" ref="AW27:AW90" si="13">AW26+1</f>
         <v>3</v>
@@ -5784,10 +5786,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ27" s="307" t="s">
+      <c r="AZ27" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA27" s="344"/>
+      <c r="BA27" s="288"/>
       <c r="BB27" s="244">
         <f t="shared" ref="BB27:BC90" si="14">BB26+1</f>
         <v>3</v>
@@ -5846,10 +5848,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU28" s="305" t="s">
+      <c r="AU28" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV28" s="306"/>
+      <c r="AV28" s="284"/>
       <c r="AW28">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -5862,10 +5864,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ28" s="305" t="s">
+      <c r="AZ28" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA28" s="344"/>
+      <c r="BA28" s="288"/>
       <c r="BB28" s="244">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -5874,10 +5876,10 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="BF28" s="298" t="s">
+      <c r="BF28" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BG28" s="299"/>
+      <c r="BG28" s="280"/>
     </row>
     <row r="29" spans="1:59" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
@@ -5925,10 +5927,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU29" s="302" t="s">
+      <c r="AU29" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV29" s="306"/>
+      <c r="AV29" s="284"/>
       <c r="AW29">
         <f>AW28+1</f>
         <v>5</v>
@@ -5941,10 +5943,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ29" s="298" t="s">
+      <c r="AZ29" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA29" s="343"/>
+      <c r="BA29" s="289"/>
       <c r="BB29" s="244">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -5953,10 +5955,10 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="BF29" s="316" t="s">
+      <c r="BF29" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BG29" s="317"/>
+      <c r="BG29" s="282"/>
     </row>
     <row r="30" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
@@ -6020,10 +6022,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ30" s="302" t="s">
+      <c r="AZ30" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA30" s="344"/>
+      <c r="BA30" s="288"/>
       <c r="BB30" s="244">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -6032,10 +6034,10 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="BF30" s="307" t="s">
+      <c r="BF30" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BG30" s="306"/>
+      <c r="BG30" s="284"/>
     </row>
     <row r="31" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
@@ -6083,10 +6085,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU31" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="306"/>
+      <c r="AU31" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="284"/>
       <c r="AW31">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -6099,10 +6101,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ31" s="340" t="s">
+      <c r="AZ31" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BA31" s="346"/>
+      <c r="BA31" s="299"/>
       <c r="BB31" s="244">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -6111,10 +6113,10 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="BF31" s="305" t="s">
+      <c r="BF31" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BG31" s="306"/>
+      <c r="BG31" s="284"/>
     </row>
     <row r="32" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
@@ -6162,10 +6164,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU32" s="340" t="s">
+      <c r="AU32" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV32" s="341"/>
+      <c r="AV32" s="291"/>
       <c r="AW32">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -6178,10 +6180,10 @@
         <f>IF(H32&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="305" t="s">
+      <c r="AZ32" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA32" s="344"/>
+      <c r="BA32" s="288"/>
       <c r="BB32" s="244">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -6190,10 +6192,10 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="BF32" s="302" t="s">
+      <c r="BF32" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BG32" s="306"/>
+      <c r="BG32" s="284"/>
     </row>
     <row r="33" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
@@ -6241,10 +6243,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU33" s="298" t="s">
+      <c r="AU33" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="299"/>
+      <c r="AV33" s="280"/>
       <c r="AW33">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -6257,10 +6259,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ33" s="307" t="s">
+      <c r="AZ33" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA33" s="344"/>
+      <c r="BA33" s="288"/>
       <c r="BB33" s="244">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -6269,10 +6271,10 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="BF33" s="309" t="s">
+      <c r="BF33" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BG33" s="310"/>
+      <c r="BG33" s="287"/>
     </row>
     <row r="34" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
@@ -6320,10 +6322,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU34" s="309" t="s">
+      <c r="AU34" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV34" s="310"/>
+      <c r="AV34" s="287"/>
       <c r="AW34">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -6336,10 +6338,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ34" s="298" t="s">
+      <c r="AZ34" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA34" s="343"/>
+      <c r="BA34" s="289"/>
       <c r="BB34" s="244">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -6348,10 +6350,10 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="BF34" s="340" t="s">
+      <c r="BF34" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BG34" s="341"/>
+      <c r="BG34" s="291"/>
     </row>
     <row r="35" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
@@ -6399,10 +6401,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU35" s="298" t="s">
+      <c r="AU35" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV35" s="299"/>
+      <c r="AV35" s="280"/>
       <c r="AW35">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -6415,10 +6417,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ35" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="344"/>
+      <c r="AZ35" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="288"/>
       <c r="BB35" s="244">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -6427,10 +6429,10 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="BF35" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="306"/>
+      <c r="BF35" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="284"/>
     </row>
     <row r="36" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
@@ -6478,10 +6480,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU36" s="316" t="s">
+      <c r="AU36" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV36" s="317"/>
+      <c r="AV36" s="282"/>
       <c r="AW36">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -6494,10 +6496,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ36" s="305" t="s">
+      <c r="AZ36" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA36" s="344"/>
+      <c r="BA36" s="288"/>
       <c r="BB36" s="244">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -6506,10 +6508,10 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="BF36" s="338" t="s">
+      <c r="BF36" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="BG36" s="339"/>
+      <c r="BG36" s="294"/>
     </row>
     <row r="37" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
@@ -6557,10 +6559,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU37" s="316" t="s">
+      <c r="AU37" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV37" s="317"/>
+      <c r="AV37" s="282"/>
       <c r="AW37">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -6573,10 +6575,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ37" s="305" t="s">
+      <c r="AZ37" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA37" s="344"/>
+      <c r="BA37" s="288"/>
       <c r="BB37" s="244">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -6648,10 +6650,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="309" t="s">
+      <c r="AZ38" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA38" s="347"/>
+      <c r="BA38" s="296"/>
       <c r="BB38" s="244">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -6707,10 +6709,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU39" s="309" t="s">
+      <c r="AU39" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV39" s="310"/>
+      <c r="AV39" s="287"/>
       <c r="AW39">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -6723,10 +6725,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="305" t="s">
+      <c r="AZ39" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA39" s="344"/>
+      <c r="BA39" s="288"/>
       <c r="BB39" s="244">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -6782,10 +6784,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="302" t="s">
+      <c r="AU40" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV40" s="306"/>
+      <c r="AV40" s="284"/>
       <c r="AW40">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -6798,10 +6800,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="302" t="s">
+      <c r="AZ40" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA40" s="344"/>
+      <c r="BA40" s="288"/>
       <c r="BB40" s="244">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -6857,10 +6859,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU41" s="302" t="s">
+      <c r="AU41" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV41" s="306"/>
+      <c r="AV41" s="284"/>
       <c r="AW41">
         <f t="shared" si="13"/>
         <v>17</v>
@@ -6873,10 +6875,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ41" s="305" t="s">
+      <c r="AZ41" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA41" s="344"/>
+      <c r="BA41" s="288"/>
       <c r="BB41" s="244">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -6932,10 +6934,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU42" s="316" t="s">
+      <c r="AU42" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV42" s="317"/>
+      <c r="AV42" s="282"/>
       <c r="AW42">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -6948,10 +6950,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ42" s="302" t="s">
+      <c r="AZ42" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA42" s="344"/>
+      <c r="BA42" s="288"/>
       <c r="BB42" s="244">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -7007,10 +7009,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU43" s="298" t="s">
+      <c r="AU43" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV43" s="299"/>
+      <c r="AV43" s="280"/>
       <c r="AW43">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -7023,10 +7025,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ43" s="305" t="s">
+      <c r="AZ43" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA43" s="344"/>
+      <c r="BA43" s="288"/>
       <c r="BB43" s="244">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -7082,10 +7084,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU44" s="309" t="s">
+      <c r="AU44" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV44" s="310"/>
+      <c r="AV44" s="287"/>
       <c r="AW44">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -7098,10 +7100,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ44" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="344"/>
+      <c r="AZ44" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="288"/>
       <c r="BB44" s="244">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -7157,10 +7159,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU45" s="302" t="s">
+      <c r="AU45" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV45" s="306"/>
+      <c r="AV45" s="284"/>
       <c r="AW45">
         <f t="shared" si="13"/>
         <v>21</v>
@@ -7173,10 +7175,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ45" s="298" t="s">
+      <c r="AZ45" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA45" s="343"/>
+      <c r="BA45" s="289"/>
       <c r="BB45" s="244">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -7232,10 +7234,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU46" s="298" t="s">
+      <c r="AU46" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV46" s="299"/>
+      <c r="AV46" s="280"/>
       <c r="AW46">
         <f t="shared" si="13"/>
         <v>22</v>
@@ -7248,10 +7250,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ46" s="305" t="s">
+      <c r="AZ46" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA46" s="344"/>
+      <c r="BA46" s="288"/>
       <c r="BB46" s="244">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -7307,10 +7309,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU47" s="316" t="s">
+      <c r="AU47" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV47" s="317"/>
+      <c r="AV47" s="282"/>
       <c r="AW47">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -7323,10 +7325,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ47" s="305" t="s">
+      <c r="AZ47" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA47" s="344"/>
+      <c r="BA47" s="288"/>
       <c r="BB47" s="244">
         <f t="shared" si="14"/>
         <v>23</v>
@@ -7382,10 +7384,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU48" s="298" t="s">
+      <c r="AU48" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV48" s="299"/>
+      <c r="AV48" s="280"/>
       <c r="AW48">
         <f t="shared" si="13"/>
         <v>24</v>
@@ -7398,10 +7400,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ48" s="298" t="s">
+      <c r="AZ48" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA48" s="343"/>
+      <c r="BA48" s="289"/>
       <c r="BB48" s="244">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -7457,10 +7459,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU49" s="302" t="s">
+      <c r="AU49" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV49" s="306"/>
+      <c r="AV49" s="284"/>
       <c r="AW49">
         <f t="shared" si="13"/>
         <v>25</v>
@@ -7473,10 +7475,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ49" s="305" t="s">
+      <c r="AZ49" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA49" s="344"/>
+      <c r="BA49" s="288"/>
       <c r="BB49" s="244">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -7532,10 +7534,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU50" s="298" t="s">
+      <c r="AU50" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV50" s="299"/>
+      <c r="AV50" s="280"/>
       <c r="AW50">
         <f t="shared" si="13"/>
         <v>26</v>
@@ -7548,10 +7550,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ50" s="316" t="s">
+      <c r="AZ50" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA50" s="345"/>
+      <c r="BA50" s="297"/>
       <c r="BB50" s="244">
         <f t="shared" si="14"/>
         <v>26</v>
@@ -7607,10 +7609,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU51" s="298" t="s">
+      <c r="AU51" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV51" s="299"/>
+      <c r="AV51" s="280"/>
       <c r="AW51">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -7623,10 +7625,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ51" s="302" t="s">
+      <c r="AZ51" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA51" s="344"/>
+      <c r="BA51" s="288"/>
       <c r="BB51" s="244">
         <f t="shared" si="14"/>
         <v>27</v>
@@ -7682,10 +7684,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU52" s="298" t="s">
+      <c r="AU52" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV52" s="299"/>
+      <c r="AV52" s="280"/>
       <c r="AW52">
         <f t="shared" si="13"/>
         <v>28</v>
@@ -7698,10 +7700,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ52" s="305" t="s">
+      <c r="AZ52" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA52" s="344"/>
+      <c r="BA52" s="288"/>
       <c r="BB52" s="244">
         <f t="shared" si="14"/>
         <v>28</v>
@@ -7757,10 +7759,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU53" s="298" t="s">
+      <c r="AU53" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV53" s="299"/>
+      <c r="AV53" s="280"/>
       <c r="AW53">
         <f t="shared" si="13"/>
         <v>29</v>
@@ -7773,10 +7775,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ53" s="298" t="s">
+      <c r="AZ53" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA53" s="343"/>
+      <c r="BA53" s="289"/>
       <c r="BB53" s="244">
         <f t="shared" si="14"/>
         <v>29</v>
@@ -7832,10 +7834,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU54" s="298" t="s">
+      <c r="AU54" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV54" s="299"/>
+      <c r="AV54" s="280"/>
       <c r="AW54">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -7848,10 +7850,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ54" s="305" t="s">
+      <c r="AZ54" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA54" s="344"/>
+      <c r="BA54" s="288"/>
       <c r="BB54" s="244">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -7907,10 +7909,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU55" s="316" t="s">
+      <c r="AU55" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV55" s="317"/>
+      <c r="AV55" s="282"/>
       <c r="AW55">
         <f t="shared" si="13"/>
         <v>31</v>
@@ -7923,10 +7925,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ55" s="307" t="s">
+      <c r="AZ55" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA55" s="344"/>
+      <c r="BA55" s="288"/>
       <c r="BB55" s="244">
         <f t="shared" si="14"/>
         <v>31</v>
@@ -7982,10 +7984,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU56" s="309" t="s">
+      <c r="AU56" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV56" s="310"/>
+      <c r="AV56" s="287"/>
       <c r="AW56">
         <f t="shared" si="13"/>
         <v>32</v>
@@ -7998,10 +8000,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ56" s="305" t="s">
+      <c r="AZ56" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA56" s="344"/>
+      <c r="BA56" s="288"/>
       <c r="BB56" s="244">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -8057,10 +8059,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU57" s="316" t="s">
+      <c r="AU57" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV57" s="317"/>
+      <c r="AV57" s="282"/>
       <c r="AW57">
         <f t="shared" si="13"/>
         <v>33</v>
@@ -8073,10 +8075,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ57" s="305" t="s">
+      <c r="AZ57" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA57" s="344"/>
+      <c r="BA57" s="288"/>
       <c r="BB57" s="244">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -8132,10 +8134,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU58" s="298" t="s">
+      <c r="AU58" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV58" s="299"/>
+      <c r="AV58" s="280"/>
       <c r="AW58">
         <f t="shared" si="13"/>
         <v>34</v>
@@ -8148,10 +8150,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ58" s="298" t="s">
+      <c r="AZ58" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA58" s="343"/>
+      <c r="BA58" s="289"/>
       <c r="BB58" s="244">
         <f t="shared" si="14"/>
         <v>34</v>
@@ -8207,10 +8209,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU59" s="307" t="s">
+      <c r="AU59" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV59" s="306"/>
+      <c r="AV59" s="284"/>
       <c r="AW59">
         <f t="shared" si="13"/>
         <v>35</v>
@@ -8223,10 +8225,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ59" s="298" t="s">
+      <c r="AZ59" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA59" s="343"/>
+      <c r="BA59" s="289"/>
       <c r="BB59" s="244">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -8282,10 +8284,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU60" s="298" t="s">
+      <c r="AU60" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV60" s="299"/>
+      <c r="AV60" s="280"/>
       <c r="AW60">
         <f t="shared" si="13"/>
         <v>36</v>
@@ -8298,10 +8300,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ60" s="307" t="s">
+      <c r="AZ60" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA60" s="344"/>
+      <c r="BA60" s="288"/>
       <c r="BB60" s="244">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -8357,10 +8359,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU61" s="305" t="s">
+      <c r="AU61" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV61" s="306"/>
+      <c r="AV61" s="284"/>
       <c r="AW61">
         <f t="shared" si="13"/>
         <v>37</v>
@@ -8373,10 +8375,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ61" s="302" t="s">
+      <c r="AZ61" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA61" s="344"/>
+      <c r="BA61" s="288"/>
       <c r="BB61" s="244">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -8432,10 +8434,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU62" s="307" t="s">
+      <c r="AU62" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV62" s="306"/>
+      <c r="AV62" s="284"/>
       <c r="AW62">
         <f t="shared" si="13"/>
         <v>38</v>
@@ -8448,10 +8450,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ62" s="302" t="s">
+      <c r="AZ62" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA62" s="344"/>
+      <c r="BA62" s="288"/>
       <c r="BB62" s="244">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -8507,10 +8509,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU63" s="305" t="s">
+      <c r="AU63" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV63" s="306"/>
+      <c r="AV63" s="284"/>
       <c r="AW63">
         <f t="shared" si="13"/>
         <v>39</v>
@@ -8523,10 +8525,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ63" s="302" t="s">
+      <c r="AZ63" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA63" s="344"/>
+      <c r="BA63" s="288"/>
       <c r="BB63" s="244">
         <f t="shared" si="14"/>
         <v>39</v>
@@ -8582,10 +8584,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU64" s="305" t="s">
+      <c r="AU64" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV64" s="306"/>
+      <c r="AV64" s="284"/>
       <c r="AW64">
         <f t="shared" si="13"/>
         <v>40</v>
@@ -8598,10 +8600,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ64" s="298" t="s">
+      <c r="AZ64" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA64" s="343"/>
+      <c r="BA64" s="289"/>
       <c r="BB64" s="244">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -8657,10 +8659,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU65" s="316" t="s">
+      <c r="AU65" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV65" s="317"/>
+      <c r="AV65" s="282"/>
       <c r="AW65">
         <f t="shared" si="13"/>
         <v>41</v>
@@ -8673,10 +8675,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ65" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="344"/>
+      <c r="AZ65" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="288"/>
       <c r="BB65" s="244">
         <f t="shared" si="14"/>
         <v>41</v>
@@ -8732,10 +8734,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU66" s="302" t="s">
+      <c r="AU66" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV66" s="303"/>
+      <c r="AV66" s="301"/>
       <c r="AW66">
         <f t="shared" si="13"/>
         <v>42</v>
@@ -8748,10 +8750,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ66" s="302" t="s">
+      <c r="AZ66" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA66" s="344"/>
+      <c r="BA66" s="288"/>
       <c r="BB66" s="244">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -8807,10 +8809,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU67" s="307" t="s">
+      <c r="AU67" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV67" s="306"/>
+      <c r="AV67" s="284"/>
       <c r="AW67">
         <f t="shared" si="13"/>
         <v>43</v>
@@ -8823,10 +8825,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ67" s="305" t="s">
+      <c r="AZ67" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA67" s="344"/>
+      <c r="BA67" s="288"/>
       <c r="BB67" s="244">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -8882,10 +8884,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU68" s="302" t="s">
+      <c r="AU68" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV68" s="306"/>
+      <c r="AV68" s="284"/>
       <c r="AW68">
         <f t="shared" si="13"/>
         <v>44</v>
@@ -8898,10 +8900,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ68" s="316" t="s">
+      <c r="AZ68" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA68" s="345"/>
+      <c r="BA68" s="297"/>
       <c r="BB68" s="244">
         <f t="shared" si="14"/>
         <v>44</v>
@@ -8957,10 +8959,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU69" s="316" t="s">
+      <c r="AU69" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV69" s="317"/>
+      <c r="AV69" s="282"/>
       <c r="AW69">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -8973,10 +8975,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ69" s="309" t="s">
+      <c r="AZ69" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA69" s="347"/>
+      <c r="BA69" s="296"/>
       <c r="BB69" s="244">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -9032,10 +9034,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU70" s="298" t="s">
+      <c r="AU70" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV70" s="299"/>
+      <c r="AV70" s="280"/>
       <c r="AW70">
         <f t="shared" si="13"/>
         <v>46</v>
@@ -9048,10 +9050,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ70" s="305" t="s">
+      <c r="AZ70" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA70" s="344"/>
+      <c r="BA70" s="288"/>
       <c r="BB70" s="244">
         <f t="shared" si="14"/>
         <v>46</v>
@@ -9107,10 +9109,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU71" s="302" t="s">
+      <c r="AU71" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV71" s="303"/>
+      <c r="AV71" s="301"/>
       <c r="AW71">
         <f t="shared" si="13"/>
         <v>47</v>
@@ -9123,10 +9125,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ71" s="309" t="s">
+      <c r="AZ71" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA71" s="347"/>
+      <c r="BA71" s="296"/>
       <c r="BB71" s="244">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -9182,10 +9184,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU72" s="307" t="s">
+      <c r="AU72" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV72" s="306"/>
+      <c r="AV72" s="284"/>
       <c r="AW72">
         <f t="shared" si="13"/>
         <v>48</v>
@@ -9198,10 +9200,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ72" s="305" t="s">
+      <c r="AZ72" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA72" s="344"/>
+      <c r="BA72" s="288"/>
       <c r="BB72" s="244">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -9257,10 +9259,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU73" s="298" t="s">
+      <c r="AU73" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV73" s="299"/>
+      <c r="AV73" s="280"/>
       <c r="AW73">
         <f t="shared" si="13"/>
         <v>49</v>
@@ -9273,10 +9275,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ73" s="316" t="s">
+      <c r="AZ73" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA73" s="345"/>
+      <c r="BA73" s="297"/>
       <c r="BB73" s="244">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -9332,10 +9334,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU74" s="305" t="s">
+      <c r="AU74" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV74" s="306"/>
+      <c r="AV74" s="284"/>
       <c r="AW74">
         <f t="shared" si="13"/>
         <v>50</v>
@@ -9348,10 +9350,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ74" s="340" t="s">
+      <c r="AZ74" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BA74" s="346"/>
+      <c r="BA74" s="299"/>
       <c r="BB74" s="244">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -9407,10 +9409,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU75" s="298" t="s">
+      <c r="AU75" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV75" s="299"/>
+      <c r="AV75" s="280"/>
       <c r="AW75">
         <f t="shared" si="13"/>
         <v>51</v>
@@ -9423,10 +9425,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ75" s="316" t="s">
+      <c r="AZ75" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA75" s="345"/>
+      <c r="BA75" s="297"/>
       <c r="BB75" s="244">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -9482,10 +9484,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU76" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="306"/>
+      <c r="AU76" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="284"/>
       <c r="AW76">
         <f t="shared" si="13"/>
         <v>52</v>
@@ -9498,10 +9500,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ76" s="305" t="s">
+      <c r="AZ76" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA76" s="344"/>
+      <c r="BA76" s="288"/>
       <c r="BB76" s="244">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -9557,10 +9559,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU77" s="302" t="s">
+      <c r="AU77" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV77" s="306"/>
+      <c r="AV77" s="284"/>
       <c r="AW77">
         <f t="shared" si="13"/>
         <v>53</v>
@@ -9573,10 +9575,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ77" s="302" t="s">
+      <c r="AZ77" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA77" s="344"/>
+      <c r="BA77" s="288"/>
       <c r="BB77" s="244">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -9632,10 +9634,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU78" s="302" t="s">
+      <c r="AU78" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV78" s="303"/>
+      <c r="AV78" s="301"/>
       <c r="AW78">
         <f t="shared" si="13"/>
         <v>54</v>
@@ -9648,10 +9650,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ78" s="302" t="s">
+      <c r="AZ78" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA78" s="344"/>
+      <c r="BA78" s="288"/>
       <c r="BB78" s="244">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -9707,10 +9709,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU79" s="305" t="s">
+      <c r="AU79" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV79" s="306"/>
+      <c r="AV79" s="284"/>
       <c r="AW79">
         <f t="shared" si="13"/>
         <v>55</v>
@@ -9723,10 +9725,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ79" s="305" t="s">
+      <c r="AZ79" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA79" s="344"/>
+      <c r="BA79" s="288"/>
       <c r="BB79" s="244">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -9782,10 +9784,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU80" s="305" t="s">
+      <c r="AU80" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV80" s="306"/>
+      <c r="AV80" s="284"/>
       <c r="AW80">
         <f t="shared" si="13"/>
         <v>56</v>
@@ -9798,10 +9800,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ80" s="316" t="s">
+      <c r="AZ80" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA80" s="345"/>
+      <c r="BA80" s="297"/>
       <c r="BB80" s="244">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -9857,10 +9859,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU81" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV81" s="306"/>
+      <c r="AU81" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="284"/>
       <c r="AW81">
         <f t="shared" si="13"/>
         <v>57</v>
@@ -9873,10 +9875,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ81" s="305" t="s">
+      <c r="AZ81" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA81" s="344"/>
+      <c r="BA81" s="288"/>
       <c r="BB81" s="244">
         <f t="shared" si="14"/>
         <v>57</v>
@@ -9932,10 +9934,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU82" s="305" t="s">
+      <c r="AU82" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV82" s="306"/>
+      <c r="AV82" s="284"/>
       <c r="AW82">
         <f t="shared" si="13"/>
         <v>58</v>
@@ -9948,10 +9950,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ82" s="298" t="s">
+      <c r="AZ82" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA82" s="343"/>
+      <c r="BA82" s="289"/>
       <c r="BB82" s="244">
         <f t="shared" si="14"/>
         <v>58</v>
@@ -10007,10 +10009,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU83" s="305" t="s">
+      <c r="AU83" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV83" s="306"/>
+      <c r="AV83" s="284"/>
       <c r="AW83">
         <f t="shared" si="13"/>
         <v>59</v>
@@ -10023,10 +10025,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ83" s="305" t="s">
+      <c r="AZ83" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA83" s="344"/>
+      <c r="BA83" s="288"/>
       <c r="BB83" s="244">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -10082,10 +10084,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU84" s="302" t="s">
+      <c r="AU84" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV84" s="306"/>
+      <c r="AV84" s="284"/>
       <c r="AW84">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -10098,10 +10100,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ84" s="307" t="s">
+      <c r="AZ84" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA84" s="344"/>
+      <c r="BA84" s="288"/>
       <c r="BB84" s="244">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -10157,10 +10159,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU85" s="302" t="s">
+      <c r="AU85" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV85" s="303"/>
+      <c r="AV85" s="301"/>
       <c r="AW85">
         <f t="shared" si="13"/>
         <v>61</v>
@@ -10173,10 +10175,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ85" s="302" t="s">
+      <c r="AZ85" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA85" s="344"/>
+      <c r="BA85" s="288"/>
       <c r="BB85" s="244">
         <f t="shared" si="14"/>
         <v>61</v>
@@ -10232,10 +10234,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU86" s="298" t="s">
+      <c r="AU86" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV86" s="299"/>
+      <c r="AV86" s="280"/>
       <c r="AW86">
         <f t="shared" si="13"/>
         <v>62</v>
@@ -10248,10 +10250,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ86" s="305" t="s">
+      <c r="AZ86" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA86" s="344"/>
+      <c r="BA86" s="288"/>
       <c r="BB86" s="244">
         <f t="shared" si="14"/>
         <v>62</v>
@@ -10307,10 +10309,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU87" s="302" t="s">
+      <c r="AU87" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV87" s="306"/>
+      <c r="AV87" s="284"/>
       <c r="AW87">
         <f t="shared" si="13"/>
         <v>63</v>
@@ -10323,10 +10325,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ87" s="305" t="s">
+      <c r="AZ87" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA87" s="344"/>
+      <c r="BA87" s="288"/>
       <c r="BB87" s="244">
         <f t="shared" si="14"/>
         <v>63</v>
@@ -10382,10 +10384,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU88" s="298" t="s">
+      <c r="AU88" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV88" s="299"/>
+      <c r="AV88" s="280"/>
       <c r="AW88">
         <f t="shared" si="13"/>
         <v>64</v>
@@ -10398,10 +10400,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ88" s="298" t="s">
+      <c r="AZ88" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA88" s="343"/>
+      <c r="BA88" s="289"/>
       <c r="BB88" s="244">
         <f t="shared" si="14"/>
         <v>64</v>
@@ -10457,10 +10459,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU89" s="305" t="s">
+      <c r="AU89" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV89" s="306"/>
+      <c r="AV89" s="284"/>
       <c r="AW89">
         <f t="shared" si="13"/>
         <v>65</v>
@@ -10473,10 +10475,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AZ89" s="302" t="s">
+      <c r="AZ89" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA89" s="344"/>
+      <c r="BA89" s="288"/>
       <c r="BB89" s="244">
         <f t="shared" si="14"/>
         <v>65</v>
@@ -10532,10 +10534,10 @@
         <f t="shared" ref="AT90:AT153" si="16">IF(C90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU90" s="302" t="s">
+      <c r="AU90" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV90" s="306"/>
+      <c r="AV90" s="284"/>
       <c r="AW90">
         <f t="shared" si="13"/>
         <v>66</v>
@@ -10548,10 +10550,10 @@
         <f t="shared" ref="AY90:AY153" si="18">IF(H90&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ90" s="302" t="s">
+      <c r="AZ90" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA90" s="344"/>
+      <c r="BA90" s="288"/>
       <c r="BB90" s="244">
         <f t="shared" si="14"/>
         <v>66</v>
@@ -10607,10 +10609,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU91" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV91" s="306"/>
+      <c r="AU91" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="284"/>
       <c r="AW91">
         <f t="shared" ref="AW91:AW154" si="21">AW90+1</f>
         <v>67</v>
@@ -10623,10 +10625,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ91" s="305" t="s">
+      <c r="AZ91" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA91" s="344"/>
+      <c r="BA91" s="288"/>
       <c r="BB91" s="244">
         <f t="shared" ref="BB91:BC154" si="22">BB90+1</f>
         <v>67</v>
@@ -10682,10 +10684,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU92" s="302" t="s">
+      <c r="AU92" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV92" s="306"/>
+      <c r="AV92" s="284"/>
       <c r="AW92">
         <f t="shared" si="21"/>
         <v>68</v>
@@ -10698,10 +10700,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ92" s="305" t="s">
+      <c r="AZ92" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA92" s="344"/>
+      <c r="BA92" s="288"/>
       <c r="BB92" s="244">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -10757,10 +10759,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU93" s="305" t="s">
+      <c r="AU93" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV93" s="306"/>
+      <c r="AV93" s="284"/>
       <c r="AW93">
         <f t="shared" si="21"/>
         <v>69</v>
@@ -10773,10 +10775,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ93" s="298" t="s">
+      <c r="AZ93" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA93" s="343"/>
+      <c r="BA93" s="289"/>
       <c r="BB93" s="244">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -10832,10 +10834,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU94" s="316" t="s">
+      <c r="AU94" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV94" s="317"/>
+      <c r="AV94" s="282"/>
       <c r="AW94">
         <f t="shared" si="21"/>
         <v>70</v>
@@ -10848,10 +10850,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ94" s="298" t="s">
+      <c r="AZ94" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA94" s="343"/>
+      <c r="BA94" s="289"/>
       <c r="BB94" s="244">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -10907,10 +10909,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU95" s="305" t="s">
+      <c r="AU95" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV95" s="306"/>
+      <c r="AV95" s="284"/>
       <c r="AW95">
         <f t="shared" si="21"/>
         <v>71</v>
@@ -10923,10 +10925,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ95" s="305" t="s">
+      <c r="AZ95" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA95" s="344"/>
+      <c r="BA95" s="288"/>
       <c r="BB95" s="244">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -10982,10 +10984,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU96" s="298" t="s">
+      <c r="AU96" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV96" s="299"/>
+      <c r="AV96" s="280"/>
       <c r="AW96">
         <f t="shared" si="21"/>
         <v>72</v>
@@ -10998,10 +11000,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ96" s="307" t="s">
+      <c r="AZ96" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA96" s="344"/>
+      <c r="BA96" s="288"/>
       <c r="BB96" s="244">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -11057,10 +11059,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU97" s="316" t="s">
+      <c r="AU97" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV97" s="317"/>
+      <c r="AV97" s="282"/>
       <c r="AW97">
         <f t="shared" si="21"/>
         <v>73</v>
@@ -11073,10 +11075,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ97" s="338" t="s">
+      <c r="AZ97" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="BA97" s="348"/>
+      <c r="BA97" s="298"/>
       <c r="BB97" s="244">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -11132,10 +11134,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU98" s="305" t="s">
+      <c r="AU98" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV98" s="306"/>
+      <c r="AV98" s="284"/>
       <c r="AW98">
         <f t="shared" si="21"/>
         <v>74</v>
@@ -11148,10 +11150,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ98" s="302" t="s">
+      <c r="AZ98" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA98" s="344"/>
+      <c r="BA98" s="288"/>
       <c r="BB98" s="244">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -11207,10 +11209,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU99" s="302" t="s">
+      <c r="AU99" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV99" s="306"/>
+      <c r="AV99" s="284"/>
       <c r="AW99">
         <f t="shared" si="21"/>
         <v>75</v>
@@ -11223,10 +11225,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ99" s="305" t="s">
+      <c r="AZ99" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA99" s="344"/>
+      <c r="BA99" s="288"/>
       <c r="BB99" s="244">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -11282,10 +11284,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU100" s="305" t="s">
+      <c r="AU100" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV100" s="306"/>
+      <c r="AV100" s="284"/>
       <c r="AW100">
         <f t="shared" si="21"/>
         <v>76</v>
@@ -11298,10 +11300,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ100" s="298" t="s">
+      <c r="AZ100" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA100" s="343"/>
+      <c r="BA100" s="289"/>
       <c r="BB100" s="244">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -11357,10 +11359,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU101" s="305" t="s">
+      <c r="AU101" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV101" s="306"/>
+      <c r="AV101" s="284"/>
       <c r="AW101">
         <f t="shared" si="21"/>
         <v>77</v>
@@ -11373,10 +11375,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ101" s="305" t="s">
+      <c r="AZ101" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA101" s="344"/>
+      <c r="BA101" s="288"/>
       <c r="BB101" s="244">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -11432,10 +11434,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU102" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV102" s="306"/>
+      <c r="AU102" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="284"/>
       <c r="AW102">
         <f t="shared" si="21"/>
         <v>78</v>
@@ -11448,10 +11450,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ102" s="298" t="s">
+      <c r="AZ102" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA102" s="343"/>
+      <c r="BA102" s="289"/>
       <c r="BB102" s="244">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -11507,10 +11509,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU103" s="309" t="s">
+      <c r="AU103" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV103" s="310"/>
+      <c r="AV103" s="287"/>
       <c r="AW103">
         <f t="shared" si="21"/>
         <v>79</v>
@@ -11523,10 +11525,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ103" s="305" t="s">
+      <c r="AZ103" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA103" s="344"/>
+      <c r="BA103" s="288"/>
       <c r="BB103" s="244">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -11582,10 +11584,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU104" s="340" t="s">
+      <c r="AU104" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV104" s="341"/>
+      <c r="AV104" s="291"/>
       <c r="AW104">
         <f t="shared" si="21"/>
         <v>80</v>
@@ -11598,10 +11600,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ104" s="298" t="s">
+      <c r="AZ104" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA104" s="343"/>
+      <c r="BA104" s="289"/>
       <c r="BB104" s="244">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -11657,10 +11659,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU105" s="316" t="s">
+      <c r="AU105" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV105" s="317"/>
+      <c r="AV105" s="282"/>
       <c r="AW105">
         <f t="shared" si="21"/>
         <v>81</v>
@@ -11673,10 +11675,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ105" s="302" t="s">
+      <c r="AZ105" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA105" s="344"/>
+      <c r="BA105" s="288"/>
       <c r="BB105" s="244">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -11732,10 +11734,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU106" s="302" t="s">
+      <c r="AU106" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV106" s="306"/>
+      <c r="AV106" s="284"/>
       <c r="AW106">
         <f t="shared" si="21"/>
         <v>82</v>
@@ -11748,10 +11750,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ106" s="305" t="s">
+      <c r="AZ106" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA106" s="344"/>
+      <c r="BA106" s="288"/>
       <c r="BB106" s="244">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -11807,10 +11809,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU107" s="302" t="s">
+      <c r="AU107" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV107" s="306"/>
+      <c r="AV107" s="284"/>
       <c r="AW107">
         <f t="shared" si="21"/>
         <v>83</v>
@@ -11823,10 +11825,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ107" s="298" t="s">
+      <c r="AZ107" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA107" s="343"/>
+      <c r="BA107" s="289"/>
       <c r="BB107" s="244">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -11882,10 +11884,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU108" s="302" t="s">
+      <c r="AU108" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV108" s="306"/>
+      <c r="AV108" s="284"/>
       <c r="AW108">
         <f t="shared" si="21"/>
         <v>84</v>
@@ -11898,10 +11900,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ108" s="305" t="s">
+      <c r="AZ108" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA108" s="344"/>
+      <c r="BA108" s="288"/>
       <c r="BB108" s="244">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -11957,10 +11959,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU109" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV109" s="306"/>
+      <c r="AU109" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="284"/>
       <c r="AW109">
         <f t="shared" si="21"/>
         <v>85</v>
@@ -11973,10 +11975,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ109" s="305" t="s">
+      <c r="AZ109" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA109" s="344"/>
+      <c r="BA109" s="288"/>
       <c r="BB109" s="244">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -12032,10 +12034,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU110" s="316" t="s">
+      <c r="AU110" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV110" s="317"/>
+      <c r="AV110" s="282"/>
       <c r="AW110">
         <f t="shared" si="21"/>
         <v>86</v>
@@ -12048,10 +12050,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ110" s="316" t="s">
+      <c r="AZ110" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA110" s="345"/>
+      <c r="BA110" s="297"/>
       <c r="BB110" s="244">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -12107,10 +12109,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU111" s="298" t="s">
+      <c r="AU111" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV111" s="299"/>
+      <c r="AV111" s="280"/>
       <c r="AW111">
         <f t="shared" si="21"/>
         <v>87</v>
@@ -12123,10 +12125,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ111" s="298" t="s">
+      <c r="AZ111" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA111" s="343"/>
+      <c r="BA111" s="289"/>
       <c r="BB111" s="244">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -12182,10 +12184,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU112" s="309" t="s">
+      <c r="AU112" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV112" s="310"/>
+      <c r="AV112" s="287"/>
       <c r="AW112">
         <f t="shared" si="21"/>
         <v>88</v>
@@ -12198,10 +12200,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ112" s="309" t="s">
+      <c r="AZ112" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA112" s="347"/>
+      <c r="BA112" s="296"/>
       <c r="BB112" s="244">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -12257,10 +12259,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU113" s="305" t="s">
+      <c r="AU113" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV113" s="306"/>
+      <c r="AV113" s="284"/>
       <c r="AW113">
         <f t="shared" si="21"/>
         <v>89</v>
@@ -12273,10 +12275,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ113" s="305" t="s">
+      <c r="AZ113" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA113" s="344"/>
+      <c r="BA113" s="288"/>
       <c r="BB113" s="244">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -12332,10 +12334,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU114" s="305" t="s">
+      <c r="AU114" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV114" s="306"/>
+      <c r="AV114" s="284"/>
       <c r="AW114">
         <f t="shared" si="21"/>
         <v>90</v>
@@ -12348,10 +12350,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ114" s="316" t="s">
+      <c r="AZ114" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA114" s="345"/>
+      <c r="BA114" s="297"/>
       <c r="BB114" s="244">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -12407,10 +12409,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU115" s="305" t="s">
+      <c r="AU115" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV115" s="306"/>
+      <c r="AV115" s="284"/>
       <c r="AW115">
         <f t="shared" si="21"/>
         <v>91</v>
@@ -12423,10 +12425,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ115" s="302" t="s">
+      <c r="AZ115" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA115" s="344"/>
+      <c r="BA115" s="288"/>
       <c r="BB115" s="244">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -12482,10 +12484,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU116" s="302" t="s">
+      <c r="AU116" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV116" s="306"/>
+      <c r="AV116" s="284"/>
       <c r="AW116">
         <f t="shared" si="21"/>
         <v>92</v>
@@ -12498,10 +12500,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ116" s="309" t="s">
+      <c r="AZ116" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA116" s="347"/>
+      <c r="BA116" s="296"/>
       <c r="BB116" s="244">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -12557,10 +12559,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU117" s="307" t="s">
+      <c r="AU117" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV117" s="306"/>
+      <c r="AV117" s="284"/>
       <c r="AW117">
         <f t="shared" si="21"/>
         <v>93</v>
@@ -12573,10 +12575,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ117" s="305" t="s">
+      <c r="AZ117" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA117" s="344"/>
+      <c r="BA117" s="288"/>
       <c r="BB117" s="244">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -12632,10 +12634,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU118" s="316" t="s">
+      <c r="AU118" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV118" s="317"/>
+      <c r="AV118" s="282"/>
       <c r="AW118">
         <f t="shared" si="21"/>
         <v>94</v>
@@ -12648,10 +12650,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ118" s="302" t="s">
+      <c r="AZ118" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA118" s="344"/>
+      <c r="BA118" s="288"/>
       <c r="BB118" s="244">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -12707,10 +12709,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU119" s="298" t="s">
+      <c r="AU119" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV119" s="299"/>
+      <c r="AV119" s="280"/>
       <c r="AW119">
         <f t="shared" si="21"/>
         <v>95</v>
@@ -12723,10 +12725,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ119" s="305" t="s">
+      <c r="AZ119" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA119" s="344"/>
+      <c r="BA119" s="288"/>
       <c r="BB119" s="244">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -12782,10 +12784,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU120" s="307" t="s">
+      <c r="AU120" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV120" s="306"/>
+      <c r="AV120" s="284"/>
       <c r="AW120">
         <f t="shared" si="21"/>
         <v>96</v>
@@ -12798,10 +12800,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ120" s="305" t="s">
+      <c r="AZ120" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA120" s="344"/>
+      <c r="BA120" s="288"/>
       <c r="BB120" s="244">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -12857,10 +12859,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU121" s="302" t="s">
+      <c r="AU121" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV121" s="306"/>
+      <c r="AV121" s="284"/>
       <c r="AW121">
         <f t="shared" si="21"/>
         <v>97</v>
@@ -12873,10 +12875,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ121" s="305" t="s">
+      <c r="AZ121" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA121" s="344"/>
+      <c r="BA121" s="288"/>
       <c r="BB121" s="244">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -12932,10 +12934,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU122" s="305" t="s">
+      <c r="AU122" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV122" s="306"/>
+      <c r="AV122" s="284"/>
       <c r="AW122">
         <f t="shared" si="21"/>
         <v>98</v>
@@ -12948,10 +12950,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ122" s="316" t="s">
+      <c r="AZ122" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA122" s="345"/>
+      <c r="BA122" s="297"/>
       <c r="BB122" s="244">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -13007,10 +13009,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU123" s="305" t="s">
+      <c r="AU123" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV123" s="306"/>
+      <c r="AV123" s="284"/>
       <c r="AW123">
         <f t="shared" si="21"/>
         <v>99</v>
@@ -13023,10 +13025,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ123" s="307" t="s">
+      <c r="AZ123" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA123" s="344"/>
+      <c r="BA123" s="288"/>
       <c r="BB123" s="244">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -13082,10 +13084,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU124" s="298" t="s">
+      <c r="AU124" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV124" s="299"/>
+      <c r="AV124" s="280"/>
       <c r="AW124">
         <f t="shared" si="21"/>
         <v>100</v>
@@ -13098,10 +13100,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ124" s="298" t="s">
+      <c r="AZ124" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA124" s="343"/>
+      <c r="BA124" s="289"/>
       <c r="BB124" s="244">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -13157,10 +13159,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU125" s="305" t="s">
+      <c r="AU125" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV125" s="306"/>
+      <c r="AV125" s="284"/>
       <c r="AW125">
         <f t="shared" si="21"/>
         <v>101</v>
@@ -13173,10 +13175,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ125" s="302" t="s">
+      <c r="AZ125" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA125" s="344"/>
+      <c r="BA125" s="288"/>
       <c r="BB125" s="244">
         <f t="shared" si="22"/>
         <v>101</v>
@@ -13232,10 +13234,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU126" s="298" t="s">
+      <c r="AU126" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV126" s="299"/>
+      <c r="AV126" s="280"/>
       <c r="AW126">
         <f t="shared" si="21"/>
         <v>102</v>
@@ -13248,10 +13250,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ126" s="307" t="s">
+      <c r="AZ126" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA126" s="344"/>
+      <c r="BA126" s="288"/>
       <c r="BB126" s="244">
         <f t="shared" si="22"/>
         <v>102</v>
@@ -13307,10 +13309,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU127" s="305" t="s">
+      <c r="AU127" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV127" s="306"/>
+      <c r="AV127" s="284"/>
       <c r="AW127">
         <f t="shared" si="21"/>
         <v>103</v>
@@ -13323,10 +13325,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ127" s="309" t="s">
+      <c r="AZ127" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA127" s="347"/>
+      <c r="BA127" s="296"/>
       <c r="BB127" s="244">
         <f t="shared" si="22"/>
         <v>103</v>
@@ -13382,10 +13384,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU128" s="298" t="s">
+      <c r="AU128" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV128" s="299"/>
+      <c r="AV128" s="280"/>
       <c r="AW128">
         <f t="shared" si="21"/>
         <v>104</v>
@@ -13398,10 +13400,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ128" s="302" t="s">
+      <c r="AZ128" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA128" s="344"/>
+      <c r="BA128" s="288"/>
       <c r="BB128" s="244">
         <f t="shared" si="22"/>
         <v>104</v>
@@ -13457,10 +13459,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU129" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV129" s="306"/>
+      <c r="AU129" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV129" s="284"/>
       <c r="AW129">
         <f t="shared" si="21"/>
         <v>105</v>
@@ -13473,10 +13475,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ129" s="305" t="s">
+      <c r="AZ129" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA129" s="344"/>
+      <c r="BA129" s="288"/>
       <c r="BB129" s="244">
         <f t="shared" si="22"/>
         <v>105</v>
@@ -13532,10 +13534,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU130" s="307" t="s">
+      <c r="AU130" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV130" s="306"/>
+      <c r="AV130" s="284"/>
       <c r="AW130">
         <f t="shared" si="21"/>
         <v>106</v>
@@ -13548,10 +13550,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ130" s="305" t="s">
+      <c r="AZ130" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA130" s="344"/>
+      <c r="BA130" s="288"/>
       <c r="BB130" s="244">
         <f t="shared" si="22"/>
         <v>106</v>
@@ -13607,10 +13609,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU131" s="302" t="s">
+      <c r="AU131" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV131" s="306"/>
+      <c r="AV131" s="284"/>
       <c r="AW131">
         <f t="shared" si="21"/>
         <v>107</v>
@@ -13623,10 +13625,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ131" s="302" t="s">
+      <c r="AZ131" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA131" s="344"/>
+      <c r="BA131" s="288"/>
       <c r="BB131" s="244">
         <f t="shared" si="22"/>
         <v>107</v>
@@ -13682,10 +13684,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU132" s="307" t="s">
+      <c r="AU132" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV132" s="306"/>
+      <c r="AV132" s="284"/>
       <c r="AW132">
         <f t="shared" si="21"/>
         <v>108</v>
@@ -13698,10 +13700,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ132" s="305" t="s">
+      <c r="AZ132" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA132" s="344"/>
+      <c r="BA132" s="288"/>
       <c r="BB132" s="244">
         <f t="shared" si="22"/>
         <v>108</v>
@@ -13757,10 +13759,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU133" s="305" t="s">
+      <c r="AU133" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV133" s="306"/>
+      <c r="AV133" s="284"/>
       <c r="AW133">
         <f t="shared" si="21"/>
         <v>109</v>
@@ -13773,10 +13775,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ133" s="298" t="s">
+      <c r="AZ133" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA133" s="343"/>
+      <c r="BA133" s="289"/>
       <c r="BB133" s="244">
         <f t="shared" si="22"/>
         <v>109</v>
@@ -13832,10 +13834,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU134" s="305" t="s">
+      <c r="AU134" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV134" s="306"/>
+      <c r="AV134" s="284"/>
       <c r="AW134">
         <f t="shared" si="21"/>
         <v>110</v>
@@ -13848,10 +13850,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ134" s="309" t="s">
+      <c r="AZ134" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA134" s="347"/>
+      <c r="BA134" s="296"/>
       <c r="BB134" s="244">
         <f t="shared" si="22"/>
         <v>110</v>
@@ -13907,10 +13909,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU135" s="309" t="s">
+      <c r="AU135" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV135" s="310"/>
+      <c r="AV135" s="287"/>
       <c r="AW135">
         <f t="shared" si="21"/>
         <v>111</v>
@@ -13923,10 +13925,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ135" s="302" t="s">
+      <c r="AZ135" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA135" s="344"/>
+      <c r="BA135" s="288"/>
       <c r="BB135" s="244">
         <f t="shared" si="22"/>
         <v>111</v>
@@ -13982,10 +13984,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU136" s="309" t="s">
+      <c r="AU136" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV136" s="310"/>
+      <c r="AV136" s="287"/>
       <c r="AW136">
         <f t="shared" si="21"/>
         <v>112</v>
@@ -13998,10 +14000,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ136" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA136" s="344"/>
+      <c r="AZ136" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA136" s="288"/>
       <c r="BB136" s="244">
         <f t="shared" si="22"/>
         <v>112</v>
@@ -14057,10 +14059,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU137" s="316" t="s">
+      <c r="AU137" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV137" s="317"/>
+      <c r="AV137" s="282"/>
       <c r="AW137">
         <f t="shared" si="21"/>
         <v>113</v>
@@ -14073,10 +14075,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ137" s="298" t="s">
+      <c r="AZ137" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA137" s="343"/>
+      <c r="BA137" s="289"/>
       <c r="BB137" s="244">
         <f t="shared" si="22"/>
         <v>113</v>
@@ -14132,10 +14134,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU138" s="305" t="s">
+      <c r="AU138" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV138" s="306"/>
+      <c r="AV138" s="284"/>
       <c r="AW138">
         <f t="shared" si="21"/>
         <v>114</v>
@@ -14148,10 +14150,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ138" s="302" t="s">
+      <c r="AZ138" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA138" s="344"/>
+      <c r="BA138" s="288"/>
       <c r="BB138" s="244">
         <f t="shared" si="22"/>
         <v>114</v>
@@ -14207,10 +14209,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU139" s="305" t="s">
+      <c r="AU139" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV139" s="306"/>
+      <c r="AV139" s="284"/>
       <c r="AW139">
         <f t="shared" si="21"/>
         <v>115</v>
@@ -14223,10 +14225,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ139" s="316" t="s">
+      <c r="AZ139" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA139" s="345"/>
+      <c r="BA139" s="297"/>
       <c r="BB139" s="244">
         <f t="shared" si="22"/>
         <v>115</v>
@@ -14282,10 +14284,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU140" s="298" t="s">
+      <c r="AU140" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV140" s="299"/>
+      <c r="AV140" s="280"/>
       <c r="AW140">
         <f t="shared" si="21"/>
         <v>116</v>
@@ -14298,10 +14300,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ140" s="316" t="s">
+      <c r="AZ140" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA140" s="345"/>
+      <c r="BA140" s="297"/>
       <c r="BB140" s="244">
         <f t="shared" si="22"/>
         <v>116</v>
@@ -14357,10 +14359,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU141" s="338" t="s">
+      <c r="AU141" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV141" s="339"/>
+      <c r="AV141" s="294"/>
       <c r="AW141">
         <f t="shared" si="21"/>
         <v>117</v>
@@ -14373,10 +14375,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ141" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA141" s="344"/>
+      <c r="AZ141" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA141" s="288"/>
       <c r="BB141" s="244">
         <f t="shared" si="22"/>
         <v>117</v>
@@ -14432,10 +14434,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU142" s="307" t="s">
+      <c r="AU142" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV142" s="308"/>
+      <c r="AV142" s="300"/>
       <c r="AW142">
         <f t="shared" si="21"/>
         <v>118</v>
@@ -14448,10 +14450,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ142" s="316" t="s">
+      <c r="AZ142" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA142" s="345"/>
+      <c r="BA142" s="297"/>
       <c r="BB142" s="244">
         <f t="shared" si="22"/>
         <v>118</v>
@@ -14507,10 +14509,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU143" s="298" t="s">
+      <c r="AU143" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV143" s="299"/>
+      <c r="AV143" s="280"/>
       <c r="AW143">
         <f t="shared" si="21"/>
         <v>119</v>
@@ -14523,10 +14525,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ143" s="302" t="s">
+      <c r="AZ143" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA143" s="344"/>
+      <c r="BA143" s="288"/>
       <c r="BB143" s="244">
         <f t="shared" si="22"/>
         <v>119</v>
@@ -14582,10 +14584,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU144" s="298" t="s">
+      <c r="AU144" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV144" s="299"/>
+      <c r="AV144" s="280"/>
       <c r="AW144">
         <f t="shared" si="21"/>
         <v>120</v>
@@ -14598,10 +14600,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ144" s="305" t="s">
+      <c r="AZ144" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA144" s="344"/>
+      <c r="BA144" s="288"/>
       <c r="BB144" s="244">
         <f t="shared" si="22"/>
         <v>120</v>
@@ -14657,10 +14659,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU145" s="302" t="s">
+      <c r="AU145" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV145" s="306"/>
+      <c r="AV145" s="284"/>
       <c r="AW145">
         <f t="shared" si="21"/>
         <v>121</v>
@@ -14673,10 +14675,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ145" s="307" t="s">
+      <c r="AZ145" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA145" s="344"/>
+      <c r="BA145" s="288"/>
       <c r="BB145" s="244">
         <f t="shared" si="22"/>
         <v>121</v>
@@ -14732,10 +14734,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU146" s="316" t="s">
+      <c r="AU146" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV146" s="317"/>
+      <c r="AV146" s="282"/>
       <c r="AW146">
         <f t="shared" si="21"/>
         <v>122</v>
@@ -14748,10 +14750,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ146" s="305" t="s">
+      <c r="AZ146" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA146" s="344"/>
+      <c r="BA146" s="288"/>
       <c r="BB146" s="244">
         <f t="shared" si="22"/>
         <v>122</v>
@@ -14807,10 +14809,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU147" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV147" s="306"/>
+      <c r="AU147" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="284"/>
       <c r="AW147">
         <f t="shared" si="21"/>
         <v>123</v>
@@ -14823,10 +14825,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ147" s="309" t="s">
+      <c r="AZ147" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA147" s="347"/>
+      <c r="BA147" s="296"/>
       <c r="BB147" s="244">
         <f t="shared" si="22"/>
         <v>123</v>
@@ -14882,10 +14884,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU148" s="309" t="s">
+      <c r="AU148" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV148" s="310"/>
+      <c r="AV148" s="287"/>
       <c r="AW148">
         <f t="shared" si="21"/>
         <v>124</v>
@@ -14898,10 +14900,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ148" s="309" t="s">
+      <c r="AZ148" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA148" s="347"/>
+      <c r="BA148" s="296"/>
       <c r="BB148" s="244">
         <f t="shared" si="22"/>
         <v>124</v>
@@ -14957,10 +14959,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU149" s="316" t="s">
+      <c r="AU149" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV149" s="317"/>
+      <c r="AV149" s="282"/>
       <c r="AW149">
         <f t="shared" si="21"/>
         <v>125</v>
@@ -14973,10 +14975,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ149" s="307" t="s">
+      <c r="AZ149" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA149" s="344"/>
+      <c r="BA149" s="288"/>
       <c r="BB149" s="244">
         <f t="shared" si="22"/>
         <v>125</v>
@@ -15032,10 +15034,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU150" s="302" t="s">
+      <c r="AU150" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV150" s="306"/>
+      <c r="AV150" s="284"/>
       <c r="AW150">
         <f t="shared" si="21"/>
         <v>126</v>
@@ -15048,10 +15050,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ150" s="316" t="s">
+      <c r="AZ150" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA150" s="345"/>
+      <c r="BA150" s="297"/>
       <c r="BB150" s="244">
         <f t="shared" si="22"/>
         <v>126</v>
@@ -15107,10 +15109,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU151" s="305" t="s">
+      <c r="AU151" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV151" s="306"/>
+      <c r="AV151" s="284"/>
       <c r="AW151">
         <f t="shared" si="21"/>
         <v>127</v>
@@ -15123,10 +15125,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ151" s="298" t="s">
+      <c r="AZ151" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA151" s="343"/>
+      <c r="BA151" s="289"/>
       <c r="BB151" s="244">
         <f t="shared" si="22"/>
         <v>127</v>
@@ -15182,10 +15184,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU152" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV152" s="306"/>
+      <c r="AU152" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="284"/>
       <c r="AW152">
         <f t="shared" si="21"/>
         <v>128</v>
@@ -15198,10 +15200,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ152" s="305" t="s">
+      <c r="AZ152" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA152" s="344"/>
+      <c r="BA152" s="288"/>
       <c r="BB152" s="244">
         <f t="shared" si="22"/>
         <v>128</v>
@@ -15257,10 +15259,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AU153" s="340" t="s">
+      <c r="AU153" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV153" s="341"/>
+      <c r="AV153" s="291"/>
       <c r="AW153">
         <f t="shared" si="21"/>
         <v>129</v>
@@ -15273,10 +15275,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ153" s="316" t="s">
+      <c r="AZ153" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA153" s="345"/>
+      <c r="BA153" s="297"/>
       <c r="BB153" s="244">
         <f t="shared" si="22"/>
         <v>129</v>
@@ -15332,10 +15334,10 @@
         <f t="shared" ref="AT154:AT217" si="24">IF(C154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU154" s="305" t="s">
+      <c r="AU154" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV154" s="306"/>
+      <c r="AV154" s="284"/>
       <c r="AW154">
         <f t="shared" si="21"/>
         <v>130</v>
@@ -15348,10 +15350,10 @@
         <f t="shared" ref="AY154:AY198" si="26">IF(H154&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ154" s="302" t="s">
+      <c r="AZ154" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA154" s="344"/>
+      <c r="BA154" s="288"/>
       <c r="BB154" s="244">
         <f t="shared" si="22"/>
         <v>130</v>
@@ -15407,10 +15409,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU155" s="309" t="s">
+      <c r="AU155" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV155" s="310"/>
+      <c r="AV155" s="287"/>
       <c r="AW155">
         <f t="shared" ref="AW155:AW218" si="29">AW154+1</f>
         <v>131</v>
@@ -15423,10 +15425,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ155" s="316" t="s">
+      <c r="AZ155" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA155" s="345"/>
+      <c r="BA155" s="297"/>
       <c r="BB155" s="244">
         <f t="shared" ref="BB155:BC198" si="30">BB154+1</f>
         <v>131</v>
@@ -15482,10 +15484,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU156" s="307" t="s">
+      <c r="AU156" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV156" s="306"/>
+      <c r="AV156" s="284"/>
       <c r="AW156">
         <f t="shared" si="29"/>
         <v>132</v>
@@ -15498,10 +15500,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ156" s="309" t="s">
+      <c r="AZ156" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA156" s="347"/>
+      <c r="BA156" s="296"/>
       <c r="BB156" s="244">
         <f t="shared" si="30"/>
         <v>132</v>
@@ -15557,10 +15559,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU157" s="309" t="s">
+      <c r="AU157" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV157" s="310"/>
+      <c r="AV157" s="287"/>
       <c r="AW157">
         <f t="shared" si="29"/>
         <v>133</v>
@@ -15573,10 +15575,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ157" s="316" t="s">
+      <c r="AZ157" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA157" s="345"/>
+      <c r="BA157" s="297"/>
       <c r="BB157" s="244">
         <f t="shared" si="30"/>
         <v>133</v>
@@ -15632,10 +15634,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU158" s="305" t="s">
+      <c r="AU158" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV158" s="306"/>
+      <c r="AV158" s="284"/>
       <c r="AW158">
         <f t="shared" si="29"/>
         <v>134</v>
@@ -15648,10 +15650,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ158" s="305" t="s">
+      <c r="AZ158" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA158" s="344"/>
+      <c r="BA158" s="288"/>
       <c r="BB158" s="244">
         <f t="shared" si="30"/>
         <v>134</v>
@@ -15707,10 +15709,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU159" s="305" t="s">
+      <c r="AU159" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV159" s="306"/>
+      <c r="AV159" s="284"/>
       <c r="AW159">
         <f t="shared" si="29"/>
         <v>135</v>
@@ -15723,10 +15725,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ159" s="309" t="s">
+      <c r="AZ159" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA159" s="347"/>
+      <c r="BA159" s="296"/>
       <c r="BB159" s="244">
         <f t="shared" si="30"/>
         <v>135</v>
@@ -15782,10 +15784,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU160" s="340" t="s">
+      <c r="AU160" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV160" s="341"/>
+      <c r="AV160" s="291"/>
       <c r="AW160">
         <f t="shared" si="29"/>
         <v>136</v>
@@ -15798,10 +15800,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ160" s="302" t="s">
+      <c r="AZ160" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA160" s="344"/>
+      <c r="BA160" s="288"/>
       <c r="BB160" s="244">
         <f t="shared" si="30"/>
         <v>136</v>
@@ -15857,10 +15859,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU161" s="309" t="s">
+      <c r="AU161" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV161" s="310"/>
+      <c r="AV161" s="287"/>
       <c r="AW161">
         <f t="shared" si="29"/>
         <v>137</v>
@@ -15873,10 +15875,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ161" s="316" t="s">
+      <c r="AZ161" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA161" s="345"/>
+      <c r="BA161" s="297"/>
       <c r="BB161" s="244">
         <f t="shared" si="30"/>
         <v>137</v>
@@ -15932,10 +15934,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU162" s="298" t="s">
+      <c r="AU162" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV162" s="299"/>
+      <c r="AV162" s="280"/>
       <c r="AW162">
         <f t="shared" si="29"/>
         <v>138</v>
@@ -15948,10 +15950,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ162" s="309" t="s">
+      <c r="AZ162" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA162" s="347"/>
+      <c r="BA162" s="296"/>
       <c r="BB162" s="244">
         <f t="shared" si="30"/>
         <v>138</v>
@@ -16007,10 +16009,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU163" s="316" t="s">
+      <c r="AU163" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV163" s="317"/>
+      <c r="AV163" s="282"/>
       <c r="AW163">
         <f t="shared" si="29"/>
         <v>139</v>
@@ -16023,10 +16025,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ163" s="298" t="s">
+      <c r="AZ163" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA163" s="343"/>
+      <c r="BA163" s="289"/>
       <c r="BB163" s="244">
         <f t="shared" si="30"/>
         <v>139</v>
@@ -16082,10 +16084,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU164" s="307" t="s">
+      <c r="AU164" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV164" s="306"/>
+      <c r="AV164" s="284"/>
       <c r="AW164">
         <f t="shared" si="29"/>
         <v>140</v>
@@ -16098,10 +16100,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ164" s="340" t="s">
+      <c r="AZ164" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="BA164" s="346"/>
+      <c r="BA164" s="299"/>
       <c r="BB164" s="244">
         <f t="shared" si="30"/>
         <v>140</v>
@@ -16157,10 +16159,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU165" s="307" t="s">
+      <c r="AU165" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV165" s="306"/>
+      <c r="AV165" s="284"/>
       <c r="AW165">
         <f t="shared" si="29"/>
         <v>141</v>
@@ -16173,10 +16175,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ165" s="298" t="s">
+      <c r="AZ165" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA165" s="343"/>
+      <c r="BA165" s="289"/>
       <c r="BB165" s="244">
         <f t="shared" si="30"/>
         <v>141</v>
@@ -16232,10 +16234,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU166" s="316" t="s">
+      <c r="AU166" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV166" s="317"/>
+      <c r="AV166" s="282"/>
       <c r="AW166">
         <f t="shared" si="29"/>
         <v>142</v>
@@ -16248,10 +16250,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ166" s="302" t="s">
+      <c r="AZ166" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA166" s="344"/>
+      <c r="BA166" s="288"/>
       <c r="BB166" s="244">
         <f t="shared" si="30"/>
         <v>142</v>
@@ -16307,10 +16309,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU167" s="307" t="s">
+      <c r="AU167" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV167" s="306"/>
+      <c r="AV167" s="284"/>
       <c r="AW167">
         <f t="shared" si="29"/>
         <v>143</v>
@@ -16323,10 +16325,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ167" s="316" t="s">
+      <c r="AZ167" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA167" s="345"/>
+      <c r="BA167" s="297"/>
       <c r="BB167" s="244">
         <f t="shared" si="30"/>
         <v>143</v>
@@ -16382,10 +16384,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU168" s="305" t="s">
+      <c r="AU168" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV168" s="306"/>
+      <c r="AV168" s="284"/>
       <c r="AW168">
         <f t="shared" si="29"/>
         <v>144</v>
@@ -16398,10 +16400,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ168" s="302" t="s">
+      <c r="AZ168" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA168" s="344"/>
+      <c r="BA168" s="288"/>
       <c r="BB168" s="244">
         <f t="shared" si="30"/>
         <v>144</v>
@@ -16457,10 +16459,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU169" s="302" t="s">
+      <c r="AU169" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV169" s="306"/>
+      <c r="AV169" s="284"/>
       <c r="AW169">
         <f t="shared" si="29"/>
         <v>145</v>
@@ -16473,10 +16475,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ169" s="316" t="s">
+      <c r="AZ169" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA169" s="345"/>
+      <c r="BA169" s="297"/>
       <c r="BB169" s="244">
         <f t="shared" si="30"/>
         <v>145</v>
@@ -16532,10 +16534,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU170" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV170" s="306"/>
+      <c r="AU170" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="284"/>
       <c r="AW170">
         <f t="shared" si="29"/>
         <v>146</v>
@@ -16548,10 +16550,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ170" s="298" t="s">
+      <c r="AZ170" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA170" s="343"/>
+      <c r="BA170" s="289"/>
       <c r="BB170" s="244">
         <f t="shared" si="30"/>
         <v>146</v>
@@ -16607,10 +16609,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU171" s="305" t="s">
+      <c r="AU171" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV171" s="306"/>
+      <c r="AV171" s="284"/>
       <c r="AW171">
         <f t="shared" si="29"/>
         <v>147</v>
@@ -16623,10 +16625,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ171" s="305" t="s">
+      <c r="AZ171" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA171" s="344"/>
+      <c r="BA171" s="288"/>
       <c r="BB171" s="244">
         <f t="shared" si="30"/>
         <v>147</v>
@@ -16682,10 +16684,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU172" s="338" t="s">
+      <c r="AU172" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV172" s="339"/>
+      <c r="AV172" s="294"/>
       <c r="AW172">
         <f t="shared" si="29"/>
         <v>148</v>
@@ -16698,10 +16700,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ172" s="305" t="s">
+      <c r="AZ172" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA172" s="344"/>
+      <c r="BA172" s="288"/>
       <c r="BB172" s="244">
         <f t="shared" si="30"/>
         <v>148</v>
@@ -16757,10 +16759,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU173" s="316" t="s">
+      <c r="AU173" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV173" s="317"/>
+      <c r="AV173" s="282"/>
       <c r="AW173">
         <f t="shared" si="29"/>
         <v>149</v>
@@ -16773,10 +16775,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ173" s="307" t="s">
+      <c r="AZ173" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA173" s="344"/>
+      <c r="BA173" s="288"/>
       <c r="BB173" s="244">
         <f t="shared" si="30"/>
         <v>149</v>
@@ -16832,10 +16834,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU174" s="305" t="s">
+      <c r="AU174" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV174" s="306"/>
+      <c r="AV174" s="284"/>
       <c r="AW174">
         <f t="shared" si="29"/>
         <v>150</v>
@@ -16848,10 +16850,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ174" s="305" t="s">
+      <c r="AZ174" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA174" s="344"/>
+      <c r="BA174" s="288"/>
       <c r="BB174" s="244">
         <f t="shared" si="30"/>
         <v>150</v>
@@ -16907,10 +16909,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU175" s="307" t="s">
+      <c r="AU175" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV175" s="306"/>
+      <c r="AV175" s="284"/>
       <c r="AW175">
         <f t="shared" si="29"/>
         <v>151</v>
@@ -16923,10 +16925,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ175" s="305" t="s">
+      <c r="AZ175" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA175" s="344"/>
+      <c r="BA175" s="288"/>
       <c r="BB175" s="244">
         <f t="shared" si="30"/>
         <v>151</v>
@@ -16982,10 +16984,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU176" s="338" t="s">
+      <c r="AU176" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV176" s="339"/>
+      <c r="AV176" s="294"/>
       <c r="AW176">
         <f t="shared" si="29"/>
         <v>152</v>
@@ -16998,10 +17000,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ176" s="309" t="s">
+      <c r="AZ176" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA176" s="347"/>
+      <c r="BA176" s="296"/>
       <c r="BB176" s="244">
         <f t="shared" si="30"/>
         <v>152</v>
@@ -17057,10 +17059,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU177" s="302" t="s">
+      <c r="AU177" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV177" s="306"/>
+      <c r="AV177" s="284"/>
       <c r="AW177">
         <f t="shared" si="29"/>
         <v>153</v>
@@ -17073,10 +17075,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ177" s="305" t="s">
+      <c r="AZ177" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA177" s="344"/>
+      <c r="BA177" s="288"/>
       <c r="BB177" s="244">
         <f t="shared" si="30"/>
         <v>153</v>
@@ -17132,10 +17134,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU178" s="302" t="s">
+      <c r="AU178" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV178" s="306"/>
+      <c r="AV178" s="284"/>
       <c r="AW178">
         <f t="shared" si="29"/>
         <v>154</v>
@@ -17148,10 +17150,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ178" s="305" t="s">
+      <c r="AZ178" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA178" s="344"/>
+      <c r="BA178" s="288"/>
       <c r="BB178" s="244">
         <f t="shared" si="30"/>
         <v>154</v>
@@ -17207,10 +17209,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU179" s="302" t="s">
+      <c r="AU179" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV179" s="306"/>
+      <c r="AV179" s="284"/>
       <c r="AW179">
         <f t="shared" si="29"/>
         <v>155</v>
@@ -17223,10 +17225,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ179" s="309" t="s">
+      <c r="AZ179" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA179" s="347"/>
+      <c r="BA179" s="296"/>
       <c r="BB179" s="244">
         <f t="shared" si="30"/>
         <v>155</v>
@@ -17282,10 +17284,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU180" s="305" t="s">
+      <c r="AU180" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV180" s="306"/>
+      <c r="AV180" s="284"/>
       <c r="AW180">
         <f t="shared" si="29"/>
         <v>156</v>
@@ -17298,10 +17300,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ180" s="298" t="s">
+      <c r="AZ180" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA180" s="343"/>
+      <c r="BA180" s="289"/>
       <c r="BB180" s="244">
         <f t="shared" si="30"/>
         <v>156</v>
@@ -17357,10 +17359,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU181" s="309" t="s">
+      <c r="AU181" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV181" s="310"/>
+      <c r="AV181" s="287"/>
       <c r="AW181">
         <f t="shared" si="29"/>
         <v>157</v>
@@ -17373,10 +17375,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ181" s="309" t="s">
+      <c r="AZ181" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA181" s="347"/>
+      <c r="BA181" s="296"/>
       <c r="BB181" s="244">
         <f t="shared" si="30"/>
         <v>157</v>
@@ -17432,10 +17434,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU182" s="338" t="s">
+      <c r="AU182" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV182" s="339"/>
+      <c r="AV182" s="294"/>
       <c r="AW182">
         <f t="shared" si="29"/>
         <v>158</v>
@@ -17448,10 +17450,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ182" s="298" t="s">
+      <c r="AZ182" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA182" s="343"/>
+      <c r="BA182" s="289"/>
       <c r="BB182" s="244">
         <f t="shared" si="30"/>
         <v>158</v>
@@ -17507,10 +17509,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU183" s="302" t="s">
+      <c r="AU183" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV183" s="306"/>
+      <c r="AV183" s="284"/>
       <c r="AW183">
         <f t="shared" si="29"/>
         <v>159</v>
@@ -17523,10 +17525,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ183" s="316" t="s">
+      <c r="AZ183" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA183" s="345"/>
+      <c r="BA183" s="297"/>
       <c r="BB183" s="244">
         <f t="shared" si="30"/>
         <v>159</v>
@@ -17582,10 +17584,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU184" s="298" t="s">
+      <c r="AU184" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV184" s="299"/>
+      <c r="AV184" s="280"/>
       <c r="AW184">
         <f t="shared" si="29"/>
         <v>160</v>
@@ -17598,10 +17600,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ184" s="305" t="s">
+      <c r="AZ184" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA184" s="344"/>
+      <c r="BA184" s="288"/>
       <c r="BB184" s="244">
         <f t="shared" si="30"/>
         <v>160</v>
@@ -17657,10 +17659,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU185" s="298" t="s">
+      <c r="AU185" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV185" s="299"/>
+      <c r="AV185" s="280"/>
       <c r="AW185">
         <f t="shared" si="29"/>
         <v>161</v>
@@ -17673,10 +17675,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ185" s="316" t="s">
+      <c r="AZ185" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA185" s="345"/>
+      <c r="BA185" s="297"/>
       <c r="BB185" s="244">
         <f t="shared" si="30"/>
         <v>161</v>
@@ -17732,10 +17734,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU186" s="305" t="s">
+      <c r="AU186" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV186" s="306"/>
+      <c r="AV186" s="284"/>
       <c r="AW186">
         <f t="shared" si="29"/>
         <v>162</v>
@@ -17748,10 +17750,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ186" s="309" t="s">
+      <c r="AZ186" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="BA186" s="347"/>
+      <c r="BA186" s="296"/>
       <c r="BB186" s="244">
         <f t="shared" si="30"/>
         <v>162</v>
@@ -17807,10 +17809,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU187" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV187" s="306"/>
+      <c r="AU187" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV187" s="284"/>
       <c r="AW187">
         <f t="shared" si="29"/>
         <v>163</v>
@@ -17823,10 +17825,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ187" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA187" s="344"/>
+      <c r="AZ187" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA187" s="288"/>
       <c r="BB187" s="244">
         <f t="shared" si="30"/>
         <v>163</v>
@@ -17882,10 +17884,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU188" s="305" t="s">
+      <c r="AU188" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV188" s="306"/>
+      <c r="AV188" s="284"/>
       <c r="AW188">
         <f t="shared" si="29"/>
         <v>164</v>
@@ -17898,10 +17900,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ188" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA188" s="344"/>
+      <c r="AZ188" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA188" s="288"/>
       <c r="BB188" s="244">
         <f t="shared" si="30"/>
         <v>164</v>
@@ -17957,10 +17959,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU189" s="305" t="s">
+      <c r="AU189" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV189" s="306"/>
+      <c r="AV189" s="284"/>
       <c r="AW189">
         <f t="shared" si="29"/>
         <v>165</v>
@@ -17973,10 +17975,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ189" s="305" t="s">
+      <c r="AZ189" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="BA189" s="306"/>
+      <c r="BA189" s="284"/>
       <c r="BB189" s="244">
         <f t="shared" si="30"/>
         <v>165</v>
@@ -18032,10 +18034,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU190" s="298" t="s">
+      <c r="AU190" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV190" s="299"/>
+      <c r="AV190" s="280"/>
       <c r="AW190">
         <f t="shared" si="29"/>
         <v>166</v>
@@ -18048,10 +18050,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ190" s="302" t="s">
+      <c r="AZ190" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA190" s="344"/>
+      <c r="BA190" s="288"/>
       <c r="BB190" s="244">
         <f t="shared" si="30"/>
         <v>166</v>
@@ -18107,10 +18109,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU191" s="298" t="s">
+      <c r="AU191" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV191" s="299"/>
+      <c r="AV191" s="280"/>
       <c r="AW191">
         <f t="shared" si="29"/>
         <v>167</v>
@@ -18123,10 +18125,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ191" s="316" t="s">
+      <c r="AZ191" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="BA191" s="345"/>
+      <c r="BA191" s="297"/>
       <c r="BB191" s="244">
         <f t="shared" si="30"/>
         <v>167</v>
@@ -18182,10 +18184,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU192" s="302" t="s">
+      <c r="AU192" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV192" s="306"/>
+      <c r="AV192" s="284"/>
       <c r="AW192">
         <f t="shared" si="29"/>
         <v>168</v>
@@ -18198,10 +18200,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ192" s="302" t="s">
+      <c r="AZ192" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA192" s="344"/>
+      <c r="BA192" s="288"/>
       <c r="BB192" s="244">
         <f t="shared" si="30"/>
         <v>168</v>
@@ -18257,10 +18259,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU193" s="305" t="s">
+      <c r="AU193" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV193" s="306"/>
+      <c r="AV193" s="284"/>
       <c r="AW193">
         <f t="shared" si="29"/>
         <v>169</v>
@@ -18273,10 +18275,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ193" s="298" t="s">
+      <c r="AZ193" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA193" s="343"/>
+      <c r="BA193" s="289"/>
       <c r="BB193" s="244">
         <f t="shared" si="30"/>
         <v>169</v>
@@ -18332,10 +18334,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU194" s="309" t="s">
+      <c r="AU194" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV194" s="310"/>
+      <c r="AV194" s="287"/>
       <c r="AW194">
         <f t="shared" si="29"/>
         <v>170</v>
@@ -18348,10 +18350,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ194" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA194" s="344"/>
+      <c r="AZ194" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA194" s="288"/>
       <c r="BB194" s="244">
         <f t="shared" si="30"/>
         <v>170</v>
@@ -18407,10 +18409,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU195" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV195" s="306"/>
+      <c r="AU195" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV195" s="284"/>
       <c r="AW195">
         <f t="shared" si="29"/>
         <v>171</v>
@@ -18423,10 +18425,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ195" s="298" t="s">
+      <c r="AZ195" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="BA195" s="343"/>
+      <c r="BA195" s="289"/>
       <c r="BB195" s="244">
         <f t="shared" si="30"/>
         <v>171</v>
@@ -18482,10 +18484,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU196" s="338" t="s">
+      <c r="AU196" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV196" s="339"/>
+      <c r="AV196" s="294"/>
       <c r="AW196">
         <f t="shared" si="29"/>
         <v>172</v>
@@ -18498,10 +18500,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ196" s="302" t="s">
+      <c r="AZ196" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="BA196" s="344"/>
+      <c r="BA196" s="288"/>
       <c r="BB196" s="244">
         <f t="shared" si="30"/>
         <v>172</v>
@@ -18557,10 +18559,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU197" s="302" t="s">
+      <c r="AU197" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV197" s="306"/>
+      <c r="AV197" s="284"/>
       <c r="AW197">
         <f t="shared" si="29"/>
         <v>173</v>
@@ -18573,10 +18575,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ197" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA197" s="344"/>
+      <c r="AZ197" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA197" s="288"/>
       <c r="BB197" s="244">
         <f t="shared" si="30"/>
         <v>173</v>
@@ -18632,10 +18634,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU198" s="302" t="s">
+      <c r="AU198" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV198" s="306"/>
+      <c r="AV198" s="284"/>
       <c r="AW198">
         <f t="shared" si="29"/>
         <v>174</v>
@@ -18648,10 +18650,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AZ198" s="307" t="s">
+      <c r="AZ198" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="BA198" s="344"/>
+      <c r="BA198" s="288"/>
       <c r="BB198" s="245">
         <f t="shared" si="30"/>
         <v>174</v>
@@ -18701,10 +18703,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU199" s="298" t="s">
+      <c r="AU199" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV199" s="299"/>
+      <c r="AV199" s="280"/>
       <c r="AW199">
         <f t="shared" si="29"/>
         <v>175</v>
@@ -18753,10 +18755,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU200" s="298" t="s">
+      <c r="AU200" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV200" s="299"/>
+      <c r="AV200" s="280"/>
       <c r="AW200">
         <f t="shared" si="29"/>
         <v>176</v>
@@ -18805,10 +18807,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU201" s="307" t="s">
+      <c r="AU201" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV201" s="306"/>
+      <c r="AV201" s="284"/>
       <c r="AW201">
         <f t="shared" si="29"/>
         <v>177</v>
@@ -18857,10 +18859,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU202" s="302" t="s">
+      <c r="AU202" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV202" s="306"/>
+      <c r="AV202" s="284"/>
       <c r="AW202">
         <f t="shared" si="29"/>
         <v>178</v>
@@ -18909,10 +18911,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU203" s="302" t="s">
+      <c r="AU203" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV203" s="306"/>
+      <c r="AV203" s="284"/>
       <c r="AW203">
         <f t="shared" si="29"/>
         <v>179</v>
@@ -18961,10 +18963,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU204" s="305" t="s">
+      <c r="AU204" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV204" s="306"/>
+      <c r="AV204" s="284"/>
       <c r="AW204">
         <f t="shared" si="29"/>
         <v>180</v>
@@ -19013,10 +19015,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU205" s="305" t="s">
+      <c r="AU205" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV205" s="306"/>
+      <c r="AV205" s="284"/>
       <c r="AW205">
         <f t="shared" si="29"/>
         <v>181</v>
@@ -19065,10 +19067,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU206" s="305" t="s">
+      <c r="AU206" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV206" s="306"/>
+      <c r="AV206" s="284"/>
       <c r="AW206">
         <f t="shared" si="29"/>
         <v>182</v>
@@ -19117,10 +19119,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU207" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV207" s="306"/>
+      <c r="AU207" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV207" s="284"/>
       <c r="AW207">
         <f t="shared" si="29"/>
         <v>183</v>
@@ -19169,10 +19171,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU208" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV208" s="306"/>
+      <c r="AU208" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV208" s="284"/>
       <c r="AW208">
         <f t="shared" si="29"/>
         <v>184</v>
@@ -19221,10 +19223,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU209" s="316" t="s">
+      <c r="AU209" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV209" s="317"/>
+      <c r="AV209" s="282"/>
       <c r="AW209">
         <f t="shared" si="29"/>
         <v>185</v>
@@ -19273,10 +19275,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU210" s="305" t="s">
+      <c r="AU210" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV210" s="306"/>
+      <c r="AV210" s="284"/>
       <c r="AW210">
         <f t="shared" si="29"/>
         <v>186</v>
@@ -19325,10 +19327,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU211" s="302" t="s">
+      <c r="AU211" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV211" s="303"/>
+      <c r="AV211" s="301"/>
       <c r="AW211">
         <f t="shared" si="29"/>
         <v>187</v>
@@ -19377,10 +19379,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU212" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV212" s="306"/>
+      <c r="AU212" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV212" s="284"/>
       <c r="AW212">
         <f t="shared" si="29"/>
         <v>188</v>
@@ -19429,10 +19431,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU213" s="305" t="s">
+      <c r="AU213" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV213" s="306"/>
+      <c r="AV213" s="284"/>
       <c r="AW213">
         <f t="shared" si="29"/>
         <v>189</v>
@@ -19481,10 +19483,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU214" s="307" t="s">
+      <c r="AU214" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV214" s="306"/>
+      <c r="AV214" s="284"/>
       <c r="AW214">
         <f t="shared" si="29"/>
         <v>190</v>
@@ -19533,10 +19535,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU215" s="305" t="s">
+      <c r="AU215" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV215" s="306"/>
+      <c r="AV215" s="284"/>
       <c r="AW215">
         <f t="shared" si="29"/>
         <v>191</v>
@@ -19585,10 +19587,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU216" s="305" t="s">
+      <c r="AU216" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV216" s="306"/>
+      <c r="AV216" s="284"/>
       <c r="AW216">
         <f t="shared" si="29"/>
         <v>192</v>
@@ -19637,10 +19639,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AU217" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV217" s="306"/>
+      <c r="AU217" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV217" s="284"/>
       <c r="AW217">
         <f t="shared" si="29"/>
         <v>193</v>
@@ -19689,10 +19691,10 @@
         <f t="shared" ref="AT218:AT254" si="32">IF(C218&lt;&gt;"",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AU218" s="305" t="s">
+      <c r="AU218" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV218" s="306"/>
+      <c r="AV218" s="284"/>
       <c r="AW218">
         <f t="shared" si="29"/>
         <v>194</v>
@@ -19741,10 +19743,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU219" s="298" t="s">
+      <c r="AU219" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV219" s="299"/>
+      <c r="AV219" s="280"/>
       <c r="AW219">
         <f t="shared" ref="AW219:AW254" si="34">AW218+1</f>
         <v>195</v>
@@ -19793,10 +19795,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU220" s="309" t="s">
+      <c r="AU220" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV220" s="310"/>
+      <c r="AV220" s="287"/>
       <c r="AW220">
         <f t="shared" si="34"/>
         <v>196</v>
@@ -19845,10 +19847,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU221" s="305" t="s">
+      <c r="AU221" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV221" s="306"/>
+      <c r="AV221" s="284"/>
       <c r="AW221">
         <f t="shared" si="34"/>
         <v>197</v>
@@ -19897,10 +19899,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU222" s="305" t="s">
+      <c r="AU222" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV222" s="306"/>
+      <c r="AV222" s="284"/>
       <c r="AW222">
         <f t="shared" si="34"/>
         <v>198</v>
@@ -19949,10 +19951,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU223" s="298" t="s">
+      <c r="AU223" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV223" s="299"/>
+      <c r="AV223" s="280"/>
       <c r="AW223">
         <f t="shared" si="34"/>
         <v>199</v>
@@ -20001,10 +20003,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU224" s="305" t="s">
+      <c r="AU224" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV224" s="306"/>
+      <c r="AV224" s="284"/>
       <c r="AW224">
         <f t="shared" si="34"/>
         <v>200</v>
@@ -20053,10 +20055,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU225" s="305" t="s">
+      <c r="AU225" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV225" s="306"/>
+      <c r="AV225" s="284"/>
       <c r="AW225">
         <f t="shared" si="34"/>
         <v>201</v>
@@ -20105,10 +20107,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU226" s="340" t="s">
+      <c r="AU226" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV226" s="341"/>
+      <c r="AV226" s="291"/>
       <c r="AW226">
         <f t="shared" si="34"/>
         <v>202</v>
@@ -20157,10 +20159,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU227" s="298" t="s">
+      <c r="AU227" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV227" s="299"/>
+      <c r="AV227" s="280"/>
       <c r="AW227">
         <f t="shared" si="34"/>
         <v>203</v>
@@ -20209,10 +20211,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU228" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV228" s="306"/>
+      <c r="AU228" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="284"/>
       <c r="AW228">
         <f t="shared" si="34"/>
         <v>204</v>
@@ -20261,10 +20263,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU229" s="305" t="s">
+      <c r="AU229" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV229" s="306"/>
+      <c r="AV229" s="284"/>
       <c r="AW229">
         <f t="shared" si="34"/>
         <v>205</v>
@@ -20313,10 +20315,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU230" s="302" t="s">
+      <c r="AU230" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV230" s="303"/>
+      <c r="AV230" s="301"/>
       <c r="AW230">
         <f t="shared" si="34"/>
         <v>206</v>
@@ -20365,10 +20367,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU231" s="298" t="s">
+      <c r="AU231" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV231" s="299"/>
+      <c r="AV231" s="280"/>
       <c r="AW231">
         <f t="shared" si="34"/>
         <v>207</v>
@@ -20417,10 +20419,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU232" s="305" t="s">
+      <c r="AU232" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV232" s="306"/>
+      <c r="AV232" s="284"/>
       <c r="AW232">
         <f t="shared" si="34"/>
         <v>208</v>
@@ -20469,10 +20471,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU233" s="307" t="s">
+      <c r="AU233" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV233" s="306"/>
+      <c r="AV233" s="284"/>
       <c r="AW233">
         <f t="shared" si="34"/>
         <v>209</v>
@@ -20521,10 +20523,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU234" s="302" t="s">
+      <c r="AU234" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV234" s="306"/>
+      <c r="AV234" s="284"/>
       <c r="AW234">
         <f t="shared" si="34"/>
         <v>210</v>
@@ -20573,10 +20575,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU235" s="305" t="s">
+      <c r="AU235" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV235" s="306"/>
+      <c r="AV235" s="284"/>
       <c r="AW235">
         <f t="shared" si="34"/>
         <v>211</v>
@@ -20625,10 +20627,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU236" s="309" t="s">
+      <c r="AU236" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="AV236" s="310"/>
+      <c r="AV236" s="287"/>
       <c r="AW236">
         <f t="shared" si="34"/>
         <v>212</v>
@@ -20677,10 +20679,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU237" s="302" t="s">
+      <c r="AU237" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV237" s="306"/>
+      <c r="AV237" s="284"/>
       <c r="AW237">
         <f t="shared" si="34"/>
         <v>213</v>
@@ -20729,10 +20731,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU238" s="316" t="s">
+      <c r="AU238" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV238" s="317"/>
+      <c r="AV238" s="282"/>
       <c r="AW238">
         <f t="shared" si="34"/>
         <v>214</v>
@@ -20781,10 +20783,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU239" s="316" t="s">
+      <c r="AU239" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV239" s="317"/>
+      <c r="AV239" s="282"/>
       <c r="AW239">
         <f t="shared" si="34"/>
         <v>215</v>
@@ -20833,10 +20835,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU240" s="305" t="s">
+      <c r="AU240" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV240" s="306"/>
+      <c r="AV240" s="284"/>
       <c r="AW240">
         <f t="shared" si="34"/>
         <v>216</v>
@@ -20885,10 +20887,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU241" s="316" t="s">
+      <c r="AU241" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AV241" s="317"/>
+      <c r="AV241" s="282"/>
       <c r="AW241">
         <f t="shared" si="34"/>
         <v>217</v>
@@ -20937,10 +20939,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU242" s="305" t="s">
+      <c r="AU242" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV242" s="306"/>
+      <c r="AV242" s="284"/>
       <c r="AW242">
         <f t="shared" si="34"/>
         <v>218</v>
@@ -20989,10 +20991,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU243" s="340" t="s">
+      <c r="AU243" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="AV243" s="341"/>
+      <c r="AV243" s="291"/>
       <c r="AW243">
         <f t="shared" si="34"/>
         <v>219</v>
@@ -21041,10 +21043,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU244" s="302" t="s">
+      <c r="AU244" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV244" s="303"/>
+      <c r="AV244" s="301"/>
       <c r="AW244">
         <f t="shared" si="34"/>
         <v>220</v>
@@ -21093,10 +21095,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU245" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV245" s="306"/>
+      <c r="AU245" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV245" s="284"/>
       <c r="AW245">
         <f t="shared" si="34"/>
         <v>221</v>
@@ -21145,10 +21147,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU246" s="307" t="s">
+      <c r="AU246" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV246" s="306"/>
+      <c r="AV246" s="284"/>
       <c r="AW246">
         <f t="shared" si="34"/>
         <v>222</v>
@@ -21197,10 +21199,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU247" s="307" t="s">
+      <c r="AU247" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="AV247" s="306"/>
+      <c r="AV247" s="284"/>
       <c r="AW247">
         <f t="shared" si="34"/>
         <v>223</v>
@@ -21249,10 +21251,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU248" s="305" t="s">
+      <c r="AU248" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV248" s="306"/>
+      <c r="AV248" s="284"/>
       <c r="AW248">
         <f t="shared" si="34"/>
         <v>224</v>
@@ -21301,10 +21303,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU249" s="302" t="s">
+      <c r="AU249" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV249" s="306"/>
+      <c r="AV249" s="284"/>
       <c r="AW249">
         <f t="shared" si="34"/>
         <v>225</v>
@@ -21353,10 +21355,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU250" s="305" t="s">
+      <c r="AU250" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="AV250" s="342"/>
+      <c r="AV250" s="302"/>
       <c r="AW250">
         <f t="shared" si="34"/>
         <v>226</v>
@@ -21405,10 +21407,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU251" s="298" t="s">
+      <c r="AU251" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="AV251" s="299"/>
+      <c r="AV251" s="280"/>
       <c r="AW251">
         <f t="shared" si="34"/>
         <v>227</v>
@@ -21457,10 +21459,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU252" s="338" t="s">
+      <c r="AU252" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="AV252" s="339"/>
+      <c r="AV252" s="294"/>
       <c r="AW252">
         <f t="shared" si="34"/>
         <v>228</v>
@@ -21509,10 +21511,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU253" s="302" t="s">
+      <c r="AU253" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV253" s="303"/>
+      <c r="AV253" s="301"/>
       <c r="AW253">
         <f t="shared" si="34"/>
         <v>229</v>
@@ -21561,10 +21563,10 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AU254" s="302" t="s">
+      <c r="AU254" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="AV254" s="303"/>
+      <c r="AV254" s="301"/>
       <c r="AW254">
         <f t="shared" si="34"/>
         <v>230</v>
@@ -23520,16 +23522,416 @@
     </row>
   </sheetData>
   <mergeCells count="444">
-    <mergeCell ref="BF28:BG28"/>
-    <mergeCell ref="BF29:BG29"/>
-    <mergeCell ref="BF30:BG30"/>
-    <mergeCell ref="BF31:BG31"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="H20:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="AU26:AV26"/>
+    <mergeCell ref="AU37:AV37"/>
+    <mergeCell ref="AU39:AV39"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AU43:AV43"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AU49:AV49"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="AU44:AV44"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="AU45:AV45"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="AU25:AV25"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AU27:AV27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU73:AV73"/>
+    <mergeCell ref="AU74:AV74"/>
+    <mergeCell ref="AU82:AV82"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AU81:AV81"/>
+    <mergeCell ref="AU83:AV83"/>
+    <mergeCell ref="AU60:AV60"/>
+    <mergeCell ref="AU64:AV64"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU61:AV61"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AU70:AV70"/>
+    <mergeCell ref="AU68:AV68"/>
+    <mergeCell ref="AU62:AV62"/>
+    <mergeCell ref="AU65:AV65"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AU85:AV85"/>
+    <mergeCell ref="AU87:AV87"/>
+    <mergeCell ref="AU84:AV84"/>
+    <mergeCell ref="AU86:AV86"/>
+    <mergeCell ref="AU89:AV89"/>
+    <mergeCell ref="AU93:AV93"/>
+    <mergeCell ref="AU97:AV97"/>
+    <mergeCell ref="AU106:AV106"/>
+    <mergeCell ref="AU94:AV94"/>
+    <mergeCell ref="AU95:AV95"/>
+    <mergeCell ref="AU88:AV88"/>
+    <mergeCell ref="AU90:AV90"/>
+    <mergeCell ref="AU96:AV96"/>
+    <mergeCell ref="AU91:AV91"/>
+    <mergeCell ref="AU92:AV92"/>
+    <mergeCell ref="AU102:AV102"/>
+    <mergeCell ref="AU98:AV98"/>
+    <mergeCell ref="AU101:AV101"/>
+    <mergeCell ref="AU100:AV100"/>
+    <mergeCell ref="AU99:AV99"/>
+    <mergeCell ref="AU103:AV103"/>
+    <mergeCell ref="AU104:AV104"/>
+    <mergeCell ref="AU254:AV254"/>
+    <mergeCell ref="AU217:AV217"/>
+    <mergeCell ref="AU215:AV215"/>
+    <mergeCell ref="AU214:AV214"/>
+    <mergeCell ref="AU251:AV251"/>
+    <mergeCell ref="AU249:AV249"/>
+    <mergeCell ref="AU212:AV212"/>
+    <mergeCell ref="AU232:AV232"/>
+    <mergeCell ref="AU237:AV237"/>
+    <mergeCell ref="AU239:AV239"/>
+    <mergeCell ref="AU242:AV242"/>
+    <mergeCell ref="AU213:AV213"/>
+    <mergeCell ref="AU236:AV236"/>
+    <mergeCell ref="AU221:AV221"/>
+    <mergeCell ref="AU229:AV229"/>
+    <mergeCell ref="AU227:AV227"/>
+    <mergeCell ref="AU253:AV253"/>
+    <mergeCell ref="AU250:AV250"/>
+    <mergeCell ref="AU245:AV245"/>
+    <mergeCell ref="AU252:AV252"/>
+    <mergeCell ref="AU244:AV244"/>
+    <mergeCell ref="AU243:AV243"/>
+    <mergeCell ref="AU248:AV248"/>
+    <mergeCell ref="AU241:AV241"/>
+    <mergeCell ref="AU164:AV164"/>
+    <mergeCell ref="AU165:AV165"/>
+    <mergeCell ref="AU170:AV170"/>
+    <mergeCell ref="AU176:AV176"/>
+    <mergeCell ref="AU40:AV40"/>
+    <mergeCell ref="AU42:AV42"/>
+    <mergeCell ref="AU57:AV57"/>
+    <mergeCell ref="AU63:AV63"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="AU50:AV50"/>
+    <mergeCell ref="AU51:AV51"/>
+    <mergeCell ref="AU52:AV52"/>
+    <mergeCell ref="AU55:AV55"/>
+    <mergeCell ref="AU66:AV66"/>
+    <mergeCell ref="AU69:AV69"/>
+    <mergeCell ref="AU54:AV54"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="AU56:AV56"/>
+    <mergeCell ref="AU48:AV48"/>
+    <mergeCell ref="AU53:AV53"/>
+    <mergeCell ref="AU47:AV47"/>
+    <mergeCell ref="AU116:AV116"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU247:AV247"/>
+    <mergeCell ref="AU246:AV246"/>
+    <mergeCell ref="AU220:AV220"/>
+    <mergeCell ref="AU209:AV209"/>
+    <mergeCell ref="AU222:AV222"/>
+    <mergeCell ref="AU210:AV210"/>
+    <mergeCell ref="AU218:AV218"/>
+    <mergeCell ref="AU187:AV187"/>
+    <mergeCell ref="AU183:AV183"/>
+    <mergeCell ref="AU186:AV186"/>
+    <mergeCell ref="AU185:AV185"/>
+    <mergeCell ref="AU184:AV184"/>
+    <mergeCell ref="AU192:AV192"/>
+    <mergeCell ref="AU194:AV194"/>
+    <mergeCell ref="AU233:AV233"/>
+    <mergeCell ref="AU206:AV206"/>
+    <mergeCell ref="AU240:AV240"/>
+    <mergeCell ref="AU211:AV211"/>
+    <mergeCell ref="AU231:AV231"/>
+    <mergeCell ref="AU219:AV219"/>
+    <mergeCell ref="AU224:AV224"/>
+    <mergeCell ref="AU226:AV226"/>
+    <mergeCell ref="AU228:AV228"/>
+    <mergeCell ref="AU230:AV230"/>
+    <mergeCell ref="AU149:AV149"/>
+    <mergeCell ref="AU126:AV126"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU125:AV125"/>
+    <mergeCell ref="AU128:AV128"/>
+    <mergeCell ref="AU178:AV178"/>
+    <mergeCell ref="AU179:AV179"/>
+    <mergeCell ref="AU180:AV180"/>
+    <mergeCell ref="AU175:AV175"/>
+    <mergeCell ref="AU173:AV173"/>
+    <mergeCell ref="AU141:AV141"/>
+    <mergeCell ref="AU146:AV146"/>
+    <mergeCell ref="AU143:AV143"/>
+    <mergeCell ref="AU142:AV142"/>
+    <mergeCell ref="AU157:AV157"/>
+    <mergeCell ref="AU154:AV154"/>
+    <mergeCell ref="AU150:AV150"/>
+    <mergeCell ref="AU151:AV151"/>
+    <mergeCell ref="AU153:AV153"/>
+    <mergeCell ref="AU155:AV155"/>
+    <mergeCell ref="AU156:AV156"/>
+    <mergeCell ref="AU152:AV152"/>
+    <mergeCell ref="AU158:AV158"/>
+    <mergeCell ref="AU108:AV108"/>
+    <mergeCell ref="AU109:AV109"/>
+    <mergeCell ref="AU110:AV110"/>
+    <mergeCell ref="AU114:AV114"/>
+    <mergeCell ref="AU105:AV105"/>
+    <mergeCell ref="AU147:AV147"/>
+    <mergeCell ref="AU140:AV140"/>
+    <mergeCell ref="AU145:AV145"/>
+    <mergeCell ref="AU107:AV107"/>
+    <mergeCell ref="AU130:AV130"/>
+    <mergeCell ref="AU131:AV131"/>
+    <mergeCell ref="AU134:AV134"/>
+    <mergeCell ref="AU132:AV132"/>
+    <mergeCell ref="AU138:AV138"/>
+    <mergeCell ref="AU135:AV135"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU137:AV137"/>
+    <mergeCell ref="AU136:AV136"/>
+    <mergeCell ref="AU112:AV112"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU113:AV113"/>
+    <mergeCell ref="AU127:AV127"/>
+    <mergeCell ref="AU133:AV133"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU115:AV115"/>
+    <mergeCell ref="AU161:AV161"/>
+    <mergeCell ref="AU167:AV167"/>
+    <mergeCell ref="AU162:AV162"/>
+    <mergeCell ref="AU159:AV159"/>
+    <mergeCell ref="AU190:AV190"/>
+    <mergeCell ref="AU191:AV191"/>
+    <mergeCell ref="AU205:AV205"/>
+    <mergeCell ref="AU201:AV201"/>
+    <mergeCell ref="AU193:AV193"/>
+    <mergeCell ref="AU200:AV200"/>
+    <mergeCell ref="AU199:AV199"/>
+    <mergeCell ref="AU188:AV188"/>
+    <mergeCell ref="AU198:AV198"/>
+    <mergeCell ref="AU204:AV204"/>
+    <mergeCell ref="AU160:AV160"/>
+    <mergeCell ref="AU181:AV181"/>
+    <mergeCell ref="AU174:AV174"/>
+    <mergeCell ref="AU163:AV163"/>
+    <mergeCell ref="AU169:AV169"/>
+    <mergeCell ref="AU171:AV171"/>
+    <mergeCell ref="AU168:AV168"/>
+    <mergeCell ref="AU177:AV177"/>
+    <mergeCell ref="AU166:AV166"/>
+    <mergeCell ref="AU172:AV172"/>
+    <mergeCell ref="AU235:AV235"/>
+    <mergeCell ref="AU223:AV223"/>
+    <mergeCell ref="AU238:AV238"/>
+    <mergeCell ref="AU234:AV234"/>
+    <mergeCell ref="AZ93:BA93"/>
+    <mergeCell ref="AZ115:BA115"/>
+    <mergeCell ref="AZ120:BA120"/>
+    <mergeCell ref="AZ126:BA126"/>
+    <mergeCell ref="AZ110:BA110"/>
+    <mergeCell ref="AU225:AV225"/>
+    <mergeCell ref="AU216:AV216"/>
+    <mergeCell ref="AU129:AV129"/>
+    <mergeCell ref="AU182:AV182"/>
+    <mergeCell ref="AU139:AV139"/>
+    <mergeCell ref="AU144:AV144"/>
+    <mergeCell ref="AU148:AV148"/>
+    <mergeCell ref="AU118:AV118"/>
+    <mergeCell ref="AU117:AV117"/>
+    <mergeCell ref="AU195:AV195"/>
+    <mergeCell ref="AU196:AV196"/>
+    <mergeCell ref="AU197:AV197"/>
+    <mergeCell ref="AU189:AV189"/>
+    <mergeCell ref="AZ192:BA192"/>
+    <mergeCell ref="AU208:AV208"/>
+    <mergeCell ref="AU202:AV202"/>
+    <mergeCell ref="AU203:AV203"/>
+    <mergeCell ref="AU207:AV207"/>
+    <mergeCell ref="AZ73:BA73"/>
+    <mergeCell ref="AZ75:BA75"/>
+    <mergeCell ref="AZ80:BA80"/>
+    <mergeCell ref="AZ77:BA77"/>
+    <mergeCell ref="AZ78:BA78"/>
+    <mergeCell ref="AZ81:BA81"/>
+    <mergeCell ref="AZ79:BA79"/>
+    <mergeCell ref="AZ91:BA91"/>
+    <mergeCell ref="AZ74:BA74"/>
+    <mergeCell ref="AZ83:BA83"/>
+    <mergeCell ref="AZ82:BA82"/>
+    <mergeCell ref="AZ88:BA88"/>
+    <mergeCell ref="AZ89:BA89"/>
+    <mergeCell ref="AZ84:BA84"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="AZ86:BA86"/>
+    <mergeCell ref="AZ87:BA87"/>
+    <mergeCell ref="AZ177:BA177"/>
+    <mergeCell ref="AZ175:BA175"/>
+    <mergeCell ref="AZ186:BA186"/>
+    <mergeCell ref="AZ184:BA184"/>
+    <mergeCell ref="AZ60:BA60"/>
+    <mergeCell ref="AZ61:BA61"/>
+    <mergeCell ref="AZ62:BA62"/>
+    <mergeCell ref="AZ70:BA70"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="AZ50:BA50"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="AZ58:BA58"/>
+    <mergeCell ref="AZ66:BA66"/>
+    <mergeCell ref="AZ47:BA47"/>
+    <mergeCell ref="AZ56:BA56"/>
+    <mergeCell ref="AZ55:BA55"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="AZ65:BA65"/>
+    <mergeCell ref="AZ63:BA63"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="AZ188:BA188"/>
+    <mergeCell ref="AZ185:BA185"/>
+    <mergeCell ref="AZ197:BA197"/>
+    <mergeCell ref="AZ158:BA158"/>
+    <mergeCell ref="AZ160:BA160"/>
+    <mergeCell ref="AZ194:BA194"/>
+    <mergeCell ref="AZ195:BA195"/>
+    <mergeCell ref="AZ196:BA196"/>
+    <mergeCell ref="AZ171:BA171"/>
+    <mergeCell ref="AZ191:BA191"/>
+    <mergeCell ref="AZ193:BA193"/>
+    <mergeCell ref="AZ182:BA182"/>
+    <mergeCell ref="AZ161:BA161"/>
+    <mergeCell ref="AZ167:BA167"/>
+    <mergeCell ref="AZ169:BA169"/>
+    <mergeCell ref="AZ174:BA174"/>
+    <mergeCell ref="AZ163:BA163"/>
+    <mergeCell ref="AZ164:BA164"/>
+    <mergeCell ref="AZ189:BA189"/>
+    <mergeCell ref="AZ183:BA183"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="AZ187:BA187"/>
+    <mergeCell ref="AZ64:BA64"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="AZ76:BA76"/>
+    <mergeCell ref="AZ68:BA68"/>
+    <mergeCell ref="AZ67:BA67"/>
+    <mergeCell ref="AZ72:BA72"/>
+    <mergeCell ref="AZ170:BA170"/>
+    <mergeCell ref="AZ178:BA178"/>
+    <mergeCell ref="AZ180:BA180"/>
+    <mergeCell ref="AZ165:BA165"/>
+    <mergeCell ref="AZ150:BA150"/>
+    <mergeCell ref="AZ145:BA145"/>
+    <mergeCell ref="AZ156:BA156"/>
+    <mergeCell ref="AZ71:BA71"/>
+    <mergeCell ref="AZ166:BA166"/>
+    <mergeCell ref="AZ176:BA176"/>
+    <mergeCell ref="AZ179:BA179"/>
+    <mergeCell ref="AZ173:BA173"/>
+    <mergeCell ref="AZ168:BA168"/>
+    <mergeCell ref="AZ172:BA172"/>
+    <mergeCell ref="AZ111:BA111"/>
+    <mergeCell ref="AZ112:BA112"/>
+    <mergeCell ref="AZ136:BA136"/>
+    <mergeCell ref="AZ137:BA137"/>
+    <mergeCell ref="AZ198:BA198"/>
+    <mergeCell ref="AZ90:BA90"/>
+    <mergeCell ref="AZ97:BA97"/>
+    <mergeCell ref="AZ162:BA162"/>
+    <mergeCell ref="AZ142:BA142"/>
+    <mergeCell ref="AZ143:BA143"/>
+    <mergeCell ref="AZ138:BA138"/>
+    <mergeCell ref="AZ159:BA159"/>
+    <mergeCell ref="AZ151:BA151"/>
+    <mergeCell ref="AZ140:BA140"/>
+    <mergeCell ref="AZ190:BA190"/>
+    <mergeCell ref="AZ135:BA135"/>
+    <mergeCell ref="AZ149:BA149"/>
+    <mergeCell ref="AZ154:BA154"/>
+    <mergeCell ref="AZ157:BA157"/>
+    <mergeCell ref="AZ139:BA139"/>
+    <mergeCell ref="AZ141:BA141"/>
+    <mergeCell ref="AZ119:BA119"/>
+    <mergeCell ref="AZ123:BA123"/>
+    <mergeCell ref="AZ98:BA98"/>
+    <mergeCell ref="AZ121:BA121"/>
+    <mergeCell ref="AZ106:BA106"/>
+    <mergeCell ref="AZ114:BA114"/>
+    <mergeCell ref="AZ181:BA181"/>
+    <mergeCell ref="AZ134:BA134"/>
+    <mergeCell ref="AZ122:BA122"/>
+    <mergeCell ref="AZ129:BA129"/>
+    <mergeCell ref="AZ155:BA155"/>
+    <mergeCell ref="AZ153:BA153"/>
+    <mergeCell ref="AZ144:BA144"/>
+    <mergeCell ref="AZ147:BA147"/>
+    <mergeCell ref="AZ148:BA148"/>
+    <mergeCell ref="AZ152:BA152"/>
+    <mergeCell ref="AZ146:BA146"/>
+    <mergeCell ref="AZ133:BA133"/>
+    <mergeCell ref="AZ124:BA124"/>
+    <mergeCell ref="AZ127:BA127"/>
+    <mergeCell ref="AZ128:BA128"/>
+    <mergeCell ref="AZ132:BA132"/>
+    <mergeCell ref="AZ130:BA130"/>
+    <mergeCell ref="AZ104:BA104"/>
+    <mergeCell ref="AZ95:BA95"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="AZ131:BA131"/>
+    <mergeCell ref="AZ125:BA125"/>
+    <mergeCell ref="AZ108:BA108"/>
+    <mergeCell ref="AZ107:BA107"/>
+    <mergeCell ref="AZ101:BA101"/>
+    <mergeCell ref="AZ109:BA109"/>
+    <mergeCell ref="AZ118:BA118"/>
+    <mergeCell ref="AZ105:BA105"/>
+    <mergeCell ref="AZ100:BA100"/>
+    <mergeCell ref="AZ96:BA96"/>
+    <mergeCell ref="AZ99:BA99"/>
+    <mergeCell ref="AZ103:BA103"/>
+    <mergeCell ref="AZ113:BA113"/>
+    <mergeCell ref="AZ116:BA116"/>
+    <mergeCell ref="AZ117:BA117"/>
     <mergeCell ref="AZ92:BA92"/>
     <mergeCell ref="AZ94:BA94"/>
     <mergeCell ref="BF34:BG34"/>
@@ -23554,416 +23956,16 @@
     <mergeCell ref="AZ48:BA48"/>
     <mergeCell ref="AZ52:BA52"/>
     <mergeCell ref="AZ42:BA42"/>
-    <mergeCell ref="AZ104:BA104"/>
-    <mergeCell ref="AZ95:BA95"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="AZ131:BA131"/>
-    <mergeCell ref="AZ125:BA125"/>
-    <mergeCell ref="AZ108:BA108"/>
-    <mergeCell ref="AZ107:BA107"/>
-    <mergeCell ref="AZ101:BA101"/>
-    <mergeCell ref="AZ109:BA109"/>
-    <mergeCell ref="AZ118:BA118"/>
-    <mergeCell ref="AZ105:BA105"/>
-    <mergeCell ref="AZ100:BA100"/>
-    <mergeCell ref="AZ96:BA96"/>
-    <mergeCell ref="AZ99:BA99"/>
-    <mergeCell ref="AZ103:BA103"/>
-    <mergeCell ref="AZ113:BA113"/>
-    <mergeCell ref="AZ116:BA116"/>
-    <mergeCell ref="AZ117:BA117"/>
-    <mergeCell ref="AZ134:BA134"/>
-    <mergeCell ref="AZ122:BA122"/>
-    <mergeCell ref="AZ129:BA129"/>
-    <mergeCell ref="AZ155:BA155"/>
-    <mergeCell ref="AZ153:BA153"/>
-    <mergeCell ref="AZ144:BA144"/>
-    <mergeCell ref="AZ147:BA147"/>
-    <mergeCell ref="AZ148:BA148"/>
-    <mergeCell ref="AZ152:BA152"/>
-    <mergeCell ref="AZ146:BA146"/>
-    <mergeCell ref="AZ133:BA133"/>
-    <mergeCell ref="AZ124:BA124"/>
-    <mergeCell ref="AZ127:BA127"/>
-    <mergeCell ref="AZ128:BA128"/>
-    <mergeCell ref="AZ132:BA132"/>
-    <mergeCell ref="AZ130:BA130"/>
-    <mergeCell ref="AZ198:BA198"/>
-    <mergeCell ref="AZ90:BA90"/>
-    <mergeCell ref="AZ97:BA97"/>
-    <mergeCell ref="AZ162:BA162"/>
-    <mergeCell ref="AZ142:BA142"/>
-    <mergeCell ref="AZ143:BA143"/>
-    <mergeCell ref="AZ138:BA138"/>
-    <mergeCell ref="AZ159:BA159"/>
-    <mergeCell ref="AZ151:BA151"/>
-    <mergeCell ref="AZ140:BA140"/>
-    <mergeCell ref="AZ190:BA190"/>
-    <mergeCell ref="AZ135:BA135"/>
-    <mergeCell ref="AZ149:BA149"/>
-    <mergeCell ref="AZ154:BA154"/>
-    <mergeCell ref="AZ157:BA157"/>
-    <mergeCell ref="AZ139:BA139"/>
-    <mergeCell ref="AZ141:BA141"/>
-    <mergeCell ref="AZ119:BA119"/>
-    <mergeCell ref="AZ123:BA123"/>
-    <mergeCell ref="AZ98:BA98"/>
-    <mergeCell ref="AZ121:BA121"/>
-    <mergeCell ref="AZ106:BA106"/>
-    <mergeCell ref="AZ114:BA114"/>
-    <mergeCell ref="AZ181:BA181"/>
-    <mergeCell ref="AZ64:BA64"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="AZ76:BA76"/>
-    <mergeCell ref="AZ68:BA68"/>
-    <mergeCell ref="AZ67:BA67"/>
-    <mergeCell ref="AZ72:BA72"/>
-    <mergeCell ref="AZ170:BA170"/>
-    <mergeCell ref="AZ178:BA178"/>
-    <mergeCell ref="AZ180:BA180"/>
-    <mergeCell ref="AZ165:BA165"/>
-    <mergeCell ref="AZ150:BA150"/>
-    <mergeCell ref="AZ145:BA145"/>
-    <mergeCell ref="AZ156:BA156"/>
-    <mergeCell ref="AZ71:BA71"/>
-    <mergeCell ref="AZ166:BA166"/>
-    <mergeCell ref="AZ176:BA176"/>
-    <mergeCell ref="AZ179:BA179"/>
-    <mergeCell ref="AZ173:BA173"/>
-    <mergeCell ref="AZ168:BA168"/>
-    <mergeCell ref="AZ172:BA172"/>
-    <mergeCell ref="AZ111:BA111"/>
-    <mergeCell ref="AZ112:BA112"/>
-    <mergeCell ref="AZ136:BA136"/>
-    <mergeCell ref="AZ137:BA137"/>
-    <mergeCell ref="AZ63:BA63"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="AZ188:BA188"/>
-    <mergeCell ref="AZ185:BA185"/>
-    <mergeCell ref="AZ197:BA197"/>
-    <mergeCell ref="AZ158:BA158"/>
-    <mergeCell ref="AZ160:BA160"/>
-    <mergeCell ref="AZ194:BA194"/>
-    <mergeCell ref="AZ195:BA195"/>
-    <mergeCell ref="AZ196:BA196"/>
-    <mergeCell ref="AZ171:BA171"/>
-    <mergeCell ref="AZ191:BA191"/>
-    <mergeCell ref="AZ193:BA193"/>
-    <mergeCell ref="AZ182:BA182"/>
-    <mergeCell ref="AZ161:BA161"/>
-    <mergeCell ref="AZ167:BA167"/>
-    <mergeCell ref="AZ169:BA169"/>
-    <mergeCell ref="AZ174:BA174"/>
-    <mergeCell ref="AZ163:BA163"/>
-    <mergeCell ref="AZ164:BA164"/>
-    <mergeCell ref="AZ189:BA189"/>
-    <mergeCell ref="AZ183:BA183"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="AZ187:BA187"/>
-    <mergeCell ref="AZ186:BA186"/>
-    <mergeCell ref="AZ184:BA184"/>
-    <mergeCell ref="AZ60:BA60"/>
-    <mergeCell ref="AZ61:BA61"/>
-    <mergeCell ref="AZ62:BA62"/>
-    <mergeCell ref="AZ70:BA70"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="AZ39:BA39"/>
-    <mergeCell ref="AZ50:BA50"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="AZ58:BA58"/>
-    <mergeCell ref="AZ66:BA66"/>
-    <mergeCell ref="AZ47:BA47"/>
-    <mergeCell ref="AZ56:BA56"/>
-    <mergeCell ref="AZ55:BA55"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="AZ65:BA65"/>
-    <mergeCell ref="AZ192:BA192"/>
-    <mergeCell ref="AU208:AV208"/>
-    <mergeCell ref="AU202:AV202"/>
-    <mergeCell ref="AU203:AV203"/>
-    <mergeCell ref="AU207:AV207"/>
-    <mergeCell ref="AZ73:BA73"/>
-    <mergeCell ref="AZ75:BA75"/>
-    <mergeCell ref="AZ80:BA80"/>
-    <mergeCell ref="AZ77:BA77"/>
-    <mergeCell ref="AZ78:BA78"/>
-    <mergeCell ref="AZ81:BA81"/>
-    <mergeCell ref="AZ79:BA79"/>
-    <mergeCell ref="AZ91:BA91"/>
-    <mergeCell ref="AZ74:BA74"/>
-    <mergeCell ref="AZ83:BA83"/>
-    <mergeCell ref="AZ82:BA82"/>
-    <mergeCell ref="AZ88:BA88"/>
-    <mergeCell ref="AZ89:BA89"/>
-    <mergeCell ref="AZ84:BA84"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="AZ86:BA86"/>
-    <mergeCell ref="AZ87:BA87"/>
-    <mergeCell ref="AZ177:BA177"/>
-    <mergeCell ref="AZ175:BA175"/>
-    <mergeCell ref="AU166:AV166"/>
-    <mergeCell ref="AU172:AV172"/>
-    <mergeCell ref="AU235:AV235"/>
-    <mergeCell ref="AU223:AV223"/>
-    <mergeCell ref="AU238:AV238"/>
-    <mergeCell ref="AU234:AV234"/>
-    <mergeCell ref="AZ93:BA93"/>
-    <mergeCell ref="AZ115:BA115"/>
-    <mergeCell ref="AZ120:BA120"/>
-    <mergeCell ref="AZ126:BA126"/>
-    <mergeCell ref="AZ110:BA110"/>
-    <mergeCell ref="AU225:AV225"/>
-    <mergeCell ref="AU216:AV216"/>
-    <mergeCell ref="AU129:AV129"/>
-    <mergeCell ref="AU182:AV182"/>
-    <mergeCell ref="AU139:AV139"/>
-    <mergeCell ref="AU144:AV144"/>
-    <mergeCell ref="AU148:AV148"/>
-    <mergeCell ref="AU118:AV118"/>
-    <mergeCell ref="AU117:AV117"/>
-    <mergeCell ref="AU195:AV195"/>
-    <mergeCell ref="AU196:AV196"/>
-    <mergeCell ref="AU197:AV197"/>
-    <mergeCell ref="AU189:AV189"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU115:AV115"/>
-    <mergeCell ref="AU161:AV161"/>
-    <mergeCell ref="AU167:AV167"/>
-    <mergeCell ref="AU162:AV162"/>
-    <mergeCell ref="AU159:AV159"/>
-    <mergeCell ref="AU190:AV190"/>
-    <mergeCell ref="AU191:AV191"/>
-    <mergeCell ref="AU205:AV205"/>
-    <mergeCell ref="AU201:AV201"/>
-    <mergeCell ref="AU193:AV193"/>
-    <mergeCell ref="AU200:AV200"/>
-    <mergeCell ref="AU199:AV199"/>
-    <mergeCell ref="AU188:AV188"/>
-    <mergeCell ref="AU198:AV198"/>
-    <mergeCell ref="AU204:AV204"/>
-    <mergeCell ref="AU160:AV160"/>
-    <mergeCell ref="AU181:AV181"/>
-    <mergeCell ref="AU174:AV174"/>
-    <mergeCell ref="AU163:AV163"/>
-    <mergeCell ref="AU169:AV169"/>
-    <mergeCell ref="AU171:AV171"/>
-    <mergeCell ref="AU168:AV168"/>
-    <mergeCell ref="AU177:AV177"/>
-    <mergeCell ref="AU108:AV108"/>
-    <mergeCell ref="AU109:AV109"/>
-    <mergeCell ref="AU110:AV110"/>
-    <mergeCell ref="AU114:AV114"/>
-    <mergeCell ref="AU105:AV105"/>
-    <mergeCell ref="AU147:AV147"/>
-    <mergeCell ref="AU140:AV140"/>
-    <mergeCell ref="AU145:AV145"/>
-    <mergeCell ref="AU107:AV107"/>
-    <mergeCell ref="AU130:AV130"/>
-    <mergeCell ref="AU131:AV131"/>
-    <mergeCell ref="AU134:AV134"/>
-    <mergeCell ref="AU132:AV132"/>
-    <mergeCell ref="AU138:AV138"/>
-    <mergeCell ref="AU135:AV135"/>
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU137:AV137"/>
-    <mergeCell ref="AU136:AV136"/>
-    <mergeCell ref="AU112:AV112"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU113:AV113"/>
-    <mergeCell ref="AU127:AV127"/>
-    <mergeCell ref="AU133:AV133"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU149:AV149"/>
-    <mergeCell ref="AU126:AV126"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU125:AV125"/>
-    <mergeCell ref="AU128:AV128"/>
-    <mergeCell ref="AU178:AV178"/>
-    <mergeCell ref="AU179:AV179"/>
-    <mergeCell ref="AU180:AV180"/>
-    <mergeCell ref="AU175:AV175"/>
-    <mergeCell ref="AU173:AV173"/>
-    <mergeCell ref="AU141:AV141"/>
-    <mergeCell ref="AU146:AV146"/>
-    <mergeCell ref="AU143:AV143"/>
-    <mergeCell ref="AU142:AV142"/>
-    <mergeCell ref="AU157:AV157"/>
-    <mergeCell ref="AU154:AV154"/>
-    <mergeCell ref="AU150:AV150"/>
-    <mergeCell ref="AU151:AV151"/>
-    <mergeCell ref="AU153:AV153"/>
-    <mergeCell ref="AU155:AV155"/>
-    <mergeCell ref="AU156:AV156"/>
-    <mergeCell ref="AU152:AV152"/>
-    <mergeCell ref="AU158:AV158"/>
-    <mergeCell ref="AU247:AV247"/>
-    <mergeCell ref="AU246:AV246"/>
-    <mergeCell ref="AU220:AV220"/>
-    <mergeCell ref="AU209:AV209"/>
-    <mergeCell ref="AU222:AV222"/>
-    <mergeCell ref="AU210:AV210"/>
-    <mergeCell ref="AU218:AV218"/>
-    <mergeCell ref="AU187:AV187"/>
-    <mergeCell ref="AU183:AV183"/>
-    <mergeCell ref="AU186:AV186"/>
-    <mergeCell ref="AU185:AV185"/>
-    <mergeCell ref="AU184:AV184"/>
-    <mergeCell ref="AU192:AV192"/>
-    <mergeCell ref="AU194:AV194"/>
-    <mergeCell ref="AU233:AV233"/>
-    <mergeCell ref="AU206:AV206"/>
-    <mergeCell ref="AU240:AV240"/>
-    <mergeCell ref="AU211:AV211"/>
-    <mergeCell ref="AU231:AV231"/>
-    <mergeCell ref="AU219:AV219"/>
-    <mergeCell ref="AU224:AV224"/>
-    <mergeCell ref="AU226:AV226"/>
-    <mergeCell ref="AU228:AV228"/>
-    <mergeCell ref="AU230:AV230"/>
-    <mergeCell ref="AU164:AV164"/>
-    <mergeCell ref="AU165:AV165"/>
-    <mergeCell ref="AU170:AV170"/>
-    <mergeCell ref="AU176:AV176"/>
-    <mergeCell ref="AU40:AV40"/>
-    <mergeCell ref="AU42:AV42"/>
-    <mergeCell ref="AU57:AV57"/>
-    <mergeCell ref="AU63:AV63"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="AU50:AV50"/>
-    <mergeCell ref="AU51:AV51"/>
-    <mergeCell ref="AU52:AV52"/>
-    <mergeCell ref="AU55:AV55"/>
-    <mergeCell ref="AU66:AV66"/>
-    <mergeCell ref="AU69:AV69"/>
-    <mergeCell ref="AU54:AV54"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="AU56:AV56"/>
-    <mergeCell ref="AU48:AV48"/>
-    <mergeCell ref="AU53:AV53"/>
-    <mergeCell ref="AU47:AV47"/>
-    <mergeCell ref="AU116:AV116"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU254:AV254"/>
-    <mergeCell ref="AU217:AV217"/>
-    <mergeCell ref="AU215:AV215"/>
-    <mergeCell ref="AU214:AV214"/>
-    <mergeCell ref="AU251:AV251"/>
-    <mergeCell ref="AU249:AV249"/>
-    <mergeCell ref="AU212:AV212"/>
-    <mergeCell ref="AU232:AV232"/>
-    <mergeCell ref="AU237:AV237"/>
-    <mergeCell ref="AU239:AV239"/>
-    <mergeCell ref="AU242:AV242"/>
-    <mergeCell ref="AU213:AV213"/>
-    <mergeCell ref="AU236:AV236"/>
-    <mergeCell ref="AU221:AV221"/>
-    <mergeCell ref="AU229:AV229"/>
-    <mergeCell ref="AU227:AV227"/>
-    <mergeCell ref="AU253:AV253"/>
-    <mergeCell ref="AU250:AV250"/>
-    <mergeCell ref="AU245:AV245"/>
-    <mergeCell ref="AU252:AV252"/>
-    <mergeCell ref="AU244:AV244"/>
-    <mergeCell ref="AU243:AV243"/>
-    <mergeCell ref="AU248:AV248"/>
-    <mergeCell ref="AU241:AV241"/>
-    <mergeCell ref="AU85:AV85"/>
-    <mergeCell ref="AU87:AV87"/>
-    <mergeCell ref="AU84:AV84"/>
-    <mergeCell ref="AU86:AV86"/>
-    <mergeCell ref="AU89:AV89"/>
-    <mergeCell ref="AU93:AV93"/>
-    <mergeCell ref="AU97:AV97"/>
-    <mergeCell ref="AU106:AV106"/>
-    <mergeCell ref="AU94:AV94"/>
-    <mergeCell ref="AU95:AV95"/>
-    <mergeCell ref="AU88:AV88"/>
-    <mergeCell ref="AU90:AV90"/>
-    <mergeCell ref="AU96:AV96"/>
-    <mergeCell ref="AU91:AV91"/>
-    <mergeCell ref="AU92:AV92"/>
-    <mergeCell ref="AU102:AV102"/>
-    <mergeCell ref="AU98:AV98"/>
-    <mergeCell ref="AU101:AV101"/>
-    <mergeCell ref="AU100:AV100"/>
-    <mergeCell ref="AU99:AV99"/>
-    <mergeCell ref="AU103:AV103"/>
-    <mergeCell ref="AU104:AV104"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU73:AV73"/>
-    <mergeCell ref="AU74:AV74"/>
-    <mergeCell ref="AU82:AV82"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="AU81:AV81"/>
-    <mergeCell ref="AU83:AV83"/>
-    <mergeCell ref="AU60:AV60"/>
-    <mergeCell ref="AU64:AV64"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU61:AV61"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AU70:AV70"/>
-    <mergeCell ref="AU68:AV68"/>
-    <mergeCell ref="AU62:AV62"/>
-    <mergeCell ref="AU65:AV65"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU26:AV26"/>
-    <mergeCell ref="AU37:AV37"/>
-    <mergeCell ref="AU39:AV39"/>
-    <mergeCell ref="AU41:AV41"/>
-    <mergeCell ref="AU43:AV43"/>
-    <mergeCell ref="AU35:AV35"/>
-    <mergeCell ref="AU49:AV49"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="AU44:AV44"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="AU45:AV45"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="AU25:AV25"/>
-    <mergeCell ref="AU34:AV34"/>
-    <mergeCell ref="AU27:AV27"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:E8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H20:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="BF28:BG28"/>
+    <mergeCell ref="BF29:BG29"/>
+    <mergeCell ref="BF30:BG30"/>
+    <mergeCell ref="BF31:BG31"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU28:AV28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:C254">
@@ -24009,7 +24011,7 @@
   <dimension ref="A1:AV405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:S6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24062,10 +24064,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
       <c r="F2" s="2"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -24090,10 +24092,10 @@
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
       <c r="F3" s="248"/>
       <c r="G3" s="91" t="s">
         <v>32</v>
@@ -24120,10 +24122,10 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
       <c r="F4" s="249"/>
       <c r="G4" s="50" t="s">
         <v>66</v>
@@ -24150,10 +24152,10 @@
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
       <c r="F5" s="249"/>
       <c r="G5" s="50" t="s">
         <v>63</v>
@@ -24180,24 +24182,24 @@
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
       <c r="F6" s="250"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="319"/>
-      <c r="S6" s="320"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="324"/>
+      <c r="S6" s="325"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
@@ -24210,10 +24212,10 @@
     </row>
     <row r="7" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
       <c r="F7" s="251"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -24239,20 +24241,20 @@
     <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="353"/>
-      <c r="F8" s="353"/>
-      <c r="G8" s="354"/>
-      <c r="H8" s="353"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="354"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="371"/>
+      <c r="H8" s="370"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="371"/>
       <c r="K8" s="182"/>
       <c r="M8" s="80"/>
-      <c r="N8" s="351"/>
-      <c r="O8" s="352"/>
-      <c r="P8" s="355"/>
-      <c r="Q8" s="351"/>
-      <c r="R8" s="352"/>
+      <c r="N8" s="368"/>
+      <c r="O8" s="369"/>
+      <c r="P8" s="372"/>
+      <c r="Q8" s="368"/>
+      <c r="R8" s="369"/>
       <c r="S8" s="269"/>
       <c r="T8" s="97"/>
       <c r="U8" s="98"/>
@@ -24266,10 +24268,10 @@
     </row>
     <row r="9" spans="1:28" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95"/>
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="374" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="358"/>
+      <c r="C9" s="375"/>
       <c r="D9" s="137" t="s">
         <v>8</v>
       </c>
@@ -24285,8 +24287,8 @@
       <c r="J9" s="127"/>
       <c r="K9" s="128"/>
       <c r="M9" s="125"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="350"/>
+      <c r="N9" s="366"/>
+      <c r="O9" s="367"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="259"/>
       <c r="S9" s="98"/>
@@ -24302,10 +24304,10 @@
     </row>
     <row r="10" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="368"/>
+      <c r="C10" s="358"/>
       <c r="D10" s="135">
         <f>COUNTIF(C$18:C$156,"&gt;""")</f>
         <v>47</v>
@@ -24341,10 +24343,10 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="305" t="s">
+      <c r="B11" s="285" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="373"/>
+      <c r="C11" s="363"/>
       <c r="D11" s="133">
         <f>COUNTIF(I$18:I$141,"&gt;""")</f>
         <v>33</v>
@@ -24380,30 +24382,30 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="374" t="s">
+      <c r="B12" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="375"/>
+      <c r="C12" s="365"/>
       <c r="D12" s="134">
         <f>COUNTIF(O$18:O$157,"&gt;""")</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E12" s="37">
         <f>SUM(AV:AV)</f>
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F12" s="255"/>
       <c r="G12" s="176">
         <f>IF(D12=0,"",E12/D12)</f>
-        <v>0.83333333333333337</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
       <c r="K12" s="130"/>
       <c r="M12" s="125"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="372"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="362"/>
       <c r="P12" s="179"/>
       <c r="Q12" s="260"/>
       <c r="S12" s="98"/>
@@ -24426,13 +24428,13 @@
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
       <c r="H13" s="126"/>
-      <c r="I13" s="279"/>
-      <c r="J13" s="280"/>
-      <c r="K13" s="280"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="372"/>
+      <c r="I13" s="330"/>
+      <c r="J13" s="331"/>
+      <c r="K13" s="331"/>
+      <c r="L13" s="332"/>
+      <c r="M13" s="332"/>
+      <c r="N13" s="361"/>
+      <c r="O13" s="362"/>
       <c r="P13" s="179"/>
       <c r="Q13" s="260"/>
       <c r="S13" s="98"/>
@@ -24457,13 +24459,13 @@
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
-      <c r="I14" s="282"/>
-      <c r="J14" s="283"/>
-      <c r="K14" s="283"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="284"/>
-      <c r="N14" s="369"/>
-      <c r="O14" s="370"/>
+      <c r="I14" s="333"/>
+      <c r="J14" s="334"/>
+      <c r="K14" s="334"/>
+      <c r="L14" s="335"/>
+      <c r="M14" s="335"/>
+      <c r="N14" s="359"/>
+      <c r="O14" s="360"/>
       <c r="P14" s="179"/>
       <c r="Q14" s="260"/>
       <c r="S14" s="98"/>
@@ -24486,13 +24488,13 @@
       <c r="F15" s="89"/>
       <c r="G15" s="89"/>
       <c r="H15" s="90"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="286"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="369"/>
-      <c r="O15" s="370"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="337"/>
+      <c r="K15" s="337"/>
+      <c r="L15" s="338"/>
+      <c r="M15" s="338"/>
+      <c r="N15" s="359"/>
+      <c r="O15" s="360"/>
       <c r="P15" s="179"/>
       <c r="Q15" s="260"/>
       <c r="S15" s="98"/>
@@ -24508,27 +24510,27 @@
     </row>
     <row r="16" spans="1:28" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="362" t="s">
+      <c r="B16" s="352" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="363"/>
-      <c r="D16" s="363"/>
-      <c r="E16" s="364"/>
+      <c r="C16" s="353"/>
+      <c r="D16" s="353"/>
+      <c r="E16" s="354"/>
       <c r="F16" s="256"/>
-      <c r="G16" s="331"/>
-      <c r="H16" s="365" t="s">
+      <c r="G16" s="309"/>
+      <c r="H16" s="355" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="366"/>
-      <c r="J16" s="366"/>
-      <c r="K16" s="367"/>
+      <c r="I16" s="356"/>
+      <c r="J16" s="356"/>
+      <c r="K16" s="357"/>
       <c r="M16" s="72"/>
-      <c r="N16" s="359" t="s">
+      <c r="N16" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="360"/>
-      <c r="P16" s="360"/>
-      <c r="Q16" s="361"/>
+      <c r="O16" s="350"/>
+      <c r="P16" s="350"/>
+      <c r="Q16" s="351"/>
       <c r="S16" s="268"/>
       <c r="T16" s="103"/>
       <c r="U16" s="98"/>
@@ -24555,7 +24557,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="256"/>
-      <c r="G17" s="331"/>
+      <c r="G17" s="309"/>
       <c r="H17" s="117" t="s">
         <v>14</v>
       </c>
@@ -24629,10 +24631,12 @@
       <c r="N18" s="104">
         <v>1</v>
       </c>
-      <c r="O18" s="201"/>
+      <c r="O18" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P18" s="46" t="str">
         <f>IF(AND(O18&gt;="A",O18&lt;="E"),VLOOKUP(N18,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q18" s="262"/>
       <c r="S18" s="271"/>
@@ -24655,7 +24659,7 @@
       </c>
       <c r="AV18">
         <f>IF(AND(O18&gt;"",O18=P18),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -24689,10 +24693,12 @@
         <f>N18+1</f>
         <v>2</v>
       </c>
-      <c r="O19" s="201"/>
+      <c r="O19" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P19" s="16" t="str">
         <f>IF(AND(O19&gt;="A",O19&lt;="E"),VLOOKUP(N19,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q19" s="263"/>
       <c r="S19" s="72"/>
@@ -24715,7 +24721,7 @@
       </c>
       <c r="AV19">
         <f t="shared" ref="AV19:AV82" si="2">IF(AND(O19&gt;"",O19=P19),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24935,10 +24941,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="O23" s="201"/>
+      <c r="O23" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P23" s="16" t="str">
         <f>IF(AND(O23&gt;="A",O23&lt;="E"),VLOOKUP(N23,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q23" s="263"/>
       <c r="S23" s="72"/>
@@ -24961,7 +24969,7 @@
       </c>
       <c r="AV23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25372,10 +25380,12 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O30" s="201"/>
+      <c r="O30" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P30" s="16" t="str">
         <f>IF(AND(O30&gt;="A",O30&lt;="E"),VLOOKUP(N30,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q30" s="263"/>
       <c r="S30" s="272"/>
@@ -25398,7 +25408,7 @@
       </c>
       <c r="AV30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25983,10 +25993,12 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="O40" s="201"/>
+      <c r="O40" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P40" s="17" t="str">
         <f>IF(AND(O40&gt;="A",O40&lt;="E"),VLOOKUP(N40,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q40" s="263"/>
       <c r="S40" s="72"/>
@@ -26009,7 +26021,7 @@
       </c>
       <c r="AV40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26524,10 +26536,12 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="O49" s="201"/>
+      <c r="O49" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P49" s="17" t="str">
         <f>IF(AND(O49&gt;="A",O49&lt;="E"),VLOOKUP(N49,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q49" s="263"/>
       <c r="S49" s="72"/>
@@ -26550,7 +26564,7 @@
       </c>
       <c r="AV49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26825,10 +26839,12 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="O54" s="201"/>
+      <c r="O54" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P54" s="17" t="str">
         <f>IF(AND(O54&gt;="A",O54&lt;="E"),VLOOKUP(N54,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q54" s="263"/>
       <c r="S54" s="72"/>
@@ -26851,7 +26867,7 @@
       </c>
       <c r="AV54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26914,7 +26930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="53"/>
       <c r="B56" s="108">
         <f t="shared" si="3"/>
@@ -26943,12 +26959,19 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="O56" s="201"/>
+      <c r="O56" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P56" s="17" t="str">
         <f>IF(AND(O56&gt;="A",O56&lt;="E"),VLOOKUP(N56,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q56" s="263"/>
+        <v>A</v>
+      </c>
+      <c r="Q56" s="263" t="s">
+        <v>57</v>
+      </c>
+      <c r="R56" s="276" t="s">
+        <v>111</v>
+      </c>
       <c r="S56" s="72"/>
       <c r="T56" s="63"/>
       <c r="U56" s="48"/>
@@ -27673,10 +27696,12 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="O68" s="201"/>
+      <c r="O68" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P68" s="17" t="str">
         <f>IF(AND(O68&gt;="A",O68&lt;="E"),VLOOKUP(N68,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q68" s="263"/>
       <c r="S68" s="72"/>
@@ -27699,7 +27724,7 @@
       </c>
       <c r="AV68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28396,10 +28421,12 @@
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="O80" s="201"/>
+      <c r="O80" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P80" s="17" t="str">
         <f>IF(AND(O80&gt;="A",O80&lt;="E"),VLOOKUP(N80,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q80" s="263"/>
       <c r="S80" s="72"/>
@@ -28422,7 +28449,7 @@
       </c>
       <c r="AV80">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29174,10 +29201,12 @@
         <f t="shared" si="13"/>
         <v>76</v>
       </c>
-      <c r="O93" s="201"/>
+      <c r="O93" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P93" s="17" t="str">
         <f>IF(AND(O93&gt;="A",O93&lt;="E"),VLOOKUP(N93,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q93" s="263"/>
       <c r="S93" s="72"/>
@@ -29200,7 +29229,7 @@
       </c>
       <c r="AV93">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29600,10 +29629,12 @@
         <f t="shared" si="13"/>
         <v>83</v>
       </c>
-      <c r="O100" s="201"/>
+      <c r="O100" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P100" s="17" t="str">
         <f>IF(AND(O100&gt;="A",O100&lt;="E"),VLOOKUP(N100,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q100" s="263"/>
       <c r="S100" s="72"/>
@@ -29626,7 +29657,7 @@
       </c>
       <c r="AV100">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29718,10 +29749,12 @@
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="O102" s="201"/>
+      <c r="O102" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P102" s="17" t="str">
         <f>IF(AND(O102&gt;="A",O102&lt;="E"),VLOOKUP(N102,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q102" s="263"/>
       <c r="S102" s="72"/>
@@ -29744,7 +29777,7 @@
       </c>
       <c r="AV102">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -30166,10 +30199,12 @@
         <f t="shared" si="13"/>
         <v>92</v>
       </c>
-      <c r="O109" s="201"/>
+      <c r="O109" s="201" t="s">
+        <v>71</v>
+      </c>
       <c r="P109" s="17" t="str">
         <f>IF(AND(O109&gt;="A",O109&lt;="E"),VLOOKUP(N109,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="Q109" s="263"/>
       <c r="S109" s="72"/>
@@ -30192,7 +30227,7 @@
       </c>
       <c r="AV109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -30297,10 +30332,12 @@
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="O111" s="201"/>
+      <c r="O111" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P111" s="17" t="str">
         <f>IF(AND(O111&gt;="A",O111&lt;="E"),VLOOKUP(N111,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q111" s="263"/>
       <c r="S111" s="72"/>
@@ -30323,7 +30360,7 @@
       </c>
       <c r="AV111">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -30756,10 +30793,12 @@
         <f t="shared" si="13"/>
         <v>101</v>
       </c>
-      <c r="O118" s="201"/>
+      <c r="O118" s="201" t="s">
+        <v>72</v>
+      </c>
       <c r="P118" s="17" t="str">
         <f>IF(AND(O118&gt;="A",O118&lt;="E"),VLOOKUP(N118,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="Q118" s="263"/>
       <c r="S118" s="72"/>
@@ -30782,7 +30821,7 @@
       </c>
       <c r="AV118">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -31547,12 +31586,19 @@
         <f t="shared" si="13"/>
         <v>113</v>
       </c>
-      <c r="O130" s="201"/>
+      <c r="O130" s="201" t="s">
+        <v>74</v>
+      </c>
       <c r="P130" s="17" t="str">
         <f>IF(AND(O130&gt;="A",O130&lt;="E"),VLOOKUP(N130,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q130" s="263"/>
+        <v>C</v>
+      </c>
+      <c r="Q130" s="263" t="s">
+        <v>57</v>
+      </c>
+      <c r="R130" t="s">
+        <v>112</v>
+      </c>
       <c r="S130" s="72"/>
       <c r="T130" s="63"/>
       <c r="U130" s="48"/>
@@ -31740,10 +31786,12 @@
         <f t="shared" si="13"/>
         <v>116</v>
       </c>
-      <c r="O133" s="201"/>
+      <c r="O133" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P133" s="17" t="str">
         <f>IF(AND(O133&gt;="A",O133&lt;="E"),VLOOKUP(N133,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q133" s="263"/>
       <c r="S133" s="72"/>
@@ -31766,7 +31814,7 @@
       </c>
       <c r="AV133">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -31996,10 +32044,12 @@
         <f t="shared" si="13"/>
         <v>120</v>
       </c>
-      <c r="O137" s="201"/>
+      <c r="O137" s="201" t="s">
+        <v>73</v>
+      </c>
       <c r="P137" s="17" t="str">
         <f>IF(AND(O137&gt;="A",O137&lt;="E"),VLOOKUP(N137,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="Q137" s="263"/>
       <c r="S137" s="72"/>
@@ -32022,7 +32072,7 @@
       </c>
       <c r="AV137">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:48" ht="90" thickBot="1" x14ac:dyDescent="0.25">
@@ -32190,10 +32240,12 @@
         <f t="shared" si="13"/>
         <v>123</v>
       </c>
-      <c r="O140" s="201"/>
+      <c r="O140" s="201" t="s">
+        <v>70</v>
+      </c>
       <c r="P140" s="17" t="str">
         <f>IF(AND(O140&gt;="A",O140&lt;="E"),VLOOKUP(N140,Answer_Keys!$N:$O,2,FALSE),"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Q140" s="263"/>
       <c r="S140" s="72"/>
@@ -32216,7 +32268,7 @@
       </c>
       <c r="AV140">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -37599,6 +37651,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="G16:G17"/>
@@ -37611,14 +37671,6 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="G6:S6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C18:C156">
